--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prosperine.kambabazi\Desktop\1. RWANDAIR LTD\17. CHART OF ACCOUNT- REVISED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE754C1F-1A32-44C6-A9EE-9365D248DFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="3326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="4414">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -10019,12 +10020,3276 @@
   </si>
   <si>
     <t xml:space="preserve">Chief Commerical's Office </t>
+  </si>
+  <si>
+    <t>J0015</t>
+  </si>
+  <si>
+    <t>JOHNSON KYANGA</t>
+  </si>
+  <si>
+    <t>J0016</t>
+  </si>
+  <si>
+    <t>JUBILEE CENTER</t>
+  </si>
+  <si>
+    <t>J0021</t>
+  </si>
+  <si>
+    <t>JULES SENTORE ICYOYITUNGIY</t>
+  </si>
+  <si>
+    <t>J0022</t>
+  </si>
+  <si>
+    <t>JUBILEE INSURANCE BUJUMBUR</t>
+  </si>
+  <si>
+    <t>J0023</t>
+  </si>
+  <si>
+    <t>JW MARRIOTT MUMBAI</t>
+  </si>
+  <si>
+    <t>J0024</t>
+  </si>
+  <si>
+    <t>JETEX FUEL</t>
+  </si>
+  <si>
+    <t>J0027/ BARTER</t>
+  </si>
+  <si>
+    <t>JUBA MONITOR</t>
+  </si>
+  <si>
+    <t>J0028</t>
+  </si>
+  <si>
+    <t>JAMBOJET LIMITED</t>
+  </si>
+  <si>
+    <t>J0029</t>
+  </si>
+  <si>
+    <t>JAIPUR TRAVEL</t>
+  </si>
+  <si>
+    <t>K0009</t>
+  </si>
+  <si>
+    <t>KARIBUNI LOUNGE SERVICES</t>
+  </si>
+  <si>
+    <t>K0012</t>
+  </si>
+  <si>
+    <t>KAMPALA CAPITAL CITY AUTHO</t>
+  </si>
+  <si>
+    <t>K0014</t>
+  </si>
+  <si>
+    <t>KENYA AIRPORTS AUTHORITY</t>
+  </si>
+  <si>
+    <t>K0015</t>
+  </si>
+  <si>
+    <t>KENYA AIRWAYS</t>
+  </si>
+  <si>
+    <t>K0024</t>
+  </si>
+  <si>
+    <t>KENYA REVENUE AUTHORITY</t>
+  </si>
+  <si>
+    <t>K0028</t>
+  </si>
+  <si>
+    <t>KIBO PALACE HOTEL</t>
+  </si>
+  <si>
+    <t>K0034</t>
+  </si>
+  <si>
+    <t>KUWAIT AIRWAYS</t>
+  </si>
+  <si>
+    <t>K0036</t>
+  </si>
+  <si>
+    <t>KILIMANJARO AIRPORTS DEVEL</t>
+  </si>
+  <si>
+    <t>K0037</t>
+  </si>
+  <si>
+    <t>KING FAYSAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>K0038</t>
+  </si>
+  <si>
+    <t>KIPHARMA  S.A.R.L</t>
+  </si>
+  <si>
+    <t>K0039</t>
+  </si>
+  <si>
+    <t>KISS FM</t>
+  </si>
+  <si>
+    <t>K0041</t>
+  </si>
+  <si>
+    <t>KNIGHT FRANK-UGANDA</t>
+  </si>
+  <si>
+    <t>K0044</t>
+  </si>
+  <si>
+    <t>KPMG RWANDA</t>
+  </si>
+  <si>
+    <t>K0045</t>
+  </si>
+  <si>
+    <t>KPMG UGANDA</t>
+  </si>
+  <si>
+    <t>K0047</t>
+  </si>
+  <si>
+    <t>K-SOLUTIONS&amp;PARTNERS</t>
+  </si>
+  <si>
+    <t>K0049</t>
+  </si>
+  <si>
+    <t>KENYON INTERN. EMERGENCY S</t>
+  </si>
+  <si>
+    <t>K0052</t>
+  </si>
+  <si>
+    <t>KAMI EXECUTIVE APARTMENTS</t>
+  </si>
+  <si>
+    <t>K0053</t>
+  </si>
+  <si>
+    <t>KUSH PETROLEUM LTD</t>
+  </si>
+  <si>
+    <t>K0054/BARTER</t>
+  </si>
+  <si>
+    <t>KATENDE,SSEMPEBWA &amp; COMPAN</t>
+  </si>
+  <si>
+    <t>K0057</t>
+  </si>
+  <si>
+    <t>KASHMIR CORPORATION PVT LT</t>
+  </si>
+  <si>
+    <t>K0058</t>
+  </si>
+  <si>
+    <t>KG HARVEST CO LTD</t>
+  </si>
+  <si>
+    <t>K0059</t>
+  </si>
+  <si>
+    <t>KARISIMBI TOURS AFRICA</t>
+  </si>
+  <si>
+    <t>K0060</t>
+  </si>
+  <si>
+    <t>KILIATIVE SOLUTIONS/BARTER</t>
+  </si>
+  <si>
+    <t>K0062</t>
+  </si>
+  <si>
+    <t>KING FAHD PALACE HOTEL (KF</t>
+  </si>
+  <si>
+    <t>K0063</t>
+  </si>
+  <si>
+    <t>KIKWETU AFRICA LIMITED/BAR</t>
+  </si>
+  <si>
+    <t>K0065</t>
+  </si>
+  <si>
+    <t>KWESE TV/BARTER</t>
+  </si>
+  <si>
+    <t>K0066</t>
+  </si>
+  <si>
+    <t>KALE LOGISTICS/MUMBAI</t>
+  </si>
+  <si>
+    <t>K0067</t>
+  </si>
+  <si>
+    <t>KARIMJEE JIVANJEE LTD</t>
+  </si>
+  <si>
+    <t>K0068</t>
+  </si>
+  <si>
+    <t>KENNEDYS</t>
+  </si>
+  <si>
+    <t>K0069</t>
+  </si>
+  <si>
+    <t>KIGALI AIRPORT APARTMENT</t>
+  </si>
+  <si>
+    <t>K0070</t>
+  </si>
+  <si>
+    <t>KOJAC LEGACY INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>K0072</t>
+  </si>
+  <si>
+    <t>KUNZ GmbH</t>
+  </si>
+  <si>
+    <t>K0073</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>K0074</t>
+  </si>
+  <si>
+    <t>KALMIE AVOCATS ASSOCIES</t>
+  </si>
+  <si>
+    <t>K0075</t>
+  </si>
+  <si>
+    <t>KENYA CIVIL AVIATION AUTHO</t>
+  </si>
+  <si>
+    <t>K0076</t>
+  </si>
+  <si>
+    <t>KASNEB</t>
+  </si>
+  <si>
+    <t>K0080</t>
+  </si>
+  <si>
+    <t>KILIFAIR/BARTER</t>
+  </si>
+  <si>
+    <t>K0091</t>
+  </si>
+  <si>
+    <t>KARIBU FAIR TRAVEL &amp; TOURI</t>
+  </si>
+  <si>
+    <t>K0092</t>
+  </si>
+  <si>
+    <t>KICOOM LTD</t>
+  </si>
+  <si>
+    <t>K0093</t>
+  </si>
+  <si>
+    <t>KIGALI FORWARD LTD(KGL FRD</t>
+  </si>
+  <si>
+    <t>K0094</t>
+  </si>
+  <si>
+    <t>KIGALI FORWARD LTD/BARTER</t>
+  </si>
+  <si>
+    <t>KO070</t>
+  </si>
+  <si>
+    <t>KUWAIT PETROLEUM (Q8)</t>
+  </si>
+  <si>
+    <t>L0002</t>
+  </si>
+  <si>
+    <t>LA PALISSE CLUB HOTEL</t>
+  </si>
+  <si>
+    <t>L0006</t>
+  </si>
+  <si>
+    <t>LAITERIE INYANGE DIARY</t>
+  </si>
+  <si>
+    <t>L0009</t>
+  </si>
+  <si>
+    <t>LANTEL TEXTILES</t>
+  </si>
+  <si>
+    <t>L0012</t>
+  </si>
+  <si>
+    <t>LEMIGO HOTEL</t>
+  </si>
+  <si>
+    <t>L0016</t>
+  </si>
+  <si>
+    <t>LES DEPECHES DE BRAZZAVILL</t>
+  </si>
+  <si>
+    <t>L0022</t>
+  </si>
+  <si>
+    <t>LUFTHANSA AVIATION TRAININ</t>
+  </si>
+  <si>
+    <t>L0023</t>
+  </si>
+  <si>
+    <t>LOAD MASTER ALLOWANCES</t>
+  </si>
+  <si>
+    <t>L0029</t>
+  </si>
+  <si>
+    <t>LUFTHANSA TECHNIK</t>
+  </si>
+  <si>
+    <t>L0034</t>
+  </si>
+  <si>
+    <t>LES VIGILES BURUNDAIS</t>
+  </si>
+  <si>
+    <t>L0035</t>
+  </si>
+  <si>
+    <t>L0036</t>
+  </si>
+  <si>
+    <t>LIQUID TELECOM</t>
+  </si>
+  <si>
+    <t>L0037</t>
+  </si>
+  <si>
+    <t>L4G ASSETS MANAGEMENT/CAME</t>
+  </si>
+  <si>
+    <t>L0038</t>
+  </si>
+  <si>
+    <t>LES ECHOS DE L'ECO</t>
+  </si>
+  <si>
+    <t>L0038/BARTER</t>
+  </si>
+  <si>
+    <t>LA TELEVISION NATIONAL CON</t>
+  </si>
+  <si>
+    <t>L0041</t>
+  </si>
+  <si>
+    <t>THE LINK PUBLICATIONS LTD/</t>
+  </si>
+  <si>
+    <t>L0042</t>
+  </si>
+  <si>
+    <t>LF-PRINTING</t>
+  </si>
+  <si>
+    <t>L0043</t>
+  </si>
+  <si>
+    <t>LE FLAMBOYANT</t>
+  </si>
+  <si>
+    <t>L0044</t>
+  </si>
+  <si>
+    <t>LIQUID INTELLIGENT ZIMBABW</t>
+  </si>
+  <si>
+    <t>L0047</t>
+  </si>
+  <si>
+    <t>LUMPSUM ALLOWANCES</t>
+  </si>
+  <si>
+    <t>L0048</t>
+  </si>
+  <si>
+    <t>LIMAK-AIBD-SUMMA(LAS)</t>
+  </si>
+  <si>
+    <t>L0049</t>
+  </si>
+  <si>
+    <t>LEANNA TRADING COMPANY LIM</t>
+  </si>
+  <si>
+    <t>L0050</t>
+  </si>
+  <si>
+    <t>LUGGAGE LOGISTICS</t>
+  </si>
+  <si>
+    <t>L0051</t>
+  </si>
+  <si>
+    <t>L3 COMMERCIAL AVIATION</t>
+  </si>
+  <si>
+    <t>L0051/BARTER</t>
+  </si>
+  <si>
+    <t>LUSAKA HAPPENING</t>
+  </si>
+  <si>
+    <t>L0055</t>
+  </si>
+  <si>
+    <t>LAUFER AVIATION - GHI LTD</t>
+  </si>
+  <si>
+    <t>L0057</t>
+  </si>
+  <si>
+    <t>LEGACY CLINICS</t>
+  </si>
+  <si>
+    <t>L0059</t>
+  </si>
+  <si>
+    <t>LEDGER PLAZA BANGUI</t>
+  </si>
+  <si>
+    <t>L0060</t>
+  </si>
+  <si>
+    <t>LORDSON KWASI ODURO-SAKA</t>
+  </si>
+  <si>
+    <t>L0061</t>
+  </si>
+  <si>
+    <t>LEGAL SOLUTION CHAMBERS</t>
+  </si>
+  <si>
+    <t>L0062</t>
+  </si>
+  <si>
+    <t>LSG Sky chefs Brussels</t>
+  </si>
+  <si>
+    <t>L0063</t>
+  </si>
+  <si>
+    <t>LAKE HEIGHTS HOTEL LIMITED</t>
+  </si>
+  <si>
+    <t>L0064</t>
+  </si>
+  <si>
+    <t>LIMOZ RWANDA</t>
+  </si>
+  <si>
+    <t>L0065</t>
+  </si>
+  <si>
+    <t>LAGOS STATE GOVERNMENT</t>
+  </si>
+  <si>
+    <t>L0066</t>
+  </si>
+  <si>
+    <t>LAMINAAR AVIATION INFOTECH</t>
+  </si>
+  <si>
+    <t>L0067</t>
+  </si>
+  <si>
+    <t>LEGAL SOLUTION CHAMBER/ BA</t>
+  </si>
+  <si>
+    <t>L0067/ BARTER</t>
+  </si>
+  <si>
+    <t>LOYAL ADVOCATES</t>
+  </si>
+  <si>
+    <t>L0068</t>
+  </si>
+  <si>
+    <t>LOAD MASTER PERDIEMS</t>
+  </si>
+  <si>
+    <t>L0069</t>
+  </si>
+  <si>
+    <t>LIQUID HOME ZIMBABWE</t>
+  </si>
+  <si>
+    <t>L0080</t>
+  </si>
+  <si>
+    <t>LE MERIDIEN CITY CENTER DO</t>
+  </si>
+  <si>
+    <t>L0081</t>
+  </si>
+  <si>
+    <t>L'ECONOMIE INTERNATIONAL M</t>
+  </si>
+  <si>
+    <t>L0082</t>
+  </si>
+  <si>
+    <t>LAUGH INDUSTRY LIMITED</t>
+  </si>
+  <si>
+    <t>L081</t>
+  </si>
+  <si>
+    <t>LOYAL ADVOCATES CASH</t>
+  </si>
+  <si>
+    <t>L082</t>
+  </si>
+  <si>
+    <t>LA FALAISE BONAPRISON</t>
+  </si>
+  <si>
+    <t>L083</t>
+  </si>
+  <si>
+    <t>LAUGH INDUSTRY LIMITED/BAT</t>
+  </si>
+  <si>
+    <t>M0004</t>
+  </si>
+  <si>
+    <t>MAGERWA</t>
+  </si>
+  <si>
+    <t>M0005</t>
+  </si>
+  <si>
+    <t>MALAIKA BEACH RESORT LIMIT</t>
+  </si>
+  <si>
+    <t>M0006</t>
+  </si>
+  <si>
+    <t>MALLAGHAN ENGINEERING LTD</t>
+  </si>
+  <si>
+    <t>M0011</t>
+  </si>
+  <si>
+    <t>MANUMETAL</t>
+  </si>
+  <si>
+    <t>M0012</t>
+  </si>
+  <si>
+    <t>MAP CONCEPTS LTD</t>
+  </si>
+  <si>
+    <t>M0013</t>
+  </si>
+  <si>
+    <t>MARSH LIMITED</t>
+  </si>
+  <si>
+    <t>M0017</t>
+  </si>
+  <si>
+    <t>MC ELLY'S HOTEL</t>
+  </si>
+  <si>
+    <t>M0019</t>
+  </si>
+  <si>
+    <t>MEDIA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>M0025</t>
+  </si>
+  <si>
+    <t>METRO EAST FM</t>
+  </si>
+  <si>
+    <t>M0027</t>
+  </si>
+  <si>
+    <t>MFI SOLUTIONS</t>
+  </si>
+  <si>
+    <t>M0030</t>
+  </si>
+  <si>
+    <t>MTN RWANDACELL</t>
+  </si>
+  <si>
+    <t>M0032</t>
+  </si>
+  <si>
+    <t>MICROFINANCE RWANDA</t>
+  </si>
+  <si>
+    <t>M0033</t>
+  </si>
+  <si>
+    <t>MILES TRAVEL</t>
+  </si>
+  <si>
+    <t>M0058</t>
+  </si>
+  <si>
+    <t>MWANZA GROUNDHANDLING CO.L</t>
+  </si>
+  <si>
+    <t>M0059</t>
+  </si>
+  <si>
+    <t>MANCHESTER OUTFITTERS LIMI</t>
+  </si>
+  <si>
+    <t>M0067</t>
+  </si>
+  <si>
+    <t>MEGA LAW CONSULTANCY SERVI</t>
+  </si>
+  <si>
+    <t>M0070</t>
+  </si>
+  <si>
+    <t>MASSAMBA INTORE</t>
+  </si>
+  <si>
+    <t>M0071</t>
+  </si>
+  <si>
+    <t>MEDIACITYADS LTD/ BARTER</t>
+  </si>
+  <si>
+    <t>M0073/BARTER</t>
+  </si>
+  <si>
+    <t>MULTIMEDIA GROUP LTD (MULT</t>
+  </si>
+  <si>
+    <t>M0075</t>
+  </si>
+  <si>
+    <t>MARHABA DNATA</t>
+  </si>
+  <si>
+    <t>M0077</t>
+  </si>
+  <si>
+    <t>MEDIACITYADS LTD / CORPORA</t>
+  </si>
+  <si>
+    <t>M0078</t>
+  </si>
+  <si>
+    <t>MAIL &amp; GUARDIAN MEDIA LTD/</t>
+  </si>
+  <si>
+    <t>M0080</t>
+  </si>
+  <si>
+    <t>MUMBAI INTERNATIONAL AIRPO</t>
+  </si>
+  <si>
+    <t>M0081</t>
+  </si>
+  <si>
+    <t>MUMBAI AIRPORT LOUNGE SERV</t>
+  </si>
+  <si>
+    <t>M0082</t>
+  </si>
+  <si>
+    <t>MILITARY MEDICAL INSURANCE</t>
+  </si>
+  <si>
+    <t>M0085</t>
+  </si>
+  <si>
+    <t>MORPHO DYS/BENIN</t>
+  </si>
+  <si>
+    <t>M0087</t>
+  </si>
+  <si>
+    <t>MINISTERE DES TRANSPORTS E</t>
+  </si>
+  <si>
+    <t>M0088</t>
+  </si>
+  <si>
+    <t>MAICO LTD</t>
+  </si>
+  <si>
+    <t>M0089</t>
+  </si>
+  <si>
+    <t>MUVI TELEVISION/BARTER</t>
+  </si>
+  <si>
+    <t>M0090</t>
+  </si>
+  <si>
+    <t>MASHARIKI AFRICAN FILM FES</t>
+  </si>
+  <si>
+    <t>M0091</t>
+  </si>
+  <si>
+    <t>MEIKLES HOSPITALITY HOTEL</t>
+  </si>
+  <si>
+    <t>M0092</t>
+  </si>
+  <si>
+    <t>MUMBAI CARGO SERVICE CENTE</t>
+  </si>
+  <si>
+    <t>M0095</t>
+  </si>
+  <si>
+    <t>MK CONNECT TRAVEL AGENCY</t>
+  </si>
+  <si>
+    <t>M0096/ BARTER</t>
+  </si>
+  <si>
+    <t>MAP CONCEPTS GHANA</t>
+  </si>
+  <si>
+    <t>M0097/ BARTER</t>
+  </si>
+  <si>
+    <t>MATIN LIBRE</t>
+  </si>
+  <si>
+    <t>M0100</t>
+  </si>
+  <si>
+    <t>MTU MAINTENANCE LEASE SERV</t>
+  </si>
+  <si>
+    <t>M0102/ BARTER</t>
+  </si>
+  <si>
+    <t>MUGISHA BENJAMIN</t>
+  </si>
+  <si>
+    <t>M0106</t>
+  </si>
+  <si>
+    <t>MHIRJ AVIATION GROUP</t>
+  </si>
+  <si>
+    <t>M0107</t>
+  </si>
+  <si>
+    <t>MTU MAINTENANCE HANNOVER</t>
+  </si>
+  <si>
+    <t>M0108</t>
+  </si>
+  <si>
+    <t>MWEB (ADSLDATA)</t>
+  </si>
+  <si>
+    <t>M0109</t>
+  </si>
+  <si>
+    <t>MINISTERE DE L'INTERIEUR C</t>
+  </si>
+  <si>
+    <t>M0110</t>
+  </si>
+  <si>
+    <t>MIDDLE  EAST AEROSUPPLIES</t>
+  </si>
+  <si>
+    <t>M0111</t>
+  </si>
+  <si>
+    <t>MADISON GENERAL</t>
+  </si>
+  <si>
+    <t>M0112</t>
+  </si>
+  <si>
+    <t>MARSH STAFF INSURANCE</t>
+  </si>
+  <si>
+    <t>M0113</t>
+  </si>
+  <si>
+    <t>MERX AVIATION SERVICING LI</t>
+  </si>
+  <si>
+    <t>M0114</t>
+  </si>
+  <si>
+    <t>MODERN CONSTRUCTION &amp; FUNI</t>
+  </si>
+  <si>
+    <t>M0115</t>
+  </si>
+  <si>
+    <t>MAIRIE DE LA VILLE DE LIBR</t>
+  </si>
+  <si>
+    <t>M0116</t>
+  </si>
+  <si>
+    <t>MILLENNIUM CENTRAL DOHA</t>
+  </si>
+  <si>
+    <t>M0117</t>
+  </si>
+  <si>
+    <t>MULAG</t>
+  </si>
+  <si>
+    <t>M0119</t>
+  </si>
+  <si>
+    <t>MULTITO SVS LTD</t>
+  </si>
+  <si>
+    <t>M0119/BARTER</t>
+  </si>
+  <si>
+    <t>MWEBANTU INVESTEMENT LIMIT</t>
+  </si>
+  <si>
+    <t>N0001</t>
+  </si>
+  <si>
+    <t>NAIROBI HOMES</t>
+  </si>
+  <si>
+    <t>N0002</t>
+  </si>
+  <si>
+    <t>NAIROBI CITY COUNCIL</t>
+  </si>
+  <si>
+    <t>N0003</t>
+  </si>
+  <si>
+    <t>NAS AIRPORT SERVICE</t>
+  </si>
+  <si>
+    <t>N0006</t>
+  </si>
+  <si>
+    <t>NAS AVIATION SERVICES RWAN</t>
+  </si>
+  <si>
+    <t>N0007</t>
+  </si>
+  <si>
+    <t>NATION MEDIA GROUP LTD-NAI</t>
+  </si>
+  <si>
+    <t>N0009</t>
+  </si>
+  <si>
+    <t>NATS(SERVICES)LIMITED</t>
+  </si>
+  <si>
+    <t>N0010</t>
+  </si>
+  <si>
+    <t>NAV CANADA</t>
+  </si>
+  <si>
+    <t>N00123</t>
+  </si>
+  <si>
+    <t>NATIONAL HANDLING SERVICES</t>
+  </si>
+  <si>
+    <t>N0014</t>
+  </si>
+  <si>
+    <t>NDUME</t>
+  </si>
+  <si>
+    <t>N0025</t>
+  </si>
+  <si>
+    <t>NIGERIAN AVIATION HANDLING</t>
+  </si>
+  <si>
+    <t>N0026</t>
+  </si>
+  <si>
+    <t>NIGERIAN CIVIL AVIATION AU</t>
+  </si>
+  <si>
+    <t>N0028</t>
+  </si>
+  <si>
+    <t>NEW KIGALI DESIGNERS</t>
+  </si>
+  <si>
+    <t>N0030</t>
+  </si>
+  <si>
+    <t>NEW MWANZA HOTEL</t>
+  </si>
+  <si>
+    <t>N0031</t>
+  </si>
+  <si>
+    <t>NORELGA MACADAMIA RWANDA L</t>
+  </si>
+  <si>
+    <t>N0033</t>
+  </si>
+  <si>
+    <t>NEW VISION UGANDA</t>
+  </si>
+  <si>
+    <t>N0039</t>
+  </si>
+  <si>
+    <t>NIGERIAN AIRSPACE</t>
+  </si>
+  <si>
+    <t>N0048</t>
+  </si>
+  <si>
+    <t>NSINGA FLORA</t>
+  </si>
+  <si>
+    <t>N0052</t>
+  </si>
+  <si>
+    <t>NYARUTARAMA SPORTS CENTER</t>
+  </si>
+  <si>
+    <t>N0053</t>
+  </si>
+  <si>
+    <t>NYUNGWE FOREST LODGE</t>
+  </si>
+  <si>
+    <t>N0058</t>
+  </si>
+  <si>
+    <t>NSSF TANZANIA</t>
+  </si>
+  <si>
+    <t>N0059</t>
+  </si>
+  <si>
+    <t>NSSF KENYA</t>
+  </si>
+  <si>
+    <t>N0060</t>
+  </si>
+  <si>
+    <t>NSSF UGANDA</t>
+  </si>
+  <si>
+    <t>N0064</t>
+  </si>
+  <si>
+    <t>NSSF BURUNDI</t>
+  </si>
+  <si>
+    <t>N0069</t>
+  </si>
+  <si>
+    <t>NEWREST UGANDA INFLIGHT SE</t>
+  </si>
+  <si>
+    <t>N0073</t>
+  </si>
+  <si>
+    <t>NORDISK AVIATION PRODUCTS</t>
+  </si>
+  <si>
+    <t>N0074</t>
+  </si>
+  <si>
+    <t>NAS COLOSSAL AVIATION SERV</t>
+  </si>
+  <si>
+    <t>N0075</t>
+  </si>
+  <si>
+    <t>NICCU CREATIONS LTD</t>
+  </si>
+  <si>
+    <t>N0076</t>
+  </si>
+  <si>
+    <t>NAS AVIATION SERVICES COTE</t>
+  </si>
+  <si>
+    <t>N0077</t>
+  </si>
+  <si>
+    <t>NBS TV /BARTER</t>
+  </si>
+  <si>
+    <t>N0078</t>
+  </si>
+  <si>
+    <t>NSAA  SURETE &amp; ASSISTANCE</t>
+  </si>
+  <si>
+    <t>N0080</t>
+  </si>
+  <si>
+    <t>NNPC/OVH</t>
+  </si>
+  <si>
+    <t>N0080/ BARTER</t>
+  </si>
+  <si>
+    <t>NW LAW ASSOCIATES ADVOCATE</t>
+  </si>
+  <si>
+    <t>N0081</t>
+  </si>
+  <si>
+    <t>No 1 LOUNGES</t>
+  </si>
+  <si>
+    <t>N0082</t>
+  </si>
+  <si>
+    <t>NDD SERVICES</t>
+  </si>
+  <si>
+    <t>N0083</t>
+  </si>
+  <si>
+    <t>NAJM TRAVEL</t>
+  </si>
+  <si>
+    <t>N0100</t>
+  </si>
+  <si>
+    <t>NYALI INTERNATIONL BEACH H</t>
+  </si>
+  <si>
+    <t>N0101</t>
+  </si>
+  <si>
+    <t>NTV  UGANDA</t>
+  </si>
+  <si>
+    <t>N0103</t>
+  </si>
+  <si>
+    <t>NDIKUM LAW FARM/BARTER</t>
+  </si>
+  <si>
+    <t>N0104</t>
+  </si>
+  <si>
+    <t>NICKEL PRESTATION/COTONOU</t>
+  </si>
+  <si>
+    <t>N0106</t>
+  </si>
+  <si>
+    <t>NAPSA ZAMBIA</t>
+  </si>
+  <si>
+    <t>N0108</t>
+  </si>
+  <si>
+    <t>NAS DAR AIRCO COMPANY LTD</t>
+  </si>
+  <si>
+    <t>N0110</t>
+  </si>
+  <si>
+    <t>NATIONAL REVENUE AUTHORITY</t>
+  </si>
+  <si>
+    <t>N0111/ BARTER</t>
+  </si>
+  <si>
+    <t>NGABO MEDARD JOBERT</t>
+  </si>
+  <si>
+    <t>N0112</t>
+  </si>
+  <si>
+    <t>NOBILA AIRPORT HOTEL</t>
+  </si>
+  <si>
+    <t>N0113</t>
+  </si>
+  <si>
+    <t>NASCHITZ BRANDES AMIR &amp; CO</t>
+  </si>
+  <si>
+    <t>N0116</t>
+  </si>
+  <si>
+    <t>N0117</t>
+  </si>
+  <si>
+    <t>NEPAL FLY LIMITED</t>
+  </si>
+  <si>
+    <t>N0119</t>
+  </si>
+  <si>
+    <t>NIYAV TRADING LTD</t>
+  </si>
+  <si>
+    <t>N0121</t>
+  </si>
+  <si>
+    <t>N.H.I.F KENYA</t>
+  </si>
+  <si>
+    <t>N0122</t>
+  </si>
+  <si>
+    <t>NORTON ROSE FULBRIGHT</t>
+  </si>
+  <si>
+    <t>N0122/BARTER</t>
+  </si>
+  <si>
+    <t>NEW AFRICA COMMUNICATION G</t>
+  </si>
+  <si>
+    <t>N0124</t>
+  </si>
+  <si>
+    <t>NIGHT STOP PERDIEMS</t>
+  </si>
+  <si>
+    <t>N0126</t>
+  </si>
+  <si>
+    <t>NET PAY OTHERS/ALLOWANCE/T</t>
+  </si>
+  <si>
+    <t>N0127</t>
+  </si>
+  <si>
+    <t>NATIONAL INSURANCE CORPORA</t>
+  </si>
+  <si>
+    <t>N0129</t>
+  </si>
+  <si>
+    <t>NEXT STUDIO LTD /BARTER</t>
+  </si>
+  <si>
+    <t>N0131</t>
+  </si>
+  <si>
+    <t>NDIRANGU KAMAU ADVOCATES</t>
+  </si>
+  <si>
+    <t>N0133</t>
+  </si>
+  <si>
+    <t>NEW AFRICA HOTEL/FOUR POIT</t>
+  </si>
+  <si>
+    <t>NET PAY OTHERS</t>
+  </si>
+  <si>
+    <t>O0004</t>
+  </si>
+  <si>
+    <t>OFFICE NATIONAL DES TELECO</t>
+  </si>
+  <si>
+    <t>O0015/ BARTER</t>
+  </si>
+  <si>
+    <t>OGUN STATE TELEVISION</t>
+  </si>
+  <si>
+    <t>O0033</t>
+  </si>
+  <si>
+    <t>OBR OFFICE BURUNDAIS DES R</t>
+  </si>
+  <si>
+    <t>O0036</t>
+  </si>
+  <si>
+    <t>ONOMO HOTEL LIBREVILLE</t>
+  </si>
+  <si>
+    <t>O0037</t>
+  </si>
+  <si>
+    <t>OPOKU AGYEYI AND COMPANY</t>
+  </si>
+  <si>
+    <t>O0038</t>
+  </si>
+  <si>
+    <t>OMED VOYAGE/GSA BENIN</t>
+  </si>
+  <si>
+    <t>O0040</t>
+  </si>
+  <si>
+    <t>OILIBYA OLA ENERGY</t>
+  </si>
+  <si>
+    <t>O0042</t>
+  </si>
+  <si>
+    <t>OPHIR TOURS LTD</t>
+  </si>
+  <si>
+    <t>O0043</t>
+  </si>
+  <si>
+    <t>OLINO A/S</t>
+  </si>
+  <si>
+    <t>O0045</t>
+  </si>
+  <si>
+    <t>OLA ENERGY GABON</t>
+  </si>
+  <si>
+    <t>O0047</t>
+  </si>
+  <si>
+    <t>OVERTIME ALLOWANCES FOR PI</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>PATHFINDERS INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>PANASONIC AVIONICS CORPORA</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>PAPETERIE LA MANGROVE</t>
+  </si>
+  <si>
+    <t>P0013</t>
+  </si>
+  <si>
+    <t>P0015</t>
+  </si>
+  <si>
+    <t>PARTNERS HC II</t>
+  </si>
+  <si>
+    <t>P0024</t>
+  </si>
+  <si>
+    <t>PRIME IMPEX RWANDA</t>
+  </si>
+  <si>
+    <t>P0031</t>
+  </si>
+  <si>
+    <t>PUMA ENERGY</t>
+  </si>
+  <si>
+    <t>P0033</t>
+  </si>
+  <si>
+    <t>PRIVATE SECTOR FEDERATION</t>
+  </si>
+  <si>
+    <t>P0037</t>
+  </si>
+  <si>
+    <t>PUBLICOM</t>
+  </si>
+  <si>
+    <t>P0048</t>
+  </si>
+  <si>
+    <t>PEARL ENTERPRISES LTD</t>
+  </si>
+  <si>
+    <t>P0049</t>
+  </si>
+  <si>
+    <t>POSE LTD/ BARTER</t>
+  </si>
+  <si>
+    <t>P0050</t>
+  </si>
+  <si>
+    <t>PRIME CABS SACCO LTD</t>
+  </si>
+  <si>
+    <t>P0051</t>
+  </si>
+  <si>
+    <t>PALMA IBDAR LEASE Q400-05</t>
+  </si>
+  <si>
+    <t>P0052</t>
+  </si>
+  <si>
+    <t>PUMA ENERGY ZAMBIA PLC</t>
+  </si>
+  <si>
+    <t>P0056</t>
+  </si>
+  <si>
+    <t>P0057</t>
+  </si>
+  <si>
+    <t>PRAFRICA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>P0058/BARTER</t>
+  </si>
+  <si>
+    <t>PRAFRICA INTERNATIONAL/BAR</t>
+  </si>
+  <si>
+    <t>P0059</t>
+  </si>
+  <si>
+    <t>PUMA ENERGY BENIN</t>
+  </si>
+  <si>
+    <t>P0060</t>
+  </si>
+  <si>
+    <t>PASSENGER/BAGGAGE CLAIM</t>
+  </si>
+  <si>
+    <t>P0062</t>
+  </si>
+  <si>
+    <t>PREDICTIVE MOBILITY HOLDIN</t>
+  </si>
+  <si>
+    <t>P0063</t>
+  </si>
+  <si>
+    <t>PRAISE TV /BARTER</t>
+  </si>
+  <si>
+    <t>P0064</t>
+  </si>
+  <si>
+    <t>PEFACO HOTEL MAYA MAYA/BRA</t>
+  </si>
+  <si>
+    <t>P0065</t>
+  </si>
+  <si>
+    <t>PARTENA PROFESSIONAL BELGI</t>
+  </si>
+  <si>
+    <t>P0066</t>
+  </si>
+  <si>
+    <t>PRINT PACK</t>
+  </si>
+  <si>
+    <t>P0067</t>
+  </si>
+  <si>
+    <t>PUMA ENERGY BURUNDI</t>
+  </si>
+  <si>
+    <t>P0069</t>
+  </si>
+  <si>
+    <t>PREMIER HOTELS &amp; RESORTS</t>
+  </si>
+  <si>
+    <t>P0070</t>
+  </si>
+  <si>
+    <t>PINON</t>
+  </si>
+  <si>
+    <t>P0072/ BARTER</t>
+  </si>
+  <si>
+    <t>PARTNERS GROUP LTD</t>
+  </si>
+  <si>
+    <t>P0073</t>
+  </si>
+  <si>
+    <t>PRIMUS GLOBAL LIMITED</t>
+  </si>
+  <si>
+    <t>P0074</t>
+  </si>
+  <si>
+    <t>PRATT &amp; WHITNEY CANADA</t>
+  </si>
+  <si>
+    <t>P0075</t>
+  </si>
+  <si>
+    <t>PULLMAN GUANGZHOU BAIYUN A</t>
+  </si>
+  <si>
+    <t>P0078</t>
+  </si>
+  <si>
+    <t>PILOT'S TICKET REFUND(COMM</t>
+  </si>
+  <si>
+    <t>P0079</t>
+  </si>
+  <si>
+    <t>PRIME INSURANCE LTD</t>
+  </si>
+  <si>
+    <t>P0080/ BARTER</t>
+  </si>
+  <si>
+    <t>PATRIOTS BASKETBALL CLUB</t>
+  </si>
+  <si>
+    <t>P0083</t>
+  </si>
+  <si>
+    <t>PARK INN BY RADISSON</t>
+  </si>
+  <si>
+    <t>P0084</t>
+  </si>
+  <si>
+    <t>PETNO TRUST COMPANY LTD</t>
+  </si>
+  <si>
+    <t>P0085</t>
+  </si>
+  <si>
+    <t>PLUTUS LIMITED</t>
+  </si>
+  <si>
+    <t>P0086</t>
+  </si>
+  <si>
+    <t>PARTENA MUT</t>
+  </si>
+  <si>
+    <t>P0089</t>
+  </si>
+  <si>
+    <t>PETRA ADVANTAGE PENSION SC</t>
+  </si>
+  <si>
+    <t>P0090</t>
+  </si>
+  <si>
+    <t>PRISMA SOLUTION</t>
+  </si>
+  <si>
+    <t>P0091</t>
+  </si>
+  <si>
+    <t>PRIME ECONOMIC ZONE LTD</t>
+  </si>
+  <si>
+    <t>P0092</t>
+  </si>
+  <si>
+    <t>PLAZA PREMIUM GROUP( LHR L</t>
+  </si>
+  <si>
+    <t>P0093</t>
+  </si>
+  <si>
+    <t>PRIMEDIA OUTDOOR</t>
+  </si>
+  <si>
+    <t>P0094</t>
+  </si>
+  <si>
+    <t>PRIMEDIA OUTDOOR/BARTER</t>
+  </si>
+  <si>
+    <t>POO89</t>
+  </si>
+  <si>
+    <t>PILOT'S REIMBURSEMENT</t>
+  </si>
+  <si>
+    <t>PY001/PAYROLL</t>
+  </si>
+  <si>
+    <t>PAYE - DEDUCTIONS</t>
+  </si>
+  <si>
+    <t>PY002/PAYROLL</t>
+  </si>
+  <si>
+    <t>NET PAY</t>
+  </si>
+  <si>
+    <t>PY003/PAYROLL</t>
+  </si>
+  <si>
+    <t>MEDICAL INSURANCE DEDUCTIO</t>
+  </si>
+  <si>
+    <t>PY004/PAYROLL</t>
+  </si>
+  <si>
+    <t>SOCIAL SECURITY DEDUCTIONS</t>
+  </si>
+  <si>
+    <t>PY005/PAYROLL</t>
+  </si>
+  <si>
+    <t>OTHER DEDUCTIONS</t>
+  </si>
+  <si>
+    <t>PY006/PAYROLL</t>
+  </si>
+  <si>
+    <t>PY007/PAYROLL</t>
+  </si>
+  <si>
+    <t>RSSF VOLUNTARY SAVING</t>
+  </si>
+  <si>
+    <t>Q0001</t>
+  </si>
+  <si>
+    <t>QAS AVIATION ACADEMY</t>
+  </si>
+  <si>
+    <t>Q0002</t>
+  </si>
+  <si>
+    <t>Q0004</t>
+  </si>
+  <si>
+    <t>QUICK TAXI SERVICES</t>
+  </si>
+  <si>
+    <t>Q0013</t>
+  </si>
+  <si>
+    <t>QUINCALLERIE HARDWARE</t>
+  </si>
+  <si>
+    <t>Q0018</t>
+  </si>
+  <si>
+    <t>Q TELEVISION/BARTER</t>
+  </si>
+  <si>
+    <t>Q0019</t>
+  </si>
+  <si>
+    <t>QATAR CIVIL AVIATION AUTHO</t>
+  </si>
+  <si>
+    <t>Q0021</t>
+  </si>
+  <si>
+    <t>QATAR AVIATION SERVICES(GR</t>
+  </si>
+  <si>
+    <t>Q0023</t>
+  </si>
+  <si>
+    <t>QUIVERTREE MEDIA</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>RWANDA REVENUE/CUSTOMS</t>
+  </si>
+  <si>
+    <t>R0002/BARTER</t>
+  </si>
+  <si>
+    <t>RADIO 10</t>
+  </si>
+  <si>
+    <t>R0004/BARTER</t>
+  </si>
+  <si>
+    <t>RADIO CONTACT</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>RADIO PUBLIQUE AFRICANE</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>RADISSON HOTEL OR TAMBO</t>
+  </si>
+  <si>
+    <t>R001/ BARTER</t>
+  </si>
+  <si>
+    <t>RWANDA CONVENTION BUREAU</t>
+  </si>
+  <si>
+    <t>R0015</t>
+  </si>
+  <si>
+    <t>REAL INNOVATIONS LIMITED</t>
+  </si>
+  <si>
+    <t>R0017</t>
+  </si>
+  <si>
+    <t>REGIE  BURUNDI DES SERVICE</t>
+  </si>
+  <si>
+    <t>R0020</t>
+  </si>
+  <si>
+    <t>RENTFORD DRAPERS LTD</t>
+  </si>
+  <si>
+    <t>R0024</t>
+  </si>
+  <si>
+    <t>ROYAL PETROL</t>
+  </si>
+  <si>
+    <t>R0027</t>
+  </si>
+  <si>
+    <t>RISHWORTH  AVIATION  LIMIT</t>
+  </si>
+  <si>
+    <t>R0031</t>
+  </si>
+  <si>
+    <t>ROKO CONSTRUCTION COMPANY</t>
+  </si>
+  <si>
+    <t>R0039</t>
+  </si>
+  <si>
+    <t>RWANDA BUREAU OF STANDARD</t>
+  </si>
+  <si>
+    <t>R0041/BARTER</t>
+  </si>
+  <si>
+    <t>RWANDA DISPATCH</t>
+  </si>
+  <si>
+    <t>R0046</t>
+  </si>
+  <si>
+    <t>RWANDA REVENUE AUTHORITY</t>
+  </si>
+  <si>
+    <t>R0047</t>
+  </si>
+  <si>
+    <t>RWANDA UTILITIES REGULTORY</t>
+  </si>
+  <si>
+    <t>R0051</t>
+  </si>
+  <si>
+    <t>RADIO TELEVISION NGOMA YA</t>
+  </si>
+  <si>
+    <t>R0052</t>
+  </si>
+  <si>
+    <t>REGIE CONGO KINSHASA DES V</t>
+  </si>
+  <si>
+    <t>R0054</t>
+  </si>
+  <si>
+    <t>RULIBA CAR WASH</t>
+  </si>
+  <si>
+    <t>R0056</t>
+  </si>
+  <si>
+    <t>RESA AIRPORT DATA SYSTEM</t>
+  </si>
+  <si>
+    <t>R0060</t>
+  </si>
+  <si>
+    <t>REFUND CASH FLOAT</t>
+  </si>
+  <si>
+    <t>R0061</t>
+  </si>
+  <si>
+    <t>FERWACY  /BARTER</t>
+  </si>
+  <si>
+    <t>R0063</t>
+  </si>
+  <si>
+    <t>RWANDA BROADCASTING AGENCY</t>
+  </si>
+  <si>
+    <t>R0064</t>
+  </si>
+  <si>
+    <t>RWANDA FARMERS COFFEE COMP</t>
+  </si>
+  <si>
+    <t>R0066</t>
+  </si>
+  <si>
+    <t>R0068</t>
+  </si>
+  <si>
+    <t>RWANDA NUT COMPANY  LTD</t>
+  </si>
+  <si>
+    <t>R0068/BARTER</t>
+  </si>
+  <si>
+    <t>RWANDA CORPORATE LEAGUE</t>
+  </si>
+  <si>
+    <t>R0069</t>
+  </si>
+  <si>
+    <t>RWANDA MILITARY HOSPITAL</t>
+  </si>
+  <si>
+    <t>R0070/BARTER</t>
+  </si>
+  <si>
+    <t>ROTARY INTERNATIONAL DISTR</t>
+  </si>
+  <si>
+    <t>R0071/BARTER</t>
+  </si>
+  <si>
+    <t>REAL GRAPHICS LTD</t>
+  </si>
+  <si>
+    <t>R0072/BARTER</t>
+  </si>
+  <si>
+    <t>RAINBOW 94.1 FM</t>
+  </si>
+  <si>
+    <t>R0073</t>
+  </si>
+  <si>
+    <t>RADIO ICENGELO/BARTER</t>
+  </si>
+  <si>
+    <t>R0075</t>
+  </si>
+  <si>
+    <t>RAINBOW FM ETC /BARTER</t>
+  </si>
+  <si>
+    <t>R0076</t>
+  </si>
+  <si>
+    <t>RJB DYNAMIC LTD</t>
+  </si>
+  <si>
+    <t>R0077</t>
+  </si>
+  <si>
+    <t>ROLLS-ROYCE</t>
+  </si>
+  <si>
+    <t>R0078</t>
+  </si>
+  <si>
+    <t>RWANDA EVENTS GROUP LTD /B</t>
+  </si>
+  <si>
+    <t>R0079</t>
+  </si>
+  <si>
+    <t>RADIO QFM LTD &amp; Q-TV/BARTE</t>
+  </si>
+  <si>
+    <t>R0081</t>
+  </si>
+  <si>
+    <t>ROYAL MEDIA  TV/ RADIO LTD</t>
+  </si>
+  <si>
+    <t>R0082</t>
+  </si>
+  <si>
+    <t>ROCKET PRODUCTS LTD</t>
+  </si>
+  <si>
+    <t>R0083</t>
+  </si>
+  <si>
+    <t>RECETTE GENERALE DU TRESOR</t>
+  </si>
+  <si>
+    <t>R0084/BARTER</t>
+  </si>
+  <si>
+    <t>RADIO CHRISTIAN VOICE</t>
+  </si>
+  <si>
+    <t>R0086</t>
+  </si>
+  <si>
+    <t>RADIO ICENGERO/CASH</t>
+  </si>
+  <si>
+    <t>R0087</t>
+  </si>
+  <si>
+    <t>RWANDA AIRPORTS COMPANY (R</t>
+  </si>
+  <si>
+    <t>R0089</t>
+  </si>
+  <si>
+    <t>RADISSON BLU HOTEL KIGALI</t>
+  </si>
+  <si>
+    <t>R0090</t>
+  </si>
+  <si>
+    <t>RUMEE INVESTMENT</t>
+  </si>
+  <si>
+    <t>R0093</t>
+  </si>
+  <si>
+    <t>REGIONAL ONE</t>
+  </si>
+  <si>
+    <t>R0096/ SENEGAL</t>
+  </si>
+  <si>
+    <t>R0097/ BARTER</t>
+  </si>
+  <si>
+    <t>RUHUMURIZA JAMES</t>
+  </si>
+  <si>
+    <t>R0098</t>
+  </si>
+  <si>
+    <t>REAL CONSTRUCTORS/ APARTME</t>
+  </si>
+  <si>
+    <t>R0099</t>
+  </si>
+  <si>
+    <t>REVIMA</t>
+  </si>
+  <si>
+    <t>R0100</t>
+  </si>
+  <si>
+    <t>RWANDA SOCIAL SECURITY BOA</t>
+  </si>
+  <si>
+    <t>R0101</t>
+  </si>
+  <si>
+    <t>R0102</t>
+  </si>
+  <si>
+    <t>RENAISSANCE LONDON HEATHRO</t>
+  </si>
+  <si>
+    <t>R0106</t>
+  </si>
+  <si>
+    <t>RUTHERFORD OUTDOOR ADVERST</t>
+  </si>
+  <si>
+    <t>R0107</t>
+  </si>
+  <si>
+    <t>Rwanda Development Board (</t>
+  </si>
+  <si>
+    <t>R0108</t>
+  </si>
+  <si>
+    <t>ROYALBLUE INFLIGHT CATERIN</t>
+  </si>
+  <si>
+    <t>R0111</t>
+  </si>
+  <si>
+    <t>RIGHT SEAT</t>
+  </si>
+  <si>
+    <t>R0112</t>
+  </si>
+  <si>
+    <t>ROGERS AVIATION/MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>R0161</t>
+  </si>
+  <si>
+    <t>RWANDA FORENSIC INSTITUTE</t>
+  </si>
+  <si>
+    <t>R0162</t>
+  </si>
+  <si>
+    <t>RECORDS&amp; INFORMATION MANAG</t>
+  </si>
+  <si>
+    <t>R0709</t>
+  </si>
+  <si>
+    <t>RDTECH LIMITED</t>
+  </si>
+  <si>
+    <t>R0710</t>
+  </si>
+  <si>
+    <t>RADISSON HOTEL AND CONFERE</t>
+  </si>
+  <si>
+    <t>S0001</t>
+  </si>
+  <si>
+    <t>SAMCO AIRCRAFT MAINTENANCE</t>
+  </si>
+  <si>
+    <t>S0006</t>
+  </si>
+  <si>
+    <t>SAROVA HOTEL</t>
+  </si>
+  <si>
+    <t>S0007</t>
+  </si>
+  <si>
+    <t>SARS</t>
+  </si>
+  <si>
+    <t>S0010</t>
+  </si>
+  <si>
+    <t>SCHOPF MASCHINEBAU GMBH</t>
+  </si>
+  <si>
+    <t>S0012</t>
+  </si>
+  <si>
+    <t>SDS LOUNGE SERVICES</t>
+  </si>
+  <si>
+    <t>S00121</t>
+  </si>
+  <si>
+    <t>SILVERBIRD/CINEMAS</t>
+  </si>
+  <si>
+    <t>S0020</t>
+  </si>
+  <si>
+    <t>SERENA HOTEL KIGALI</t>
+  </si>
+  <si>
+    <t>S0021</t>
+  </si>
+  <si>
+    <t>SERVAIR GABON</t>
+  </si>
+  <si>
+    <t>S0028</t>
+  </si>
+  <si>
+    <t>SKY CHEFS TANZANIA</t>
+  </si>
+  <si>
+    <t>S0030</t>
+  </si>
+  <si>
+    <t>SHOPPERS  STOP  S.A.R.L</t>
+  </si>
+  <si>
+    <t>S0035</t>
+  </si>
+  <si>
+    <t>SNPC</t>
+  </si>
+  <si>
+    <t>S0042</t>
+  </si>
+  <si>
+    <t>SKYSERVE AVIATION</t>
+  </si>
+  <si>
+    <t>S0048</t>
+  </si>
+  <si>
+    <t>SN BRUXELLS</t>
+  </si>
+  <si>
+    <t>S0049</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICAN  AIRWAYS TEC</t>
+  </si>
+  <si>
+    <t>S0050</t>
+  </si>
+  <si>
+    <t>SP AVIATION LTD</t>
+  </si>
+  <si>
+    <t>S0052</t>
+  </si>
+  <si>
+    <t>SOCIETE PETROLIERE LTD -MV</t>
+  </si>
+  <si>
+    <t>S0058</t>
+  </si>
+  <si>
+    <t>SONAPRESSE</t>
+  </si>
+  <si>
+    <t>S0059</t>
+  </si>
+  <si>
+    <t>SONARWA</t>
+  </si>
+  <si>
+    <t>S0061</t>
+  </si>
+  <si>
+    <t>SORAS ASSURANCE GENERALES</t>
+  </si>
+  <si>
+    <t>S0062</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA EXPRESS</t>
+  </si>
+  <si>
+    <t>S0063</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA WEATHER SERVI</t>
+  </si>
+  <si>
+    <t>S0081</t>
+  </si>
+  <si>
+    <t>SWISSPORT TANZANIA</t>
+  </si>
+  <si>
+    <t>S0082</t>
+  </si>
+  <si>
+    <t>SWISSPORT-KENYA</t>
+  </si>
+  <si>
+    <t>S0086</t>
+  </si>
+  <si>
+    <t>SATGURU CARGO AND AIR FREI</t>
+  </si>
+  <si>
+    <t>S0087</t>
+  </si>
+  <si>
+    <t>SATGURU DUBAI TRAVELS &amp; TO</t>
+  </si>
+  <si>
+    <t>S0088</t>
+  </si>
+  <si>
+    <t>SATGURU TRAVELS /GHANA</t>
+  </si>
+  <si>
+    <t>S0089</t>
+  </si>
+  <si>
+    <t>SATGURU TRAVELS/JUBA</t>
+  </si>
+  <si>
+    <t>S0090</t>
+  </si>
+  <si>
+    <t>SOREX LIMITED</t>
+  </si>
+  <si>
+    <t>S0091</t>
+  </si>
+  <si>
+    <t>SORIEX</t>
+  </si>
+  <si>
+    <t>S0094</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICAN AIRWAYS</t>
+  </si>
+  <si>
+    <t>S0098</t>
+  </si>
+  <si>
+    <t>SANCTUM APPARTMENTS AND HO</t>
+  </si>
+  <si>
+    <t>S0100</t>
+  </si>
+  <si>
+    <t>SOMATEL HOTEL</t>
+  </si>
+  <si>
+    <t>S0101</t>
+  </si>
+  <si>
+    <t>SMART-TAB PRODUCTS LTD</t>
+  </si>
+  <si>
+    <t>S0103</t>
+  </si>
+  <si>
+    <t>SELECT KALAOS LIMITED</t>
+  </si>
+  <si>
+    <t>S01042</t>
+  </si>
+  <si>
+    <t>STAFF TRANSPORT</t>
+  </si>
+  <si>
+    <t>S0106</t>
+  </si>
+  <si>
+    <t>SERVAIR GHANA</t>
+  </si>
+  <si>
+    <t>S0107</t>
+  </si>
+  <si>
+    <t>SATGURU GROUP TRAVELS - GS</t>
+  </si>
+  <si>
+    <t>S0108</t>
+  </si>
+  <si>
+    <t>SAFARI COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>S0110</t>
+  </si>
+  <si>
+    <t>SERVOPAK SUPPLIES PTA CC</t>
+  </si>
+  <si>
+    <t>S0113</t>
+  </si>
+  <si>
+    <t>SITAONAIR</t>
+  </si>
+  <si>
+    <t>S0113/BARTER</t>
+  </si>
+  <si>
+    <t>SPIRE</t>
+  </si>
+  <si>
+    <t>S0114/BARTER</t>
+  </si>
+  <si>
+    <t>SILVERBIRD COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>S0116</t>
+  </si>
+  <si>
+    <t>LOGISTICS LINK LTD</t>
+  </si>
+  <si>
+    <t>S0117</t>
+  </si>
+  <si>
+    <t>SERVAIR ABIDJAN</t>
+  </si>
+  <si>
+    <t>S0119</t>
+  </si>
+  <si>
+    <t>SOCIETE INTERNATIONALE DE</t>
+  </si>
+  <si>
+    <t>S0120</t>
+  </si>
+  <si>
+    <t>SERVAIR BENIN</t>
+  </si>
+  <si>
+    <t>S0121</t>
+  </si>
+  <si>
+    <t>SIMBA SUPERMARKET/BARTER</t>
+  </si>
+  <si>
+    <t>S0122</t>
+  </si>
+  <si>
+    <t>SPICEJET LIMITED</t>
+  </si>
+  <si>
+    <t>S0123</t>
+  </si>
+  <si>
+    <t>SWISSPORT  BELGIUM</t>
+  </si>
+  <si>
+    <t>S0124</t>
+  </si>
+  <si>
+    <t>SPA YACINE QUEENIE/BARTER</t>
+  </si>
+  <si>
+    <t>S0126</t>
+  </si>
+  <si>
+    <t>SERVAIR SENEGAL/DAKAR</t>
+  </si>
+  <si>
+    <t>S0127</t>
+  </si>
+  <si>
+    <t>SERVAIR BRAZZAVILLE</t>
+  </si>
+  <si>
+    <t>S0128</t>
+  </si>
+  <si>
+    <t>SOFT PACKAGING LTD</t>
+  </si>
+  <si>
+    <t>S0130</t>
+  </si>
+  <si>
+    <t>SATGURU GSA /GABON-LIBREVI</t>
+  </si>
+  <si>
+    <t>S0131</t>
+  </si>
+  <si>
+    <t>SAFARI CENTER LTD</t>
+  </si>
+  <si>
+    <t>S0137</t>
+  </si>
+  <si>
+    <t>SANLAM  INSURANCE TANZANIA</t>
+  </si>
+  <si>
+    <t>S0138</t>
+  </si>
+  <si>
+    <t>SOCIETE SOCAR/CAR HIRE</t>
+  </si>
+  <si>
+    <t>S0139</t>
+  </si>
+  <si>
+    <t>SOCIETE NATIONAL DES EAUX</t>
+  </si>
+  <si>
+    <t>S0140</t>
+  </si>
+  <si>
+    <t>SOCAR /APARTMENT</t>
+  </si>
+  <si>
+    <t>S0142</t>
+  </si>
+  <si>
+    <t>SUMMA SENEGAL SARL (RADISS</t>
+  </si>
+  <si>
+    <t>S0143</t>
+  </si>
+  <si>
+    <t>SOCIETE BENINOISE D'ENERGI</t>
+  </si>
+  <si>
+    <t>S0144</t>
+  </si>
+  <si>
+    <t>SHIMA TRAVEL AND TOURS</t>
+  </si>
+  <si>
+    <t>S0145</t>
+  </si>
+  <si>
+    <t>SUNSHINE TRAVEL AGENCY</t>
+  </si>
+  <si>
+    <t>S0146</t>
+  </si>
+  <si>
+    <t>SANGO TRAVEL AND TOURS</t>
+  </si>
+  <si>
+    <t>S0147</t>
+  </si>
+  <si>
+    <t>SAHAM ASSURANCE CAMEROUN</t>
+  </si>
+  <si>
+    <t>S0148</t>
+  </si>
+  <si>
+    <t>SKYPRO</t>
+  </si>
+  <si>
+    <t>S0149</t>
+  </si>
+  <si>
+    <t>SECURITAS SPECIALISED SERV</t>
+  </si>
+  <si>
+    <t>S0152</t>
+  </si>
+  <si>
+    <t>SAFRAN SEATS FRANCE</t>
+  </si>
+  <si>
+    <t>S0153</t>
+  </si>
+  <si>
+    <t>SAHAM ASSURANCE DAKAR</t>
+  </si>
+  <si>
+    <t>S0154</t>
+  </si>
+  <si>
+    <t>SANLAM GABON</t>
+  </si>
+  <si>
+    <t>S0155</t>
+  </si>
+  <si>
+    <t>SATAIR</t>
+  </si>
+  <si>
+    <t>S0156</t>
+  </si>
+  <si>
+    <t>SCHEBA HOTEL LTD/THE HOST</t>
+  </si>
+  <si>
+    <t>S0157</t>
+  </si>
+  <si>
+    <t>SOCIETE CIVILE IMMOBILIERE</t>
+  </si>
+  <si>
+    <t>S0159/ BARTER</t>
+  </si>
+  <si>
+    <t>SANYU RADIO</t>
+  </si>
+  <si>
+    <t>S0160</t>
+  </si>
+  <si>
+    <t>SAHAM ASSURANCE BRAZZAVILL</t>
+  </si>
+  <si>
+    <t>S0161</t>
+  </si>
+  <si>
+    <t>SAHAM ASSURANCE COTE D'IVO</t>
+  </si>
+  <si>
+    <t>S0162</t>
+  </si>
+  <si>
+    <t>SKILLS AND DEVELOPMENT LEV</t>
+  </si>
+  <si>
+    <t>S0164</t>
+  </si>
+  <si>
+    <t>SUNU ASSURANCES GHANA LIMI</t>
+  </si>
+  <si>
+    <t>S0167</t>
+  </si>
+  <si>
+    <t>SK CONNECT GROUP LTD</t>
+  </si>
+  <si>
+    <t>S0168</t>
+  </si>
+  <si>
+    <t>SICASS BANGUI</t>
+  </si>
+  <si>
+    <t>S0172</t>
+  </si>
+  <si>
+    <t>SANLAM BENIN</t>
+  </si>
+  <si>
+    <t>S0173</t>
+  </si>
+  <si>
+    <t>SANLAM ASSURANCE CAMEROUN</t>
+  </si>
+  <si>
+    <t>S0174</t>
+  </si>
+  <si>
+    <t>SOUND CITY FM</t>
+  </si>
+  <si>
+    <t>S0177</t>
+  </si>
+  <si>
+    <t>SHELL AVIATION SOUTH AFRIC</t>
+  </si>
+  <si>
+    <t>S0178</t>
+  </si>
+  <si>
+    <t>SUSSEX PAYROLL SERVICES LT</t>
+  </si>
+  <si>
+    <t>S0179</t>
+  </si>
+  <si>
+    <t>SABENA ENGINEERING</t>
+  </si>
+  <si>
+    <t>S0180</t>
+  </si>
+  <si>
+    <t>SHARJAH CIVIL AVIATION AUT</t>
+  </si>
+  <si>
+    <t>S0181</t>
+  </si>
+  <si>
+    <t>SABENA AEROSPACE ENGINEERI</t>
+  </si>
+  <si>
+    <t>S0190</t>
+  </si>
+  <si>
+    <t>SHARJAH AVIATION SERVICES</t>
+  </si>
+  <si>
+    <t>S0191</t>
+  </si>
+  <si>
+    <t>SHARJAH AIRPORT AUTHORITY</t>
+  </si>
+  <si>
+    <t>S0192</t>
+  </si>
+  <si>
+    <t>SATIGURU TRAVEL &amp; TOUR QAT</t>
+  </si>
+  <si>
+    <t>S0199</t>
+  </si>
+  <si>
+    <t>SABENA TECHNICS TRAINING</t>
+  </si>
+  <si>
+    <t>S0200</t>
+  </si>
+  <si>
+    <t>STABEX INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>S0201</t>
+  </si>
+  <si>
+    <t>SOCIETE DE FRET ET DE SERV</t>
+  </si>
+  <si>
+    <t>S0202</t>
+  </si>
+  <si>
+    <t>SECURE SERVICES (MAURITIUS</t>
+  </si>
+  <si>
+    <t>S0203</t>
+  </si>
+  <si>
+    <t>DJIBOUT SOVEREIGN CARBON A</t>
+  </si>
+  <si>
+    <t>S0205</t>
+  </si>
+  <si>
+    <t>SHAMSA ENTERPRISES LTD</t>
+  </si>
+  <si>
+    <t>SO136</t>
+  </si>
+  <si>
+    <t>SECURITAS COMPANY BELGIUM</t>
+  </si>
+  <si>
+    <t>SO147</t>
+  </si>
+  <si>
+    <t>SP AVIATION CHARTER</t>
+  </si>
+  <si>
+    <t>SO167</t>
+  </si>
+  <si>
+    <t>SSNIT-GHANA</t>
+  </si>
+  <si>
+    <t>SO168</t>
+  </si>
+  <si>
+    <t>SERVICES PUBLIC FEDERAL FI</t>
+  </si>
+  <si>
+    <t>SO169</t>
+  </si>
+  <si>
+    <t>SECURIPORT CONGO</t>
+  </si>
+  <si>
+    <t>SO170</t>
+  </si>
+  <si>
+    <t>SO ENERGY AVIATION (GHANA)</t>
+  </si>
+  <si>
+    <t>SO171</t>
+  </si>
+  <si>
+    <t>SIGMA PENSION</t>
+  </si>
+  <si>
+    <t>SO172</t>
+  </si>
+  <si>
+    <t>SOCIAL HEALTH AUTHORITY(SH</t>
+  </si>
+  <si>
+    <t>SO173</t>
+  </si>
+  <si>
+    <t>SKY CHIEF THINGS REMEMBERE</t>
+  </si>
+  <si>
+    <t>T0002</t>
+  </si>
+  <si>
+    <t>TANZANIA AIRPORTS AUTHORIT</t>
+  </si>
+  <si>
+    <t>T0003</t>
+  </si>
+  <si>
+    <t>TANZANIA CIVIL AVIATION AU</t>
+  </si>
+  <si>
+    <t>T0004</t>
+  </si>
+  <si>
+    <t>TANZANIA REVENUE AUTHORITY</t>
+  </si>
+  <si>
+    <t>T0010</t>
+  </si>
+  <si>
+    <t>TELEVISION GENERALE CONGOL</t>
+  </si>
+  <si>
+    <t>T0018/BARTER</t>
+  </si>
+  <si>
+    <t>THE INDEPENDENT NEWS MAGAZ</t>
+  </si>
+  <si>
+    <t>T0029</t>
+  </si>
+  <si>
+    <t>TMF CORPARATE SERVICES LTD</t>
+  </si>
+  <si>
+    <t>T0034</t>
+  </si>
+  <si>
+    <t>TOTAL TANZANIA</t>
+  </si>
+  <si>
+    <t>T0041</t>
+  </si>
+  <si>
+    <t>TYME ARCARDE LTD</t>
+  </si>
+  <si>
+    <t>T0042</t>
+  </si>
+  <si>
+    <t>TELKOMKENYA</t>
+  </si>
+  <si>
+    <t>T0046</t>
+  </si>
+  <si>
+    <t>THE EYE MAGAZINE</t>
+  </si>
+  <si>
+    <t>T0047</t>
+  </si>
+  <si>
+    <t>THE NEW TIMES</t>
+  </si>
+  <si>
+    <t>T0048</t>
+  </si>
+  <si>
+    <t>THE NEW TIMES PUPLICATIONS</t>
+  </si>
+  <si>
+    <t>T0049</t>
+  </si>
+  <si>
+    <t>THE SERVICEMAG</t>
+  </si>
+  <si>
+    <t>T0050</t>
+  </si>
+  <si>
+    <t>THS GENERAL SCALES SERV RD</t>
+  </si>
+  <si>
+    <t>T0051</t>
+  </si>
+  <si>
+    <t>TRONAIR</t>
+  </si>
+  <si>
+    <t>T0056</t>
+  </si>
+  <si>
+    <t>THE EQUINOX CO LTD</t>
+  </si>
+  <si>
+    <t>T0057</t>
+  </si>
+  <si>
+    <t>TRAFFIC FM /ETC /BARTER</t>
+  </si>
+  <si>
+    <t>T0059</t>
+  </si>
+  <si>
+    <t>TARGET MEDIA GROUP LTD /BA</t>
+  </si>
+  <si>
+    <t>T0061</t>
+  </si>
+  <si>
+    <t>TURKISH AIRLINES</t>
+  </si>
+  <si>
+    <t>T0062/BARTER</t>
+  </si>
+  <si>
+    <t>THE NEW TIMES PUBLICATIONS</t>
+  </si>
+  <si>
+    <t>T0063/BARTER</t>
+  </si>
+  <si>
+    <t>THE SERVICE MAG</t>
+  </si>
+  <si>
+    <t>T0064/BARTER</t>
+  </si>
+  <si>
+    <t>THE PRIVATE SECTOR FEDERAT</t>
+  </si>
+  <si>
+    <t>T0065/BARTER</t>
+  </si>
+  <si>
+    <t>TRUE GOLFER</t>
+  </si>
+  <si>
+    <t>T0066</t>
+  </si>
+  <si>
+    <t>TOYOTA BURUNDI</t>
+  </si>
+  <si>
+    <t>T0067</t>
+  </si>
+  <si>
+    <t>TIMSAN</t>
+  </si>
+  <si>
+    <t>T0068</t>
+  </si>
+  <si>
+    <t>THE EYE MAGAZINE/ BARTER</t>
+  </si>
+  <si>
+    <t>T0069</t>
+  </si>
+  <si>
+    <t>TELEVISION GABON /BARTER</t>
+  </si>
+  <si>
+    <t>T0071</t>
+  </si>
+  <si>
+    <t>TOUR DU RWANDA</t>
+  </si>
+  <si>
+    <t>T0072</t>
+  </si>
+  <si>
+    <t>TRAVEL BIRD/GSA INDIA</t>
+  </si>
+  <si>
+    <t>T0073</t>
+  </si>
+  <si>
+    <t>TELE 10/CASH</t>
+  </si>
+  <si>
+    <t>T0074</t>
+  </si>
+  <si>
+    <t>TICKET REFUND</t>
+  </si>
+  <si>
+    <t>T0076</t>
+  </si>
+  <si>
+    <t>TAXATION CAMEROON (DOUALA)</t>
+  </si>
+  <si>
+    <t>T0077</t>
+  </si>
+  <si>
+    <t>THE PC AGENCY LIMITED</t>
+  </si>
+  <si>
+    <t>T0078</t>
+  </si>
+  <si>
+    <t>THE ROBERTS FLIGHT INFORMA</t>
+  </si>
+  <si>
+    <t>T0079</t>
+  </si>
+  <si>
+    <t>TRESOR PUBLIC GABON</t>
+  </si>
+  <si>
+    <t>T0080</t>
+  </si>
+  <si>
+    <t>TRIBES BRUSSELS</t>
+  </si>
+  <si>
+    <t>T0085</t>
+  </si>
+  <si>
+    <t>TIMELESS ADVERTISING LTD</t>
+  </si>
+  <si>
+    <t>T0086</t>
+  </si>
+  <si>
+    <t>TRACTAFRIC EQUIPMENT CAMER</t>
+  </si>
+  <si>
+    <t>T0087</t>
+  </si>
+  <si>
+    <t>TRAX</t>
+  </si>
+  <si>
+    <t>T0088</t>
+  </si>
+  <si>
+    <t>TCR INTERNATIONAL N.V</t>
+  </si>
+  <si>
+    <t>T0089</t>
+  </si>
+  <si>
+    <t>TOUR DU RWANDA/BARTER</t>
+  </si>
+  <si>
+    <t>T0090</t>
+  </si>
+  <si>
+    <t>TES &amp; CONSTRUCTION LTD</t>
+  </si>
+  <si>
+    <t>T0091</t>
+  </si>
+  <si>
+    <t>TRADELIGHT GROUP LTD</t>
+  </si>
+  <si>
+    <t>T0093</t>
+  </si>
+  <si>
+    <t>TAL AVIATION LTD</t>
+  </si>
+  <si>
+    <t>T0094</t>
+  </si>
+  <si>
+    <t>TRANSDEV AIRPORT SERVICES</t>
+  </si>
+  <si>
+    <t>T0095</t>
+  </si>
+  <si>
+    <t>TOYOTA RWANDA</t>
+  </si>
+  <si>
+    <t>T0097</t>
+  </si>
+  <si>
+    <t>TOTAL ENERGIES AVIATION CA</t>
+  </si>
+  <si>
+    <t>T0098</t>
+  </si>
+  <si>
+    <t>TRACE GLOBAL/ BARTER</t>
+  </si>
+  <si>
+    <t>T0099</t>
+  </si>
+  <si>
+    <t>TAJ PAMODZI HOTEL</t>
+  </si>
+  <si>
+    <t>T0100</t>
+  </si>
+  <si>
+    <t>TRAVEL POINT LLC/GASA</t>
+  </si>
+  <si>
+    <t>T0102</t>
+  </si>
+  <si>
+    <t>TOTAL ENERGY AVIATION SOUT</t>
+  </si>
+  <si>
+    <t>T0103</t>
+  </si>
+  <si>
+    <t>TRISTAR RCA</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
+    <t>TECHAFFINITY LIMITED</t>
+  </si>
+  <si>
+    <t>TOO48</t>
+  </si>
+  <si>
+    <t>TLD MEAI FZE</t>
+  </si>
+  <si>
+    <t>TOO96</t>
+  </si>
+  <si>
+    <t>TOTAL ENERGIES MARKETING N</t>
+  </si>
+  <si>
+    <t>TOO97</t>
+  </si>
+  <si>
+    <t>TARMAC AEROSAVE</t>
+  </si>
+  <si>
+    <t>TOO98</t>
+  </si>
+  <si>
+    <t>THE REGENT LUXURY SUITES L</t>
+  </si>
+  <si>
+    <t>U0001</t>
+  </si>
+  <si>
+    <t>UAE GENERAL CIVIL AVIATION</t>
+  </si>
+  <si>
+    <t>U0005</t>
+  </si>
+  <si>
+    <t>U-COM</t>
+  </si>
+  <si>
+    <t>U0006</t>
+  </si>
+  <si>
+    <t>UGANDA INFLIGHT SERVICE</t>
+  </si>
+  <si>
+    <t>U0007</t>
+  </si>
+  <si>
+    <t>UGANDA REVENUE AUTHORITY</t>
+  </si>
+  <si>
+    <t>U0009</t>
+  </si>
+  <si>
+    <t>UGANDA TELECOM LIMITED</t>
+  </si>
+  <si>
+    <t>U0017</t>
+  </si>
+  <si>
+    <t>UPFRONT &amp;PERSONAL GLOBAL M</t>
+  </si>
+  <si>
+    <t>U0018</t>
+  </si>
+  <si>
+    <t>UWIMANA THEONESTE</t>
+  </si>
+  <si>
+    <t>U0019</t>
+  </si>
+  <si>
+    <t>UNITE DE GESTION AEROPORTS</t>
+  </si>
+  <si>
+    <t>U0023</t>
+  </si>
+  <si>
+    <t>UAP INSURANCE KENYA LTD</t>
+  </si>
+  <si>
+    <t>U0024</t>
+  </si>
+  <si>
+    <t>UMUBANO INDUSTRIES LIMITED</t>
+  </si>
+  <si>
+    <t>U0027</t>
+  </si>
+  <si>
+    <t>UK CIVIL AVIATION AUTHORIT</t>
+  </si>
+  <si>
+    <t>U0029</t>
+  </si>
+  <si>
+    <t>UWINEZA ANGELIQUE</t>
+  </si>
+  <si>
+    <t>U0030</t>
+  </si>
+  <si>
+    <t>UCIG FUEL</t>
+  </si>
+  <si>
+    <t>UOO26</t>
+  </si>
+  <si>
+    <t>URSSAF D'ALSACE</t>
+  </si>
+  <si>
+    <t>V0010</t>
+  </si>
+  <si>
+    <t>VOLCANO SARL</t>
+  </si>
+  <si>
+    <t>V0011</t>
+  </si>
+  <si>
+    <t>VIRGIN HOTEL</t>
+  </si>
+  <si>
+    <t>V0012</t>
+  </si>
+  <si>
+    <t>VISION GROUP</t>
+  </si>
+  <si>
+    <t>V0013</t>
+  </si>
+  <si>
+    <t>VOLARTEC</t>
+  </si>
+  <si>
+    <t>V0014</t>
+  </si>
+  <si>
+    <t>VIRGIN PLAZA LTD</t>
+  </si>
+  <si>
+    <t>V0015</t>
+  </si>
+  <si>
+    <t>VIVO ENERGY GHANA</t>
+  </si>
+  <si>
+    <t>V0016</t>
+  </si>
+  <si>
+    <t>VIVO ENERGY COTE D'VOIRE</t>
+  </si>
+  <si>
+    <t>V0019</t>
+  </si>
+  <si>
+    <t>VICTORIA FURNITURES RWANDA</t>
+  </si>
+  <si>
+    <t>V0025</t>
+  </si>
+  <si>
+    <t>GULLIVAIR LTD</t>
+  </si>
+  <si>
+    <t>V0025/ BARTER</t>
+  </si>
+  <si>
+    <t>VETERAN CLUBS WORLD CHAMPI</t>
+  </si>
+  <si>
+    <t>V0026</t>
+  </si>
+  <si>
+    <t>VIVO ENERGY UGANDA</t>
+  </si>
+  <si>
+    <t>V0027</t>
+  </si>
+  <si>
+    <t>VICOS ENERGY</t>
+  </si>
+  <si>
+    <t>V0028</t>
+  </si>
+  <si>
+    <t>VOYAGEUR AVIATION</t>
+  </si>
+  <si>
+    <t>V0030</t>
+  </si>
+  <si>
+    <t>VECTOR AXXESS TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>W0005</t>
+  </si>
+  <si>
+    <t>WORLD FUEL SERVICES</t>
+  </si>
+  <si>
+    <t>W0007</t>
+  </si>
+  <si>
+    <t>WILD FRONTIERS</t>
+  </si>
+  <si>
+    <t>W0008/BARTER</t>
+  </si>
+  <si>
+    <t>WORLD N TRAVELAND</t>
+  </si>
+  <si>
+    <t>W0009</t>
+  </si>
+  <si>
+    <t>WORLDWIDE FLIGHT SERVICES</t>
+  </si>
+  <si>
+    <t>W0010</t>
+  </si>
+  <si>
+    <t>WIDEX PIX LTD</t>
+  </si>
+  <si>
+    <t>W0011</t>
+  </si>
+  <si>
+    <t>WORKERS COMPASATION FUND T</t>
+  </si>
+  <si>
+    <t>W0013/ BARTER</t>
+  </si>
+  <si>
+    <t>WIDE PIX LTD</t>
+  </si>
+  <si>
+    <t>W0017</t>
+  </si>
+  <si>
+    <t>WHTEFIELD INVESTMENT COMPA</t>
+  </si>
+  <si>
+    <t>W0018</t>
+  </si>
+  <si>
+    <t>WORLD TRAVEL &amp;TOURISM  COU</t>
+  </si>
+  <si>
+    <t>X0004</t>
+  </si>
+  <si>
+    <t>XINFA AIRPORT EQUIPMENT LT</t>
+  </si>
+  <si>
+    <t>Z0001</t>
+  </si>
+  <si>
+    <t>ZEN ORIENTAL CUISINE</t>
+  </si>
+  <si>
+    <t>Z0003</t>
+  </si>
+  <si>
+    <t>ZAMNET COMMUNICATIONS SYST</t>
+  </si>
+  <si>
+    <t>Z0005</t>
+  </si>
+  <si>
+    <t>ZAMBIA AIRPORTS CORPORATIO</t>
+  </si>
+  <si>
+    <t>Z0006/ BARTER</t>
+  </si>
+  <si>
+    <t>ZIFM STEREO</t>
+  </si>
+  <si>
+    <t>Z0008</t>
+  </si>
+  <si>
+    <t>ZUVA PETROLEUM (Pvt) LIMIT</t>
+  </si>
+  <si>
+    <t>Z0009</t>
+  </si>
+  <si>
+    <t>ZIMBABWE REVENUE AUTHORITY</t>
+  </si>
+  <si>
+    <t>Z0010</t>
+  </si>
+  <si>
+    <t>ZIMBABWE NSSA</t>
+  </si>
+  <si>
+    <t>Z0011</t>
+  </si>
+  <si>
+    <t>ZANGUE &amp; PARTNERS</t>
+  </si>
+  <si>
+    <t>Z0012</t>
+  </si>
+  <si>
+    <t>ZCD CONSULTANCY LIMITED</t>
+  </si>
+  <si>
+    <t>Z0014</t>
+  </si>
+  <si>
+    <t>ZANGUE&amp; PARTNERS /BARTER</t>
+  </si>
+  <si>
+    <t>Z005</t>
+  </si>
+  <si>
+    <t>ZAMBIA REVENUE AUTHORITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -10410,8 +13675,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10722,14 +13987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1001"/>
+  <dimension ref="A1:B1550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1094" workbookViewId="0">
+      <selection activeCell="B1106" sqref="B1106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18746,6 +22011,4398 @@
         <v>3020</v>
       </c>
     </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="A1039" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2">
+      <c r="A1040" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="A1041" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="A1042" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2">
+      <c r="A1043" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="A1044" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="A1046" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="A1047" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="A1048" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="A1052" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="A1054" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="A1057" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="A1058" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="A1059" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="A1060" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2">
+      <c r="A1061" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="A1063" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2">
+      <c r="A1064" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="A1065" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="A1068" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2">
+      <c r="A1069" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="A1070" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2">
+      <c r="A1071" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2">
+      <c r="A1072" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2">
+      <c r="A1073" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="A1075" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="A1076" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2">
+      <c r="A1078" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2">
+      <c r="A1079" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2">
+      <c r="A1080" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="A1081" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="A1082" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="A1083" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="A1086" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="A1088" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="A1089" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2">
+      <c r="A1090" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2">
+      <c r="A1091" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="A1092" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2">
+      <c r="A1093" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="A1096" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2">
+      <c r="A1097" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="A1101" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2">
+      <c r="A1103" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="A1104" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="A1106" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="A1107" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="A1108" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="A1110" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="A1111" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2">
+      <c r="A1112" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="A1124" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="A1125" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="A1126" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="A1142" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2">
+      <c r="A1143" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2">
+      <c r="A1144" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2">
+      <c r="A1145" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="A1146" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2">
+      <c r="A1148" s="1" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="A1149" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2">
+      <c r="A1150" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2">
+      <c r="A1151" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2">
+      <c r="A1152" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2">
+      <c r="A1154" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="A1155" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="A1157" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="A1158" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="A1159" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="A1160" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2">
+      <c r="A1161" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2">
+      <c r="A1162" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2">
+      <c r="A1163" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2">
+      <c r="A1164" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2">
+      <c r="A1165" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2">
+      <c r="A1172" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="A1178" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2">
+      <c r="A1179" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2">
+      <c r="A1180" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2">
+      <c r="A1183" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2">
+      <c r="A1189" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="A1190" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2">
+      <c r="A1191" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2">
+      <c r="A1192" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2">
+      <c r="A1193" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2">
+      <c r="A1194" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="A1195" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="A1196" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="A1197" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2">
+      <c r="A1198" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2">
+      <c r="A1199" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2">
+      <c r="A1200" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2">
+      <c r="A1201" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2">
+      <c r="A1202" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2">
+      <c r="A1203" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2">
+      <c r="A1204" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2">
+      <c r="A1205" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="A1206" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2">
+      <c r="A1207" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="A1208" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2">
+      <c r="A1209" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="A1210" s="1" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="A1211" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2">
+      <c r="A1212" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2">
+      <c r="A1213" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="A1214" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="A1215" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="A1217" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="A1218" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="A1219" s="1" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2">
+      <c r="A1220" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2">
+      <c r="A1221" s="1" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2">
+      <c r="A1222" s="1" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="A1223" s="1" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2">
+      <c r="A1224" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2">
+      <c r="A1225" s="1" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2">
+      <c r="A1226" s="1" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2">
+      <c r="A1227" s="1" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2">
+      <c r="A1228" s="1" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2">
+      <c r="A1229" s="1" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2">
+      <c r="A1230" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2">
+      <c r="A1231" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2">
+      <c r="A1232" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2">
+      <c r="A1233" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="A1234" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2">
+      <c r="A1235" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2">
+      <c r="A1236" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2">
+      <c r="A1237" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2">
+      <c r="A1238" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2">
+      <c r="A1239" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="A1240" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2">
+      <c r="A1241" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2">
+      <c r="A1242" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2">
+      <c r="A1243" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2">
+      <c r="A1244" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2">
+      <c r="A1245" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2">
+      <c r="A1246" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2">
+      <c r="A1247" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2">
+      <c r="A1248" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="A1249" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="A1250" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="A1251" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="A1252" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2">
+      <c r="A1253" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2">
+      <c r="A1254" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2">
+      <c r="A1255" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2">
+      <c r="A1256" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2">
+      <c r="A1257" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2">
+      <c r="A1258" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2">
+      <c r="A1259" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2">
+      <c r="A1260" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2">
+      <c r="A1261" s="1" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="A1262" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="A1263" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2">
+      <c r="A1265" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2">
+      <c r="A1266" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="A1267" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="A1268" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="A1269" s="1" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2">
+      <c r="A1270" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2">
+      <c r="A1271" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2">
+      <c r="A1272" s="1" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2">
+      <c r="A1273" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2">
+      <c r="A1274" s="1" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2">
+      <c r="A1275" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="A1276" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="A1277" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2">
+      <c r="A1278" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2">
+      <c r="A1279" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2">
+      <c r="A1280" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="A1281" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2">
+      <c r="A1282" s="1" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2">
+      <c r="A1283" s="1" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2">
+      <c r="A1284" s="1" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2">
+      <c r="A1285" s="1" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2">
+      <c r="A1286" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2">
+      <c r="A1287" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2">
+      <c r="A1288" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="A1289" s="1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2">
+      <c r="A1290" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2">
+      <c r="A1291" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2">
+      <c r="A1292" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2">
+      <c r="A1293" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2">
+      <c r="A1294" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2">
+      <c r="A1295" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2">
+      <c r="A1296" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2">
+      <c r="A1297" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2">
+      <c r="A1298" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2">
+      <c r="A1299" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2">
+      <c r="A1300" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2">
+      <c r="A1301" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2">
+      <c r="A1302" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2">
+      <c r="A1303" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="A1304" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="A1305" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2">
+      <c r="A1306" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="A1307" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="A1308" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2">
+      <c r="A1309" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="A1310" s="1" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="A1311" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" s="1" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2">
+      <c r="A1319" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="A1320" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2">
+      <c r="A1321" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2">
+      <c r="A1323" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="A1324" s="1" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="A1325" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" s="1" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" s="1" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" s="1" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" s="1" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="A1340" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" s="1" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" s="1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" s="1" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" s="1" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="A1349" s="1" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="A1350" s="1" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="A1351" s="1" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="A1352" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="A1353" s="1" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2">
+      <c r="A1354" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="A1355" s="1" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2">
+      <c r="A1356" s="1" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" s="1" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="A1358" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="A1359" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2">
+      <c r="A1361" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2">
+      <c r="A1362" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2">
+      <c r="A1363" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2">
+      <c r="A1364" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2">
+      <c r="A1365" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2">
+      <c r="A1366" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2">
+      <c r="A1367" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2">
+      <c r="A1368" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2">
+      <c r="A1369" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2">
+      <c r="A1370" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2">
+      <c r="A1371" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2">
+      <c r="A1372" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2">
+      <c r="A1373" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2">
+      <c r="A1374" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2">
+      <c r="A1375" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2">
+      <c r="A1376" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2">
+      <c r="A1377" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2">
+      <c r="A1378" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2">
+      <c r="A1379" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2">
+      <c r="A1380" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2">
+      <c r="A1381" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2">
+      <c r="A1382" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2">
+      <c r="A1383" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2">
+      <c r="A1384" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2">
+      <c r="A1385" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2">
+      <c r="A1386" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2">
+      <c r="A1387" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2">
+      <c r="A1388" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2">
+      <c r="A1389" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2">
+      <c r="A1390" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2">
+      <c r="A1391" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2">
+      <c r="A1392" s="1" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2">
+      <c r="A1393" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2">
+      <c r="A1394" s="1" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2">
+      <c r="A1395" s="1" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2">
+      <c r="A1396" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2">
+      <c r="A1397" s="1" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2">
+      <c r="A1398" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2">
+      <c r="A1399" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2">
+      <c r="A1400" s="1" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2">
+      <c r="A1401" s="1" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" s="1" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2">
+      <c r="A1403" s="1" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2">
+      <c r="A1404" s="1" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2">
+      <c r="A1405" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2">
+      <c r="A1406" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2">
+      <c r="A1407" s="1" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2">
+      <c r="A1408" s="1" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2">
+      <c r="A1409" s="1" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2">
+      <c r="A1410" s="1" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2">
+      <c r="A1411" s="1" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2">
+      <c r="A1412" s="1" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2">
+      <c r="A1413" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2">
+      <c r="A1414" s="1" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2">
+      <c r="A1415" s="1" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2">
+      <c r="A1416" s="1" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2">
+      <c r="A1417" s="1" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2">
+      <c r="A1418" s="1" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2">
+      <c r="A1419" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2">
+      <c r="A1420" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2">
+      <c r="A1421" s="1" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2">
+      <c r="A1422" s="1" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2">
+      <c r="A1423" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2">
+      <c r="A1424" s="1" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2">
+      <c r="A1425" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2">
+      <c r="A1426" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2">
+      <c r="A1427" s="1" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2">
+      <c r="A1428" s="1" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2">
+      <c r="A1429" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2">
+      <c r="A1430" s="1" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2">
+      <c r="A1431" s="1" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2">
+      <c r="A1432" s="1" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2">
+      <c r="A1433" s="1" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2">
+      <c r="A1434" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2">
+      <c r="A1435" s="1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2">
+      <c r="A1436" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2">
+      <c r="A1437" s="1" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2">
+      <c r="A1438" s="1" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2">
+      <c r="A1439" s="1" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2">
+      <c r="A1440" s="1" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2">
+      <c r="A1441" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2">
+      <c r="A1442" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2">
+      <c r="A1443" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2">
+      <c r="A1444" s="1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2">
+      <c r="A1445" s="1" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2">
+      <c r="A1446" s="1" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2">
+      <c r="A1447" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2">
+      <c r="A1448" s="1" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2">
+      <c r="A1449" s="1" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2">
+      <c r="A1450" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2">
+      <c r="A1451" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2">
+      <c r="A1452" s="1" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2">
+      <c r="A1453" s="1" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2">
+      <c r="A1454" s="1" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2">
+      <c r="A1455" s="1" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2">
+      <c r="A1456" s="1" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2">
+      <c r="A1457" s="1" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2">
+      <c r="A1458" s="1" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2">
+      <c r="A1459" s="1" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2">
+      <c r="A1460" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2">
+      <c r="A1461" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2">
+      <c r="A1462" s="1" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2">
+      <c r="A1463" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2">
+      <c r="A1464" s="1" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2">
+      <c r="A1465" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2">
+      <c r="A1466" s="1" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2">
+      <c r="A1467" s="1" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2">
+      <c r="A1468" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2">
+      <c r="A1469" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2">
+      <c r="A1470" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2">
+      <c r="A1471" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2">
+      <c r="A1472" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2">
+      <c r="A1473" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2">
+      <c r="A1474" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2">
+      <c r="A1475" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2">
+      <c r="A1476" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2">
+      <c r="A1477" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2">
+      <c r="A1478" s="1" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2">
+      <c r="A1479" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2">
+      <c r="A1480" s="1" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2">
+      <c r="A1481" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2">
+      <c r="A1482" s="1" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2">
+      <c r="A1483" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2">
+      <c r="A1484" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2">
+      <c r="A1485" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2">
+      <c r="A1486" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2">
+      <c r="A1487" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2">
+      <c r="A1488" s="1" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2">
+      <c r="A1489" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2">
+      <c r="A1490" s="1" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2">
+      <c r="A1491" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2">
+      <c r="A1492" s="1" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2">
+      <c r="A1493" s="1" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2">
+      <c r="A1494" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2">
+      <c r="A1495" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2">
+      <c r="A1496" s="1" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2">
+      <c r="A1497" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2">
+      <c r="A1498" s="1" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2">
+      <c r="A1499" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2">
+      <c r="A1500" s="1" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2">
+      <c r="A1501" s="1" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2">
+      <c r="A1502" s="1" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2">
+      <c r="A1503" s="1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2">
+      <c r="A1504" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2">
+      <c r="A1505" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2">
+      <c r="A1506" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2">
+      <c r="A1507" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2">
+      <c r="A1508" s="1" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2">
+      <c r="A1509" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2">
+      <c r="A1510" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2">
+      <c r="A1511" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2">
+      <c r="A1512" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2">
+      <c r="A1513" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2">
+      <c r="A1514" s="1" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2">
+      <c r="A1515" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2">
+      <c r="A1516" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2">
+      <c r="A1517" s="1" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2">
+      <c r="A1518" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2">
+      <c r="A1519" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2">
+      <c r="A1520" s="1" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2">
+      <c r="A1521" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2">
+      <c r="A1522" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2">
+      <c r="A1523" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2">
+      <c r="A1524" s="1" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2">
+      <c r="A1525" s="1" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2">
+      <c r="A1526" s="1" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2">
+      <c r="A1527" s="1" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2">
+      <c r="A1528" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2">
+      <c r="A1529" s="1" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2">
+      <c r="A1530" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2">
+      <c r="A1531" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2">
+      <c r="A1532" s="1" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2">
+      <c r="A1533" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2">
+      <c r="A1534" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2">
+      <c r="A1535" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2">
+      <c r="A1536" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2">
+      <c r="A1537" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2">
+      <c r="A1538" s="1" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2">
+      <c r="A1539" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2">
+      <c r="A1540" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2">
+      <c r="A1541" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2">
+      <c r="A1542" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2">
+      <c r="A1543" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2">
+      <c r="A1544" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2">
+      <c r="A1545" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2">
+      <c r="A1546" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2">
+      <c r="A1547" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2">
+      <c r="A1548" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="A1549" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2">
+      <c r="A1550" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>4413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18753,13 +26410,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A2:B160"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -18772,7 +26429,7 @@
     <col min="5" max="16384" width="8.7265625" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="59" customFormat="1" ht="18">
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="55" t="s">
         <v>3021</v>
       </c>
@@ -18788,7 +26445,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="59" customFormat="1">
+    <row r="4" spans="1:2">
       <c r="A4" s="40">
         <v>1001</v>
       </c>
@@ -18796,7 +26453,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="59" customFormat="1">
+    <row r="5" spans="1:2">
       <c r="A5" s="56">
         <v>1010</v>
       </c>
@@ -18804,7 +26461,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="59" customFormat="1">
+    <row r="6" spans="1:2">
       <c r="A6" s="58">
         <v>1011</v>
       </c>
@@ -18812,7 +26469,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="59" customFormat="1">
+    <row r="7" spans="1:2">
       <c r="A7" s="58">
         <v>1012</v>
       </c>
@@ -18820,7 +26477,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="59" customFormat="1">
+    <row r="8" spans="1:2">
       <c r="A8" s="58">
         <v>1013</v>
       </c>
@@ -18828,7 +26485,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="59" customFormat="1">
+    <row r="9" spans="1:2">
       <c r="A9" s="56">
         <v>1020</v>
       </c>
@@ -18836,7 +26493,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="59" customFormat="1">
+    <row r="10" spans="1:2">
       <c r="A10" s="58">
         <v>1021</v>
       </c>
@@ -18844,7 +26501,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="59" customFormat="1">
+    <row r="11" spans="1:2">
       <c r="A11" s="58">
         <v>1022</v>
       </c>
@@ -18852,7 +26509,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="59" customFormat="1">
+    <row r="12" spans="1:2">
       <c r="A12" s="58">
         <v>1023</v>
       </c>
@@ -18860,7 +26517,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="59" customFormat="1">
+    <row r="13" spans="1:2">
       <c r="A13" s="56">
         <v>1030</v>
       </c>
@@ -18876,7 +26533,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="59" customFormat="1">
+    <row r="15" spans="1:2">
       <c r="A15" s="58">
         <v>1032</v>
       </c>
@@ -18884,7 +26541,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="59" customFormat="1">
+    <row r="16" spans="1:2">
       <c r="A16" s="56">
         <v>1040</v>
       </c>
@@ -18892,7 +26549,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="59" customFormat="1">
+    <row r="17" spans="1:2">
       <c r="A17" s="58">
         <v>1041</v>
       </c>
@@ -18900,7 +26557,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="59" customFormat="1">
+    <row r="18" spans="1:2">
       <c r="A18" s="56">
         <v>1050</v>
       </c>
@@ -18908,7 +26565,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="59" customFormat="1">
+    <row r="19" spans="1:2">
       <c r="A19" s="58">
         <v>1051</v>
       </c>
@@ -18916,7 +26573,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="59" customFormat="1">
+    <row r="20" spans="1:2">
       <c r="A20" s="56">
         <v>1060</v>
       </c>
@@ -18924,7 +26581,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="59" customFormat="1">
+    <row r="21" spans="1:2">
       <c r="A21" s="58">
         <v>1061</v>
       </c>
@@ -18932,7 +26589,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="59" customFormat="1">
+    <row r="22" spans="1:2">
       <c r="A22" s="56">
         <v>1070</v>
       </c>
@@ -18940,7 +26597,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="59" customFormat="1">
+    <row r="23" spans="1:2">
       <c r="A23" s="58">
         <v>1071</v>
       </c>
@@ -18948,7 +26605,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="59" customFormat="1">
+    <row r="24" spans="1:2">
       <c r="A24" s="58">
         <v>1072</v>
       </c>
@@ -18956,7 +26613,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="59" customFormat="1">
+    <row r="25" spans="1:2">
       <c r="A25" s="58">
         <v>1073</v>
       </c>
@@ -18964,7 +26621,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="59" customFormat="1">
+    <row r="26" spans="1:2">
       <c r="A26" s="58">
         <v>1074</v>
       </c>
@@ -18972,11 +26629,11 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="59" customFormat="1">
+    <row r="27" spans="1:2">
       <c r="A27" s="67"/>
       <c r="B27" s="68"/>
     </row>
-    <row r="28" spans="1:2" s="59" customFormat="1">
+    <row r="28" spans="1:2">
       <c r="A28" s="39">
         <v>1100</v>
       </c>
@@ -18984,7 +26641,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="59" customFormat="1">
+    <row r="29" spans="1:2">
       <c r="A29" s="41">
         <v>1101</v>
       </c>
@@ -18992,7 +26649,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="59" customFormat="1">
+    <row r="30" spans="1:2">
       <c r="A30" s="56">
         <v>1110</v>
       </c>
@@ -19000,7 +26657,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="59" customFormat="1">
+    <row r="31" spans="1:2">
       <c r="A31" s="40">
         <v>1111</v>
       </c>
@@ -19016,7 +26673,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="59" customFormat="1">
+    <row r="33" spans="1:2">
       <c r="A33" s="40">
         <v>1121</v>
       </c>
@@ -19024,7 +26681,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="59" customFormat="1">
+    <row r="34" spans="1:2">
       <c r="A34" s="40">
         <v>1122</v>
       </c>
@@ -19032,7 +26689,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="59" customFormat="1">
+    <row r="35" spans="1:2">
       <c r="A35" s="40">
         <v>1123</v>
       </c>
@@ -19040,7 +26697,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="59" customFormat="1">
+    <row r="36" spans="1:2">
       <c r="A36" s="69">
         <v>1124</v>
       </c>
@@ -19048,7 +26705,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="59" customFormat="1">
+    <row r="37" spans="1:2">
       <c r="A37" s="69">
         <v>1125</v>
       </c>
@@ -19064,7 +26721,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="59" customFormat="1">
+    <row r="39" spans="1:2">
       <c r="A39" s="42">
         <v>1131</v>
       </c>
@@ -19080,7 +26737,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="59" customFormat="1">
+    <row r="41" spans="1:2">
       <c r="A41" s="40">
         <v>1133</v>
       </c>
@@ -19088,7 +26745,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="59" customFormat="1">
+    <row r="42" spans="1:2">
       <c r="A42" s="56">
         <v>1140</v>
       </c>
@@ -19096,7 +26753,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="59" customFormat="1">
+    <row r="43" spans="1:2">
       <c r="A43" s="40">
         <v>1141</v>
       </c>
@@ -19104,7 +26761,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="59" customFormat="1">
+    <row r="44" spans="1:2">
       <c r="A44" s="40">
         <v>1142</v>
       </c>
@@ -19112,7 +26769,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="59" customFormat="1">
+    <row r="45" spans="1:2">
       <c r="A45" s="40">
         <v>1143</v>
       </c>
@@ -19120,7 +26777,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="59" customFormat="1">
+    <row r="46" spans="1:2">
       <c r="A46" s="65">
         <v>1144</v>
       </c>
@@ -19128,7 +26785,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="59" customFormat="1">
+    <row r="47" spans="1:2">
       <c r="A47" s="65">
         <v>1145</v>
       </c>
@@ -19136,7 +26793,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="59" customFormat="1">
+    <row r="48" spans="1:2">
       <c r="A48" s="65">
         <v>1146</v>
       </c>
@@ -19144,7 +26801,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="59" customFormat="1">
+    <row r="49" spans="1:2">
       <c r="A49" s="56">
         <v>1150</v>
       </c>
@@ -19152,7 +26809,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="59" customFormat="1">
+    <row r="50" spans="1:2">
       <c r="A50" s="40">
         <v>1151</v>
       </c>
@@ -19160,7 +26817,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="59" customFormat="1">
+    <row r="51" spans="1:2">
       <c r="A51" s="40">
         <v>1152</v>
       </c>
@@ -19168,7 +26825,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="59" customFormat="1">
+    <row r="52" spans="1:2">
       <c r="A52" s="40">
         <v>1153</v>
       </c>
@@ -19176,7 +26833,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="59" customFormat="1">
+    <row r="53" spans="1:2">
       <c r="A53" s="40">
         <v>1154</v>
       </c>
@@ -19184,7 +26841,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="59" customFormat="1">
+    <row r="54" spans="1:2">
       <c r="A54" s="56">
         <v>1160</v>
       </c>
@@ -19192,7 +26849,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="59" customFormat="1">
+    <row r="55" spans="1:2">
       <c r="A55" s="42">
         <v>1161</v>
       </c>
@@ -19200,7 +26857,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="59" customFormat="1">
+    <row r="56" spans="1:2">
       <c r="A56" s="56">
         <v>1180</v>
       </c>
@@ -19208,7 +26865,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="59" customFormat="1">
+    <row r="57" spans="1:2">
       <c r="A57" s="41">
         <v>1181</v>
       </c>
@@ -19216,7 +26873,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="59" customFormat="1">
+    <row r="58" spans="1:2">
       <c r="A58" s="40">
         <v>1184</v>
       </c>
@@ -19224,7 +26881,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="59" customFormat="1">
+    <row r="59" spans="1:2">
       <c r="A59" s="40">
         <v>1186</v>
       </c>
@@ -19232,7 +26889,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="59" customFormat="1">
+    <row r="60" spans="1:2">
       <c r="A60" s="40">
         <v>1188</v>
       </c>
@@ -19240,7 +26897,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="59" customFormat="1">
+    <row r="61" spans="1:2">
       <c r="A61" s="40">
         <f>+A60+1</f>
         <v>1189</v>
@@ -19249,7 +26906,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="59" customFormat="1">
+    <row r="62" spans="1:2">
       <c r="A62" s="40">
         <f>+A61+1</f>
         <v>1190</v>
@@ -19258,7 +26915,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="59" customFormat="1">
+    <row r="63" spans="1:2">
       <c r="A63" s="40">
         <f>+A62+1</f>
         <v>1191</v>
@@ -19267,7 +26924,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="59" customFormat="1">
+    <row r="64" spans="1:2">
       <c r="A64" s="40">
         <v>1192</v>
       </c>
@@ -19275,7 +26932,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="59" customFormat="1">
+    <row r="65" spans="1:2">
       <c r="A65" s="67">
         <v>1193</v>
       </c>
@@ -19283,7 +26940,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="59" customFormat="1">
+    <row r="66" spans="1:2">
       <c r="A66" s="67">
         <v>1194</v>
       </c>
@@ -19291,7 +26948,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="59" customFormat="1">
+    <row r="67" spans="1:2">
       <c r="A67" s="67">
         <v>1195</v>
       </c>
@@ -19299,11 +26956,11 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="59" customFormat="1">
+    <row r="68" spans="1:2">
       <c r="A68" s="67"/>
       <c r="B68" s="68"/>
     </row>
-    <row r="69" spans="1:2" s="59" customFormat="1">
+    <row r="69" spans="1:2">
       <c r="A69" s="39">
         <v>1200</v>
       </c>
@@ -19311,7 +26968,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="59" customFormat="1">
+    <row r="70" spans="1:2">
       <c r="A70" s="40">
         <v>1201</v>
       </c>
@@ -19319,7 +26976,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="59" customFormat="1">
+    <row r="71" spans="1:2">
       <c r="A71" s="56">
         <v>1210</v>
       </c>
@@ -19327,7 +26984,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="59" customFormat="1">
+    <row r="72" spans="1:2">
       <c r="A72" s="40">
         <v>1211</v>
       </c>
@@ -19335,7 +26992,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="59" customFormat="1">
+    <row r="73" spans="1:2">
       <c r="A73" s="40">
         <f>+A72+1</f>
         <v>1212</v>
@@ -19344,7 +27001,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="59" customFormat="1">
+    <row r="74" spans="1:2">
       <c r="A74" s="40">
         <f>+A73+1</f>
         <v>1213</v>
@@ -19353,7 +27010,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="59" customFormat="1">
+    <row r="75" spans="1:2">
       <c r="A75" s="40">
         <f>+A74+1</f>
         <v>1214</v>
@@ -19362,7 +27019,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="59" customFormat="1">
+    <row r="76" spans="1:2">
       <c r="A76" s="40">
         <f>+A75+1</f>
         <v>1215</v>
@@ -19371,7 +27028,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="59" customFormat="1">
+    <row r="77" spans="1:2">
       <c r="A77" s="40">
         <v>1216</v>
       </c>
@@ -19379,7 +27036,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="59" customFormat="1">
+    <row r="78" spans="1:2">
       <c r="A78" s="56">
         <v>1220</v>
       </c>
@@ -19387,7 +27044,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="59" customFormat="1">
+    <row r="79" spans="1:2">
       <c r="A79" s="40">
         <v>1221</v>
       </c>
@@ -19395,7 +27052,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="59" customFormat="1">
+    <row r="80" spans="1:2">
       <c r="A80" s="40">
         <v>1222</v>
       </c>
@@ -19403,7 +27060,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="59" customFormat="1">
+    <row r="81" spans="1:2">
       <c r="A81" s="40">
         <v>1223</v>
       </c>
@@ -19411,7 +27068,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="59" customFormat="1">
+    <row r="82" spans="1:2">
       <c r="A82" s="56">
         <v>1230</v>
       </c>
@@ -19419,7 +27076,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="59" customFormat="1">
+    <row r="83" spans="1:2">
       <c r="A83" s="40">
         <v>1231</v>
       </c>
@@ -19427,7 +27084,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="59" customFormat="1">
+    <row r="84" spans="1:2">
       <c r="A84" s="40">
         <v>1232</v>
       </c>
@@ -19435,7 +27092,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="59" customFormat="1">
+    <row r="85" spans="1:2">
       <c r="A85" s="56">
         <v>1240</v>
       </c>
@@ -19443,7 +27100,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="59" customFormat="1">
+    <row r="86" spans="1:2">
       <c r="A86" s="40">
         <f>+A85+1</f>
         <v>1241</v>
@@ -19452,7 +27109,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="59" customFormat="1">
+    <row r="87" spans="1:2">
       <c r="A87" s="40">
         <f>+A86+1</f>
         <v>1242</v>
@@ -19461,7 +27118,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="59" customFormat="1">
+    <row r="88" spans="1:2">
       <c r="A88" s="40">
         <f>+A87+1</f>
         <v>1243</v>
@@ -19470,7 +27127,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="59" customFormat="1">
+    <row r="89" spans="1:2">
       <c r="A89" s="40">
         <f>+A88+1</f>
         <v>1244</v>
@@ -19479,7 +27136,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="59" customFormat="1">
+    <row r="90" spans="1:2">
       <c r="A90" s="40">
         <f>+A89+1</f>
         <v>1245</v>
@@ -19488,7 +27145,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="59" customFormat="1">
+    <row r="91" spans="1:2">
       <c r="A91" s="40">
         <v>1246</v>
       </c>
@@ -19496,7 +27153,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="59" customFormat="1">
+    <row r="92" spans="1:2">
       <c r="A92" s="56">
         <v>1250</v>
       </c>
@@ -19504,7 +27161,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="59" customFormat="1">
+    <row r="93" spans="1:2">
       <c r="A93" s="40">
         <v>1251</v>
       </c>
@@ -19512,7 +27169,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="59" customFormat="1">
+    <row r="94" spans="1:2">
       <c r="A94" s="40">
         <v>1252</v>
       </c>
@@ -19520,7 +27177,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="59" customFormat="1">
+    <row r="95" spans="1:2">
       <c r="A95" s="40">
         <v>1253</v>
       </c>
@@ -19528,7 +27185,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="59" customFormat="1">
+    <row r="96" spans="1:2">
       <c r="A96" s="56">
         <v>1280</v>
       </c>
@@ -19536,7 +27193,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="59" customFormat="1">
+    <row r="97" spans="1:2">
       <c r="A97" s="40">
         <f>+A96+1</f>
         <v>1281</v>
@@ -19545,7 +27202,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="59" customFormat="1">
+    <row r="98" spans="1:2">
       <c r="A98" s="40">
         <f>+A97+1</f>
         <v>1282</v>
@@ -19554,7 +27211,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="59" customFormat="1">
+    <row r="99" spans="1:2">
       <c r="A99" s="40">
         <f>+A98+1</f>
         <v>1283</v>
@@ -19563,7 +27220,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="59" customFormat="1">
+    <row r="100" spans="1:2">
       <c r="A100" s="40">
         <v>1284</v>
       </c>
@@ -19571,7 +27228,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="59" customFormat="1">
+    <row r="101" spans="1:2">
       <c r="A101" s="40">
         <v>1285</v>
       </c>
@@ -19579,7 +27236,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="59" customFormat="1">
+    <row r="102" spans="1:2">
       <c r="A102" s="40">
         <v>1286</v>
       </c>
@@ -19587,7 +27244,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="59" customFormat="1">
+    <row r="103" spans="1:2">
       <c r="A103" s="40">
         <v>1288</v>
       </c>
@@ -19595,7 +27252,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="59" customFormat="1">
+    <row r="104" spans="1:2">
       <c r="A104" s="67">
         <v>1289</v>
       </c>
@@ -19603,11 +27260,11 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="59" customFormat="1">
+    <row r="105" spans="1:2">
       <c r="A105" s="67"/>
       <c r="B105" s="68"/>
     </row>
-    <row r="106" spans="1:2" s="59" customFormat="1">
+    <row r="106" spans="1:2">
       <c r="A106" s="39">
         <v>1300</v>
       </c>
@@ -19615,7 +27272,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="59" customFormat="1">
+    <row r="107" spans="1:2">
       <c r="A107" s="40">
         <v>1301</v>
       </c>
@@ -19623,7 +27280,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="59" customFormat="1">
+    <row r="108" spans="1:2">
       <c r="A108" s="56">
         <v>1310</v>
       </c>
@@ -19631,7 +27288,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="59" customFormat="1">
+    <row r="109" spans="1:2">
       <c r="A109" s="40">
         <v>1311</v>
       </c>
@@ -19639,7 +27296,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="59" customFormat="1">
+    <row r="110" spans="1:2">
       <c r="A110" s="41">
         <f>+A109+1</f>
         <v>1312</v>
@@ -19648,7 +27305,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="59" customFormat="1">
+    <row r="111" spans="1:2">
       <c r="A111" s="56">
         <v>1320</v>
       </c>
@@ -19656,7 +27313,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="59" customFormat="1">
+    <row r="112" spans="1:2">
       <c r="A112" s="40">
         <f>+A111+1</f>
         <v>1321</v>
@@ -19665,7 +27322,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="59" customFormat="1">
+    <row r="113" spans="1:2">
       <c r="A113" s="40">
         <f>+A112+1</f>
         <v>1322</v>
@@ -19674,7 +27331,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="59" customFormat="1">
+    <row r="114" spans="1:2">
       <c r="A114" s="40">
         <f>+A113+1</f>
         <v>1323</v>
@@ -19683,7 +27340,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="59" customFormat="1">
+    <row r="115" spans="1:2">
       <c r="A115" s="40">
         <f>+A114+1</f>
         <v>1324</v>
@@ -19692,7 +27349,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="59" customFormat="1">
+    <row r="116" spans="1:2">
       <c r="A116" s="56">
         <v>1330</v>
       </c>
@@ -19700,7 +27357,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="59" customFormat="1">
+    <row r="117" spans="1:2">
       <c r="A117" s="40">
         <v>1331</v>
       </c>
@@ -19708,7 +27365,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="59" customFormat="1">
+    <row r="118" spans="1:2">
       <c r="A118" s="40">
         <v>1332</v>
       </c>
@@ -19716,7 +27373,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="59" customFormat="1">
+    <row r="119" spans="1:2">
       <c r="A119" s="40">
         <v>1333</v>
       </c>
@@ -19724,7 +27381,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="59" customFormat="1">
+    <row r="120" spans="1:2">
       <c r="A120" s="67">
         <v>1334</v>
       </c>
@@ -19732,7 +27389,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="59" customFormat="1">
+    <row r="121" spans="1:2">
       <c r="A121" s="67">
         <v>1335</v>
       </c>
@@ -19740,7 +27397,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="59" customFormat="1">
+    <row r="122" spans="1:2">
       <c r="A122" s="67">
         <v>1336</v>
       </c>
@@ -19748,7 +27405,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="59" customFormat="1">
+    <row r="123" spans="1:2">
       <c r="A123" s="56">
         <v>1340</v>
       </c>
@@ -19756,7 +27413,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="59" customFormat="1">
+    <row r="124" spans="1:2">
       <c r="A124" s="40">
         <f>+A123+1</f>
         <v>1341</v>
@@ -19765,7 +27422,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="59" customFormat="1">
+    <row r="125" spans="1:2">
       <c r="A125" s="40">
         <f>+A124+1</f>
         <v>1342</v>
@@ -19774,7 +27431,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="59" customFormat="1">
+    <row r="126" spans="1:2">
       <c r="A126" s="40">
         <v>1347</v>
       </c>
@@ -19782,7 +27439,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="59" customFormat="1">
+    <row r="127" spans="1:2">
       <c r="A127" s="70">
         <f>A126+1</f>
         <v>1348</v>
@@ -19791,7 +27448,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="59" customFormat="1">
+    <row r="128" spans="1:2">
       <c r="A128" s="56">
         <v>1350</v>
       </c>
@@ -19799,7 +27456,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="59" customFormat="1">
+    <row r="129" spans="1:2">
       <c r="A129" s="40">
         <v>1351</v>
       </c>
@@ -19807,7 +27464,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="59" customFormat="1">
+    <row r="130" spans="1:2">
       <c r="A130" s="40">
         <v>1352</v>
       </c>
@@ -19815,7 +27472,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="59" customFormat="1">
+    <row r="131" spans="1:2">
       <c r="A131" s="56">
         <v>1360</v>
       </c>
@@ -19823,7 +27480,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="59" customFormat="1">
+    <row r="132" spans="1:2">
       <c r="A132" s="40">
         <v>1361</v>
       </c>
@@ -19831,11 +27488,11 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="59" customFormat="1">
+    <row r="133" spans="1:2">
       <c r="A133" s="40"/>
       <c r="B133" s="40"/>
     </row>
-    <row r="134" spans="1:2" s="59" customFormat="1">
+    <row r="134" spans="1:2">
       <c r="A134" s="39">
         <v>1400</v>
       </c>
@@ -19843,7 +27500,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="59" customFormat="1">
+    <row r="135" spans="1:2">
       <c r="A135" s="40">
         <f>+A134+1</f>
         <v>1401</v>
@@ -19852,7 +27509,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="59" customFormat="1">
+    <row r="136" spans="1:2">
       <c r="A136" s="56">
         <v>1410</v>
       </c>
@@ -19860,7 +27517,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="59" customFormat="1">
+    <row r="137" spans="1:2">
       <c r="A137" s="40">
         <f>+A136+1</f>
         <v>1411</v>
@@ -19869,7 +27526,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="59" customFormat="1">
+    <row r="138" spans="1:2">
       <c r="A138" s="40">
         <f>+A137+1</f>
         <v>1412</v>
@@ -19878,7 +27535,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="59" customFormat="1">
+    <row r="139" spans="1:2">
       <c r="A139" s="40">
         <f>+A138+1</f>
         <v>1413</v>
@@ -19887,7 +27544,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="59" customFormat="1">
+    <row r="140" spans="1:2">
       <c r="A140" s="56">
         <v>1420</v>
       </c>
@@ -19895,7 +27552,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="59" customFormat="1">
+    <row r="141" spans="1:2">
       <c r="A141" s="40">
         <f>+A140+1</f>
         <v>1421</v>
@@ -19904,7 +27561,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="59" customFormat="1">
+    <row r="142" spans="1:2">
       <c r="A142" s="40">
         <v>1422</v>
       </c>
@@ -19912,7 +27569,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="59" customFormat="1">
+    <row r="143" spans="1:2">
       <c r="A143" s="40">
         <v>1423</v>
       </c>
@@ -19920,7 +27577,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="59" customFormat="1">
+    <row r="144" spans="1:2">
       <c r="A144" s="40">
         <v>1424</v>
       </c>
@@ -19928,67 +27585,67 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="59" customFormat="1">
+    <row r="145" spans="1:2">
       <c r="A145" s="61"/>
       <c r="B145" s="62"/>
     </row>
-    <row r="146" spans="1:2" s="59" customFormat="1">
+    <row r="146" spans="1:2">
       <c r="A146" s="63"/>
       <c r="B146" s="64"/>
     </row>
-    <row r="147" spans="1:2" s="59" customFormat="1">
+    <row r="147" spans="1:2">
       <c r="A147" s="63"/>
       <c r="B147" s="64"/>
     </row>
-    <row r="148" spans="1:2" s="59" customFormat="1">
+    <row r="148" spans="1:2">
       <c r="A148" s="63"/>
       <c r="B148" s="64"/>
     </row>
-    <row r="149" spans="1:2" s="59" customFormat="1">
+    <row r="149" spans="1:2">
       <c r="A149" s="60"/>
       <c r="B149" s="60"/>
     </row>
-    <row r="150" spans="1:2" s="59" customFormat="1">
+    <row r="150" spans="1:2">
       <c r="A150" s="60"/>
       <c r="B150" s="60"/>
     </row>
-    <row r="151" spans="1:2" s="59" customFormat="1">
+    <row r="151" spans="1:2">
       <c r="A151" s="60"/>
       <c r="B151" s="60"/>
     </row>
-    <row r="152" spans="1:2" s="59" customFormat="1">
+    <row r="152" spans="1:2">
       <c r="A152" s="60"/>
       <c r="B152" s="60"/>
     </row>
-    <row r="153" spans="1:2" s="59" customFormat="1">
+    <row r="153" spans="1:2">
       <c r="A153" s="60"/>
       <c r="B153" s="60"/>
     </row>
-    <row r="154" spans="1:2" s="59" customFormat="1">
+    <row r="154" spans="1:2">
       <c r="A154" s="60"/>
       <c r="B154" s="60"/>
     </row>
-    <row r="155" spans="1:2" s="59" customFormat="1">
+    <row r="155" spans="1:2">
       <c r="A155" s="60"/>
       <c r="B155" s="60"/>
     </row>
-    <row r="156" spans="1:2" s="59" customFormat="1">
+    <row r="156" spans="1:2">
       <c r="A156" s="60"/>
       <c r="B156" s="60"/>
     </row>
-    <row r="157" spans="1:2" s="59" customFormat="1">
+    <row r="157" spans="1:2">
       <c r="A157" s="60"/>
       <c r="B157" s="60"/>
     </row>
-    <row r="158" spans="1:2" s="59" customFormat="1">
+    <row r="158" spans="1:2">
       <c r="A158" s="60"/>
       <c r="B158" s="60"/>
     </row>
-    <row r="159" spans="1:2" s="59" customFormat="1">
+    <row r="159" spans="1:2">
       <c r="A159" s="60"/>
       <c r="B159" s="60"/>
     </row>
-    <row r="160" spans="1:2" s="59" customFormat="1">
+    <row r="160" spans="1:2">
       <c r="A160" s="60"/>
       <c r="B160" s="60"/>
     </row>
@@ -19999,13 +27656,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B1386"/>
   <sheetViews>
-    <sheetView topLeftCell="A1010" workbookViewId="0">
+    <sheetView topLeftCell="A989" workbookViewId="0">
       <selection activeCell="B1017" sqref="B1017"/>
     </sheetView>
   </sheetViews>
@@ -29689,13 +37346,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A2:B82"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -30348,7 +38005,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -30356,7 +38013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -30838,13 +38495,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B2:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59866938-04D8-47E7-A583-98DEA1AE4396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B992138-F501-497C-9F72-A33F4F2669AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="4434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4475" uniqueCount="4438">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13348,6 +13347,18 @@
   </si>
   <si>
     <t>VITOL AVIATION PARIS</t>
+  </si>
+  <si>
+    <t>L0070</t>
+  </si>
+  <si>
+    <t>LUFTAVIA LTD</t>
+  </si>
+  <si>
+    <t>T0107</t>
+  </si>
+  <si>
+    <t>TOTAL ENERGY MARKETING UK LTD</t>
   </si>
 </sst>
 </file>
@@ -14041,10 +14052,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1554"/>
+  <dimension ref="A1:B1556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1511" workbookViewId="0">
-      <selection activeCell="B1531" sqref="B1531"/>
+    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
+      <selection activeCell="B1501" sqref="B1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22783,3705 +22794,3721 @@
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" s="1" t="s">
-        <v>3503</v>
+        <v>4434</v>
       </c>
       <c r="B1092" t="s">
-        <v>3504</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" s="1" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="B1093" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" s="1" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="B1094" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" s="1" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="B1095" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="1" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="B1096" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" s="1" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="B1097" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="1" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="B1098" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" s="1" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="B1099" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="1" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="B1100" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" s="1" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="B1101" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="1" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="B1102" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="1" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="B1103" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="1" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="B1104" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" s="1" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="B1105" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" s="1" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="B1106" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="1" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="B1107" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" s="1" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="B1108" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" s="1" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="B1109" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" s="1" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="B1110" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" s="1" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="B1111" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" s="1" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="B1112" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="1" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="B1113" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" s="1" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="B1114" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" s="1" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="B1115" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" s="1" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="B1116" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="1" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="B1117" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" s="1" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="B1118" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" s="1" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="B1119" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" s="1" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="B1120" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" s="1" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="B1121" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" s="1" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="B1122" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="1" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
       <c r="B1123" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" s="1" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="B1124" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" s="1" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="B1125" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="1" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
       <c r="B1126" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" s="1" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="B1127" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" s="1" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
       <c r="B1128" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" s="1" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="B1129" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="1" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="B1130" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="1" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="B1131" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="1" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="B1132" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="1" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="B1133" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" s="1" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="B1134" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="1" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="B1135" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="1" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="B1136" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" s="1" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="B1137" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="1" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="B1138" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="1" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="B1139" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" s="1" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="B1140" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" s="1" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="B1141" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="1" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="B1142" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="1" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="B1143" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="1" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="B1144" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="1" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="B1145" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="1" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="B1146" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="1" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="B1147" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="1" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="B1148" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="1" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="B1149" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="1" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="B1150" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="1" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="B1151" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="1" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="B1152" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" s="1" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="B1153" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="1" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="B1154" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="1" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="B1155" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" s="1" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="B1156" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="1" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="B1157" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="1" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="B1158" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="1" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="B1159" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" s="1" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="B1160" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="1" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="B1161" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="1" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="B1162" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="1" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="B1163" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="1" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="B1164" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" s="1" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="B1165" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" s="1" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="B1166" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="1" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
       <c r="B1167" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" s="1" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
       <c r="B1168" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="1" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="B1169" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="1" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
       <c r="B1170" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="1" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
       <c r="B1171" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="1" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
       <c r="B1172" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="1" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
       <c r="B1173" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" s="1" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
       <c r="B1174" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" s="1" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="B1175" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="1" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
       <c r="B1176" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" s="1" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="B1177" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" s="1" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
       <c r="B1178" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" s="1" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="B1179" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" s="1" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="B1180" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" s="1" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="B1181" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" s="1" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
       <c r="B1182" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" s="1" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="B1183" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" s="1" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
       <c r="B1184" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="1" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
       <c r="B1185" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="1" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="B1186" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="1" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
       <c r="B1187" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="1" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
       <c r="B1188" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="1" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
       <c r="B1189" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190" s="1" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
       <c r="B1190" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" s="1" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
       <c r="B1191" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" s="1" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
       <c r="B1192" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="1" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="B1193" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="1" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="B1194" t="s">
-        <v>3680</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="1" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="B1195" t="s">
-        <v>3709</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" s="1" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="B1196" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="1" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
       <c r="B1197" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
       <c r="A1198" s="1" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
       <c r="B1198" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
       <c r="A1199" s="1" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="B1199" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" s="1" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="B1200" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="1" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="B1201" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="1" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="B1202" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" s="1" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="B1203" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="1" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="B1204" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="1" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="B1205" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" s="1" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="B1206" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="1" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="B1207" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="1" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="B1208" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="1" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
       <c r="B1209" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="1" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="B1210" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="1" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
       <c r="B1211" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="1" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
       <c r="B1212" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="1" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
       <c r="B1213" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" s="1" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
       <c r="B1214" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="1" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
       <c r="B1215" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="1" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
       <c r="B1216" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="1" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
       <c r="B1217" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="1" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="B1218" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="1" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
       <c r="B1219" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="1" t="s">
-        <v>4430</v>
+        <v>3755</v>
       </c>
       <c r="B1220" t="s">
-        <v>4431</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="1" t="s">
-        <v>3757</v>
+        <v>4430</v>
       </c>
       <c r="B1221" t="s">
-        <v>3758</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="1" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="B1222" t="s">
-        <v>3754</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="1" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B1223" t="s">
-        <v>3761</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="1" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="B1224" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="1" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="B1225" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="1" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
       <c r="B1226" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="1" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
       <c r="B1227" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="1" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="B1228" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="1" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="B1229" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230" s="1" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="B1230" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="1" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="B1231" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="1" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="B1232" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="1" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="B1233" t="s">
-        <v>3767</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="1" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="B1234" t="s">
-        <v>3782</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="1" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
       <c r="B1235" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="1" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
       <c r="B1236" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="1" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
       <c r="B1237" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="1" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="B1238" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="1" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="B1239" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="1" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="B1240" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="1" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
       <c r="B1241" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="1" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
       <c r="B1242" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="1" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
       <c r="B1243" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="1" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="B1244" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="1" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="B1245" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="1" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="B1246" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="1" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
       <c r="B1247" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="1" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="B1248" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="1" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
       <c r="B1249" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="1" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
       <c r="B1250" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="1" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
       <c r="B1251" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="1" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="B1252" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="1" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
       <c r="B1253" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="1" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="B1254" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="1" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
       <c r="B1255" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="1" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="B1256" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="1" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="B1257" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="1" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
       <c r="B1258" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="1" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="B1259" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="1" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
       <c r="B1260" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="1" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
       <c r="B1261" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="1" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="B1262" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="1" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="B1263" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="1" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="B1264" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" s="1" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
       <c r="B1265" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
       <c r="A1266" s="1" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="B1266" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="1" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
       <c r="B1267" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="1" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
       <c r="B1268" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269" s="1" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="B1269" t="s">
-        <v>3564</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
       <c r="A1270" s="1" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B1270" t="s">
-        <v>3853</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="1" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="B1271" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
       <c r="A1272" s="1" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="B1272" t="s">
-        <v>2996</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="1" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="B1273" t="s">
-        <v>3858</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="1" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="B1274" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
       <c r="A1275" s="1" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="B1275" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
       <c r="A1276" s="1" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="B1276" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="1" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="B1277" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" s="1" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="B1278" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="1" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="B1279" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="1" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
       <c r="B1280" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="1" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
       <c r="B1281" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="1" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="B1282" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283" s="1" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="B1283" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
       <c r="A1284" s="1" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="B1284" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="1" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="B1285" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="1" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="B1286" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="1" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="B1287" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="1" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="B1288" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="1" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="B1289" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="1" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="B1290" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="B1291" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="B1292" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="B1293" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="B1294" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="B1295" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="B1296" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="B1297" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="B1298" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="B1299" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="B1300" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="B1301" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="B1302" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="B1303" t="s">
-        <v>3914</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="B1304" t="s">
-        <v>3919</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="B1305" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="B1306" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="B1307" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="B1308" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="B1309" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="B1310" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="B1311" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="B1312" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="B1313" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="B1314" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="B1315" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="B1316" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="B1317" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="B1318" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="B1319" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="B1320" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="B1321" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="B1322" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="B1323" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="B1324" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="B1325" t="s">
-        <v>3947</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B1326" t="s">
-        <v>3962</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="B1327" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
       <c r="B1328" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="B1329" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="B1330" t="s">
-        <v>3853</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="B1331" t="s">
-        <v>3971</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="B1332" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="B1333" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="B1334" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="B1335" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="B1336" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="B1337" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="B1338" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="B1339" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="B1340" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="B1341" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="B1342" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="B1343" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="B1344" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="B1345" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="B1346" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="B1347" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="B1348" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="B1349" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="B1350" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="B1351" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="B1352" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="B1353" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="B1354" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="B1355" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="B1356" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="B1357" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="B1358" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="B1359" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="B1360" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="B1361" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="B1362" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="B1363" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="B1364" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="B1365" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="B1366" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="B1367" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="B1368" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="B1369" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="B1370" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="B1371" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="B1372" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="B1373" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
       <c r="B1374" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="B1375" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
       <c r="B1376" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="B1377" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
       <c r="B1378" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="B1379" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="B1380" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="B1381" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="B1382" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="B1383" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="B1384" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="B1385" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="B1386" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="B1387" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="B1388" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="B1389" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="B1390" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="B1391" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="B1392" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="B1393" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="B1394" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="B1395" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="B1396" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="B1397" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="B1398" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="B1399" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="B1400" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="B1401" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="B1402" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="B1403" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="B1404" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
       <c r="B1405" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="B1406" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="B1407" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="B1408" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="B1409" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="B1410" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="B1411" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="B1412" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="B1413" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="B1414" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="B1415" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="B1416" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="B1417" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="B1418" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="B1419" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="B1420" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4428</v>
+        <v>4148</v>
       </c>
       <c r="B1421" t="s">
-        <v>4429</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4150</v>
+        <v>4428</v>
       </c>
       <c r="B1422" t="s">
-        <v>4151</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="B1423" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="B1424" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="B1425" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
       <c r="B1426" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="B1427" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="B1428" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="B1429" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="B1430" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
       <c r="B1431" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
       <c r="B1432" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="B1433" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
       <c r="B1434" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
       <c r="B1435" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
       <c r="B1436" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="B1437" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4182</v>
+        <v>4180</v>
       </c>
       <c r="B1438" t="s">
-        <v>4183</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4184</v>
+        <v>4182</v>
       </c>
       <c r="B1439" t="s">
-        <v>4185</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4186</v>
+        <v>4184</v>
       </c>
       <c r="B1440" t="s">
-        <v>4187</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4188</v>
+        <v>4186</v>
       </c>
       <c r="B1441" t="s">
-        <v>4189</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4190</v>
+        <v>4188</v>
       </c>
       <c r="B1442" t="s">
-        <v>4191</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4192</v>
+        <v>4190</v>
       </c>
       <c r="B1443" t="s">
-        <v>4193</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4194</v>
+        <v>4192</v>
       </c>
       <c r="B1444" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
       <c r="B1445" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
       <c r="B1446" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
       <c r="B1447" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="B1448" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
       <c r="B1449" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
       <c r="B1450" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
       <c r="B1451" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4210</v>
+        <v>4208</v>
       </c>
       <c r="B1452" t="s">
-        <v>4211</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4212</v>
+        <v>4210</v>
       </c>
       <c r="B1453" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
       <c r="B1454" t="s">
-        <v>4215</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
       <c r="B1455" t="s">
-        <v>4217</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="B1456" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="B1457" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
       <c r="B1458" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="B1459" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="B1460" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="B1461" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
       <c r="B1462" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="B1463" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
       <c r="B1464" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
       <c r="B1465" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
       <c r="B1466" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
       <c r="B1467" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
       <c r="B1468" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="B1469" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
       <c r="B1470" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="B1471" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="B1472" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="B1473" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
       <c r="B1474" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="B1475" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
       <c r="B1476" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
       <c r="B1477" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
       <c r="B1478" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
       <c r="B1479" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4266</v>
+        <v>4264</v>
       </c>
       <c r="B1480" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4268</v>
+        <v>4266</v>
       </c>
       <c r="B1481" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="B1482" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="B1483" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="B1484" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="B1485" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="B1486" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
       <c r="B1487" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
       <c r="B1488" t="s">
-        <v>4283</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
       <c r="B1489" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4286</v>
+        <v>4284</v>
       </c>
       <c r="B1490" t="s">
-        <v>4287</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
       <c r="B1491" t="s">
-        <v>4289</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4290</v>
+        <v>4288</v>
       </c>
       <c r="B1492" t="s">
-        <v>4291</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4292</v>
+        <v>4290</v>
       </c>
       <c r="B1493" t="s">
-        <v>4293</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4294</v>
+        <v>4292</v>
       </c>
       <c r="B1494" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
       <c r="B1495" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="B1496" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
       <c r="B1497" t="s">
-        <v>4301</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="B1498" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="B1499" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="B1500" t="s">
-        <v>4307</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4308</v>
+        <v>4436</v>
       </c>
       <c r="B1501" t="s">
-        <v>4309</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4310</v>
+        <v>4306</v>
       </c>
       <c r="B1502" t="s">
-        <v>4311</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4312</v>
+        <v>4308</v>
       </c>
       <c r="B1503" t="s">
-        <v>4313</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4314</v>
+        <v>4310</v>
       </c>
       <c r="B1504" t="s">
-        <v>4315</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4316</v>
+        <v>4312</v>
       </c>
       <c r="B1505" t="s">
-        <v>4317</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4318</v>
+        <v>4314</v>
       </c>
       <c r="B1506" t="s">
-        <v>4319</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4320</v>
+        <v>4316</v>
       </c>
       <c r="B1507" t="s">
-        <v>4321</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4322</v>
+        <v>4318</v>
       </c>
       <c r="B1508" t="s">
-        <v>4323</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4324</v>
+        <v>4320</v>
       </c>
       <c r="B1509" t="s">
-        <v>4325</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4326</v>
+        <v>4322</v>
       </c>
       <c r="B1510" t="s">
-        <v>4327</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4328</v>
+        <v>4324</v>
       </c>
       <c r="B1511" t="s">
-        <v>4329</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4330</v>
+        <v>4326</v>
       </c>
       <c r="B1512" t="s">
-        <v>4331</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4332</v>
+        <v>4328</v>
       </c>
       <c r="B1513" t="s">
-        <v>4333</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4334</v>
+        <v>4330</v>
       </c>
       <c r="B1514" t="s">
-        <v>4335</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4336</v>
+        <v>4332</v>
       </c>
       <c r="B1515" t="s">
-        <v>4337</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4338</v>
+        <v>4334</v>
       </c>
       <c r="B1516" t="s">
-        <v>4339</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4340</v>
+        <v>4336</v>
       </c>
       <c r="B1517" t="s">
-        <v>4341</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4342</v>
+        <v>4338</v>
       </c>
       <c r="B1518" t="s">
-        <v>4343</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4344</v>
+        <v>4340</v>
       </c>
       <c r="B1519" t="s">
-        <v>4345</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4346</v>
+        <v>4342</v>
       </c>
       <c r="B1520" t="s">
-        <v>4347</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4348</v>
+        <v>4344</v>
       </c>
       <c r="B1521" t="s">
-        <v>4349</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4350</v>
+        <v>4346</v>
       </c>
       <c r="B1522" t="s">
-        <v>4351</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4352</v>
+        <v>4348</v>
       </c>
       <c r="B1523" t="s">
-        <v>4353</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4354</v>
+        <v>4350</v>
       </c>
       <c r="B1524" t="s">
-        <v>4355</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4356</v>
+        <v>4352</v>
       </c>
       <c r="B1525" t="s">
-        <v>4357</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4358</v>
+        <v>4354</v>
       </c>
       <c r="B1526" t="s">
-        <v>4359</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4360</v>
+        <v>4356</v>
       </c>
       <c r="B1527" t="s">
-        <v>4361</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4362</v>
+        <v>4358</v>
       </c>
       <c r="B1528" t="s">
-        <v>4363</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4364</v>
+        <v>4360</v>
       </c>
       <c r="B1529" t="s">
-        <v>4365</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="B1530" t="s">
-        <v>4367</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4368</v>
+        <v>4364</v>
       </c>
       <c r="B1531" t="s">
-        <v>4369</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4370</v>
+        <v>4366</v>
       </c>
       <c r="B1532" t="s">
-        <v>4371</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4432</v>
+        <v>4368</v>
       </c>
       <c r="B1533" t="s">
-        <v>4433</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="B1534" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4374</v>
+        <v>4432</v>
       </c>
       <c r="B1535" t="s">
-        <v>4375</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4376</v>
+        <v>4372</v>
       </c>
       <c r="B1536" t="s">
-        <v>4377</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4378</v>
+        <v>4374</v>
       </c>
       <c r="B1537" t="s">
-        <v>4379</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4380</v>
+        <v>4376</v>
       </c>
       <c r="B1538" t="s">
-        <v>4381</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4382</v>
+        <v>4378</v>
       </c>
       <c r="B1539" t="s">
-        <v>4383</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4384</v>
+        <v>4380</v>
       </c>
       <c r="B1540" t="s">
-        <v>4385</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4386</v>
+        <v>4382</v>
       </c>
       <c r="B1541" t="s">
-        <v>4387</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4388</v>
+        <v>4384</v>
       </c>
       <c r="B1542" t="s">
-        <v>4389</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4390</v>
+        <v>4386</v>
       </c>
       <c r="B1543" t="s">
-        <v>4391</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4392</v>
+        <v>4388</v>
       </c>
       <c r="B1544" t="s">
-        <v>4393</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4394</v>
+        <v>4390</v>
       </c>
       <c r="B1545" t="s">
-        <v>4395</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4396</v>
+        <v>4392</v>
       </c>
       <c r="B1546" t="s">
-        <v>4397</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4398</v>
+        <v>4394</v>
       </c>
       <c r="B1547" t="s">
-        <v>4399</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4400</v>
+        <v>4396</v>
       </c>
       <c r="B1548" t="s">
-        <v>4401</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4402</v>
+        <v>4398</v>
       </c>
       <c r="B1549" t="s">
-        <v>4403</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4404</v>
+        <v>4400</v>
       </c>
       <c r="B1550" t="s">
-        <v>4405</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4406</v>
+        <v>4402</v>
       </c>
       <c r="B1551" t="s">
-        <v>4407</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4408</v>
+        <v>4404</v>
       </c>
       <c r="B1552" t="s">
-        <v>4409</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4410</v>
+        <v>4406</v>
       </c>
       <c r="B1553" t="s">
-        <v>4411</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2">
+      <c r="A1555" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2">
+      <c r="A1556" s="1" t="s">
         <v>4412</v>
       </c>
-      <c r="B1554" t="s">
+      <c r="B1556" t="s">
         <v>4413</v>
       </c>
     </row>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B992138-F501-497C-9F72-A33F4F2669AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86EDAC4-AECE-460B-AAF6-A2B6CA015810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9746,12 +9746,6 @@
     <t>QATAR</t>
   </si>
   <si>
-    <t>Doha - Town Office</t>
-  </si>
-  <si>
-    <t>Doha - Airport</t>
-  </si>
-  <si>
     <t>BELGIUM</t>
   </si>
   <si>
@@ -9764,18 +9758,12 @@
     <t>FRANCE</t>
   </si>
   <si>
-    <t>Paris - Town Office</t>
-  </si>
-  <si>
     <t>Paris - Airport</t>
   </si>
   <si>
     <t>UNITED KINGDOM</t>
   </si>
   <si>
-    <t>London - Town Office</t>
-  </si>
-  <si>
     <t>London - Airport</t>
   </si>
   <si>
@@ -9794,9 +9782,6 @@
     <t>ZIMBABWE</t>
   </si>
   <si>
-    <t>Harare - Town Office</t>
-  </si>
-  <si>
     <t>Harare - Airport</t>
   </si>
   <si>
@@ -13359,6 +13344,21 @@
   </si>
   <si>
     <t>TOTAL ENERGY MARKETING UK LTD</t>
+  </si>
+  <si>
+    <t>LAKE AVIATION COMPANY LIMITED</t>
+  </si>
+  <si>
+    <t>L0083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doha </t>
+  </si>
+  <si>
+    <t>QATAR AIRCRAFT QATERING COMPANY</t>
+  </si>
+  <si>
+    <t>Q0022</t>
   </si>
 </sst>
 </file>
@@ -14052,10 +14052,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1556"/>
+  <dimension ref="A1:B1558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
-      <selection activeCell="B1501" sqref="B1501"/>
+    <sheetView tabSelected="1" topLeftCell="A1259" workbookViewId="0">
+      <selection activeCell="B1278" sqref="B1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16634,10 +16634,10 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>4426</v>
+        <v>4421</v>
       </c>
       <c r="B322" t="s">
-        <v>4427</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -22082,4434 +22082,4450 @@
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" s="1" t="s">
-        <v>3326</v>
+        <v>3321</v>
       </c>
       <c r="B1003" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" s="1" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
       <c r="B1004" t="s">
-        <v>3329</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" s="1" t="s">
-        <v>3330</v>
+        <v>3325</v>
       </c>
       <c r="B1005" t="s">
-        <v>3331</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" s="1" t="s">
-        <v>3332</v>
+        <v>3327</v>
       </c>
       <c r="B1006" t="s">
-        <v>3333</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" s="1" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
       <c r="B1007" t="s">
-        <v>3335</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" s="1" t="s">
-        <v>3336</v>
+        <v>3331</v>
       </c>
       <c r="B1008" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" s="1" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
       <c r="B1009" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" s="1" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="B1010" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" s="1" t="s">
-        <v>3342</v>
+        <v>3337</v>
       </c>
       <c r="B1011" t="s">
-        <v>3343</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" s="1" t="s">
-        <v>3344</v>
+        <v>3339</v>
       </c>
       <c r="B1012" t="s">
-        <v>3345</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" s="1" t="s">
-        <v>3346</v>
+        <v>3341</v>
       </c>
       <c r="B1013" t="s">
-        <v>3347</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" s="1" t="s">
-        <v>3348</v>
+        <v>3343</v>
       </c>
       <c r="B1014" t="s">
-        <v>3349</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" s="1" t="s">
-        <v>3350</v>
+        <v>3345</v>
       </c>
       <c r="B1015" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" s="1" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
       <c r="B1016" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" s="1" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
       <c r="B1017" t="s">
-        <v>3355</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" s="1" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
       <c r="B1018" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" s="1" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
       <c r="B1019" t="s">
-        <v>3359</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="1" t="s">
-        <v>3360</v>
+        <v>3355</v>
       </c>
       <c r="B1020" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" s="1" t="s">
-        <v>3362</v>
+        <v>3357</v>
       </c>
       <c r="B1021" t="s">
-        <v>3363</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" s="1" t="s">
-        <v>3364</v>
+        <v>3359</v>
       </c>
       <c r="B1022" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" s="1" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
       <c r="B1023" t="s">
-        <v>3367</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" s="1" t="s">
-        <v>3368</v>
+        <v>3363</v>
       </c>
       <c r="B1024" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" s="1" t="s">
-        <v>3370</v>
+        <v>3365</v>
       </c>
       <c r="B1025" t="s">
-        <v>3371</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" s="1" t="s">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="B1026" t="s">
-        <v>3373</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" s="1" t="s">
-        <v>3374</v>
+        <v>3369</v>
       </c>
       <c r="B1027" t="s">
-        <v>3375</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" s="1" t="s">
-        <v>3376</v>
+        <v>3371</v>
       </c>
       <c r="B1028" t="s">
-        <v>3377</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" s="1" t="s">
-        <v>3378</v>
+        <v>3373</v>
       </c>
       <c r="B1029" t="s">
-        <v>3379</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" s="1" t="s">
-        <v>3380</v>
+        <v>3375</v>
       </c>
       <c r="B1030" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" s="1" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
       <c r="B1031" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" s="1" t="s">
-        <v>3384</v>
+        <v>3379</v>
       </c>
       <c r="B1032" t="s">
-        <v>3385</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" s="1" t="s">
-        <v>3386</v>
+        <v>3381</v>
       </c>
       <c r="B1033" t="s">
-        <v>3387</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" s="1" t="s">
-        <v>3388</v>
+        <v>3383</v>
       </c>
       <c r="B1034" t="s">
-        <v>3389</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="1" t="s">
-        <v>3390</v>
+        <v>3385</v>
       </c>
       <c r="B1035" t="s">
-        <v>3391</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="1" t="s">
-        <v>3392</v>
+        <v>3387</v>
       </c>
       <c r="B1036" t="s">
-        <v>3393</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="1" t="s">
-        <v>3394</v>
+        <v>3389</v>
       </c>
       <c r="B1037" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="1" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
       <c r="B1038" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="1" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
       <c r="B1039" t="s">
-        <v>3399</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="1" t="s">
-        <v>3400</v>
+        <v>3395</v>
       </c>
       <c r="B1040" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" s="1" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B1041" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" s="1" t="s">
-        <v>3404</v>
+        <v>3399</v>
       </c>
       <c r="B1042" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" s="1" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="B1043" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" s="1" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B1044" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" s="1" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B1045" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" s="1" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B1046" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" s="1" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="B1047" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" s="1" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B1048" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" s="1" t="s">
-        <v>3418</v>
+        <v>3413</v>
       </c>
       <c r="B1049" t="s">
-        <v>3419</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" s="1" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="B1050" t="s">
-        <v>3421</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" s="1" t="s">
-        <v>3422</v>
+        <v>3417</v>
       </c>
       <c r="B1051" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" s="1" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
       <c r="B1052" t="s">
-        <v>3425</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" s="1" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
       <c r="B1053" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" s="1" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="B1054" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" s="1" t="s">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="B1055" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" s="1" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
       <c r="B1056" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="1" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
       <c r="B1057" t="s">
-        <v>3435</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="1" t="s">
-        <v>3436</v>
+        <v>3431</v>
       </c>
       <c r="B1058" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="1" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
       <c r="B1059" t="s">
-        <v>3439</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="1" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="B1060" t="s">
-        <v>3441</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="1" t="s">
-        <v>3442</v>
+        <v>3437</v>
       </c>
       <c r="B1061" t="s">
-        <v>3443</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="1" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="B1062" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="1" t="s">
-        <v>3446</v>
+        <v>3441</v>
       </c>
       <c r="B1063" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="1" t="s">
-        <v>3447</v>
+        <v>3442</v>
       </c>
       <c r="B1064" t="s">
-        <v>3448</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="1" t="s">
-        <v>3449</v>
+        <v>3444</v>
       </c>
       <c r="B1065" t="s">
-        <v>3450</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="1" t="s">
-        <v>3451</v>
+        <v>3446</v>
       </c>
       <c r="B1066" t="s">
-        <v>3452</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" s="1" t="s">
-        <v>3453</v>
+        <v>3448</v>
       </c>
       <c r="B1067" t="s">
-        <v>3454</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="1" t="s">
-        <v>3455</v>
+        <v>3450</v>
       </c>
       <c r="B1068" t="s">
-        <v>3456</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="1" t="s">
-        <v>3457</v>
+        <v>3452</v>
       </c>
       <c r="B1069" t="s">
-        <v>3458</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" s="1" t="s">
-        <v>3459</v>
+        <v>3454</v>
       </c>
       <c r="B1070" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" s="1" t="s">
-        <v>3461</v>
+        <v>3456</v>
       </c>
       <c r="B1071" t="s">
-        <v>3462</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" s="1" t="s">
-        <v>3463</v>
+        <v>3458</v>
       </c>
       <c r="B1072" t="s">
-        <v>3464</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="1" t="s">
-        <v>3465</v>
+        <v>3460</v>
       </c>
       <c r="B1073" t="s">
-        <v>3466</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" s="1" t="s">
-        <v>3467</v>
+        <v>3462</v>
       </c>
       <c r="B1074" t="s">
-        <v>3468</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" s="1" t="s">
-        <v>3469</v>
+        <v>3464</v>
       </c>
       <c r="B1075" t="s">
-        <v>3470</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="1" t="s">
-        <v>3471</v>
+        <v>3466</v>
       </c>
       <c r="B1076" t="s">
-        <v>3472</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" s="1" t="s">
-        <v>3473</v>
+        <v>3468</v>
       </c>
       <c r="B1077" t="s">
-        <v>3474</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="1" t="s">
-        <v>3475</v>
+        <v>3470</v>
       </c>
       <c r="B1078" t="s">
-        <v>3476</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="1" t="s">
-        <v>3477</v>
+        <v>3472</v>
       </c>
       <c r="B1079" t="s">
-        <v>3478</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="1" t="s">
-        <v>3479</v>
+        <v>3474</v>
       </c>
       <c r="B1080" t="s">
-        <v>3480</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="1" t="s">
-        <v>3481</v>
+        <v>3476</v>
       </c>
       <c r="B1081" t="s">
-        <v>3482</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="1" t="s">
-        <v>3483</v>
+        <v>3478</v>
       </c>
       <c r="B1082" t="s">
-        <v>3484</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="1" t="s">
-        <v>3485</v>
+        <v>3480</v>
       </c>
       <c r="B1083" t="s">
-        <v>3486</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="1" t="s">
-        <v>3487</v>
+        <v>3482</v>
       </c>
       <c r="B1084" t="s">
-        <v>3488</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" s="1" t="s">
-        <v>3489</v>
+        <v>3484</v>
       </c>
       <c r="B1085" t="s">
-        <v>3490</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="1" t="s">
-        <v>3491</v>
+        <v>3486</v>
       </c>
       <c r="B1086" t="s">
-        <v>3492</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" s="1" t="s">
-        <v>3493</v>
+        <v>3488</v>
       </c>
       <c r="B1087" t="s">
-        <v>3494</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" s="1" t="s">
-        <v>3495</v>
+        <v>3490</v>
       </c>
       <c r="B1088" t="s">
-        <v>3496</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" s="1" t="s">
-        <v>3497</v>
+        <v>3492</v>
       </c>
       <c r="B1089" t="s">
-        <v>3498</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" s="1" t="s">
-        <v>3499</v>
+        <v>3494</v>
       </c>
       <c r="B1090" t="s">
-        <v>3500</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" s="1" t="s">
-        <v>3501</v>
+        <v>3496</v>
       </c>
       <c r="B1091" t="s">
-        <v>3502</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" s="1" t="s">
-        <v>4434</v>
+        <v>4429</v>
       </c>
       <c r="B1092" t="s">
-        <v>4435</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" s="1" t="s">
-        <v>3503</v>
+        <v>3498</v>
       </c>
       <c r="B1093" t="s">
-        <v>3504</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" s="1" t="s">
-        <v>3505</v>
+        <v>3500</v>
       </c>
       <c r="B1094" t="s">
-        <v>3506</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" s="1" t="s">
-        <v>3507</v>
+        <v>3502</v>
       </c>
       <c r="B1095" t="s">
-        <v>3508</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="1" t="s">
-        <v>3509</v>
+        <v>4434</v>
       </c>
       <c r="B1096" t="s">
-        <v>3510</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" s="1" t="s">
-        <v>3511</v>
+        <v>3504</v>
       </c>
       <c r="B1097" t="s">
-        <v>3512</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="1" t="s">
-        <v>3513</v>
+        <v>3506</v>
       </c>
       <c r="B1098" t="s">
-        <v>3514</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" s="1" t="s">
-        <v>3515</v>
+        <v>3508</v>
       </c>
       <c r="B1099" t="s">
-        <v>3516</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="1" t="s">
-        <v>3517</v>
+        <v>3510</v>
       </c>
       <c r="B1100" t="s">
-        <v>3518</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" s="1" t="s">
-        <v>3519</v>
+        <v>3512</v>
       </c>
       <c r="B1101" t="s">
-        <v>3520</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="1" t="s">
-        <v>3521</v>
+        <v>3514</v>
       </c>
       <c r="B1102" t="s">
-        <v>3522</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="1" t="s">
-        <v>3523</v>
+        <v>3516</v>
       </c>
       <c r="B1103" t="s">
-        <v>3524</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="1" t="s">
-        <v>3525</v>
+        <v>3518</v>
       </c>
       <c r="B1104" t="s">
-        <v>3526</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" s="1" t="s">
-        <v>3527</v>
+        <v>3520</v>
       </c>
       <c r="B1105" t="s">
-        <v>3528</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" s="1" t="s">
-        <v>3529</v>
+        <v>3522</v>
       </c>
       <c r="B1106" t="s">
-        <v>3530</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="1" t="s">
-        <v>3531</v>
+        <v>3524</v>
       </c>
       <c r="B1107" t="s">
-        <v>3532</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" s="1" t="s">
-        <v>3533</v>
+        <v>3526</v>
       </c>
       <c r="B1108" t="s">
-        <v>3534</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" s="1" t="s">
-        <v>3535</v>
+        <v>3528</v>
       </c>
       <c r="B1109" t="s">
-        <v>3536</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" s="1" t="s">
-        <v>3537</v>
+        <v>3530</v>
       </c>
       <c r="B1110" t="s">
-        <v>3538</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" s="1" t="s">
-        <v>3539</v>
+        <v>3532</v>
       </c>
       <c r="B1111" t="s">
-        <v>3540</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" s="1" t="s">
-        <v>3541</v>
+        <v>3534</v>
       </c>
       <c r="B1112" t="s">
-        <v>3542</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="1" t="s">
-        <v>3543</v>
+        <v>3536</v>
       </c>
       <c r="B1113" t="s">
-        <v>3544</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" s="1" t="s">
-        <v>3545</v>
+        <v>3538</v>
       </c>
       <c r="B1114" t="s">
-        <v>3546</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" s="1" t="s">
-        <v>3547</v>
+        <v>3540</v>
       </c>
       <c r="B1115" t="s">
-        <v>3548</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" s="1" t="s">
-        <v>3549</v>
+        <v>3542</v>
       </c>
       <c r="B1116" t="s">
-        <v>3550</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="1" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="B1117" t="s">
-        <v>3552</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" s="1" t="s">
-        <v>3553</v>
+        <v>3546</v>
       </c>
       <c r="B1118" t="s">
-        <v>3554</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" s="1" t="s">
-        <v>3555</v>
+        <v>3548</v>
       </c>
       <c r="B1119" t="s">
-        <v>3556</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" s="1" t="s">
-        <v>3557</v>
+        <v>3550</v>
       </c>
       <c r="B1120" t="s">
-        <v>3558</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" s="1" t="s">
-        <v>3559</v>
+        <v>3552</v>
       </c>
       <c r="B1121" t="s">
-        <v>3560</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" s="1" t="s">
-        <v>3561</v>
+        <v>3554</v>
       </c>
       <c r="B1122" t="s">
-        <v>3562</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="1" t="s">
-        <v>3563</v>
+        <v>3556</v>
       </c>
       <c r="B1123" t="s">
-        <v>3564</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" s="1" t="s">
-        <v>3565</v>
+        <v>3558</v>
       </c>
       <c r="B1124" t="s">
-        <v>3566</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" s="1" t="s">
-        <v>3567</v>
+        <v>3560</v>
       </c>
       <c r="B1125" t="s">
-        <v>3568</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="1" t="s">
-        <v>3569</v>
+        <v>3562</v>
       </c>
       <c r="B1126" t="s">
-        <v>3570</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" s="1" t="s">
-        <v>3571</v>
+        <v>3564</v>
       </c>
       <c r="B1127" t="s">
-        <v>3572</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" s="1" t="s">
-        <v>3573</v>
+        <v>3566</v>
       </c>
       <c r="B1128" t="s">
-        <v>3574</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" s="1" t="s">
-        <v>3575</v>
+        <v>3568</v>
       </c>
       <c r="B1129" t="s">
-        <v>3576</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="1" t="s">
-        <v>3577</v>
+        <v>3570</v>
       </c>
       <c r="B1130" t="s">
-        <v>3578</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="1" t="s">
-        <v>3579</v>
+        <v>3572</v>
       </c>
       <c r="B1131" t="s">
-        <v>3580</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="1" t="s">
-        <v>3581</v>
+        <v>3574</v>
       </c>
       <c r="B1132" t="s">
-        <v>3582</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="1" t="s">
-        <v>3583</v>
+        <v>3576</v>
       </c>
       <c r="B1133" t="s">
-        <v>3584</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" s="1" t="s">
-        <v>3585</v>
+        <v>3578</v>
       </c>
       <c r="B1134" t="s">
-        <v>3586</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="1" t="s">
-        <v>3587</v>
+        <v>3580</v>
       </c>
       <c r="B1135" t="s">
-        <v>3588</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="1" t="s">
-        <v>3589</v>
+        <v>3582</v>
       </c>
       <c r="B1136" t="s">
-        <v>3590</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" s="1" t="s">
-        <v>3591</v>
+        <v>3584</v>
       </c>
       <c r="B1137" t="s">
-        <v>3592</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="1" t="s">
-        <v>3593</v>
+        <v>3586</v>
       </c>
       <c r="B1138" t="s">
-        <v>3594</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="1" t="s">
-        <v>3595</v>
+        <v>3588</v>
       </c>
       <c r="B1139" t="s">
-        <v>3596</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" s="1" t="s">
-        <v>3597</v>
+        <v>3590</v>
       </c>
       <c r="B1140" t="s">
-        <v>3598</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" s="1" t="s">
-        <v>3599</v>
+        <v>3592</v>
       </c>
       <c r="B1141" t="s">
-        <v>3600</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="1" t="s">
-        <v>3601</v>
+        <v>3594</v>
       </c>
       <c r="B1142" t="s">
-        <v>3602</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="1" t="s">
-        <v>3603</v>
+        <v>3596</v>
       </c>
       <c r="B1143" t="s">
-        <v>3604</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="1" t="s">
-        <v>3605</v>
+        <v>3598</v>
       </c>
       <c r="B1144" t="s">
-        <v>3606</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="1" t="s">
-        <v>3607</v>
+        <v>3600</v>
       </c>
       <c r="B1145" t="s">
-        <v>3608</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="1" t="s">
-        <v>3609</v>
+        <v>3602</v>
       </c>
       <c r="B1146" t="s">
-        <v>3610</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="1" t="s">
-        <v>3611</v>
+        <v>3604</v>
       </c>
       <c r="B1147" t="s">
-        <v>3612</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="1" t="s">
-        <v>3613</v>
+        <v>3606</v>
       </c>
       <c r="B1148" t="s">
-        <v>3614</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="1" t="s">
-        <v>3615</v>
+        <v>3608</v>
       </c>
       <c r="B1149" t="s">
-        <v>3616</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="1" t="s">
-        <v>3617</v>
+        <v>3610</v>
       </c>
       <c r="B1150" t="s">
-        <v>3618</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="1" t="s">
-        <v>3619</v>
+        <v>3612</v>
       </c>
       <c r="B1151" t="s">
-        <v>3620</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="1" t="s">
-        <v>3621</v>
+        <v>3614</v>
       </c>
       <c r="B1152" t="s">
-        <v>3622</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" s="1" t="s">
-        <v>3623</v>
+        <v>3616</v>
       </c>
       <c r="B1153" t="s">
-        <v>3624</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="1" t="s">
-        <v>3625</v>
+        <v>3618</v>
       </c>
       <c r="B1154" t="s">
-        <v>3626</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="1" t="s">
-        <v>3627</v>
+        <v>3620</v>
       </c>
       <c r="B1155" t="s">
-        <v>3628</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" s="1" t="s">
-        <v>3629</v>
+        <v>3622</v>
       </c>
       <c r="B1156" t="s">
-        <v>3630</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="1" t="s">
-        <v>3631</v>
+        <v>3624</v>
       </c>
       <c r="B1157" t="s">
-        <v>3632</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="1" t="s">
-        <v>3633</v>
+        <v>3626</v>
       </c>
       <c r="B1158" t="s">
-        <v>3634</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="1" t="s">
-        <v>3635</v>
+        <v>3628</v>
       </c>
       <c r="B1159" t="s">
-        <v>3636</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" s="1" t="s">
-        <v>3637</v>
+        <v>3630</v>
       </c>
       <c r="B1160" t="s">
-        <v>3638</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="1" t="s">
-        <v>3639</v>
+        <v>3632</v>
       </c>
       <c r="B1161" t="s">
-        <v>3640</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="1" t="s">
-        <v>3641</v>
+        <v>3634</v>
       </c>
       <c r="B1162" t="s">
-        <v>3642</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="1" t="s">
-        <v>3643</v>
+        <v>3636</v>
       </c>
       <c r="B1163" t="s">
-        <v>3644</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="1" t="s">
-        <v>3645</v>
+        <v>3638</v>
       </c>
       <c r="B1164" t="s">
-        <v>3646</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" s="1" t="s">
-        <v>3647</v>
+        <v>3640</v>
       </c>
       <c r="B1165" t="s">
-        <v>3648</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" s="1" t="s">
-        <v>3649</v>
+        <v>3642</v>
       </c>
       <c r="B1166" t="s">
-        <v>3650</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="1" t="s">
-        <v>3651</v>
+        <v>3644</v>
       </c>
       <c r="B1167" t="s">
-        <v>3652</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" s="1" t="s">
-        <v>3653</v>
+        <v>3646</v>
       </c>
       <c r="B1168" t="s">
-        <v>3654</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="1" t="s">
-        <v>3655</v>
+        <v>3648</v>
       </c>
       <c r="B1169" t="s">
-        <v>3656</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="1" t="s">
-        <v>3657</v>
+        <v>3650</v>
       </c>
       <c r="B1170" t="s">
-        <v>3658</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="1" t="s">
-        <v>3659</v>
+        <v>3652</v>
       </c>
       <c r="B1171" t="s">
-        <v>3660</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="1" t="s">
-        <v>3661</v>
+        <v>3654</v>
       </c>
       <c r="B1172" t="s">
-        <v>3662</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="1" t="s">
-        <v>3663</v>
+        <v>3656</v>
       </c>
       <c r="B1173" t="s">
-        <v>3664</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" s="1" t="s">
-        <v>3665</v>
+        <v>3658</v>
       </c>
       <c r="B1174" t="s">
-        <v>3666</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" s="1" t="s">
-        <v>3667</v>
+        <v>3660</v>
       </c>
       <c r="B1175" t="s">
-        <v>3668</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="1" t="s">
-        <v>3669</v>
+        <v>3662</v>
       </c>
       <c r="B1176" t="s">
-        <v>3670</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" s="1" t="s">
-        <v>3671</v>
+        <v>3664</v>
       </c>
       <c r="B1177" t="s">
-        <v>3672</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" s="1" t="s">
-        <v>3673</v>
+        <v>3666</v>
       </c>
       <c r="B1178" t="s">
-        <v>3674</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" s="1" t="s">
-        <v>3675</v>
+        <v>3668</v>
       </c>
       <c r="B1179" t="s">
-        <v>3676</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" s="1" t="s">
-        <v>3677</v>
+        <v>3670</v>
       </c>
       <c r="B1180" t="s">
-        <v>3678</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" s="1" t="s">
-        <v>3679</v>
+        <v>3672</v>
       </c>
       <c r="B1181" t="s">
-        <v>3680</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" s="1" t="s">
-        <v>3681</v>
+        <v>3674</v>
       </c>
       <c r="B1182" t="s">
-        <v>3682</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" s="1" t="s">
-        <v>3683</v>
+        <v>3676</v>
       </c>
       <c r="B1183" t="s">
-        <v>3684</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" s="1" t="s">
-        <v>3685</v>
+        <v>3678</v>
       </c>
       <c r="B1184" t="s">
-        <v>3686</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="1" t="s">
-        <v>3687</v>
+        <v>3680</v>
       </c>
       <c r="B1185" t="s">
-        <v>3688</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="1" t="s">
-        <v>3689</v>
+        <v>3682</v>
       </c>
       <c r="B1186" t="s">
-        <v>3690</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="1" t="s">
-        <v>3691</v>
+        <v>3684</v>
       </c>
       <c r="B1187" t="s">
-        <v>3692</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="1" t="s">
-        <v>3693</v>
+        <v>3686</v>
       </c>
       <c r="B1188" t="s">
-        <v>3694</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="1" t="s">
-        <v>3695</v>
+        <v>3688</v>
       </c>
       <c r="B1189" t="s">
-        <v>3696</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190" s="1" t="s">
-        <v>3697</v>
+        <v>3690</v>
       </c>
       <c r="B1190" t="s">
-        <v>3698</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" s="1" t="s">
-        <v>3699</v>
+        <v>3692</v>
       </c>
       <c r="B1191" t="s">
-        <v>3700</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" s="1" t="s">
-        <v>3701</v>
+        <v>3694</v>
       </c>
       <c r="B1192" t="s">
-        <v>3702</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="1" t="s">
-        <v>3703</v>
+        <v>3696</v>
       </c>
       <c r="B1193" t="s">
-        <v>3704</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="1" t="s">
-        <v>3705</v>
+        <v>3698</v>
       </c>
       <c r="B1194" t="s">
-        <v>3706</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="1" t="s">
-        <v>3707</v>
+        <v>3700</v>
       </c>
       <c r="B1195" t="s">
-        <v>3680</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" s="1" t="s">
-        <v>3708</v>
+        <v>3702</v>
       </c>
       <c r="B1196" t="s">
-        <v>3709</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="1" t="s">
-        <v>3710</v>
+        <v>3703</v>
       </c>
       <c r="B1197" t="s">
-        <v>3711</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
       <c r="A1198" s="1" t="s">
-        <v>3712</v>
+        <v>3705</v>
       </c>
       <c r="B1198" t="s">
-        <v>3713</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
       <c r="A1199" s="1" t="s">
-        <v>3714</v>
+        <v>3707</v>
       </c>
       <c r="B1199" t="s">
-        <v>3715</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" s="1" t="s">
-        <v>3716</v>
+        <v>3709</v>
       </c>
       <c r="B1200" t="s">
-        <v>3717</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="1" t="s">
-        <v>3718</v>
+        <v>3711</v>
       </c>
       <c r="B1201" t="s">
-        <v>3719</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="1" t="s">
-        <v>3720</v>
+        <v>3713</v>
       </c>
       <c r="B1202" t="s">
-        <v>3721</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" s="1" t="s">
-        <v>3722</v>
+        <v>3715</v>
       </c>
       <c r="B1203" t="s">
-        <v>3723</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="1" t="s">
-        <v>3724</v>
+        <v>3717</v>
       </c>
       <c r="B1204" t="s">
-        <v>3725</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="1" t="s">
-        <v>3726</v>
+        <v>3719</v>
       </c>
       <c r="B1205" t="s">
-        <v>3727</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" s="1" t="s">
-        <v>3728</v>
+        <v>3721</v>
       </c>
       <c r="B1206" t="s">
-        <v>3729</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="1" t="s">
-        <v>3730</v>
+        <v>3723</v>
       </c>
       <c r="B1207" t="s">
-        <v>3730</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="1" t="s">
-        <v>3731</v>
+        <v>3725</v>
       </c>
       <c r="B1208" t="s">
-        <v>3732</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="1" t="s">
-        <v>3733</v>
+        <v>3726</v>
       </c>
       <c r="B1209" t="s">
-        <v>3734</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="1" t="s">
-        <v>3735</v>
+        <v>3728</v>
       </c>
       <c r="B1210" t="s">
-        <v>3736</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="1" t="s">
-        <v>3737</v>
+        <v>3730</v>
       </c>
       <c r="B1211" t="s">
-        <v>3738</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="1" t="s">
-        <v>3739</v>
+        <v>3732</v>
       </c>
       <c r="B1212" t="s">
-        <v>3740</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="1" t="s">
-        <v>3741</v>
+        <v>3734</v>
       </c>
       <c r="B1213" t="s">
-        <v>3742</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" s="1" t="s">
-        <v>3743</v>
+        <v>3736</v>
       </c>
       <c r="B1214" t="s">
-        <v>3744</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="1" t="s">
-        <v>3745</v>
+        <v>3738</v>
       </c>
       <c r="B1215" t="s">
-        <v>3746</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="1" t="s">
-        <v>3747</v>
+        <v>3740</v>
       </c>
       <c r="B1216" t="s">
-        <v>3748</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="1" t="s">
-        <v>3749</v>
+        <v>3742</v>
       </c>
       <c r="B1217" t="s">
-        <v>3750</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="1" t="s">
-        <v>3751</v>
+        <v>3744</v>
       </c>
       <c r="B1218" t="s">
-        <v>3752</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="1" t="s">
-        <v>3753</v>
+        <v>3746</v>
       </c>
       <c r="B1219" t="s">
-        <v>3754</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="1" t="s">
-        <v>3755</v>
+        <v>3748</v>
       </c>
       <c r="B1220" t="s">
-        <v>3756</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="1" t="s">
-        <v>4430</v>
+        <v>3750</v>
       </c>
       <c r="B1221" t="s">
-        <v>4431</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="1" t="s">
-        <v>3757</v>
+        <v>4425</v>
       </c>
       <c r="B1222" t="s">
-        <v>3758</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="1" t="s">
-        <v>3759</v>
+        <v>3752</v>
       </c>
       <c r="B1223" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="1" t="s">
-        <v>3760</v>
+        <v>3754</v>
       </c>
       <c r="B1224" t="s">
-        <v>3761</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="1" t="s">
-        <v>3762</v>
+        <v>3755</v>
       </c>
       <c r="B1225" t="s">
-        <v>3763</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="1" t="s">
-        <v>3764</v>
+        <v>3757</v>
       </c>
       <c r="B1226" t="s">
-        <v>3765</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="1" t="s">
-        <v>3766</v>
+        <v>3759</v>
       </c>
       <c r="B1227" t="s">
-        <v>3767</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="1" t="s">
-        <v>3768</v>
+        <v>3761</v>
       </c>
       <c r="B1228" t="s">
-        <v>3769</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="1" t="s">
-        <v>3770</v>
+        <v>3763</v>
       </c>
       <c r="B1229" t="s">
-        <v>3771</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230" s="1" t="s">
-        <v>3772</v>
+        <v>3765</v>
       </c>
       <c r="B1230" t="s">
-        <v>3773</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="1" t="s">
-        <v>3774</v>
+        <v>3767</v>
       </c>
       <c r="B1231" t="s">
-        <v>3775</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="1" t="s">
-        <v>3776</v>
+        <v>3769</v>
       </c>
       <c r="B1232" t="s">
-        <v>3777</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="1" t="s">
-        <v>3778</v>
+        <v>3771</v>
       </c>
       <c r="B1233" t="s">
-        <v>3779</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="1" t="s">
-        <v>3780</v>
+        <v>3773</v>
       </c>
       <c r="B1234" t="s">
-        <v>3767</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="1" t="s">
-        <v>3781</v>
+        <v>3775</v>
       </c>
       <c r="B1235" t="s">
-        <v>3782</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="1" t="s">
-        <v>3783</v>
+        <v>3776</v>
       </c>
       <c r="B1236" t="s">
-        <v>3784</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="1" t="s">
-        <v>3785</v>
+        <v>3778</v>
       </c>
       <c r="B1237" t="s">
-        <v>3786</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="1" t="s">
-        <v>3787</v>
+        <v>3780</v>
       </c>
       <c r="B1238" t="s">
-        <v>3788</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="1" t="s">
-        <v>3789</v>
+        <v>3782</v>
       </c>
       <c r="B1239" t="s">
-        <v>3790</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="1" t="s">
-        <v>3791</v>
+        <v>3784</v>
       </c>
       <c r="B1240" t="s">
-        <v>3792</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="1" t="s">
-        <v>3793</v>
+        <v>3786</v>
       </c>
       <c r="B1241" t="s">
-        <v>3794</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="1" t="s">
-        <v>3795</v>
+        <v>3788</v>
       </c>
       <c r="B1242" t="s">
-        <v>3796</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="1" t="s">
-        <v>3797</v>
+        <v>3790</v>
       </c>
       <c r="B1243" t="s">
-        <v>3798</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="1" t="s">
-        <v>3799</v>
+        <v>3792</v>
       </c>
       <c r="B1244" t="s">
-        <v>3800</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="1" t="s">
-        <v>3801</v>
+        <v>3794</v>
       </c>
       <c r="B1245" t="s">
-        <v>3802</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="1" t="s">
-        <v>3803</v>
+        <v>3796</v>
       </c>
       <c r="B1246" t="s">
-        <v>3804</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="1" t="s">
-        <v>3805</v>
+        <v>3798</v>
       </c>
       <c r="B1247" t="s">
-        <v>3806</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="1" t="s">
-        <v>3807</v>
+        <v>3800</v>
       </c>
       <c r="B1248" t="s">
-        <v>3808</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="1" t="s">
-        <v>3809</v>
+        <v>3802</v>
       </c>
       <c r="B1249" t="s">
-        <v>3810</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="1" t="s">
-        <v>3811</v>
+        <v>3804</v>
       </c>
       <c r="B1250" t="s">
-        <v>3812</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="1" t="s">
-        <v>3813</v>
+        <v>3806</v>
       </c>
       <c r="B1251" t="s">
-        <v>3814</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="1" t="s">
-        <v>3815</v>
+        <v>3808</v>
       </c>
       <c r="B1252" t="s">
-        <v>3816</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="1" t="s">
-        <v>3817</v>
+        <v>3810</v>
       </c>
       <c r="B1253" t="s">
-        <v>3818</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="1" t="s">
-        <v>3819</v>
+        <v>3812</v>
       </c>
       <c r="B1254" t="s">
-        <v>3820</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="1" t="s">
-        <v>3821</v>
+        <v>3814</v>
       </c>
       <c r="B1255" t="s">
-        <v>3822</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="1" t="s">
-        <v>3823</v>
+        <v>3816</v>
       </c>
       <c r="B1256" t="s">
-        <v>3824</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="1" t="s">
-        <v>3825</v>
+        <v>3818</v>
       </c>
       <c r="B1257" t="s">
-        <v>3826</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="1" t="s">
-        <v>3827</v>
+        <v>3820</v>
       </c>
       <c r="B1258" t="s">
-        <v>3828</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="1" t="s">
-        <v>3829</v>
+        <v>3822</v>
       </c>
       <c r="B1259" t="s">
-        <v>3830</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="1" t="s">
-        <v>3831</v>
+        <v>3824</v>
       </c>
       <c r="B1260" t="s">
-        <v>3832</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="1" t="s">
-        <v>3833</v>
+        <v>3826</v>
       </c>
       <c r="B1261" t="s">
-        <v>3834</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="1" t="s">
-        <v>3835</v>
+        <v>3828</v>
       </c>
       <c r="B1262" t="s">
-        <v>3836</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="1" t="s">
-        <v>3837</v>
+        <v>3830</v>
       </c>
       <c r="B1263" t="s">
-        <v>3838</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="1" t="s">
-        <v>3839</v>
+        <v>3832</v>
       </c>
       <c r="B1264" t="s">
-        <v>3840</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" s="1" t="s">
-        <v>3841</v>
+        <v>3834</v>
       </c>
       <c r="B1265" t="s">
-        <v>3842</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
       <c r="A1266" s="1" t="s">
-        <v>3843</v>
+        <v>3836</v>
       </c>
       <c r="B1266" t="s">
-        <v>3844</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="1" t="s">
-        <v>3845</v>
+        <v>3838</v>
       </c>
       <c r="B1267" t="s">
-        <v>3846</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="1" t="s">
-        <v>3847</v>
+        <v>3840</v>
       </c>
       <c r="B1268" t="s">
-        <v>3848</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269" s="1" t="s">
-        <v>3849</v>
+        <v>3842</v>
       </c>
       <c r="B1269" t="s">
-        <v>3850</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
       <c r="A1270" s="1" t="s">
-        <v>3851</v>
+        <v>3844</v>
       </c>
       <c r="B1270" t="s">
-        <v>3564</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="1" t="s">
-        <v>3852</v>
+        <v>3846</v>
       </c>
       <c r="B1271" t="s">
-        <v>3853</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
       <c r="A1272" s="1" t="s">
-        <v>3854</v>
+        <v>3847</v>
       </c>
       <c r="B1272" t="s">
-        <v>3855</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="1" t="s">
-        <v>3856</v>
+        <v>3849</v>
       </c>
       <c r="B1273" t="s">
-        <v>2996</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="1" t="s">
-        <v>3857</v>
+        <v>3851</v>
       </c>
       <c r="B1274" t="s">
-        <v>3858</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
       <c r="A1275" s="1" t="s">
-        <v>3859</v>
+        <v>3852</v>
       </c>
       <c r="B1275" t="s">
-        <v>3860</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
       <c r="A1276" s="1" t="s">
-        <v>3861</v>
+        <v>3854</v>
       </c>
       <c r="B1276" t="s">
-        <v>3862</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="1" t="s">
-        <v>3863</v>
+        <v>3856</v>
       </c>
       <c r="B1277" t="s">
-        <v>3864</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" s="1" t="s">
-        <v>3865</v>
+        <v>3858</v>
       </c>
       <c r="B1278" t="s">
-        <v>3866</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="1" t="s">
-        <v>3867</v>
+        <v>3860</v>
       </c>
       <c r="B1279" t="s">
-        <v>3868</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="1" t="s">
-        <v>3869</v>
+        <v>4437</v>
       </c>
       <c r="B1280" t="s">
-        <v>3870</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="1" t="s">
-        <v>3871</v>
+        <v>3862</v>
       </c>
       <c r="B1281" t="s">
-        <v>3872</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="1" t="s">
-        <v>3873</v>
+        <v>3864</v>
       </c>
       <c r="B1282" t="s">
-        <v>3874</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283" s="1" t="s">
-        <v>3875</v>
+        <v>3866</v>
       </c>
       <c r="B1283" t="s">
-        <v>3876</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
       <c r="A1284" s="1" t="s">
-        <v>3877</v>
+        <v>3868</v>
       </c>
       <c r="B1284" t="s">
-        <v>3878</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="1" t="s">
-        <v>3879</v>
+        <v>3870</v>
       </c>
       <c r="B1285" t="s">
-        <v>3880</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="1" t="s">
-        <v>3881</v>
+        <v>3872</v>
       </c>
       <c r="B1286" t="s">
-        <v>3882</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="1" t="s">
-        <v>3883</v>
+        <v>3874</v>
       </c>
       <c r="B1287" t="s">
-        <v>3884</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="1" t="s">
-        <v>3885</v>
+        <v>3876</v>
       </c>
       <c r="B1288" t="s">
-        <v>3886</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="1" t="s">
-        <v>3887</v>
+        <v>3878</v>
       </c>
       <c r="B1289" t="s">
-        <v>3888</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="1" t="s">
-        <v>3889</v>
+        <v>3880</v>
       </c>
       <c r="B1290" t="s">
-        <v>3890</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>3891</v>
+        <v>3882</v>
       </c>
       <c r="B1291" t="s">
-        <v>3892</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3893</v>
+        <v>3884</v>
       </c>
       <c r="B1292" t="s">
-        <v>3894</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3895</v>
+        <v>3886</v>
       </c>
       <c r="B1293" t="s">
-        <v>3896</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3897</v>
+        <v>3888</v>
       </c>
       <c r="B1294" t="s">
-        <v>3898</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3899</v>
+        <v>3890</v>
       </c>
       <c r="B1295" t="s">
-        <v>3900</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3901</v>
+        <v>3892</v>
       </c>
       <c r="B1296" t="s">
-        <v>3902</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3903</v>
+        <v>3894</v>
       </c>
       <c r="B1297" t="s">
-        <v>3904</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3905</v>
+        <v>3896</v>
       </c>
       <c r="B1298" t="s">
-        <v>3906</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3907</v>
+        <v>3898</v>
       </c>
       <c r="B1299" t="s">
-        <v>3908</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3909</v>
+        <v>3900</v>
       </c>
       <c r="B1300" t="s">
-        <v>3910</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3911</v>
+        <v>3902</v>
       </c>
       <c r="B1301" t="s">
-        <v>3912</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3913</v>
+        <v>3904</v>
       </c>
       <c r="B1302" t="s">
-        <v>3914</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3915</v>
+        <v>3906</v>
       </c>
       <c r="B1303" t="s">
-        <v>3916</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3917</v>
+        <v>3908</v>
       </c>
       <c r="B1304" t="s">
-        <v>3914</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3918</v>
+        <v>3910</v>
       </c>
       <c r="B1305" t="s">
-        <v>3919</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3920</v>
+        <v>3912</v>
       </c>
       <c r="B1306" t="s">
-        <v>3921</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3922</v>
+        <v>3913</v>
       </c>
       <c r="B1307" t="s">
-        <v>3923</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3924</v>
+        <v>3915</v>
       </c>
       <c r="B1308" t="s">
-        <v>3925</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3926</v>
+        <v>3917</v>
       </c>
       <c r="B1309" t="s">
-        <v>3927</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3928</v>
+        <v>3919</v>
       </c>
       <c r="B1310" t="s">
-        <v>3929</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3930</v>
+        <v>3921</v>
       </c>
       <c r="B1311" t="s">
-        <v>3931</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3932</v>
+        <v>3923</v>
       </c>
       <c r="B1312" t="s">
-        <v>3933</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3934</v>
+        <v>3925</v>
       </c>
       <c r="B1313" t="s">
-        <v>3935</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3936</v>
+        <v>3927</v>
       </c>
       <c r="B1314" t="s">
-        <v>3937</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3938</v>
+        <v>3929</v>
       </c>
       <c r="B1315" t="s">
-        <v>3939</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3940</v>
+        <v>3931</v>
       </c>
       <c r="B1316" t="s">
-        <v>3941</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3942</v>
+        <v>3933</v>
       </c>
       <c r="B1317" t="s">
-        <v>3943</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3944</v>
+        <v>3935</v>
       </c>
       <c r="B1318" t="s">
-        <v>3945</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3946</v>
+        <v>3937</v>
       </c>
       <c r="B1319" t="s">
-        <v>3947</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3948</v>
+        <v>3939</v>
       </c>
       <c r="B1320" t="s">
-        <v>3949</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3950</v>
+        <v>3941</v>
       </c>
       <c r="B1321" t="s">
-        <v>3951</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3952</v>
+        <v>3943</v>
       </c>
       <c r="B1322" t="s">
-        <v>3953</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3954</v>
+        <v>3945</v>
       </c>
       <c r="B1323" t="s">
-        <v>3955</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3956</v>
+        <v>3947</v>
       </c>
       <c r="B1324" t="s">
-        <v>3957</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3958</v>
+        <v>3949</v>
       </c>
       <c r="B1325" t="s">
-        <v>3959</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3960</v>
+        <v>3951</v>
       </c>
       <c r="B1326" t="s">
-        <v>3947</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3961</v>
+        <v>3953</v>
       </c>
       <c r="B1327" t="s">
-        <v>3962</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3963</v>
+        <v>3955</v>
       </c>
       <c r="B1328" t="s">
-        <v>3964</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3965</v>
+        <v>3956</v>
       </c>
       <c r="B1329" t="s">
-        <v>3966</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3967</v>
+        <v>3958</v>
       </c>
       <c r="B1330" t="s">
-        <v>3968</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3969</v>
+        <v>3960</v>
       </c>
       <c r="B1331" t="s">
-        <v>3853</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3970</v>
+        <v>3962</v>
       </c>
       <c r="B1332" t="s">
-        <v>3971</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3972</v>
+        <v>3964</v>
       </c>
       <c r="B1333" t="s">
-        <v>3973</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3974</v>
+        <v>3965</v>
       </c>
       <c r="B1334" t="s">
-        <v>3975</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3976</v>
+        <v>3967</v>
       </c>
       <c r="B1335" t="s">
-        <v>3977</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3978</v>
+        <v>3969</v>
       </c>
       <c r="B1336" t="s">
-        <v>3979</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3980</v>
+        <v>3971</v>
       </c>
       <c r="B1337" t="s">
-        <v>3981</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3982</v>
+        <v>3973</v>
       </c>
       <c r="B1338" t="s">
-        <v>3983</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3984</v>
+        <v>3975</v>
       </c>
       <c r="B1339" t="s">
-        <v>3985</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3986</v>
+        <v>3977</v>
       </c>
       <c r="B1340" t="s">
-        <v>3987</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3988</v>
+        <v>3979</v>
       </c>
       <c r="B1341" t="s">
-        <v>3989</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>3990</v>
+        <v>3981</v>
       </c>
       <c r="B1342" t="s">
-        <v>3991</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3992</v>
+        <v>3983</v>
       </c>
       <c r="B1343" t="s">
-        <v>3993</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>3994</v>
+        <v>3985</v>
       </c>
       <c r="B1344" t="s">
-        <v>3995</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>3996</v>
+        <v>3987</v>
       </c>
       <c r="B1345" t="s">
-        <v>3997</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>3998</v>
+        <v>3989</v>
       </c>
       <c r="B1346" t="s">
-        <v>3999</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>4000</v>
+        <v>3991</v>
       </c>
       <c r="B1347" t="s">
-        <v>4001</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>4002</v>
+        <v>3993</v>
       </c>
       <c r="B1348" t="s">
-        <v>4003</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>4004</v>
+        <v>3995</v>
       </c>
       <c r="B1349" t="s">
-        <v>4005</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>4006</v>
+        <v>3997</v>
       </c>
       <c r="B1350" t="s">
-        <v>4007</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>4008</v>
+        <v>3999</v>
       </c>
       <c r="B1351" t="s">
-        <v>4009</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>4010</v>
+        <v>4001</v>
       </c>
       <c r="B1352" t="s">
-        <v>4011</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>4012</v>
+        <v>4003</v>
       </c>
       <c r="B1353" t="s">
-        <v>4013</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>4014</v>
+        <v>4005</v>
       </c>
       <c r="B1354" t="s">
-        <v>4015</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>4016</v>
+        <v>4007</v>
       </c>
       <c r="B1355" t="s">
-        <v>4017</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>4018</v>
+        <v>4009</v>
       </c>
       <c r="B1356" t="s">
-        <v>4019</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>4020</v>
+        <v>4011</v>
       </c>
       <c r="B1357" t="s">
-        <v>4021</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>4022</v>
+        <v>4013</v>
       </c>
       <c r="B1358" t="s">
-        <v>4023</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>4024</v>
+        <v>4015</v>
       </c>
       <c r="B1359" t="s">
-        <v>4025</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>4026</v>
+        <v>4017</v>
       </c>
       <c r="B1360" t="s">
-        <v>4027</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>4028</v>
+        <v>4019</v>
       </c>
       <c r="B1361" t="s">
-        <v>4029</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>4030</v>
+        <v>4021</v>
       </c>
       <c r="B1362" t="s">
-        <v>4031</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4032</v>
+        <v>4023</v>
       </c>
       <c r="B1363" t="s">
-        <v>4033</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4034</v>
+        <v>4025</v>
       </c>
       <c r="B1364" t="s">
-        <v>4035</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4036</v>
+        <v>4027</v>
       </c>
       <c r="B1365" t="s">
-        <v>4037</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4038</v>
+        <v>4029</v>
       </c>
       <c r="B1366" t="s">
-        <v>4039</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4040</v>
+        <v>4031</v>
       </c>
       <c r="B1367" t="s">
-        <v>4041</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4042</v>
+        <v>4033</v>
       </c>
       <c r="B1368" t="s">
-        <v>4043</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4044</v>
+        <v>4035</v>
       </c>
       <c r="B1369" t="s">
-        <v>4045</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4046</v>
+        <v>4037</v>
       </c>
       <c r="B1370" t="s">
-        <v>4047</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4048</v>
+        <v>4039</v>
       </c>
       <c r="B1371" t="s">
-        <v>4049</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4050</v>
+        <v>4041</v>
       </c>
       <c r="B1372" t="s">
-        <v>4051</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4052</v>
+        <v>4043</v>
       </c>
       <c r="B1373" t="s">
-        <v>4053</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4054</v>
+        <v>4045</v>
       </c>
       <c r="B1374" t="s">
-        <v>4055</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4056</v>
+        <v>4047</v>
       </c>
       <c r="B1375" t="s">
-        <v>4057</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4058</v>
+        <v>4049</v>
       </c>
       <c r="B1376" t="s">
-        <v>4059</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4060</v>
+        <v>4051</v>
       </c>
       <c r="B1377" t="s">
-        <v>4061</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4062</v>
+        <v>4053</v>
       </c>
       <c r="B1378" t="s">
-        <v>4063</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4064</v>
+        <v>4055</v>
       </c>
       <c r="B1379" t="s">
-        <v>4065</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4066</v>
+        <v>4057</v>
       </c>
       <c r="B1380" t="s">
-        <v>4067</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4068</v>
+        <v>4059</v>
       </c>
       <c r="B1381" t="s">
-        <v>4069</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4070</v>
+        <v>4061</v>
       </c>
       <c r="B1382" t="s">
-        <v>4071</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4072</v>
+        <v>4063</v>
       </c>
       <c r="B1383" t="s">
-        <v>4073</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4074</v>
+        <v>4065</v>
       </c>
       <c r="B1384" t="s">
-        <v>4075</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4076</v>
+        <v>4067</v>
       </c>
       <c r="B1385" t="s">
-        <v>4077</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4078</v>
+        <v>4069</v>
       </c>
       <c r="B1386" t="s">
-        <v>4079</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4080</v>
+        <v>4071</v>
       </c>
       <c r="B1387" t="s">
-        <v>4081</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4082</v>
+        <v>4073</v>
       </c>
       <c r="B1388" t="s">
-        <v>4083</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4084</v>
+        <v>4075</v>
       </c>
       <c r="B1389" t="s">
-        <v>4085</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4086</v>
+        <v>4077</v>
       </c>
       <c r="B1390" t="s">
-        <v>4087</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4088</v>
+        <v>4079</v>
       </c>
       <c r="B1391" t="s">
-        <v>4089</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4090</v>
+        <v>4081</v>
       </c>
       <c r="B1392" t="s">
-        <v>4091</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4092</v>
+        <v>4083</v>
       </c>
       <c r="B1393" t="s">
-        <v>4093</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4094</v>
+        <v>4085</v>
       </c>
       <c r="B1394" t="s">
-        <v>4095</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4096</v>
+        <v>4087</v>
       </c>
       <c r="B1395" t="s">
-        <v>4097</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4098</v>
+        <v>4089</v>
       </c>
       <c r="B1396" t="s">
-        <v>4099</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4100</v>
+        <v>4091</v>
       </c>
       <c r="B1397" t="s">
-        <v>4101</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4102</v>
+        <v>4093</v>
       </c>
       <c r="B1398" t="s">
-        <v>4103</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4104</v>
+        <v>4095</v>
       </c>
       <c r="B1399" t="s">
-        <v>4105</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4106</v>
+        <v>4097</v>
       </c>
       <c r="B1400" t="s">
-        <v>4107</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4108</v>
+        <v>4099</v>
       </c>
       <c r="B1401" t="s">
-        <v>4109</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4110</v>
+        <v>4101</v>
       </c>
       <c r="B1402" t="s">
-        <v>4111</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4112</v>
+        <v>4103</v>
       </c>
       <c r="B1403" t="s">
-        <v>4113</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4114</v>
+        <v>4105</v>
       </c>
       <c r="B1404" t="s">
-        <v>4115</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4116</v>
+        <v>4107</v>
       </c>
       <c r="B1405" t="s">
-        <v>4117</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4118</v>
+        <v>4109</v>
       </c>
       <c r="B1406" t="s">
-        <v>4119</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4120</v>
+        <v>4111</v>
       </c>
       <c r="B1407" t="s">
-        <v>4121</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4122</v>
+        <v>4113</v>
       </c>
       <c r="B1408" t="s">
-        <v>4123</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4124</v>
+        <v>4115</v>
       </c>
       <c r="B1409" t="s">
-        <v>4125</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4126</v>
+        <v>4117</v>
       </c>
       <c r="B1410" t="s">
-        <v>4127</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4128</v>
+        <v>4119</v>
       </c>
       <c r="B1411" t="s">
-        <v>4129</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4130</v>
+        <v>4121</v>
       </c>
       <c r="B1412" t="s">
-        <v>4131</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4132</v>
+        <v>4123</v>
       </c>
       <c r="B1413" t="s">
-        <v>4133</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4134</v>
+        <v>4125</v>
       </c>
       <c r="B1414" t="s">
-        <v>4135</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4136</v>
+        <v>4127</v>
       </c>
       <c r="B1415" t="s">
-        <v>4137</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4138</v>
+        <v>4129</v>
       </c>
       <c r="B1416" t="s">
-        <v>4139</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4140</v>
+        <v>4131</v>
       </c>
       <c r="B1417" t="s">
-        <v>4141</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4142</v>
+        <v>4133</v>
       </c>
       <c r="B1418" t="s">
-        <v>4143</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4144</v>
+        <v>4135</v>
       </c>
       <c r="B1419" t="s">
-        <v>4145</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4146</v>
+        <v>4137</v>
       </c>
       <c r="B1420" t="s">
-        <v>4147</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4148</v>
+        <v>4139</v>
       </c>
       <c r="B1421" t="s">
-        <v>4149</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4428</v>
+        <v>4141</v>
       </c>
       <c r="B1422" t="s">
-        <v>4429</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4150</v>
+        <v>4143</v>
       </c>
       <c r="B1423" t="s">
-        <v>4151</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4152</v>
+        <v>4423</v>
       </c>
       <c r="B1424" t="s">
-        <v>4153</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4154</v>
+        <v>4145</v>
       </c>
       <c r="B1425" t="s">
-        <v>4155</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4156</v>
+        <v>4147</v>
       </c>
       <c r="B1426" t="s">
-        <v>4157</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4158</v>
+        <v>4149</v>
       </c>
       <c r="B1427" t="s">
-        <v>4159</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4160</v>
+        <v>4151</v>
       </c>
       <c r="B1428" t="s">
-        <v>4161</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4162</v>
+        <v>4153</v>
       </c>
       <c r="B1429" t="s">
-        <v>4163</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4164</v>
+        <v>4155</v>
       </c>
       <c r="B1430" t="s">
-        <v>4165</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4166</v>
+        <v>4157</v>
       </c>
       <c r="B1431" t="s">
-        <v>4167</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4168</v>
+        <v>4159</v>
       </c>
       <c r="B1432" t="s">
-        <v>4169</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4170</v>
+        <v>4161</v>
       </c>
       <c r="B1433" t="s">
-        <v>4171</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4172</v>
+        <v>4163</v>
       </c>
       <c r="B1434" t="s">
-        <v>4173</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4174</v>
+        <v>4165</v>
       </c>
       <c r="B1435" t="s">
-        <v>4175</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4176</v>
+        <v>4167</v>
       </c>
       <c r="B1436" t="s">
-        <v>4177</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4178</v>
+        <v>4169</v>
       </c>
       <c r="B1437" t="s">
-        <v>4179</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4180</v>
+        <v>4171</v>
       </c>
       <c r="B1438" t="s">
-        <v>4181</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4182</v>
+        <v>4173</v>
       </c>
       <c r="B1439" t="s">
-        <v>4183</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4184</v>
+        <v>4175</v>
       </c>
       <c r="B1440" t="s">
-        <v>4185</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4186</v>
+        <v>4177</v>
       </c>
       <c r="B1441" t="s">
-        <v>4187</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4188</v>
+        <v>4179</v>
       </c>
       <c r="B1442" t="s">
-        <v>4189</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4190</v>
+        <v>4181</v>
       </c>
       <c r="B1443" t="s">
-        <v>4191</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4192</v>
+        <v>4183</v>
       </c>
       <c r="B1444" t="s">
-        <v>4193</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4194</v>
+        <v>4185</v>
       </c>
       <c r="B1445" t="s">
-        <v>4195</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4196</v>
+        <v>4187</v>
       </c>
       <c r="B1446" t="s">
-        <v>4197</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4198</v>
+        <v>4189</v>
       </c>
       <c r="B1447" t="s">
-        <v>4199</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4200</v>
+        <v>4191</v>
       </c>
       <c r="B1448" t="s">
-        <v>4201</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4202</v>
+        <v>4193</v>
       </c>
       <c r="B1449" t="s">
-        <v>4203</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4204</v>
+        <v>4195</v>
       </c>
       <c r="B1450" t="s">
-        <v>4205</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4206</v>
+        <v>4197</v>
       </c>
       <c r="B1451" t="s">
-        <v>4207</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4208</v>
+        <v>4199</v>
       </c>
       <c r="B1452" t="s">
-        <v>4209</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4210</v>
+        <v>4201</v>
       </c>
       <c r="B1453" t="s">
-        <v>4211</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4212</v>
+        <v>4203</v>
       </c>
       <c r="B1454" t="s">
-        <v>4213</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4214</v>
+        <v>4205</v>
       </c>
       <c r="B1455" t="s">
-        <v>4215</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4216</v>
+        <v>4207</v>
       </c>
       <c r="B1456" t="s">
-        <v>4217</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4218</v>
+        <v>4209</v>
       </c>
       <c r="B1457" t="s">
-        <v>4219</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4220</v>
+        <v>4211</v>
       </c>
       <c r="B1458" t="s">
-        <v>4221</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4222</v>
+        <v>4213</v>
       </c>
       <c r="B1459" t="s">
-        <v>4223</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4224</v>
+        <v>4215</v>
       </c>
       <c r="B1460" t="s">
-        <v>4225</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4226</v>
+        <v>4217</v>
       </c>
       <c r="B1461" t="s">
-        <v>4227</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4228</v>
+        <v>4219</v>
       </c>
       <c r="B1462" t="s">
-        <v>4229</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4230</v>
+        <v>4221</v>
       </c>
       <c r="B1463" t="s">
-        <v>4231</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4232</v>
+        <v>4223</v>
       </c>
       <c r="B1464" t="s">
-        <v>4233</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4234</v>
+        <v>4225</v>
       </c>
       <c r="B1465" t="s">
-        <v>4235</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4236</v>
+        <v>4227</v>
       </c>
       <c r="B1466" t="s">
-        <v>4237</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4238</v>
+        <v>4229</v>
       </c>
       <c r="B1467" t="s">
-        <v>4239</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4240</v>
+        <v>4231</v>
       </c>
       <c r="B1468" t="s">
-        <v>4241</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4242</v>
+        <v>4233</v>
       </c>
       <c r="B1469" t="s">
-        <v>4243</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4244</v>
+        <v>4235</v>
       </c>
       <c r="B1470" t="s">
-        <v>4245</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4246</v>
+        <v>4237</v>
       </c>
       <c r="B1471" t="s">
-        <v>4247</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4248</v>
+        <v>4239</v>
       </c>
       <c r="B1472" t="s">
-        <v>4249</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4250</v>
+        <v>4241</v>
       </c>
       <c r="B1473" t="s">
-        <v>4251</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4252</v>
+        <v>4243</v>
       </c>
       <c r="B1474" t="s">
-        <v>4253</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4254</v>
+        <v>4245</v>
       </c>
       <c r="B1475" t="s">
-        <v>4255</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4256</v>
+        <v>4247</v>
       </c>
       <c r="B1476" t="s">
-        <v>4257</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4258</v>
+        <v>4249</v>
       </c>
       <c r="B1477" t="s">
-        <v>4259</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4260</v>
+        <v>4251</v>
       </c>
       <c r="B1478" t="s">
-        <v>4261</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4262</v>
+        <v>4253</v>
       </c>
       <c r="B1479" t="s">
-        <v>4263</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4264</v>
+        <v>4255</v>
       </c>
       <c r="B1480" t="s">
-        <v>4265</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4266</v>
+        <v>4257</v>
       </c>
       <c r="B1481" t="s">
-        <v>4267</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4268</v>
+        <v>4259</v>
       </c>
       <c r="B1482" t="s">
-        <v>4269</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4270</v>
+        <v>4261</v>
       </c>
       <c r="B1483" t="s">
-        <v>4271</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4272</v>
+        <v>4263</v>
       </c>
       <c r="B1484" t="s">
-        <v>4273</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4274</v>
+        <v>4265</v>
       </c>
       <c r="B1485" t="s">
-        <v>4275</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4276</v>
+        <v>4267</v>
       </c>
       <c r="B1486" t="s">
-        <v>4277</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4278</v>
+        <v>4269</v>
       </c>
       <c r="B1487" t="s">
-        <v>4279</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4280</v>
+        <v>4271</v>
       </c>
       <c r="B1488" t="s">
-        <v>4281</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4282</v>
+        <v>4273</v>
       </c>
       <c r="B1489" t="s">
-        <v>4283</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4284</v>
+        <v>4275</v>
       </c>
       <c r="B1490" t="s">
-        <v>4285</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4286</v>
+        <v>4277</v>
       </c>
       <c r="B1491" t="s">
-        <v>4287</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4288</v>
+        <v>4279</v>
       </c>
       <c r="B1492" t="s">
-        <v>4289</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4290</v>
+        <v>4281</v>
       </c>
       <c r="B1493" t="s">
-        <v>4291</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4292</v>
+        <v>4283</v>
       </c>
       <c r="B1494" t="s">
-        <v>4293</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4294</v>
+        <v>4285</v>
       </c>
       <c r="B1495" t="s">
-        <v>4295</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4296</v>
+        <v>4287</v>
       </c>
       <c r="B1496" t="s">
-        <v>4297</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4298</v>
+        <v>4289</v>
       </c>
       <c r="B1497" t="s">
-        <v>4299</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4300</v>
+        <v>4291</v>
       </c>
       <c r="B1498" t="s">
-        <v>4301</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4302</v>
+        <v>4293</v>
       </c>
       <c r="B1499" t="s">
-        <v>4303</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4304</v>
+        <v>4295</v>
       </c>
       <c r="B1500" t="s">
-        <v>4305</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4436</v>
+        <v>4297</v>
       </c>
       <c r="B1501" t="s">
-        <v>4437</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4306</v>
+        <v>4299</v>
       </c>
       <c r="B1502" t="s">
-        <v>4307</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4308</v>
+        <v>4431</v>
       </c>
       <c r="B1503" t="s">
-        <v>4309</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4310</v>
+        <v>4301</v>
       </c>
       <c r="B1504" t="s">
-        <v>4311</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4312</v>
+        <v>4303</v>
       </c>
       <c r="B1505" t="s">
-        <v>4313</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4314</v>
+        <v>4305</v>
       </c>
       <c r="B1506" t="s">
-        <v>4315</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4316</v>
+        <v>4307</v>
       </c>
       <c r="B1507" t="s">
-        <v>4317</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4318</v>
+        <v>4309</v>
       </c>
       <c r="B1508" t="s">
-        <v>4319</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4320</v>
+        <v>4311</v>
       </c>
       <c r="B1509" t="s">
-        <v>4321</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4322</v>
+        <v>4313</v>
       </c>
       <c r="B1510" t="s">
-        <v>4323</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4324</v>
+        <v>4315</v>
       </c>
       <c r="B1511" t="s">
-        <v>4325</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4326</v>
+        <v>4317</v>
       </c>
       <c r="B1512" t="s">
-        <v>4327</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4328</v>
+        <v>4319</v>
       </c>
       <c r="B1513" t="s">
-        <v>4329</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4330</v>
+        <v>4321</v>
       </c>
       <c r="B1514" t="s">
-        <v>4331</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4332</v>
+        <v>4323</v>
       </c>
       <c r="B1515" t="s">
-        <v>4333</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4334</v>
+        <v>4325</v>
       </c>
       <c r="B1516" t="s">
-        <v>4335</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4336</v>
+        <v>4327</v>
       </c>
       <c r="B1517" t="s">
-        <v>4337</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4338</v>
+        <v>4329</v>
       </c>
       <c r="B1518" t="s">
-        <v>4339</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4340</v>
+        <v>4331</v>
       </c>
       <c r="B1519" t="s">
-        <v>4341</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4342</v>
+        <v>4333</v>
       </c>
       <c r="B1520" t="s">
-        <v>4343</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4344</v>
+        <v>4335</v>
       </c>
       <c r="B1521" t="s">
-        <v>4345</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4346</v>
+        <v>4337</v>
       </c>
       <c r="B1522" t="s">
-        <v>4347</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4348</v>
+        <v>4339</v>
       </c>
       <c r="B1523" t="s">
-        <v>4349</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4350</v>
+        <v>4341</v>
       </c>
       <c r="B1524" t="s">
-        <v>4351</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4352</v>
+        <v>4343</v>
       </c>
       <c r="B1525" t="s">
-        <v>4353</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4354</v>
+        <v>4345</v>
       </c>
       <c r="B1526" t="s">
-        <v>4355</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4356</v>
+        <v>4347</v>
       </c>
       <c r="B1527" t="s">
-        <v>4357</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4358</v>
+        <v>4349</v>
       </c>
       <c r="B1528" t="s">
-        <v>4359</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4360</v>
+        <v>4351</v>
       </c>
       <c r="B1529" t="s">
-        <v>4361</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4362</v>
+        <v>4353</v>
       </c>
       <c r="B1530" t="s">
-        <v>4363</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4364</v>
+        <v>4355</v>
       </c>
       <c r="B1531" t="s">
-        <v>4365</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4366</v>
+        <v>4357</v>
       </c>
       <c r="B1532" t="s">
-        <v>4367</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4368</v>
+        <v>4359</v>
       </c>
       <c r="B1533" t="s">
-        <v>4369</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4370</v>
+        <v>4361</v>
       </c>
       <c r="B1534" t="s">
-        <v>4371</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4432</v>
+        <v>4363</v>
       </c>
       <c r="B1535" t="s">
-        <v>4433</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4372</v>
+        <v>4365</v>
       </c>
       <c r="B1536" t="s">
-        <v>4373</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4374</v>
+        <v>4427</v>
       </c>
       <c r="B1537" t="s">
-        <v>4375</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4376</v>
+        <v>4367</v>
       </c>
       <c r="B1538" t="s">
-        <v>4377</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4378</v>
+        <v>4369</v>
       </c>
       <c r="B1539" t="s">
-        <v>4379</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4380</v>
+        <v>4371</v>
       </c>
       <c r="B1540" t="s">
-        <v>4381</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4382</v>
+        <v>4373</v>
       </c>
       <c r="B1541" t="s">
-        <v>4383</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4384</v>
+        <v>4375</v>
       </c>
       <c r="B1542" t="s">
-        <v>4385</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4386</v>
+        <v>4377</v>
       </c>
       <c r="B1543" t="s">
-        <v>4387</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4388</v>
+        <v>4379</v>
       </c>
       <c r="B1544" t="s">
-        <v>4389</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4390</v>
+        <v>4381</v>
       </c>
       <c r="B1545" t="s">
-        <v>4391</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4392</v>
+        <v>4383</v>
       </c>
       <c r="B1546" t="s">
-        <v>4393</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4394</v>
+        <v>4385</v>
       </c>
       <c r="B1547" t="s">
-        <v>4395</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4396</v>
+        <v>4387</v>
       </c>
       <c r="B1548" t="s">
-        <v>4397</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4398</v>
+        <v>4389</v>
       </c>
       <c r="B1549" t="s">
-        <v>4399</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4400</v>
+        <v>4391</v>
       </c>
       <c r="B1550" t="s">
-        <v>4401</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4402</v>
+        <v>4393</v>
       </c>
       <c r="B1551" t="s">
-        <v>4403</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4404</v>
+        <v>4395</v>
       </c>
       <c r="B1552" t="s">
-        <v>4405</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4406</v>
+        <v>4397</v>
       </c>
       <c r="B1553" t="s">
-        <v>4407</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4408</v>
+        <v>4399</v>
       </c>
       <c r="B1554" t="s">
-        <v>4409</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4410</v>
+        <v>4401</v>
       </c>
       <c r="B1555" t="s">
-        <v>4411</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4412</v>
+        <v>4403</v>
       </c>
       <c r="B1556" t="s">
-        <v>4413</v>
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2">
+      <c r="A1557" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2">
+      <c r="A1558" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>4408</v>
       </c>
     </row>
   </sheetData>
@@ -26575,7 +26591,7 @@
         <v>1011</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>3296</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -26591,7 +26607,7 @@
         <v>1013</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>3297</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -26607,7 +26623,7 @@
         <v>1021</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>3298</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -26615,7 +26631,7 @@
         <v>1022</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>3299</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -26623,7 +26639,7 @@
         <v>1023</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>3300</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -26639,7 +26655,7 @@
         <v>1031</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>3301</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -26663,7 +26679,7 @@
         <v>1041</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>3302</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -26679,7 +26695,7 @@
         <v>1051</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -26695,7 +26711,7 @@
         <v>1061</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>3295</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -26711,7 +26727,7 @@
         <v>1071</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>3304</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -26719,7 +26735,7 @@
         <v>1072</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -26727,7 +26743,7 @@
         <v>1073</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>3306</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -26735,7 +26751,7 @@
         <v>1074</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>3307</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -26811,7 +26827,7 @@
         <v>1124</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -26819,7 +26835,7 @@
         <v>1125</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="55" customFormat="1">
@@ -26891,7 +26907,7 @@
         <v>1144</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>3308</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -26899,7 +26915,7 @@
         <v>1145</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -26907,7 +26923,7 @@
         <v>1146</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>3310</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -27038,7 +27054,7 @@
         <v>1192</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>3291</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -27046,7 +27062,7 @@
         <v>1193</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>3311</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -27054,7 +27070,7 @@
         <v>1194</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>3312</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -27062,7 +27078,7 @@
         <v>1195</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>3313</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -27082,7 +27098,7 @@
         <v>1201</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>3325</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -27283,7 +27299,7 @@
         <v>1252</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>3314</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -27291,7 +27307,7 @@
         <v>1253</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>3315</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -27350,7 +27366,7 @@
         <v>1286</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -27358,7 +27374,7 @@
         <v>1288</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>3317</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -27366,7 +27382,7 @@
         <v>1289</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -27455,7 +27471,7 @@
         <v>1324</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -27495,7 +27511,7 @@
         <v>1334</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -27503,7 +27519,7 @@
         <v>1335</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -27511,7 +27527,7 @@
         <v>1336</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -27675,7 +27691,7 @@
         <v>1422</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -27683,7 +27699,7 @@
         <v>1423</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>3320</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -27691,7 +27707,7 @@
         <v>1424</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>3321</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -37459,10 +37475,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:B94"/>
+  <dimension ref="A2:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -37517,7 +37533,7 @@
         <v>1012</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>3279</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -37853,7 +37869,7 @@
         <v>1340</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -37861,7 +37877,7 @@
         <v>1351</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>3245</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -37869,7 +37885,7 @@
         <v>1342</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>3246</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -37877,7 +37893,7 @@
         <v>1350</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>3247</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -37885,7 +37901,7 @@
         <v>1352</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>3280</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -37893,7 +37909,7 @@
         <v>1221</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>3281</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -37901,168 +37917,168 @@
         <v>1360</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>3248</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="58">
-        <v>1361</v>
+        <v>1224</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>3249</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="58">
-        <v>1224</v>
-      </c>
-      <c r="B57" s="59" t="s">
-        <v>3250</v>
+      <c r="A57" s="64">
+        <v>1370</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>3280</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="64">
-        <v>1370</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>3285</v>
+      <c r="A58" s="58">
+        <v>1371</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>3281</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="58">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>3286</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="58">
-        <v>1341</v>
-      </c>
-      <c r="B60" s="59" t="s">
-        <v>3287</v>
+      <c r="A60" s="64">
+        <v>1380</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>3283</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="64">
-        <v>1380</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>3288</v>
+      <c r="A61" s="58">
+        <v>1381</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>3284</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="58">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>3289</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="58">
-        <v>1382</v>
-      </c>
-      <c r="B63" s="59" t="s">
-        <v>3290</v>
-      </c>
+      <c r="A63" s="58"/>
+      <c r="B63" s="59"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="58"/>
-      <c r="B64" s="59"/>
+      <c r="A64" s="56">
+        <v>2000</v>
+      </c>
+      <c r="B64" s="63" t="s">
+        <v>3169</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="56">
-        <v>2000</v>
-      </c>
-      <c r="B65" s="63" t="s">
-        <v>3169</v>
+      <c r="A65" s="64">
+        <v>2010</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>3170</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="64">
-        <v>2010</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>3170</v>
+      <c r="A66" s="71">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>3171</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="71">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="71">
-        <v>2021</v>
-      </c>
-      <c r="B68" s="59" t="s">
-        <v>3172</v>
+      <c r="A68" s="64">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>3232</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="64">
-        <v>2020</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>3232</v>
+      <c r="A69" s="58">
+        <v>2031</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>4435</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="58">
-        <v>2031</v>
-      </c>
-      <c r="B70" s="59" t="s">
+      <c r="A70" s="56">
+        <v>3000</v>
+      </c>
+      <c r="B70" s="63" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="64">
+        <v>3010</v>
+      </c>
+      <c r="B71" s="65" t="s">
         <v>3233</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="58">
-        <v>2022</v>
-      </c>
-      <c r="B71" s="59" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="58">
+        <v>3021</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="58">
+        <v>3012</v>
+      </c>
+      <c r="B73" s="59" t="s">
         <v>3234</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="56">
-        <v>3000</v>
-      </c>
-      <c r="B72" s="63" t="s">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="64">
-        <v>3010</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>3235</v>
-      </c>
-    </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="58">
-        <v>3021</v>
-      </c>
-      <c r="B74" s="59" t="s">
-        <v>3237</v>
+      <c r="A74" s="64">
+        <v>3020</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>3236</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="58">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="64">
-        <v>3020</v>
+        <v>3030</v>
       </c>
       <c r="B76" s="65" t="s">
         <v>3238</v>
@@ -38070,7 +38086,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="58">
-        <v>3011</v>
+        <v>3031</v>
       </c>
       <c r="B77" s="59" t="s">
         <v>3239</v>
@@ -38078,138 +38094,106 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="58">
-        <v>2022</v>
+        <v>1111</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>3240</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="64">
-        <v>3030</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>3241</v>
+      <c r="A79" s="58">
+        <v>1112</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>4410</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="58">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>3242</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="58">
-        <v>3031</v>
+        <v>2525</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>3243</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="58">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="B82" s="59" t="s">
-        <v>4414</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="58">
-        <v>1112</v>
+        <v>1142</v>
       </c>
       <c r="B83" s="59" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="60">
+        <v>1141</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="60">
+        <v>1062</v>
+      </c>
+      <c r="B85" s="59" t="s">
         <v>4415</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="58">
-        <v>2026</v>
-      </c>
-      <c r="B84" s="59" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="60">
+        <v>1061</v>
+      </c>
+      <c r="B86" s="59" t="s">
         <v>4416</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="58">
-        <v>2525</v>
-      </c>
-      <c r="B85" s="59" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="60">
+        <v>2024</v>
+      </c>
+      <c r="B87" s="59" t="s">
         <v>4417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="58">
-        <v>1121</v>
-      </c>
-      <c r="B86" s="59" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="58">
-        <v>1142</v>
-      </c>
-      <c r="B87" s="59" t="s">
-        <v>4418</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="60">
-        <v>1141</v>
+        <v>2023</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="60">
-        <v>1062</v>
-      </c>
-      <c r="B89" s="59" t="s">
-        <v>4420</v>
+        <v>1324</v>
+      </c>
+      <c r="B89" s="61" t="s">
+        <v>4419</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="60">
-        <v>1061</v>
-      </c>
-      <c r="B90" s="59" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="60">
-        <v>2024</v>
-      </c>
-      <c r="B91" s="59" t="s">
-        <v>4422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="60">
-        <v>2023</v>
-      </c>
-      <c r="B92" s="59" t="s">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="60">
-        <v>1324</v>
-      </c>
-      <c r="B93" s="61" t="s">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="60">
         <v>1323</v>
       </c>
-      <c r="B94" s="61" t="s">
-        <v>4425</v>
+      <c r="B90" s="61" t="s">
+        <v>4420</v>
       </c>
     </row>
   </sheetData>
@@ -38969,7 +38953,7 @@
     <row r="35" spans="2:3">
       <c r="B35" s="34"/>
       <c r="C35" s="17" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -38977,7 +38961,7 @@
         <v>2650</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -38985,7 +38969,7 @@
         <v>3550</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>3257</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -38993,7 +38977,7 @@
         <v>3550</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -39001,13 +38985,13 @@
         <v>2650</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="34"/>
       <c r="C40" s="17" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -39023,13 +39007,13 @@
         <v>2000</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="34"/>
       <c r="C43" s="17" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -39045,7 +39029,7 @@
         <v>2400</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -39053,7 +39037,7 @@
         <v>2400</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -39061,13 +39045,13 @@
         <v>1850</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="34"/>
       <c r="C48" s="17" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -39075,7 +39059,7 @@
         <v>4600</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -39083,7 +39067,7 @@
         <v>4650</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -39091,7 +39075,7 @@
         <v>4650</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -39099,13 +39083,13 @@
         <v>4600</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="34"/>
       <c r="C53" s="17" t="s">
-        <v>3271</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -39121,13 +39105,13 @@
         <v>2350</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="34"/>
       <c r="C56" s="17" t="s">
-        <v>3273</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -39143,7 +39127,7 @@
         <v>1000</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>3274</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -39151,7 +39135,7 @@
         <v>1000</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -39159,13 +39143,13 @@
         <v>1000</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="34"/>
       <c r="C61" s="17" t="s">
-        <v>3282</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -39173,7 +39157,7 @@
         <v>5000</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -39181,13 +39165,13 @@
         <v>5000</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="34"/>
       <c r="C64" s="17" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -39203,7 +39187,7 @@
         <v>6000</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>3251</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="67" spans="2:3">
@@ -39211,7 +39195,7 @@
         <v>6000</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -39219,13 +39203,13 @@
         <v>3700</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>3253</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="34"/>
       <c r="C69" s="17" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -39241,7 +39225,7 @@
         <v>3650</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="72" spans="2:3">

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCB1C3A-7494-496B-B0F4-E881DF1B3D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1781F2-D358-4C20-A65D-F1F4AB24A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="4442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4487" uniqueCount="4450">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13371,6 +13371,30 @@
   </si>
   <si>
     <t>AKWA PALACE LIMITED COMPANY</t>
+  </si>
+  <si>
+    <t>N0132</t>
+  </si>
+  <si>
+    <t>NEWREST ZAMBIA</t>
+  </si>
+  <si>
+    <t>P0061</t>
+  </si>
+  <si>
+    <t>PUMA ENERGY GHANA LTD</t>
+  </si>
+  <si>
+    <t>T0106</t>
+  </si>
+  <si>
+    <t>TRANSAFRICA COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>P0096</t>
+  </si>
+  <si>
+    <t>PUMA SOUTH AFRICA</t>
   </si>
 </sst>
 </file>
@@ -14064,10 +14088,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1560"/>
+  <dimension ref="A1:B1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A1254" workbookViewId="0">
+      <selection activeCell="B1271" sqref="B1271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23734,2825 +23758,2857 @@
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="1" t="s">
-        <v>3723</v>
+        <v>4442</v>
       </c>
       <c r="B1208" t="s">
-        <v>3724</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="1" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="B1209" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="1" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="B1210" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="1" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="B1211" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="1" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="B1212" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="1" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="B1213" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" s="1" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="B1214" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="1" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="B1215" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="1" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
       <c r="B1216" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="1" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="B1217" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="1" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
       <c r="B1218" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="1" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
       <c r="B1219" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="1" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
       <c r="B1220" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="1" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="B1221" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="1" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="B1222" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="1" t="s">
-        <v>4425</v>
+        <v>3750</v>
       </c>
       <c r="B1223" t="s">
-        <v>4426</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="1" t="s">
-        <v>3752</v>
+        <v>4425</v>
       </c>
       <c r="B1224" t="s">
-        <v>3753</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="1" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="B1225" t="s">
-        <v>3749</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="1" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="B1226" t="s">
-        <v>3756</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="B1227" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="1" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="B1228" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="1" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="B1229" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230" s="1" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="B1230" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="1" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
       <c r="B1231" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="1" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="B1232" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="1" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="B1233" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="1" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="B1234" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="1" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="B1235" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="1" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="B1236" t="s">
-        <v>3762</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="1" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="B1237" t="s">
-        <v>3777</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="1" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="B1238" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="1" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="B1239" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="1" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
       <c r="B1240" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="1" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="B1241" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="1" t="s">
-        <v>3786</v>
+        <v>4444</v>
       </c>
       <c r="B1242" t="s">
-        <v>3787</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="1" t="s">
-        <v>3788</v>
+        <v>3784</v>
       </c>
       <c r="B1243" t="s">
-        <v>3789</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="1" t="s">
-        <v>3790</v>
+        <v>3786</v>
       </c>
       <c r="B1244" t="s">
-        <v>3791</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="1" t="s">
-        <v>3792</v>
+        <v>3788</v>
       </c>
       <c r="B1245" t="s">
-        <v>3793</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="1" t="s">
-        <v>3794</v>
+        <v>3790</v>
       </c>
       <c r="B1246" t="s">
-        <v>3795</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="1" t="s">
-        <v>3796</v>
+        <v>3792</v>
       </c>
       <c r="B1247" t="s">
-        <v>3797</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="1" t="s">
-        <v>3798</v>
+        <v>3794</v>
       </c>
       <c r="B1248" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="1" t="s">
-        <v>3800</v>
+        <v>3796</v>
       </c>
       <c r="B1249" t="s">
-        <v>3801</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="1" t="s">
-        <v>3802</v>
+        <v>3798</v>
       </c>
       <c r="B1250" t="s">
-        <v>3803</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="1" t="s">
-        <v>3804</v>
+        <v>3800</v>
       </c>
       <c r="B1251" t="s">
-        <v>3805</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="1" t="s">
-        <v>3806</v>
+        <v>3802</v>
       </c>
       <c r="B1252" t="s">
-        <v>3807</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="1" t="s">
-        <v>3808</v>
+        <v>3804</v>
       </c>
       <c r="B1253" t="s">
-        <v>3809</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="1" t="s">
-        <v>3810</v>
+        <v>3806</v>
       </c>
       <c r="B1254" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="1" t="s">
-        <v>3812</v>
+        <v>3808</v>
       </c>
       <c r="B1255" t="s">
-        <v>3813</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="1" t="s">
-        <v>3814</v>
+        <v>3810</v>
       </c>
       <c r="B1256" t="s">
-        <v>3815</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="1" t="s">
-        <v>3816</v>
+        <v>3812</v>
       </c>
       <c r="B1257" t="s">
-        <v>3817</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="1" t="s">
-        <v>3818</v>
+        <v>3814</v>
       </c>
       <c r="B1258" t="s">
-        <v>3819</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="1" t="s">
-        <v>3820</v>
+        <v>3816</v>
       </c>
       <c r="B1259" t="s">
-        <v>3821</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="1" t="s">
-        <v>3822</v>
+        <v>3818</v>
       </c>
       <c r="B1260" t="s">
-        <v>3823</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="1" t="s">
-        <v>3824</v>
+        <v>3820</v>
       </c>
       <c r="B1261" t="s">
-        <v>3825</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="1" t="s">
-        <v>3826</v>
+        <v>3822</v>
       </c>
       <c r="B1262" t="s">
-        <v>3827</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="1" t="s">
-        <v>3828</v>
+        <v>3824</v>
       </c>
       <c r="B1263" t="s">
-        <v>3829</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="1" t="s">
-        <v>3830</v>
+        <v>3826</v>
       </c>
       <c r="B1264" t="s">
-        <v>3831</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" s="1" t="s">
-        <v>3832</v>
+        <v>3828</v>
       </c>
       <c r="B1265" t="s">
-        <v>3833</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
       <c r="A1266" s="1" t="s">
-        <v>3834</v>
+        <v>3830</v>
       </c>
       <c r="B1266" t="s">
-        <v>3835</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="1" t="s">
-        <v>3836</v>
+        <v>3832</v>
       </c>
       <c r="B1267" t="s">
-        <v>3837</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="1" t="s">
-        <v>3838</v>
+        <v>4448</v>
       </c>
       <c r="B1268" t="s">
-        <v>3839</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269" s="1" t="s">
-        <v>3840</v>
+        <v>3834</v>
       </c>
       <c r="B1269" t="s">
-        <v>3841</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
       <c r="A1270" s="1" t="s">
-        <v>3842</v>
+        <v>3836</v>
       </c>
       <c r="B1270" t="s">
-        <v>3843</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="1" t="s">
-        <v>3844</v>
+        <v>3838</v>
       </c>
       <c r="B1271" t="s">
-        <v>3845</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
       <c r="A1272" s="1" t="s">
-        <v>3846</v>
+        <v>3840</v>
       </c>
       <c r="B1272" t="s">
-        <v>3559</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="1" t="s">
-        <v>3847</v>
+        <v>3842</v>
       </c>
       <c r="B1273" t="s">
-        <v>3848</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="1" t="s">
-        <v>3849</v>
+        <v>3844</v>
       </c>
       <c r="B1274" t="s">
-        <v>3850</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
       <c r="A1275" s="1" t="s">
-        <v>3851</v>
+        <v>3846</v>
       </c>
       <c r="B1275" t="s">
-        <v>2996</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
       <c r="A1276" s="1" t="s">
-        <v>3852</v>
+        <v>3847</v>
       </c>
       <c r="B1276" t="s">
-        <v>3853</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="1" t="s">
-        <v>3854</v>
+        <v>3849</v>
       </c>
       <c r="B1277" t="s">
-        <v>3855</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" s="1" t="s">
-        <v>3856</v>
+        <v>3851</v>
       </c>
       <c r="B1278" t="s">
-        <v>3857</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="1" t="s">
-        <v>3858</v>
+        <v>3852</v>
       </c>
       <c r="B1279" t="s">
-        <v>3859</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="1" t="s">
-        <v>3860</v>
+        <v>3854</v>
       </c>
       <c r="B1280" t="s">
-        <v>3861</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="1" t="s">
-        <v>4437</v>
+        <v>3856</v>
       </c>
       <c r="B1281" t="s">
-        <v>4436</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="1" t="s">
-        <v>3862</v>
+        <v>3858</v>
       </c>
       <c r="B1282" t="s">
-        <v>3863</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283" s="1" t="s">
-        <v>3864</v>
+        <v>3860</v>
       </c>
       <c r="B1283" t="s">
-        <v>3865</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
       <c r="A1284" s="1" t="s">
-        <v>3866</v>
+        <v>4437</v>
       </c>
       <c r="B1284" t="s">
-        <v>3867</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="1" t="s">
-        <v>3868</v>
+        <v>3862</v>
       </c>
       <c r="B1285" t="s">
-        <v>3869</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="1" t="s">
-        <v>3870</v>
+        <v>3864</v>
       </c>
       <c r="B1286" t="s">
-        <v>3871</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="1" t="s">
-        <v>3872</v>
+        <v>3866</v>
       </c>
       <c r="B1287" t="s">
-        <v>3873</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="1" t="s">
-        <v>3874</v>
+        <v>3868</v>
       </c>
       <c r="B1288" t="s">
-        <v>3875</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="1" t="s">
-        <v>3876</v>
+        <v>3870</v>
       </c>
       <c r="B1289" t="s">
-        <v>3877</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="1" t="s">
-        <v>3878</v>
+        <v>3872</v>
       </c>
       <c r="B1290" t="s">
-        <v>3879</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>3880</v>
+        <v>3874</v>
       </c>
       <c r="B1291" t="s">
-        <v>3881</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3882</v>
+        <v>3876</v>
       </c>
       <c r="B1292" t="s">
-        <v>3883</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3884</v>
+        <v>3878</v>
       </c>
       <c r="B1293" t="s">
-        <v>3885</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3886</v>
+        <v>3880</v>
       </c>
       <c r="B1294" t="s">
-        <v>3887</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3888</v>
+        <v>3882</v>
       </c>
       <c r="B1295" t="s">
-        <v>3889</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3890</v>
+        <v>3884</v>
       </c>
       <c r="B1296" t="s">
-        <v>3891</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3892</v>
+        <v>3886</v>
       </c>
       <c r="B1297" t="s">
-        <v>3893</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3894</v>
+        <v>3888</v>
       </c>
       <c r="B1298" t="s">
-        <v>3895</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3896</v>
+        <v>3890</v>
       </c>
       <c r="B1299" t="s">
-        <v>3897</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3898</v>
+        <v>3892</v>
       </c>
       <c r="B1300" t="s">
-        <v>3899</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3900</v>
+        <v>3894</v>
       </c>
       <c r="B1301" t="s">
-        <v>3901</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3902</v>
+        <v>3896</v>
       </c>
       <c r="B1302" t="s">
-        <v>3903</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3904</v>
+        <v>3898</v>
       </c>
       <c r="B1303" t="s">
-        <v>3905</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3906</v>
+        <v>3900</v>
       </c>
       <c r="B1304" t="s">
-        <v>3907</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3908</v>
+        <v>3902</v>
       </c>
       <c r="B1305" t="s">
-        <v>3909</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3910</v>
+        <v>3904</v>
       </c>
       <c r="B1306" t="s">
-        <v>3911</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3912</v>
+        <v>3906</v>
       </c>
       <c r="B1307" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3913</v>
+        <v>3908</v>
       </c>
       <c r="B1308" t="s">
-        <v>3914</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3915</v>
+        <v>3910</v>
       </c>
       <c r="B1309" t="s">
-        <v>3916</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3917</v>
+        <v>3912</v>
       </c>
       <c r="B1310" t="s">
-        <v>3918</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3919</v>
+        <v>3913</v>
       </c>
       <c r="B1311" t="s">
-        <v>3920</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3921</v>
+        <v>3915</v>
       </c>
       <c r="B1312" t="s">
-        <v>3922</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3923</v>
+        <v>3917</v>
       </c>
       <c r="B1313" t="s">
-        <v>3924</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3925</v>
+        <v>3919</v>
       </c>
       <c r="B1314" t="s">
-        <v>3926</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3927</v>
+        <v>3921</v>
       </c>
       <c r="B1315" t="s">
-        <v>3928</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3929</v>
+        <v>3923</v>
       </c>
       <c r="B1316" t="s">
-        <v>3930</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3931</v>
+        <v>3925</v>
       </c>
       <c r="B1317" t="s">
-        <v>3932</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3933</v>
+        <v>3927</v>
       </c>
       <c r="B1318" t="s">
-        <v>3934</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3935</v>
+        <v>3929</v>
       </c>
       <c r="B1319" t="s">
-        <v>3936</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3937</v>
+        <v>3931</v>
       </c>
       <c r="B1320" t="s">
-        <v>3938</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3939</v>
+        <v>3933</v>
       </c>
       <c r="B1321" t="s">
-        <v>3940</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3941</v>
+        <v>3935</v>
       </c>
       <c r="B1322" t="s">
-        <v>3942</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3943</v>
+        <v>3937</v>
       </c>
       <c r="B1323" t="s">
-        <v>3944</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3945</v>
+        <v>3939</v>
       </c>
       <c r="B1324" t="s">
-        <v>3946</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3947</v>
+        <v>3941</v>
       </c>
       <c r="B1325" t="s">
-        <v>3948</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3949</v>
+        <v>3943</v>
       </c>
       <c r="B1326" t="s">
-        <v>3950</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3951</v>
+        <v>3945</v>
       </c>
       <c r="B1327" t="s">
-        <v>3952</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3953</v>
+        <v>3947</v>
       </c>
       <c r="B1328" t="s">
-        <v>3954</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3955</v>
+        <v>3949</v>
       </c>
       <c r="B1329" t="s">
-        <v>3942</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3956</v>
+        <v>3951</v>
       </c>
       <c r="B1330" t="s">
-        <v>3957</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3958</v>
+        <v>3953</v>
       </c>
       <c r="B1331" t="s">
-        <v>3959</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3960</v>
+        <v>3955</v>
       </c>
       <c r="B1332" t="s">
-        <v>3961</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3962</v>
+        <v>3956</v>
       </c>
       <c r="B1333" t="s">
-        <v>3963</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3964</v>
+        <v>3958</v>
       </c>
       <c r="B1334" t="s">
-        <v>3848</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3965</v>
+        <v>3960</v>
       </c>
       <c r="B1335" t="s">
-        <v>3966</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3967</v>
+        <v>3962</v>
       </c>
       <c r="B1336" t="s">
-        <v>3968</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3969</v>
+        <v>3964</v>
       </c>
       <c r="B1337" t="s">
-        <v>3970</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3971</v>
+        <v>3965</v>
       </c>
       <c r="B1338" t="s">
-        <v>3972</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3973</v>
+        <v>3967</v>
       </c>
       <c r="B1339" t="s">
-        <v>3974</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3975</v>
+        <v>3969</v>
       </c>
       <c r="B1340" t="s">
-        <v>3976</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3977</v>
+        <v>3971</v>
       </c>
       <c r="B1341" t="s">
-        <v>3978</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>3979</v>
+        <v>3973</v>
       </c>
       <c r="B1342" t="s">
-        <v>3980</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3981</v>
+        <v>3975</v>
       </c>
       <c r="B1343" t="s">
-        <v>3982</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>3983</v>
+        <v>3977</v>
       </c>
       <c r="B1344" t="s">
-        <v>3984</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>3985</v>
+        <v>3979</v>
       </c>
       <c r="B1345" t="s">
-        <v>3986</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>3987</v>
+        <v>3981</v>
       </c>
       <c r="B1346" t="s">
-        <v>3988</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>3989</v>
+        <v>3983</v>
       </c>
       <c r="B1347" t="s">
-        <v>3990</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>3991</v>
+        <v>3985</v>
       </c>
       <c r="B1348" t="s">
-        <v>3992</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>3993</v>
+        <v>3987</v>
       </c>
       <c r="B1349" t="s">
-        <v>3994</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>3995</v>
+        <v>3989</v>
       </c>
       <c r="B1350" t="s">
-        <v>3996</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>3997</v>
+        <v>3991</v>
       </c>
       <c r="B1351" t="s">
-        <v>3998</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>3999</v>
+        <v>3993</v>
       </c>
       <c r="B1352" t="s">
-        <v>4000</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>4001</v>
+        <v>3995</v>
       </c>
       <c r="B1353" t="s">
-        <v>4002</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>4003</v>
+        <v>3997</v>
       </c>
       <c r="B1354" t="s">
-        <v>4004</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>4005</v>
+        <v>3999</v>
       </c>
       <c r="B1355" t="s">
-        <v>4006</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>4007</v>
+        <v>4001</v>
       </c>
       <c r="B1356" t="s">
-        <v>4008</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>4009</v>
+        <v>4003</v>
       </c>
       <c r="B1357" t="s">
-        <v>4010</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>4011</v>
+        <v>4005</v>
       </c>
       <c r="B1358" t="s">
-        <v>4012</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>4013</v>
+        <v>4007</v>
       </c>
       <c r="B1359" t="s">
-        <v>4014</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>4015</v>
+        <v>4009</v>
       </c>
       <c r="B1360" t="s">
-        <v>4016</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>4017</v>
+        <v>4011</v>
       </c>
       <c r="B1361" t="s">
-        <v>4018</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>4019</v>
+        <v>4013</v>
       </c>
       <c r="B1362" t="s">
-        <v>4020</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4021</v>
+        <v>4015</v>
       </c>
       <c r="B1363" t="s">
-        <v>4022</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4023</v>
+        <v>4017</v>
       </c>
       <c r="B1364" t="s">
-        <v>4024</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4025</v>
+        <v>4019</v>
       </c>
       <c r="B1365" t="s">
-        <v>4026</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4027</v>
+        <v>4021</v>
       </c>
       <c r="B1366" t="s">
-        <v>4028</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4029</v>
+        <v>4023</v>
       </c>
       <c r="B1367" t="s">
-        <v>4030</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4031</v>
+        <v>4025</v>
       </c>
       <c r="B1368" t="s">
-        <v>4032</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4033</v>
+        <v>4027</v>
       </c>
       <c r="B1369" t="s">
-        <v>4034</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4035</v>
+        <v>4029</v>
       </c>
       <c r="B1370" t="s">
-        <v>4036</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4037</v>
+        <v>4031</v>
       </c>
       <c r="B1371" t="s">
-        <v>4038</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4039</v>
+        <v>4033</v>
       </c>
       <c r="B1372" t="s">
-        <v>4040</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4041</v>
+        <v>4035</v>
       </c>
       <c r="B1373" t="s">
-        <v>4042</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4043</v>
+        <v>4037</v>
       </c>
       <c r="B1374" t="s">
-        <v>4044</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4045</v>
+        <v>4039</v>
       </c>
       <c r="B1375" t="s">
-        <v>4046</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4047</v>
+        <v>4041</v>
       </c>
       <c r="B1376" t="s">
-        <v>4048</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4049</v>
+        <v>4043</v>
       </c>
       <c r="B1377" t="s">
-        <v>4050</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4051</v>
+        <v>4045</v>
       </c>
       <c r="B1378" t="s">
-        <v>4052</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4053</v>
+        <v>4047</v>
       </c>
       <c r="B1379" t="s">
-        <v>4054</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4055</v>
+        <v>4049</v>
       </c>
       <c r="B1380" t="s">
-        <v>4056</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4057</v>
+        <v>4051</v>
       </c>
       <c r="B1381" t="s">
-        <v>4058</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4059</v>
+        <v>4053</v>
       </c>
       <c r="B1382" t="s">
-        <v>4060</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4061</v>
+        <v>4055</v>
       </c>
       <c r="B1383" t="s">
-        <v>4062</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4063</v>
+        <v>4057</v>
       </c>
       <c r="B1384" t="s">
-        <v>4064</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4065</v>
+        <v>4059</v>
       </c>
       <c r="B1385" t="s">
-        <v>4066</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4067</v>
+        <v>4061</v>
       </c>
       <c r="B1386" t="s">
-        <v>4068</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4069</v>
+        <v>4063</v>
       </c>
       <c r="B1387" t="s">
-        <v>4070</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4071</v>
+        <v>4065</v>
       </c>
       <c r="B1388" t="s">
-        <v>4072</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4073</v>
+        <v>4067</v>
       </c>
       <c r="B1389" t="s">
-        <v>4074</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4075</v>
+        <v>4069</v>
       </c>
       <c r="B1390" t="s">
-        <v>4076</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4077</v>
+        <v>4071</v>
       </c>
       <c r="B1391" t="s">
-        <v>4078</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4079</v>
+        <v>4073</v>
       </c>
       <c r="B1392" t="s">
-        <v>4080</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4081</v>
+        <v>4075</v>
       </c>
       <c r="B1393" t="s">
-        <v>4082</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4083</v>
+        <v>4077</v>
       </c>
       <c r="B1394" t="s">
-        <v>4084</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4085</v>
+        <v>4079</v>
       </c>
       <c r="B1395" t="s">
-        <v>4086</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4087</v>
+        <v>4081</v>
       </c>
       <c r="B1396" t="s">
-        <v>4088</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4089</v>
+        <v>4083</v>
       </c>
       <c r="B1397" t="s">
-        <v>4090</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4091</v>
+        <v>4085</v>
       </c>
       <c r="B1398" t="s">
-        <v>4092</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4093</v>
+        <v>4087</v>
       </c>
       <c r="B1399" t="s">
-        <v>4094</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4095</v>
+        <v>4089</v>
       </c>
       <c r="B1400" t="s">
-        <v>4096</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4097</v>
+        <v>4091</v>
       </c>
       <c r="B1401" t="s">
-        <v>4098</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4099</v>
+        <v>4093</v>
       </c>
       <c r="B1402" t="s">
-        <v>4100</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4101</v>
+        <v>4095</v>
       </c>
       <c r="B1403" t="s">
-        <v>4102</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4103</v>
+        <v>4097</v>
       </c>
       <c r="B1404" t="s">
-        <v>4104</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4105</v>
+        <v>4099</v>
       </c>
       <c r="B1405" t="s">
-        <v>4106</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4107</v>
+        <v>4101</v>
       </c>
       <c r="B1406" t="s">
-        <v>4108</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4109</v>
+        <v>4103</v>
       </c>
       <c r="B1407" t="s">
-        <v>4110</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4111</v>
+        <v>4105</v>
       </c>
       <c r="B1408" t="s">
-        <v>4112</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4113</v>
+        <v>4107</v>
       </c>
       <c r="B1409" t="s">
-        <v>4114</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4115</v>
+        <v>4109</v>
       </c>
       <c r="B1410" t="s">
-        <v>4116</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4117</v>
+        <v>4111</v>
       </c>
       <c r="B1411" t="s">
-        <v>4118</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4119</v>
+        <v>4113</v>
       </c>
       <c r="B1412" t="s">
-        <v>4120</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4121</v>
+        <v>4115</v>
       </c>
       <c r="B1413" t="s">
-        <v>4122</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4123</v>
+        <v>4117</v>
       </c>
       <c r="B1414" t="s">
-        <v>4124</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4125</v>
+        <v>4119</v>
       </c>
       <c r="B1415" t="s">
-        <v>4126</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4127</v>
+        <v>4121</v>
       </c>
       <c r="B1416" t="s">
-        <v>4128</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4129</v>
+        <v>4123</v>
       </c>
       <c r="B1417" t="s">
-        <v>4130</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4131</v>
+        <v>4125</v>
       </c>
       <c r="B1418" t="s">
-        <v>4132</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4133</v>
+        <v>4127</v>
       </c>
       <c r="B1419" t="s">
-        <v>4134</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4135</v>
+        <v>4129</v>
       </c>
       <c r="B1420" t="s">
-        <v>4136</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4137</v>
+        <v>4131</v>
       </c>
       <c r="B1421" t="s">
-        <v>4138</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4139</v>
+        <v>4133</v>
       </c>
       <c r="B1422" t="s">
-        <v>4140</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4141</v>
+        <v>4135</v>
       </c>
       <c r="B1423" t="s">
-        <v>4142</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4143</v>
+        <v>4137</v>
       </c>
       <c r="B1424" t="s">
-        <v>4144</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4423</v>
+        <v>4139</v>
       </c>
       <c r="B1425" t="s">
-        <v>4424</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4145</v>
+        <v>4141</v>
       </c>
       <c r="B1426" t="s">
-        <v>4146</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4147</v>
+        <v>4143</v>
       </c>
       <c r="B1427" t="s">
-        <v>4148</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4149</v>
+        <v>4423</v>
       </c>
       <c r="B1428" t="s">
-        <v>4150</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4151</v>
+        <v>4145</v>
       </c>
       <c r="B1429" t="s">
-        <v>4152</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4153</v>
+        <v>4147</v>
       </c>
       <c r="B1430" t="s">
-        <v>4154</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4155</v>
+        <v>4149</v>
       </c>
       <c r="B1431" t="s">
-        <v>4156</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4157</v>
+        <v>4151</v>
       </c>
       <c r="B1432" t="s">
-        <v>4158</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4159</v>
+        <v>4153</v>
       </c>
       <c r="B1433" t="s">
-        <v>4160</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4161</v>
+        <v>4155</v>
       </c>
       <c r="B1434" t="s">
-        <v>4162</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4163</v>
+        <v>4157</v>
       </c>
       <c r="B1435" t="s">
-        <v>4164</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4165</v>
+        <v>4159</v>
       </c>
       <c r="B1436" t="s">
-        <v>4166</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4167</v>
+        <v>4161</v>
       </c>
       <c r="B1437" t="s">
-        <v>4168</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4169</v>
+        <v>4163</v>
       </c>
       <c r="B1438" t="s">
-        <v>4170</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4171</v>
+        <v>4165</v>
       </c>
       <c r="B1439" t="s">
-        <v>4172</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4173</v>
+        <v>4167</v>
       </c>
       <c r="B1440" t="s">
-        <v>4174</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4175</v>
+        <v>4169</v>
       </c>
       <c r="B1441" t="s">
-        <v>4176</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4177</v>
+        <v>4171</v>
       </c>
       <c r="B1442" t="s">
-        <v>4178</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4179</v>
+        <v>4173</v>
       </c>
       <c r="B1443" t="s">
-        <v>4180</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4181</v>
+        <v>4175</v>
       </c>
       <c r="B1444" t="s">
-        <v>4182</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4183</v>
+        <v>4177</v>
       </c>
       <c r="B1445" t="s">
-        <v>4184</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4185</v>
+        <v>4179</v>
       </c>
       <c r="B1446" t="s">
-        <v>4186</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4187</v>
+        <v>4181</v>
       </c>
       <c r="B1447" t="s">
-        <v>4188</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4189</v>
+        <v>4183</v>
       </c>
       <c r="B1448" t="s">
-        <v>4190</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4191</v>
+        <v>4185</v>
       </c>
       <c r="B1449" t="s">
-        <v>4192</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4193</v>
+        <v>4187</v>
       </c>
       <c r="B1450" t="s">
-        <v>4194</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4195</v>
+        <v>4189</v>
       </c>
       <c r="B1451" t="s">
-        <v>4196</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4197</v>
+        <v>4191</v>
       </c>
       <c r="B1452" t="s">
-        <v>4198</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="B1453" t="s">
-        <v>4200</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4201</v>
+        <v>4195</v>
       </c>
       <c r="B1454" t="s">
-        <v>4202</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4203</v>
+        <v>4197</v>
       </c>
       <c r="B1455" t="s">
-        <v>4204</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4205</v>
+        <v>4199</v>
       </c>
       <c r="B1456" t="s">
-        <v>4206</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4207</v>
+        <v>4201</v>
       </c>
       <c r="B1457" t="s">
-        <v>4208</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4209</v>
+        <v>4203</v>
       </c>
       <c r="B1458" t="s">
-        <v>4210</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4211</v>
+        <v>4205</v>
       </c>
       <c r="B1459" t="s">
-        <v>4212</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4213</v>
+        <v>4207</v>
       </c>
       <c r="B1460" t="s">
-        <v>4214</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4215</v>
+        <v>4209</v>
       </c>
       <c r="B1461" t="s">
-        <v>4216</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4217</v>
+        <v>4211</v>
       </c>
       <c r="B1462" t="s">
-        <v>4218</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4219</v>
+        <v>4213</v>
       </c>
       <c r="B1463" t="s">
-        <v>4220</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4221</v>
+        <v>4215</v>
       </c>
       <c r="B1464" t="s">
-        <v>4222</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4223</v>
+        <v>4217</v>
       </c>
       <c r="B1465" t="s">
-        <v>4224</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4225</v>
+        <v>4219</v>
       </c>
       <c r="B1466" t="s">
-        <v>4226</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4227</v>
+        <v>4221</v>
       </c>
       <c r="B1467" t="s">
-        <v>4228</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4229</v>
+        <v>4223</v>
       </c>
       <c r="B1468" t="s">
-        <v>4230</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4231</v>
+        <v>4225</v>
       </c>
       <c r="B1469" t="s">
-        <v>4232</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4233</v>
+        <v>4227</v>
       </c>
       <c r="B1470" t="s">
-        <v>4234</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4235</v>
+        <v>4229</v>
       </c>
       <c r="B1471" t="s">
-        <v>4236</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="B1472" t="s">
-        <v>4238</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4239</v>
+        <v>4233</v>
       </c>
       <c r="B1473" t="s">
-        <v>4240</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="B1474" t="s">
-        <v>4242</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4243</v>
+        <v>4237</v>
       </c>
       <c r="B1475" t="s">
-        <v>4244</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4245</v>
+        <v>4239</v>
       </c>
       <c r="B1476" t="s">
-        <v>4246</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4247</v>
+        <v>4241</v>
       </c>
       <c r="B1477" t="s">
-        <v>4248</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4249</v>
+        <v>4243</v>
       </c>
       <c r="B1478" t="s">
-        <v>4250</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4251</v>
+        <v>4245</v>
       </c>
       <c r="B1479" t="s">
-        <v>4252</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4253</v>
+        <v>4247</v>
       </c>
       <c r="B1480" t="s">
-        <v>4254</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4255</v>
+        <v>4249</v>
       </c>
       <c r="B1481" t="s">
-        <v>4256</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4257</v>
+        <v>4251</v>
       </c>
       <c r="B1482" t="s">
-        <v>4258</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4259</v>
+        <v>4253</v>
       </c>
       <c r="B1483" t="s">
-        <v>4260</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4261</v>
+        <v>4255</v>
       </c>
       <c r="B1484" t="s">
-        <v>4262</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4263</v>
+        <v>4257</v>
       </c>
       <c r="B1485" t="s">
-        <v>4264</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4265</v>
+        <v>4259</v>
       </c>
       <c r="B1486" t="s">
-        <v>4266</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4267</v>
+        <v>4261</v>
       </c>
       <c r="B1487" t="s">
-        <v>4268</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4269</v>
+        <v>4263</v>
       </c>
       <c r="B1488" t="s">
-        <v>4270</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4271</v>
+        <v>4265</v>
       </c>
       <c r="B1489" t="s">
-        <v>4272</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4273</v>
+        <v>4267</v>
       </c>
       <c r="B1490" t="s">
-        <v>4274</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4275</v>
+        <v>4269</v>
       </c>
       <c r="B1491" t="s">
-        <v>4276</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4277</v>
+        <v>4271</v>
       </c>
       <c r="B1492" t="s">
-        <v>4278</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4279</v>
+        <v>4273</v>
       </c>
       <c r="B1493" t="s">
-        <v>4280</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4281</v>
+        <v>4275</v>
       </c>
       <c r="B1494" t="s">
-        <v>4282</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4283</v>
+        <v>4277</v>
       </c>
       <c r="B1495" t="s">
-        <v>4284</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4285</v>
+        <v>4279</v>
       </c>
       <c r="B1496" t="s">
-        <v>4286</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4287</v>
+        <v>4281</v>
       </c>
       <c r="B1497" t="s">
-        <v>4288</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4289</v>
+        <v>4283</v>
       </c>
       <c r="B1498" t="s">
-        <v>4290</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4291</v>
+        <v>4285</v>
       </c>
       <c r="B1499" t="s">
-        <v>4292</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4293</v>
+        <v>4287</v>
       </c>
       <c r="B1500" t="s">
-        <v>4294</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4295</v>
+        <v>4289</v>
       </c>
       <c r="B1501" t="s">
-        <v>4296</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4297</v>
+        <v>4291</v>
       </c>
       <c r="B1502" t="s">
-        <v>4298</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4299</v>
+        <v>4293</v>
       </c>
       <c r="B1503" t="s">
-        <v>4300</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4431</v>
+        <v>4295</v>
       </c>
       <c r="B1504" t="s">
-        <v>4432</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4301</v>
+        <v>4297</v>
       </c>
       <c r="B1505" t="s">
-        <v>4302</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4303</v>
+        <v>4299</v>
       </c>
       <c r="B1506" t="s">
-        <v>4304</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4305</v>
+        <v>4446</v>
       </c>
       <c r="B1507" t="s">
-        <v>4306</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4307</v>
+        <v>4431</v>
       </c>
       <c r="B1508" t="s">
-        <v>4308</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4309</v>
+        <v>4301</v>
       </c>
       <c r="B1509" t="s">
-        <v>4310</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4311</v>
+        <v>4303</v>
       </c>
       <c r="B1510" t="s">
-        <v>4312</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4313</v>
+        <v>4305</v>
       </c>
       <c r="B1511" t="s">
-        <v>4314</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4315</v>
+        <v>4307</v>
       </c>
       <c r="B1512" t="s">
-        <v>4316</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4317</v>
+        <v>4309</v>
       </c>
       <c r="B1513" t="s">
-        <v>4318</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4319</v>
+        <v>4311</v>
       </c>
       <c r="B1514" t="s">
-        <v>4320</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4321</v>
+        <v>4313</v>
       </c>
       <c r="B1515" t="s">
-        <v>4322</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4323</v>
+        <v>4315</v>
       </c>
       <c r="B1516" t="s">
-        <v>4324</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4325</v>
+        <v>4317</v>
       </c>
       <c r="B1517" t="s">
-        <v>4326</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4327</v>
+        <v>4319</v>
       </c>
       <c r="B1518" t="s">
-        <v>4328</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4329</v>
+        <v>4321</v>
       </c>
       <c r="B1519" t="s">
-        <v>4330</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4331</v>
+        <v>4323</v>
       </c>
       <c r="B1520" t="s">
-        <v>4332</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4333</v>
+        <v>4325</v>
       </c>
       <c r="B1521" t="s">
-        <v>4334</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4335</v>
+        <v>4327</v>
       </c>
       <c r="B1522" t="s">
-        <v>4336</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4337</v>
+        <v>4329</v>
       </c>
       <c r="B1523" t="s">
-        <v>4338</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4339</v>
+        <v>4331</v>
       </c>
       <c r="B1524" t="s">
-        <v>4340</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4341</v>
+        <v>4333</v>
       </c>
       <c r="B1525" t="s">
-        <v>4342</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4343</v>
+        <v>4335</v>
       </c>
       <c r="B1526" t="s">
-        <v>4344</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4345</v>
+        <v>4337</v>
       </c>
       <c r="B1527" t="s">
-        <v>4346</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4347</v>
+        <v>4339</v>
       </c>
       <c r="B1528" t="s">
-        <v>4348</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4349</v>
+        <v>4341</v>
       </c>
       <c r="B1529" t="s">
-        <v>4350</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4351</v>
+        <v>4343</v>
       </c>
       <c r="B1530" t="s">
-        <v>4352</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4353</v>
+        <v>4345</v>
       </c>
       <c r="B1531" t="s">
-        <v>4354</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4355</v>
+        <v>4347</v>
       </c>
       <c r="B1532" t="s">
-        <v>4356</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4357</v>
+        <v>4349</v>
       </c>
       <c r="B1533" t="s">
-        <v>4358</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4359</v>
+        <v>4351</v>
       </c>
       <c r="B1534" t="s">
-        <v>4360</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4361</v>
+        <v>4353</v>
       </c>
       <c r="B1535" t="s">
-        <v>4362</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4363</v>
+        <v>4355</v>
       </c>
       <c r="B1536" t="s">
-        <v>4364</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4365</v>
+        <v>4357</v>
       </c>
       <c r="B1537" t="s">
-        <v>4366</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4427</v>
+        <v>4359</v>
       </c>
       <c r="B1538" t="s">
-        <v>4428</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4367</v>
+        <v>4361</v>
       </c>
       <c r="B1539" t="s">
-        <v>4368</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4369</v>
+        <v>4363</v>
       </c>
       <c r="B1540" t="s">
-        <v>4370</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4371</v>
+        <v>4365</v>
       </c>
       <c r="B1541" t="s">
-        <v>4372</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4373</v>
+        <v>4427</v>
       </c>
       <c r="B1542" t="s">
-        <v>4374</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4375</v>
+        <v>4367</v>
       </c>
       <c r="B1543" t="s">
-        <v>4376</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4377</v>
+        <v>4369</v>
       </c>
       <c r="B1544" t="s">
-        <v>4378</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4379</v>
+        <v>4371</v>
       </c>
       <c r="B1545" t="s">
-        <v>4380</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4438</v>
+        <v>4373</v>
       </c>
       <c r="B1546" t="s">
-        <v>4439</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4381</v>
+        <v>4375</v>
       </c>
       <c r="B1547" t="s">
-        <v>4382</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4383</v>
+        <v>4377</v>
       </c>
       <c r="B1548" t="s">
-        <v>4384</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4385</v>
+        <v>4379</v>
       </c>
       <c r="B1549" t="s">
-        <v>4386</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4387</v>
+        <v>4438</v>
       </c>
       <c r="B1550" t="s">
-        <v>4388</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4389</v>
+        <v>4381</v>
       </c>
       <c r="B1551" t="s">
-        <v>4390</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4391</v>
+        <v>4383</v>
       </c>
       <c r="B1552" t="s">
-        <v>4392</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4393</v>
+        <v>4385</v>
       </c>
       <c r="B1553" t="s">
-        <v>4394</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4395</v>
+        <v>4387</v>
       </c>
       <c r="B1554" t="s">
-        <v>4396</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4397</v>
+        <v>4389</v>
       </c>
       <c r="B1555" t="s">
-        <v>4398</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4399</v>
+        <v>4391</v>
       </c>
       <c r="B1556" t="s">
-        <v>4400</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4401</v>
+        <v>4393</v>
       </c>
       <c r="B1557" t="s">
-        <v>4402</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4403</v>
+        <v>4395</v>
       </c>
       <c r="B1558" t="s">
-        <v>4404</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4405</v>
+        <v>4397</v>
       </c>
       <c r="B1559" t="s">
-        <v>4406</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2">
+      <c r="A1561" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2">
+      <c r="A1562" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2">
+      <c r="A1563" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2">
+      <c r="A1564" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1560" t="s">
+      <c r="B1564" t="s">
         <v>4408</v>
       </c>
     </row>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1781F2-D358-4C20-A65D-F1F4AB24A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E948A4-F7DF-4CA5-B4D1-8F6F027474FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4487" uniqueCount="4450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="4451">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13395,6 +13395,9 @@
   </si>
   <si>
     <t>PUMA SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t>Photo Copiers and Fax Equipment rentals</t>
   </si>
 </sst>
 </file>
@@ -13654,7 +13657,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13769,13 +13772,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -14090,8 +14107,8 @@
   </sheetPr>
   <dimension ref="A1:B1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1254" workbookViewId="0">
-      <selection activeCell="B1271" sqref="B1271"/>
+    <sheetView topLeftCell="A1255" workbookViewId="0">
+      <selection activeCell="A1268" sqref="A1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26613,6 +26630,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27869,10 +27889,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1386"/>
+  <dimension ref="A1:B1387"/>
   <sheetViews>
-    <sheetView topLeftCell="A989" workbookViewId="0">
-      <selection activeCell="B1017" sqref="B1017"/>
+    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
+      <selection activeCell="B902" sqref="B902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35139,999 +35159,1003 @@
     </row>
     <row r="908" spans="1:2" s="8" customFormat="1">
       <c r="A908" s="6">
-        <v>5751</v>
-      </c>
-      <c r="B908" s="7" t="s">
-        <v>904</v>
+        <v>5733</v>
+      </c>
+      <c r="B908" s="72" t="s">
+        <v>4450</v>
       </c>
     </row>
     <row r="909" spans="1:2" s="8" customFormat="1">
       <c r="A909" s="6">
-        <v>5752</v>
+        <v>5751</v>
       </c>
       <c r="B909" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="910" spans="1:2" s="8" customFormat="1">
       <c r="A910" s="6">
-        <v>5753</v>
+        <v>5752</v>
       </c>
       <c r="B910" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="911" spans="1:2" s="8" customFormat="1">
       <c r="A911" s="6">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="B911" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="912" spans="1:2" s="8" customFormat="1">
       <c r="A912" s="6">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="B912" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="913" spans="1:2" s="8" customFormat="1">
       <c r="A913" s="6">
-        <v>5756</v>
+        <v>5755</v>
       </c>
       <c r="B913" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="914" spans="1:2" s="8" customFormat="1">
       <c r="A914" s="6">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="B914" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="915" spans="1:2" s="8" customFormat="1">
       <c r="A915" s="6">
-        <v>5761</v>
+        <v>5757</v>
       </c>
       <c r="B915" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="916" spans="1:2" s="8" customFormat="1">
       <c r="A916" s="6">
-        <v>5762</v>
+        <v>5761</v>
       </c>
       <c r="B916" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="917" spans="1:2" s="8" customFormat="1">
       <c r="A917" s="6">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="B917" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="918" spans="1:2" s="8" customFormat="1">
       <c r="A918" s="6">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="B918" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="919" spans="1:2" s="8" customFormat="1">
       <c r="A919" s="6">
-        <v>5765</v>
+        <v>5764</v>
       </c>
       <c r="B919" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="920" spans="1:2" s="8" customFormat="1">
       <c r="A920" s="6">
-        <v>5766</v>
+        <v>5765</v>
       </c>
       <c r="B920" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="921" spans="1:2" s="8" customFormat="1">
       <c r="A921" s="6">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="B921" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="922" spans="1:2" s="8" customFormat="1">
       <c r="A922" s="6">
-        <v>5768</v>
+        <v>5767</v>
       </c>
       <c r="B922" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="923" spans="1:2" s="8" customFormat="1">
       <c r="A923" s="6">
-        <v>5769</v>
+        <v>5768</v>
       </c>
       <c r="B923" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="924" spans="1:2" s="8" customFormat="1">
       <c r="A924" s="6">
-        <v>5771</v>
+        <v>5769</v>
       </c>
       <c r="B924" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="925" spans="1:2" s="8" customFormat="1">
       <c r="A925" s="6">
-        <v>5772</v>
+        <v>5771</v>
       </c>
       <c r="B925" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="926" spans="1:2" s="8" customFormat="1">
       <c r="A926" s="6">
-        <v>5773</v>
+        <v>5772</v>
       </c>
       <c r="B926" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="927" spans="1:2" s="8" customFormat="1">
       <c r="A927" s="6">
-        <v>5774</v>
+        <v>5773</v>
       </c>
       <c r="B927" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="928" spans="1:2" s="8" customFormat="1">
       <c r="A928" s="6">
-        <v>5775</v>
+        <v>5774</v>
       </c>
       <c r="B928" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="929" spans="1:2" s="8" customFormat="1">
       <c r="A929" s="6">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="B929" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="930" spans="1:2" s="8" customFormat="1">
       <c r="A930" s="6">
-        <v>5777</v>
+        <v>5776</v>
       </c>
       <c r="B930" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="931" spans="1:2" s="8" customFormat="1">
       <c r="A931" s="6">
-        <v>5791</v>
+        <v>5777</v>
       </c>
       <c r="B931" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="932" spans="1:2" s="8" customFormat="1">
       <c r="A932" s="6">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="B932" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="933" spans="1:2" s="8" customFormat="1">
       <c r="A933" s="6">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="B933" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="934" spans="1:2" s="8" customFormat="1">
       <c r="A934" s="6">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="B934" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="935" spans="1:2" s="8" customFormat="1">
       <c r="A935" s="6">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="B935" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="936" spans="1:2" s="8" customFormat="1">
       <c r="A936" s="6">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="B936" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="937" spans="1:2" s="8" customFormat="1">
       <c r="A937" s="6">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="B937" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="938" spans="1:2" s="8" customFormat="1">
       <c r="A938" s="6">
-        <v>5798</v>
+        <v>5797</v>
       </c>
       <c r="B938" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="939" spans="1:2" s="8" customFormat="1">
       <c r="A939" s="6">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="B939" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="940" spans="1:2" s="8" customFormat="1">
       <c r="A940" s="6">
-        <v>5800</v>
+        <v>5799</v>
       </c>
       <c r="B940" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="941" spans="1:2" s="8" customFormat="1">
       <c r="A941" s="6">
-        <v>5801</v>
+        <v>5800</v>
       </c>
       <c r="B941" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="942" spans="1:2" s="8" customFormat="1">
       <c r="A942" s="6">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="B942" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="943" spans="1:2" s="8" customFormat="1">
       <c r="A943" s="6">
-        <v>5803</v>
+        <v>5802</v>
       </c>
       <c r="B943" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="944" spans="1:2" s="8" customFormat="1">
       <c r="A944" s="6">
-        <v>5804</v>
+        <v>5803</v>
       </c>
       <c r="B944" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="945" spans="1:2" s="8" customFormat="1">
       <c r="A945" s="6">
-        <v>5821</v>
+        <v>5804</v>
       </c>
       <c r="B945" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="946" spans="1:2" s="8" customFormat="1">
       <c r="A946" s="6">
-        <v>5822</v>
+        <v>5821</v>
       </c>
       <c r="B946" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="947" spans="1:2" s="8" customFormat="1">
       <c r="A947" s="6">
-        <v>5823</v>
+        <v>5822</v>
       </c>
       <c r="B947" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="948" spans="1:2" s="8" customFormat="1">
       <c r="A948" s="6">
-        <v>5824</v>
+        <v>5823</v>
       </c>
       <c r="B948" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="949" spans="1:2" s="8" customFormat="1">
       <c r="A949" s="6">
-        <v>5825</v>
+        <v>5824</v>
       </c>
       <c r="B949" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="950" spans="1:2" s="8" customFormat="1">
       <c r="A950" s="6">
-        <v>5826</v>
+        <v>5825</v>
       </c>
       <c r="B950" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="951" spans="1:2" s="8" customFormat="1">
       <c r="A951" s="6">
-        <v>5827</v>
+        <v>5826</v>
       </c>
       <c r="B951" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="952" spans="1:2" s="8" customFormat="1">
       <c r="A952" s="6">
-        <v>5828</v>
+        <v>5827</v>
       </c>
       <c r="B952" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="953" spans="1:2" s="8" customFormat="1">
       <c r="A953" s="6">
-        <v>5829</v>
+        <v>5828</v>
       </c>
       <c r="B953" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="954" spans="1:2" s="8" customFormat="1">
       <c r="A954" s="6">
-        <v>5830</v>
+        <v>5829</v>
       </c>
       <c r="B954" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="955" spans="1:2" s="8" customFormat="1">
       <c r="A955" s="6">
-        <v>5831</v>
+        <v>5830</v>
       </c>
       <c r="B955" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="956" spans="1:2" s="8" customFormat="1">
       <c r="A956" s="6">
-        <v>5832</v>
+        <v>5831</v>
       </c>
       <c r="B956" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="957" spans="1:2" s="8" customFormat="1">
       <c r="A957" s="6">
-        <v>5841</v>
+        <v>5832</v>
       </c>
       <c r="B957" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="958" spans="1:2" s="8" customFormat="1">
       <c r="A958" s="6">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="B958" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="959" spans="1:2" s="8" customFormat="1">
       <c r="A959" s="6">
-        <v>5843</v>
+        <v>5842</v>
       </c>
       <c r="B959" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="960" spans="1:2" s="8" customFormat="1">
       <c r="A960" s="6">
-        <v>5851</v>
+        <v>5843</v>
       </c>
       <c r="B960" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="961" spans="1:2" s="8" customFormat="1">
       <c r="A961" s="6">
-        <v>5852</v>
+        <v>5851</v>
       </c>
       <c r="B961" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="962" spans="1:2" s="8" customFormat="1">
       <c r="A962" s="6">
-        <v>5853</v>
+        <v>5852</v>
       </c>
       <c r="B962" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="963" spans="1:2" s="8" customFormat="1">
       <c r="A963" s="6">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="B963" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="964" spans="1:2" s="8" customFormat="1">
       <c r="A964" s="6">
-        <v>5855</v>
+        <v>5854</v>
       </c>
       <c r="B964" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="965" spans="1:2" s="8" customFormat="1">
       <c r="A965" s="6">
-        <v>5856</v>
+        <v>5855</v>
       </c>
       <c r="B965" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="966" spans="1:2" s="8" customFormat="1">
       <c r="A966" s="6">
-        <v>5857</v>
+        <v>5856</v>
       </c>
       <c r="B966" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="967" spans="1:2" s="8" customFormat="1">
       <c r="A967" s="6">
-        <v>5871</v>
+        <v>5857</v>
       </c>
       <c r="B967" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="968" spans="1:2" s="8" customFormat="1">
       <c r="A968" s="6">
-        <v>5872</v>
+        <v>5871</v>
       </c>
       <c r="B968" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="969" spans="1:2" s="8" customFormat="1">
       <c r="A969" s="6">
-        <v>5873</v>
+        <v>5872</v>
       </c>
       <c r="B969" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="970" spans="1:2" s="8" customFormat="1">
       <c r="A970" s="6">
-        <v>5874</v>
+        <v>5873</v>
       </c>
       <c r="B970" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="971" spans="1:2" s="8" customFormat="1">
       <c r="A971" s="6">
-        <v>5875</v>
+        <v>5874</v>
       </c>
       <c r="B971" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="972" spans="1:2" s="8" customFormat="1">
       <c r="A972" s="6">
-        <v>5876</v>
+        <v>5875</v>
       </c>
       <c r="B972" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="973" spans="1:2" s="8" customFormat="1">
       <c r="A973" s="6">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="B973" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="974" spans="1:2" s="8" customFormat="1">
       <c r="A974" s="6">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="B974" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="975" spans="1:2" s="8" customFormat="1">
       <c r="A975" s="6">
-        <v>5879</v>
+        <v>5878</v>
       </c>
       <c r="B975" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="976" spans="1:2" s="8" customFormat="1">
       <c r="A976" s="6">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="B976" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="977" spans="1:2" s="8" customFormat="1">
       <c r="A977" s="6">
-        <v>5881</v>
+        <v>5880</v>
       </c>
       <c r="B977" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="978" spans="1:2" s="8" customFormat="1">
       <c r="A978" s="6">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="B978" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="979" spans="1:2" s="8" customFormat="1">
       <c r="A979" s="6">
-        <v>5883</v>
+        <v>5882</v>
       </c>
       <c r="B979" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="980" spans="1:2" s="8" customFormat="1">
       <c r="A980" s="6">
-        <v>5884</v>
+        <v>5883</v>
       </c>
       <c r="B980" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="981" spans="1:2" s="8" customFormat="1">
       <c r="A981" s="6">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="B981" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="982" spans="1:2" s="8" customFormat="1">
       <c r="A982" s="6">
-        <v>5886</v>
+        <v>5885</v>
       </c>
       <c r="B982" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="983" spans="1:2" s="8" customFormat="1">
       <c r="A983" s="6">
-        <v>5887</v>
+        <v>5886</v>
       </c>
       <c r="B983" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="984" spans="1:2" s="8" customFormat="1">
       <c r="A984" s="6">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="B984" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="985" spans="1:2" s="8" customFormat="1">
       <c r="A985" s="6">
-        <v>5889</v>
+        <v>5888</v>
       </c>
       <c r="B985" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="986" spans="1:2" s="8" customFormat="1">
       <c r="A986" s="6">
-        <v>5890</v>
+        <v>5889</v>
       </c>
       <c r="B986" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="987" spans="1:2" s="8" customFormat="1">
       <c r="A987" s="6">
-        <v>5891</v>
+        <v>5890</v>
       </c>
       <c r="B987" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="988" spans="1:2" s="8" customFormat="1">
       <c r="A988" s="6">
-        <v>5892</v>
+        <v>5891</v>
       </c>
       <c r="B988" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="989" spans="1:2" s="8" customFormat="1">
       <c r="A989" s="6">
-        <v>5893</v>
+        <v>5892</v>
       </c>
       <c r="B989" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="990" spans="1:2" s="8" customFormat="1">
       <c r="A990" s="6">
-        <v>5894</v>
+        <v>5893</v>
       </c>
       <c r="B990" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="991" spans="1:2" s="8" customFormat="1">
       <c r="A991" s="6">
-        <v>5895</v>
+        <v>5894</v>
       </c>
       <c r="B991" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="992" spans="1:2" s="8" customFormat="1">
       <c r="A992" s="6">
-        <v>5896</v>
+        <v>5895</v>
       </c>
       <c r="B992" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="993" spans="1:2" s="8" customFormat="1">
       <c r="A993" s="6">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="B993" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="994" spans="1:2" s="8" customFormat="1">
       <c r="A994" s="6">
-        <v>5898</v>
+        <v>5897</v>
       </c>
       <c r="B994" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="995" spans="1:2" s="8" customFormat="1">
       <c r="A995" s="6">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="B995" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="996" spans="1:2" s="8" customFormat="1">
       <c r="A996" s="6">
-        <v>5900</v>
+        <v>5899</v>
       </c>
       <c r="B996" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="997" spans="1:2" s="8" customFormat="1">
       <c r="A997" s="6">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="B997" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="998" spans="1:2" s="8" customFormat="1">
       <c r="A998" s="6">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="B998" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="999" spans="1:2" s="8" customFormat="1">
       <c r="A999" s="6">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="B999" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1000" spans="1:2" s="8" customFormat="1">
       <c r="A1000" s="6">
-        <v>5904</v>
+        <v>5903</v>
       </c>
       <c r="B1000" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1001" spans="1:2" s="8" customFormat="1">
       <c r="A1001" s="6">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="B1001" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1002" spans="1:2" s="8" customFormat="1">
       <c r="A1002" s="6">
-        <v>5906</v>
+        <v>5905</v>
       </c>
       <c r="B1002" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1003" spans="1:2" s="8" customFormat="1">
       <c r="A1003" s="6">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="B1003" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1004" spans="1:2" s="8" customFormat="1">
       <c r="A1004" s="6">
-        <v>5908</v>
+        <v>5907</v>
       </c>
       <c r="B1004" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1005" spans="1:2" s="8" customFormat="1">
       <c r="A1005" s="6">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="B1005" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1006" spans="1:2" s="8" customFormat="1">
       <c r="A1006" s="6">
-        <v>5910</v>
+        <v>5909</v>
       </c>
       <c r="B1006" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1007" spans="1:2" s="8" customFormat="1">
       <c r="A1007" s="6">
-        <v>6111</v>
+        <v>5910</v>
       </c>
       <c r="B1007" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1008" spans="1:2" s="8" customFormat="1">
       <c r="A1008" s="6">
-        <v>6112</v>
+        <v>6111</v>
       </c>
       <c r="B1008" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1009" spans="1:2" s="8" customFormat="1">
       <c r="A1009" s="6">
-        <v>6113</v>
+        <v>6112</v>
       </c>
       <c r="B1009" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1010" spans="1:2" s="8" customFormat="1">
       <c r="A1010" s="6">
-        <v>6114</v>
+        <v>6113</v>
       </c>
       <c r="B1010" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1011" spans="1:2" s="8" customFormat="1">
       <c r="A1011" s="6">
-        <v>6115</v>
+        <v>6114</v>
       </c>
       <c r="B1011" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1012" spans="1:2" s="8" customFormat="1">
       <c r="A1012" s="6">
-        <v>6116</v>
+        <v>6115</v>
       </c>
       <c r="B1012" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1013" spans="1:2" s="8" customFormat="1">
       <c r="A1013" s="6">
-        <v>6117</v>
+        <v>6116</v>
       </c>
       <c r="B1013" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1014" spans="1:2" s="8" customFormat="1">
       <c r="A1014" s="6">
-        <v>6118</v>
+        <v>6117</v>
       </c>
       <c r="B1014" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1015" spans="1:2" s="8" customFormat="1">
       <c r="A1015" s="6">
-        <v>6119</v>
+        <v>6118</v>
       </c>
       <c r="B1015" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1016" spans="1:2" s="8" customFormat="1">
       <c r="A1016" s="6">
-        <v>6120</v>
+        <v>6119</v>
       </c>
       <c r="B1016" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1017" spans="1:2" s="8" customFormat="1">
       <c r="A1017" s="6">
-        <v>6121</v>
+        <v>6120</v>
       </c>
       <c r="B1017" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1018" spans="1:2" s="8" customFormat="1">
       <c r="A1018" s="6">
-        <v>6131</v>
+        <v>6121</v>
       </c>
       <c r="B1018" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1019" spans="1:2" s="8" customFormat="1">
       <c r="A1019" s="6">
-        <v>6151</v>
+        <v>6131</v>
       </c>
       <c r="B1019" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1020" spans="1:2" s="8" customFormat="1">
       <c r="A1020" s="6">
-        <v>6152</v>
+        <v>6151</v>
       </c>
       <c r="B1020" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1021" spans="1:2" s="8" customFormat="1">
       <c r="A1021" s="6">
-        <v>6153</v>
+        <v>6152</v>
       </c>
       <c r="B1021" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1022" spans="1:2" s="8" customFormat="1">
       <c r="A1022" s="6">
-        <v>6171</v>
+        <v>6153</v>
       </c>
       <c r="B1022" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1023" spans="1:2" s="8" customFormat="1">
       <c r="A1023" s="6">
-        <v>6172</v>
+        <v>6171</v>
       </c>
       <c r="B1023" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1024" spans="1:2" s="8" customFormat="1">
       <c r="A1024" s="6">
-        <v>6173</v>
+        <v>6172</v>
       </c>
       <c r="B1024" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1025" spans="1:2" s="8" customFormat="1">
       <c r="A1025" s="6">
-        <v>6174</v>
+        <v>6173</v>
       </c>
       <c r="B1025" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1026" spans="1:2" s="8" customFormat="1">
       <c r="A1026" s="6">
-        <v>6191</v>
+        <v>6174</v>
       </c>
       <c r="B1026" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1027" spans="1:2" s="8" customFormat="1">
       <c r="A1027" s="6">
-        <v>6192</v>
+        <v>6191</v>
       </c>
       <c r="B1027" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1028" spans="1:2" s="8" customFormat="1">
       <c r="A1028" s="6">
-        <v>7201</v>
+        <v>6192</v>
       </c>
       <c r="B1028" s="7" t="s">
-        <v>535</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1029" spans="1:2" s="8" customFormat="1">
       <c r="A1029" s="6">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="B1029" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1030" spans="1:2" s="8" customFormat="1">
       <c r="A1030" s="6">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="B1030" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1031" spans="1:2" s="8" customFormat="1">
       <c r="A1031" s="6">
+        <v>7203</v>
+      </c>
+      <c r="B1031" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" s="8" customFormat="1">
+      <c r="A1032" s="6">
         <v>7301</v>
       </c>
-      <c r="B1031" s="7" t="s">
+      <c r="B1032" s="7" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="1032" spans="1:2">
-      <c r="A1032"/>
-      <c r="B1032"/>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033"/>
@@ -36165,1390 +36189,353 @@
       <c r="A1040"/>
       <c r="B1040"/>
     </row>
-    <row r="1041" spans="1:2">
-      <c r="A1041"/>
-      <c r="B1041"/>
-    </row>
-    <row r="1042" spans="1:2">
-      <c r="A1042"/>
-      <c r="B1042"/>
-    </row>
-    <row r="1043" spans="1:2">
-      <c r="A1043"/>
-      <c r="B1043"/>
-    </row>
-    <row r="1044" spans="1:2">
-      <c r="A1044"/>
-      <c r="B1044"/>
-    </row>
-    <row r="1045" spans="1:2">
-      <c r="A1045"/>
-      <c r="B1045"/>
-    </row>
-    <row r="1046" spans="1:2">
-      <c r="A1046"/>
-      <c r="B1046"/>
-    </row>
-    <row r="1047" spans="1:2">
-      <c r="A1047"/>
-      <c r="B1047"/>
-    </row>
-    <row r="1048" spans="1:2">
-      <c r="A1048"/>
-      <c r="B1048"/>
-    </row>
-    <row r="1049" spans="1:2">
-      <c r="A1049"/>
-      <c r="B1049"/>
-    </row>
-    <row r="1050" spans="1:2">
-      <c r="A1050"/>
-      <c r="B1050"/>
-    </row>
-    <row r="1051" spans="1:2">
-      <c r="A1051"/>
-      <c r="B1051"/>
-    </row>
-    <row r="1052" spans="1:2">
-      <c r="A1052"/>
-      <c r="B1052"/>
-    </row>
-    <row r="1053" spans="1:2">
-      <c r="A1053"/>
-      <c r="B1053"/>
-    </row>
-    <row r="1054" spans="1:2">
-      <c r="A1054"/>
-      <c r="B1054"/>
-    </row>
-    <row r="1055" spans="1:2">
-      <c r="A1055"/>
-      <c r="B1055"/>
-    </row>
-    <row r="1056" spans="1:2">
-      <c r="A1056"/>
-      <c r="B1056"/>
-    </row>
-    <row r="1057" spans="1:2">
-      <c r="A1057"/>
-      <c r="B1057"/>
-    </row>
-    <row r="1058" spans="1:2">
-      <c r="A1058"/>
-      <c r="B1058"/>
-    </row>
-    <row r="1059" spans="1:2">
-      <c r="A1059"/>
-      <c r="B1059"/>
-    </row>
-    <row r="1060" spans="1:2">
-      <c r="A1060"/>
-      <c r="B1060"/>
-    </row>
-    <row r="1061" spans="1:2">
-      <c r="A1061"/>
-      <c r="B1061"/>
-    </row>
-    <row r="1062" spans="1:2">
-      <c r="A1062"/>
-      <c r="B1062"/>
-    </row>
-    <row r="1063" spans="1:2">
-      <c r="A1063"/>
-      <c r="B1063"/>
-    </row>
-    <row r="1064" spans="1:2">
-      <c r="A1064"/>
-      <c r="B1064"/>
-    </row>
-    <row r="1065" spans="1:2">
-      <c r="A1065"/>
-      <c r="B1065"/>
-    </row>
-    <row r="1066" spans="1:2">
-      <c r="A1066"/>
-      <c r="B1066"/>
-    </row>
-    <row r="1067" spans="1:2">
-      <c r="A1067"/>
-      <c r="B1067"/>
-    </row>
-    <row r="1068" spans="1:2">
-      <c r="A1068"/>
-      <c r="B1068"/>
-    </row>
-    <row r="1069" spans="1:2">
-      <c r="A1069"/>
-      <c r="B1069"/>
-    </row>
-    <row r="1070" spans="1:2">
-      <c r="A1070"/>
-      <c r="B1070"/>
-    </row>
-    <row r="1071" spans="1:2">
-      <c r="A1071"/>
-      <c r="B1071"/>
-    </row>
-    <row r="1072" spans="1:2">
-      <c r="A1072"/>
-      <c r="B1072"/>
-    </row>
-    <row r="1073" spans="1:2">
-      <c r="A1073"/>
-      <c r="B1073"/>
-    </row>
-    <row r="1074" spans="1:2">
-      <c r="A1074"/>
-      <c r="B1074"/>
-    </row>
-    <row r="1075" spans="1:2">
-      <c r="A1075"/>
-      <c r="B1075"/>
-    </row>
-    <row r="1076" spans="1:2">
-      <c r="A1076"/>
-      <c r="B1076"/>
-    </row>
-    <row r="1077" spans="1:2">
-      <c r="A1077"/>
-      <c r="B1077"/>
-    </row>
-    <row r="1078" spans="1:2">
-      <c r="A1078"/>
-      <c r="B1078"/>
-    </row>
-    <row r="1079" spans="1:2">
-      <c r="A1079"/>
-      <c r="B1079"/>
-    </row>
-    <row r="1080" spans="1:2">
-      <c r="A1080"/>
-      <c r="B1080"/>
-    </row>
-    <row r="1081" spans="1:2">
-      <c r="A1081"/>
-      <c r="B1081"/>
-    </row>
-    <row r="1082" spans="1:2">
-      <c r="A1082"/>
-      <c r="B1082"/>
-    </row>
-    <row r="1083" spans="1:2">
-      <c r="A1083"/>
-      <c r="B1083"/>
-    </row>
-    <row r="1084" spans="1:2">
-      <c r="A1084"/>
-      <c r="B1084"/>
-    </row>
-    <row r="1085" spans="1:2">
-      <c r="A1085"/>
-      <c r="B1085"/>
-    </row>
-    <row r="1086" spans="1:2">
-      <c r="A1086"/>
-      <c r="B1086"/>
-    </row>
-    <row r="1087" spans="1:2">
-      <c r="A1087"/>
-      <c r="B1087"/>
-    </row>
-    <row r="1088" spans="1:2">
-      <c r="A1088"/>
-      <c r="B1088"/>
-    </row>
-    <row r="1089" spans="1:2">
-      <c r="A1089"/>
-      <c r="B1089"/>
-    </row>
-    <row r="1090" spans="1:2">
-      <c r="A1090"/>
-      <c r="B1090"/>
-    </row>
-    <row r="1091" spans="1:2">
-      <c r="A1091"/>
-      <c r="B1091"/>
-    </row>
-    <row r="1092" spans="1:2">
-      <c r="A1092"/>
-      <c r="B1092"/>
-    </row>
-    <row r="1093" spans="1:2">
-      <c r="A1093"/>
-      <c r="B1093"/>
-    </row>
-    <row r="1094" spans="1:2">
-      <c r="A1094"/>
-      <c r="B1094"/>
-    </row>
-    <row r="1095" spans="1:2">
-      <c r="A1095"/>
-      <c r="B1095"/>
-    </row>
-    <row r="1096" spans="1:2">
-      <c r="A1096"/>
-      <c r="B1096"/>
-    </row>
-    <row r="1097" spans="1:2">
-      <c r="A1097"/>
-      <c r="B1097"/>
-    </row>
-    <row r="1098" spans="1:2">
-      <c r="A1098"/>
-      <c r="B1098"/>
-    </row>
-    <row r="1099" spans="1:2">
-      <c r="A1099"/>
-      <c r="B1099"/>
-    </row>
-    <row r="1100" spans="1:2">
-      <c r="A1100"/>
-      <c r="B1100"/>
-    </row>
-    <row r="1101" spans="1:2">
-      <c r="A1101"/>
-      <c r="B1101"/>
-    </row>
-    <row r="1102" spans="1:2">
-      <c r="A1102"/>
-      <c r="B1102"/>
-    </row>
-    <row r="1103" spans="1:2">
-      <c r="A1103"/>
-      <c r="B1103"/>
-    </row>
-    <row r="1104" spans="1:2">
-      <c r="A1104"/>
-      <c r="B1104"/>
-    </row>
-    <row r="1105" spans="1:2">
-      <c r="A1105"/>
-      <c r="B1105"/>
-    </row>
-    <row r="1106" spans="1:2">
-      <c r="A1106"/>
-      <c r="B1106"/>
-    </row>
-    <row r="1107" spans="1:2">
-      <c r="A1107"/>
-      <c r="B1107"/>
-    </row>
-    <row r="1108" spans="1:2">
-      <c r="A1108"/>
-      <c r="B1108"/>
-    </row>
-    <row r="1109" spans="1:2">
-      <c r="A1109"/>
-      <c r="B1109"/>
-    </row>
-    <row r="1110" spans="1:2">
-      <c r="A1110"/>
-      <c r="B1110"/>
-    </row>
-    <row r="1111" spans="1:2">
-      <c r="A1111"/>
-      <c r="B1111"/>
-    </row>
-    <row r="1112" spans="1:2">
-      <c r="A1112"/>
-      <c r="B1112"/>
-    </row>
-    <row r="1113" spans="1:2">
-      <c r="A1113"/>
-      <c r="B1113"/>
-    </row>
-    <row r="1114" spans="1:2">
-      <c r="A1114"/>
-      <c r="B1114"/>
-    </row>
-    <row r="1115" spans="1:2">
-      <c r="A1115"/>
-      <c r="B1115"/>
-    </row>
-    <row r="1116" spans="1:2">
-      <c r="A1116"/>
-      <c r="B1116"/>
-    </row>
-    <row r="1117" spans="1:2">
-      <c r="A1117"/>
-      <c r="B1117"/>
-    </row>
-    <row r="1118" spans="1:2">
-      <c r="A1118"/>
-      <c r="B1118"/>
-    </row>
-    <row r="1119" spans="1:2">
-      <c r="A1119"/>
-      <c r="B1119"/>
-    </row>
-    <row r="1120" spans="1:2">
-      <c r="A1120"/>
-      <c r="B1120"/>
-    </row>
-    <row r="1121" spans="1:2">
-      <c r="A1121"/>
-      <c r="B1121"/>
-    </row>
-    <row r="1122" spans="1:2">
-      <c r="A1122"/>
-      <c r="B1122"/>
-    </row>
-    <row r="1123" spans="1:2">
-      <c r="A1123"/>
-      <c r="B1123"/>
-    </row>
-    <row r="1124" spans="1:2">
-      <c r="A1124"/>
-      <c r="B1124"/>
-    </row>
-    <row r="1125" spans="1:2">
-      <c r="A1125"/>
-      <c r="B1125"/>
-    </row>
-    <row r="1126" spans="1:2">
-      <c r="A1126"/>
-      <c r="B1126"/>
-    </row>
-    <row r="1127" spans="1:2">
-      <c r="A1127"/>
-      <c r="B1127"/>
-    </row>
-    <row r="1128" spans="1:2">
-      <c r="A1128"/>
-      <c r="B1128"/>
-    </row>
-    <row r="1129" spans="1:2">
-      <c r="A1129"/>
-      <c r="B1129"/>
-    </row>
-    <row r="1130" spans="1:2">
-      <c r="A1130"/>
-      <c r="B1130"/>
-    </row>
-    <row r="1131" spans="1:2">
-      <c r="A1131"/>
-      <c r="B1131"/>
-    </row>
-    <row r="1132" spans="1:2">
-      <c r="A1132"/>
-      <c r="B1132"/>
-    </row>
-    <row r="1133" spans="1:2">
-      <c r="A1133"/>
-      <c r="B1133"/>
-    </row>
-    <row r="1134" spans="1:2">
-      <c r="A1134"/>
-      <c r="B1134"/>
-    </row>
-    <row r="1135" spans="1:2">
-      <c r="A1135"/>
-      <c r="B1135"/>
-    </row>
-    <row r="1136" spans="1:2">
-      <c r="A1136"/>
-      <c r="B1136"/>
-    </row>
-    <row r="1137" spans="1:2">
-      <c r="A1137"/>
-      <c r="B1137"/>
-    </row>
-    <row r="1138" spans="1:2">
-      <c r="A1138"/>
-      <c r="B1138"/>
-    </row>
-    <row r="1139" spans="1:2">
-      <c r="A1139"/>
-      <c r="B1139"/>
-    </row>
-    <row r="1140" spans="1:2">
-      <c r="A1140"/>
-      <c r="B1140"/>
-    </row>
-    <row r="1141" spans="1:2">
-      <c r="A1141"/>
-      <c r="B1141"/>
-    </row>
-    <row r="1142" spans="1:2">
-      <c r="A1142"/>
-      <c r="B1142"/>
-    </row>
-    <row r="1143" spans="1:2">
-      <c r="A1143"/>
-      <c r="B1143"/>
-    </row>
-    <row r="1144" spans="1:2">
-      <c r="A1144"/>
-      <c r="B1144"/>
-    </row>
-    <row r="1145" spans="1:2">
-      <c r="A1145"/>
-      <c r="B1145"/>
-    </row>
-    <row r="1146" spans="1:2">
-      <c r="A1146"/>
-      <c r="B1146"/>
-    </row>
-    <row r="1147" spans="1:2">
-      <c r="A1147"/>
-      <c r="B1147"/>
-    </row>
-    <row r="1148" spans="1:2">
-      <c r="A1148"/>
-      <c r="B1148"/>
-    </row>
-    <row r="1149" spans="1:2">
-      <c r="A1149"/>
-      <c r="B1149"/>
-    </row>
-    <row r="1150" spans="1:2">
-      <c r="A1150"/>
-      <c r="B1150"/>
-    </row>
-    <row r="1151" spans="1:2">
-      <c r="A1151"/>
-      <c r="B1151"/>
-    </row>
-    <row r="1152" spans="1:2">
-      <c r="A1152"/>
-      <c r="B1152"/>
-    </row>
-    <row r="1153" spans="1:2">
-      <c r="A1153"/>
-      <c r="B1153"/>
-    </row>
-    <row r="1154" spans="1:2">
-      <c r="A1154"/>
-      <c r="B1154"/>
-    </row>
-    <row r="1155" spans="1:2">
-      <c r="A1155"/>
-      <c r="B1155"/>
-    </row>
-    <row r="1156" spans="1:2">
-      <c r="A1156"/>
-      <c r="B1156"/>
-    </row>
-    <row r="1157" spans="1:2">
-      <c r="A1157"/>
-      <c r="B1157"/>
-    </row>
-    <row r="1158" spans="1:2">
-      <c r="A1158"/>
-      <c r="B1158"/>
-    </row>
-    <row r="1159" spans="1:2">
-      <c r="A1159"/>
-      <c r="B1159"/>
-    </row>
-    <row r="1160" spans="1:2">
-      <c r="A1160"/>
-      <c r="B1160"/>
-    </row>
-    <row r="1161" spans="1:2">
-      <c r="A1161"/>
-      <c r="B1161"/>
-    </row>
-    <row r="1162" spans="1:2">
-      <c r="A1162"/>
-      <c r="B1162"/>
-    </row>
-    <row r="1163" spans="1:2">
-      <c r="A1163"/>
-      <c r="B1163"/>
-    </row>
-    <row r="1164" spans="1:2">
-      <c r="A1164"/>
-      <c r="B1164"/>
-    </row>
-    <row r="1165" spans="1:2">
-      <c r="A1165"/>
-      <c r="B1165"/>
-    </row>
-    <row r="1166" spans="1:2">
-      <c r="A1166"/>
-      <c r="B1166"/>
-    </row>
-    <row r="1167" spans="1:2">
-      <c r="A1167"/>
-      <c r="B1167"/>
-    </row>
-    <row r="1168" spans="1:2">
-      <c r="A1168"/>
-      <c r="B1168"/>
-    </row>
-    <row r="1169" spans="1:2">
-      <c r="A1169"/>
-      <c r="B1169"/>
-    </row>
-    <row r="1170" spans="1:2">
-      <c r="A1170"/>
-      <c r="B1170"/>
-    </row>
-    <row r="1171" spans="1:2">
-      <c r="A1171"/>
-      <c r="B1171"/>
-    </row>
-    <row r="1172" spans="1:2">
-      <c r="A1172"/>
-      <c r="B1172"/>
-    </row>
-    <row r="1173" spans="1:2">
-      <c r="A1173"/>
-      <c r="B1173"/>
-    </row>
-    <row r="1174" spans="1:2">
-      <c r="A1174"/>
-      <c r="B1174"/>
-    </row>
-    <row r="1175" spans="1:2">
-      <c r="A1175"/>
-      <c r="B1175"/>
-    </row>
-    <row r="1176" spans="1:2">
-      <c r="A1176"/>
-      <c r="B1176"/>
-    </row>
-    <row r="1177" spans="1:2">
-      <c r="A1177"/>
-      <c r="B1177"/>
-    </row>
-    <row r="1178" spans="1:2">
-      <c r="A1178"/>
-      <c r="B1178"/>
-    </row>
-    <row r="1179" spans="1:2">
-      <c r="A1179"/>
-      <c r="B1179"/>
-    </row>
-    <row r="1180" spans="1:2">
-      <c r="A1180"/>
-      <c r="B1180"/>
-    </row>
-    <row r="1181" spans="1:2">
-      <c r="A1181"/>
-      <c r="B1181"/>
-    </row>
-    <row r="1182" spans="1:2">
-      <c r="A1182"/>
-      <c r="B1182"/>
-    </row>
-    <row r="1183" spans="1:2">
-      <c r="A1183"/>
-      <c r="B1183"/>
-    </row>
-    <row r="1184" spans="1:2">
-      <c r="A1184"/>
-      <c r="B1184"/>
-    </row>
-    <row r="1185" spans="1:2">
-      <c r="A1185"/>
-      <c r="B1185"/>
-    </row>
-    <row r="1186" spans="1:2">
-      <c r="A1186"/>
-      <c r="B1186"/>
-    </row>
-    <row r="1187" spans="1:2">
-      <c r="A1187"/>
-      <c r="B1187"/>
-    </row>
-    <row r="1188" spans="1:2">
-      <c r="A1188"/>
-      <c r="B1188"/>
-    </row>
-    <row r="1189" spans="1:2">
-      <c r="A1189"/>
-      <c r="B1189"/>
-    </row>
-    <row r="1190" spans="1:2">
-      <c r="A1190"/>
-      <c r="B1190"/>
-    </row>
-    <row r="1191" spans="1:2">
-      <c r="A1191"/>
-      <c r="B1191"/>
-    </row>
-    <row r="1192" spans="1:2">
-      <c r="A1192"/>
-      <c r="B1192"/>
-    </row>
-    <row r="1193" spans="1:2">
-      <c r="A1193"/>
-      <c r="B1193"/>
-    </row>
-    <row r="1194" spans="1:2">
-      <c r="A1194"/>
-      <c r="B1194"/>
-    </row>
-    <row r="1195" spans="1:2">
-      <c r="A1195"/>
-      <c r="B1195"/>
-    </row>
-    <row r="1196" spans="1:2">
-      <c r="A1196"/>
-      <c r="B1196"/>
-    </row>
-    <row r="1197" spans="1:2">
-      <c r="A1197"/>
-      <c r="B1197"/>
-    </row>
-    <row r="1198" spans="1:2">
-      <c r="A1198"/>
-      <c r="B1198"/>
-    </row>
-    <row r="1199" spans="1:2">
-      <c r="A1199"/>
-      <c r="B1199"/>
-    </row>
-    <row r="1200" spans="1:2">
-      <c r="A1200"/>
-      <c r="B1200"/>
-    </row>
-    <row r="1201" spans="1:2">
-      <c r="A1201"/>
-      <c r="B1201"/>
-    </row>
-    <row r="1202" spans="1:2">
-      <c r="A1202"/>
-      <c r="B1202"/>
-    </row>
-    <row r="1203" spans="1:2">
-      <c r="A1203"/>
-      <c r="B1203"/>
-    </row>
-    <row r="1204" spans="1:2">
-      <c r="A1204"/>
-      <c r="B1204"/>
-    </row>
-    <row r="1205" spans="1:2">
-      <c r="A1205"/>
-      <c r="B1205"/>
-    </row>
-    <row r="1206" spans="1:2">
-      <c r="A1206"/>
-      <c r="B1206"/>
-    </row>
-    <row r="1207" spans="1:2">
-      <c r="A1207"/>
-      <c r="B1207"/>
-    </row>
-    <row r="1208" spans="1:2">
-      <c r="A1208"/>
-      <c r="B1208"/>
-    </row>
-    <row r="1209" spans="1:2">
-      <c r="A1209"/>
-      <c r="B1209"/>
-    </row>
-    <row r="1210" spans="1:2">
-      <c r="A1210"/>
-      <c r="B1210"/>
-    </row>
-    <row r="1211" spans="1:2">
-      <c r="A1211"/>
-      <c r="B1211"/>
-    </row>
-    <row r="1212" spans="1:2">
-      <c r="A1212"/>
-      <c r="B1212"/>
-    </row>
-    <row r="1213" spans="1:2">
-      <c r="A1213"/>
-      <c r="B1213"/>
-    </row>
-    <row r="1214" spans="1:2">
-      <c r="A1214"/>
-      <c r="B1214"/>
-    </row>
-    <row r="1215" spans="1:2">
-      <c r="A1215"/>
-      <c r="B1215"/>
-    </row>
-    <row r="1216" spans="1:2">
-      <c r="A1216"/>
-      <c r="B1216"/>
-    </row>
-    <row r="1217" spans="1:2">
-      <c r="A1217"/>
-      <c r="B1217"/>
-    </row>
-    <row r="1218" spans="1:2">
-      <c r="A1218"/>
-      <c r="B1218"/>
-    </row>
-    <row r="1219" spans="1:2">
-      <c r="A1219"/>
-      <c r="B1219"/>
-    </row>
-    <row r="1220" spans="1:2">
-      <c r="A1220"/>
-      <c r="B1220"/>
-    </row>
-    <row r="1221" spans="1:2">
-      <c r="A1221"/>
-      <c r="B1221"/>
-    </row>
-    <row r="1222" spans="1:2">
-      <c r="A1222"/>
-      <c r="B1222"/>
-    </row>
-    <row r="1223" spans="1:2">
-      <c r="A1223"/>
-      <c r="B1223"/>
-    </row>
-    <row r="1224" spans="1:2">
-      <c r="A1224"/>
-      <c r="B1224"/>
-    </row>
-    <row r="1225" spans="1:2">
-      <c r="A1225"/>
-      <c r="B1225"/>
-    </row>
-    <row r="1226" spans="1:2">
-      <c r="A1226"/>
-      <c r="B1226"/>
-    </row>
-    <row r="1227" spans="1:2">
-      <c r="A1227"/>
-      <c r="B1227"/>
-    </row>
-    <row r="1228" spans="1:2">
-      <c r="A1228"/>
-      <c r="B1228"/>
-    </row>
-    <row r="1229" spans="1:2">
-      <c r="A1229"/>
-      <c r="B1229"/>
-    </row>
-    <row r="1230" spans="1:2">
-      <c r="A1230"/>
-      <c r="B1230"/>
-    </row>
-    <row r="1231" spans="1:2">
-      <c r="A1231"/>
-      <c r="B1231"/>
-    </row>
-    <row r="1232" spans="1:2">
-      <c r="A1232"/>
-      <c r="B1232"/>
-    </row>
-    <row r="1233" spans="1:2">
-      <c r="A1233"/>
-      <c r="B1233"/>
-    </row>
-    <row r="1234" spans="1:2">
-      <c r="A1234"/>
-      <c r="B1234"/>
-    </row>
-    <row r="1235" spans="1:2">
-      <c r="A1235"/>
-      <c r="B1235"/>
-    </row>
-    <row r="1236" spans="1:2">
-      <c r="A1236"/>
-      <c r="B1236"/>
-    </row>
-    <row r="1237" spans="1:2">
-      <c r="A1237"/>
-      <c r="B1237"/>
-    </row>
-    <row r="1238" spans="1:2">
-      <c r="A1238"/>
-      <c r="B1238"/>
-    </row>
-    <row r="1239" spans="1:2">
-      <c r="A1239"/>
-      <c r="B1239"/>
-    </row>
-    <row r="1240" spans="1:2">
-      <c r="A1240"/>
-      <c r="B1240"/>
-    </row>
-    <row r="1241" spans="1:2">
-      <c r="A1241"/>
-      <c r="B1241"/>
-    </row>
-    <row r="1242" spans="1:2">
-      <c r="A1242"/>
-      <c r="B1242"/>
-    </row>
-    <row r="1243" spans="1:2">
-      <c r="A1243"/>
-      <c r="B1243"/>
-    </row>
-    <row r="1244" spans="1:2">
-      <c r="A1244"/>
-      <c r="B1244"/>
-    </row>
-    <row r="1245" spans="1:2">
-      <c r="A1245"/>
-      <c r="B1245"/>
-    </row>
-    <row r="1246" spans="1:2">
-      <c r="A1246"/>
-      <c r="B1246"/>
-    </row>
-    <row r="1247" spans="1:2">
-      <c r="A1247"/>
-      <c r="B1247"/>
-    </row>
-    <row r="1248" spans="1:2">
-      <c r="A1248"/>
-      <c r="B1248"/>
-    </row>
-    <row r="1249" spans="1:2">
-      <c r="A1249"/>
-      <c r="B1249"/>
-    </row>
-    <row r="1250" spans="1:2">
-      <c r="A1250"/>
-      <c r="B1250"/>
-    </row>
-    <row r="1251" spans="1:2">
-      <c r="A1251"/>
-      <c r="B1251"/>
-    </row>
-    <row r="1252" spans="1:2">
-      <c r="A1252"/>
-      <c r="B1252"/>
-    </row>
-    <row r="1253" spans="1:2">
-      <c r="A1253"/>
-      <c r="B1253"/>
-    </row>
-    <row r="1254" spans="1:2">
-      <c r="A1254"/>
-      <c r="B1254"/>
-    </row>
-    <row r="1255" spans="1:2">
-      <c r="A1255"/>
-      <c r="B1255"/>
-    </row>
-    <row r="1256" spans="1:2">
-      <c r="A1256"/>
-      <c r="B1256"/>
-    </row>
-    <row r="1257" spans="1:2">
-      <c r="A1257"/>
-      <c r="B1257"/>
-    </row>
-    <row r="1258" spans="1:2">
-      <c r="A1258"/>
-      <c r="B1258"/>
-    </row>
-    <row r="1259" spans="1:2">
-      <c r="A1259"/>
-      <c r="B1259"/>
-    </row>
-    <row r="1260" spans="1:2">
-      <c r="A1260"/>
-      <c r="B1260"/>
-    </row>
-    <row r="1261" spans="1:2">
-      <c r="A1261"/>
-      <c r="B1261"/>
-    </row>
-    <row r="1262" spans="1:2">
-      <c r="A1262"/>
-      <c r="B1262"/>
-    </row>
-    <row r="1263" spans="1:2">
-      <c r="A1263"/>
-      <c r="B1263"/>
-    </row>
-    <row r="1264" spans="1:2">
-      <c r="A1264"/>
-      <c r="B1264"/>
-    </row>
-    <row r="1265" spans="1:2">
-      <c r="A1265"/>
-      <c r="B1265"/>
-    </row>
-    <row r="1266" spans="1:2">
-      <c r="A1266"/>
-      <c r="B1266"/>
-    </row>
-    <row r="1267" spans="1:2">
-      <c r="A1267"/>
-      <c r="B1267"/>
-    </row>
-    <row r="1268" spans="1:2">
-      <c r="A1268"/>
-      <c r="B1268"/>
-    </row>
-    <row r="1269" spans="1:2">
-      <c r="A1269"/>
-      <c r="B1269"/>
-    </row>
-    <row r="1270" spans="1:2">
-      <c r="A1270"/>
-      <c r="B1270"/>
-    </row>
-    <row r="1271" spans="1:2">
-      <c r="A1271"/>
-      <c r="B1271"/>
-    </row>
-    <row r="1272" spans="1:2">
-      <c r="A1272"/>
-      <c r="B1272"/>
-    </row>
-    <row r="1273" spans="1:2">
-      <c r="A1273"/>
-      <c r="B1273"/>
-    </row>
-    <row r="1274" spans="1:2">
-      <c r="A1274"/>
-      <c r="B1274"/>
-    </row>
-    <row r="1275" spans="1:2">
-      <c r="A1275"/>
-      <c r="B1275"/>
-    </row>
-    <row r="1276" spans="1:2">
-      <c r="A1276"/>
-      <c r="B1276"/>
-    </row>
-    <row r="1277" spans="1:2">
-      <c r="A1277"/>
-      <c r="B1277"/>
-    </row>
-    <row r="1278" spans="1:2">
-      <c r="A1278"/>
-      <c r="B1278"/>
-    </row>
-    <row r="1279" spans="1:2">
-      <c r="A1279"/>
-      <c r="B1279"/>
-    </row>
-    <row r="1280" spans="1:2">
-      <c r="A1280"/>
-      <c r="B1280"/>
-    </row>
-    <row r="1281" spans="1:2">
-      <c r="A1281"/>
-      <c r="B1281"/>
-    </row>
-    <row r="1282" spans="1:2">
-      <c r="A1282"/>
-      <c r="B1282"/>
-    </row>
-    <row r="1283" spans="1:2">
-      <c r="A1283"/>
-      <c r="B1283"/>
-    </row>
-    <row r="1284" spans="1:2">
-      <c r="A1284"/>
-      <c r="B1284"/>
-    </row>
-    <row r="1285" spans="1:2">
-      <c r="A1285"/>
-      <c r="B1285"/>
-    </row>
-    <row r="1286" spans="1:2">
-      <c r="A1286"/>
-      <c r="B1286"/>
-    </row>
-    <row r="1287" spans="1:2">
-      <c r="A1287"/>
-      <c r="B1287"/>
-    </row>
-    <row r="1288" spans="1:2">
-      <c r="A1288"/>
-      <c r="B1288"/>
-    </row>
-    <row r="1289" spans="1:2">
-      <c r="A1289"/>
-      <c r="B1289"/>
-    </row>
-    <row r="1290" spans="1:2">
-      <c r="A1290"/>
-      <c r="B1290"/>
-    </row>
-    <row r="1291" spans="1:2">
-      <c r="A1291"/>
-      <c r="B1291"/>
-    </row>
-    <row r="1292" spans="1:2">
-      <c r="A1292"/>
-      <c r="B1292"/>
-    </row>
-    <row r="1293" spans="1:2">
-      <c r="A1293"/>
-      <c r="B1293"/>
-    </row>
-    <row r="1294" spans="1:2">
-      <c r="A1294"/>
-      <c r="B1294"/>
-    </row>
-    <row r="1295" spans="1:2">
-      <c r="A1295"/>
-      <c r="B1295"/>
-    </row>
-    <row r="1296" spans="1:2">
-      <c r="A1296"/>
-      <c r="B1296"/>
-    </row>
-    <row r="1297" spans="1:2">
-      <c r="A1297"/>
-      <c r="B1297"/>
-    </row>
-    <row r="1298" spans="1:2">
-      <c r="A1298"/>
-      <c r="B1298"/>
-    </row>
-    <row r="1299" spans="1:2">
-      <c r="A1299"/>
-      <c r="B1299"/>
-    </row>
-    <row r="1300" spans="1:2">
-      <c r="A1300"/>
-      <c r="B1300"/>
-    </row>
-    <row r="1301" spans="1:2">
-      <c r="A1301"/>
-      <c r="B1301"/>
-    </row>
-    <row r="1302" spans="1:2">
-      <c r="A1302"/>
-      <c r="B1302"/>
-    </row>
-    <row r="1303" spans="1:2">
-      <c r="A1303"/>
-      <c r="B1303"/>
-    </row>
-    <row r="1304" spans="1:2">
-      <c r="A1304"/>
-      <c r="B1304"/>
-    </row>
-    <row r="1305" spans="1:2">
-      <c r="A1305"/>
-      <c r="B1305"/>
-    </row>
-    <row r="1306" spans="1:2">
-      <c r="A1306"/>
-      <c r="B1306"/>
-    </row>
-    <row r="1307" spans="1:2">
-      <c r="A1307"/>
-      <c r="B1307"/>
-    </row>
-    <row r="1308" spans="1:2">
-      <c r="A1308"/>
-      <c r="B1308"/>
-    </row>
-    <row r="1309" spans="1:2">
-      <c r="A1309"/>
-      <c r="B1309"/>
-    </row>
-    <row r="1310" spans="1:2">
-      <c r="A1310"/>
-      <c r="B1310"/>
-    </row>
-    <row r="1311" spans="1:2">
-      <c r="A1311"/>
-      <c r="B1311"/>
-    </row>
-    <row r="1312" spans="1:2">
-      <c r="A1312"/>
-      <c r="B1312"/>
-    </row>
-    <row r="1313" spans="1:2">
-      <c r="A1313"/>
-      <c r="B1313"/>
-    </row>
-    <row r="1314" spans="1:2">
-      <c r="A1314"/>
-      <c r="B1314"/>
-    </row>
-    <row r="1315" spans="1:2">
-      <c r="A1315"/>
-      <c r="B1315"/>
-    </row>
-    <row r="1316" spans="1:2">
-      <c r="A1316"/>
-      <c r="B1316"/>
-    </row>
-    <row r="1317" spans="1:2">
-      <c r="A1317"/>
-      <c r="B1317"/>
-    </row>
-    <row r="1318" spans="1:2">
-      <c r="A1318"/>
-      <c r="B1318"/>
-    </row>
-    <row r="1319" spans="1:2">
-      <c r="A1319"/>
-      <c r="B1319"/>
-    </row>
-    <row r="1320" spans="1:2">
-      <c r="A1320"/>
-      <c r="B1320"/>
-    </row>
-    <row r="1321" spans="1:2">
-      <c r="A1321"/>
-      <c r="B1321"/>
-    </row>
-    <row r="1322" spans="1:2">
-      <c r="A1322"/>
-      <c r="B1322"/>
-    </row>
-    <row r="1323" spans="1:2">
-      <c r="A1323"/>
-      <c r="B1323"/>
-    </row>
-    <row r="1324" spans="1:2">
-      <c r="A1324"/>
-      <c r="B1324"/>
-    </row>
-    <row r="1325" spans="1:2">
-      <c r="A1325"/>
-      <c r="B1325"/>
-    </row>
-    <row r="1326" spans="1:2">
-      <c r="A1326"/>
-      <c r="B1326"/>
-    </row>
-    <row r="1327" spans="1:2">
-      <c r="A1327"/>
-      <c r="B1327"/>
-    </row>
-    <row r="1328" spans="1:2">
-      <c r="A1328"/>
-      <c r="B1328"/>
-    </row>
-    <row r="1329" spans="1:2">
-      <c r="A1329"/>
-      <c r="B1329"/>
-    </row>
-    <row r="1330" spans="1:2">
-      <c r="A1330"/>
-      <c r="B1330"/>
-    </row>
-    <row r="1331" spans="1:2">
-      <c r="A1331"/>
-      <c r="B1331"/>
-    </row>
-    <row r="1332" spans="1:2">
-      <c r="A1332"/>
-      <c r="B1332"/>
-    </row>
-    <row r="1333" spans="1:2">
-      <c r="A1333"/>
-      <c r="B1333"/>
-    </row>
-    <row r="1334" spans="1:2">
-      <c r="A1334"/>
-      <c r="B1334"/>
-    </row>
-    <row r="1335" spans="1:2">
-      <c r="A1335"/>
-      <c r="B1335"/>
-    </row>
-    <row r="1336" spans="1:2">
-      <c r="A1336"/>
-      <c r="B1336"/>
-    </row>
-    <row r="1337" spans="1:2">
-      <c r="A1337"/>
-      <c r="B1337"/>
-    </row>
-    <row r="1338" spans="1:2">
-      <c r="A1338"/>
-      <c r="B1338"/>
-    </row>
-    <row r="1339" spans="1:2">
-      <c r="A1339"/>
-      <c r="B1339"/>
-    </row>
-    <row r="1340" spans="1:2">
-      <c r="A1340"/>
-      <c r="B1340"/>
-    </row>
-    <row r="1341" spans="1:2">
-      <c r="A1341"/>
-      <c r="B1341"/>
-    </row>
-    <row r="1342" spans="1:2">
-      <c r="A1342"/>
-      <c r="B1342"/>
-    </row>
-    <row r="1343" spans="1:2">
-      <c r="A1343"/>
-      <c r="B1343"/>
-    </row>
-    <row r="1344" spans="1:2">
-      <c r="A1344"/>
-      <c r="B1344"/>
-    </row>
-    <row r="1345" spans="1:2">
-      <c r="A1345"/>
-      <c r="B1345"/>
-    </row>
-    <row r="1346" spans="1:2">
-      <c r="A1346"/>
-      <c r="B1346"/>
-    </row>
-    <row r="1347" spans="1:2">
-      <c r="A1347"/>
-      <c r="B1347"/>
-    </row>
-    <row r="1348" spans="1:2">
-      <c r="A1348"/>
-      <c r="B1348"/>
-    </row>
-    <row r="1349" spans="1:2">
-      <c r="A1349"/>
-      <c r="B1349"/>
-    </row>
-    <row r="1350" spans="1:2">
-      <c r="A1350"/>
-      <c r="B1350"/>
-    </row>
-    <row r="1351" spans="1:2">
-      <c r="A1351"/>
-      <c r="B1351"/>
-    </row>
-    <row r="1352" spans="1:2">
-      <c r="A1352"/>
-      <c r="B1352"/>
-    </row>
-    <row r="1353" spans="1:2">
-      <c r="A1353"/>
-      <c r="B1353"/>
-    </row>
-    <row r="1354" spans="1:2">
-      <c r="A1354"/>
-      <c r="B1354"/>
-    </row>
-    <row r="1355" spans="1:2">
-      <c r="A1355"/>
-      <c r="B1355"/>
-    </row>
-    <row r="1356" spans="1:2">
-      <c r="A1356"/>
-      <c r="B1356"/>
-    </row>
-    <row r="1357" spans="1:2">
-      <c r="A1357"/>
-      <c r="B1357"/>
-    </row>
-    <row r="1358" spans="1:2">
-      <c r="A1358"/>
-      <c r="B1358"/>
-    </row>
-    <row r="1359" spans="1:2">
-      <c r="A1359"/>
-      <c r="B1359"/>
-    </row>
-    <row r="1360" spans="1:2">
-      <c r="A1360"/>
-      <c r="B1360"/>
-    </row>
-    <row r="1361" spans="1:2">
-      <c r="A1361"/>
-      <c r="B1361"/>
-    </row>
-    <row r="1362" spans="1:2">
-      <c r="A1362"/>
-      <c r="B1362"/>
-    </row>
-    <row r="1363" spans="1:2">
-      <c r="A1363"/>
-      <c r="B1363"/>
-    </row>
-    <row r="1364" spans="1:2">
-      <c r="A1364"/>
-      <c r="B1364"/>
-    </row>
-    <row r="1365" spans="1:2">
-      <c r="A1365"/>
-      <c r="B1365"/>
-    </row>
-    <row r="1366" spans="1:2">
-      <c r="A1366"/>
-      <c r="B1366"/>
-    </row>
-    <row r="1367" spans="1:2">
-      <c r="A1367"/>
-      <c r="B1367"/>
-    </row>
-    <row r="1368" spans="1:2">
-      <c r="A1368"/>
-      <c r="B1368"/>
-    </row>
-    <row r="1369" spans="1:2">
-      <c r="A1369"/>
-      <c r="B1369"/>
-    </row>
-    <row r="1370" spans="1:2">
-      <c r="A1370"/>
-      <c r="B1370"/>
-    </row>
-    <row r="1371" spans="1:2">
-      <c r="A1371"/>
-      <c r="B1371"/>
-    </row>
-    <row r="1372" spans="1:2">
-      <c r="A1372"/>
-      <c r="B1372"/>
-    </row>
-    <row r="1373" spans="1:2">
-      <c r="A1373"/>
-      <c r="B1373"/>
-    </row>
-    <row r="1374" spans="1:2">
-      <c r="A1374"/>
-      <c r="B1374"/>
-    </row>
-    <row r="1375" spans="1:2">
-      <c r="A1375"/>
-      <c r="B1375"/>
-    </row>
-    <row r="1376" spans="1:2">
-      <c r="A1376"/>
-      <c r="B1376"/>
-    </row>
-    <row r="1377" spans="1:2">
-      <c r="A1377"/>
-      <c r="B1377"/>
-    </row>
-    <row r="1378" spans="1:2">
-      <c r="A1378"/>
-      <c r="B1378"/>
-    </row>
-    <row r="1379" spans="1:2">
-      <c r="A1379"/>
-      <c r="B1379"/>
-    </row>
-    <row r="1380" spans="1:2">
-      <c r="A1380"/>
-      <c r="B1380"/>
-    </row>
-    <row r="1381" spans="1:2">
-      <c r="A1381"/>
-      <c r="B1381"/>
-    </row>
-    <row r="1382" spans="1:2">
-      <c r="A1382"/>
-      <c r="B1382"/>
-    </row>
-    <row r="1383" spans="1:2">
-      <c r="A1383"/>
-      <c r="B1383"/>
-    </row>
-    <row r="1384" spans="1:2">
-      <c r="A1384"/>
-      <c r="B1384"/>
-    </row>
-    <row r="1385" spans="1:2">
-      <c r="A1385"/>
-      <c r="B1385"/>
-    </row>
-    <row r="1386" spans="1:2">
-      <c r="A1386"/>
-      <c r="B1386"/>
-    </row>
+    <row r="1041" customFormat="1"/>
+    <row r="1042" customFormat="1"/>
+    <row r="1043" customFormat="1"/>
+    <row r="1044" customFormat="1"/>
+    <row r="1045" customFormat="1"/>
+    <row r="1046" customFormat="1"/>
+    <row r="1047" customFormat="1"/>
+    <row r="1048" customFormat="1"/>
+    <row r="1049" customFormat="1"/>
+    <row r="1050" customFormat="1"/>
+    <row r="1051" customFormat="1"/>
+    <row r="1052" customFormat="1"/>
+    <row r="1053" customFormat="1"/>
+    <row r="1054" customFormat="1"/>
+    <row r="1055" customFormat="1"/>
+    <row r="1056" customFormat="1"/>
+    <row r="1057" customFormat="1"/>
+    <row r="1058" customFormat="1"/>
+    <row r="1059" customFormat="1"/>
+    <row r="1060" customFormat="1"/>
+    <row r="1061" customFormat="1"/>
+    <row r="1062" customFormat="1"/>
+    <row r="1063" customFormat="1"/>
+    <row r="1064" customFormat="1"/>
+    <row r="1065" customFormat="1"/>
+    <row r="1066" customFormat="1"/>
+    <row r="1067" customFormat="1"/>
+    <row r="1068" customFormat="1"/>
+    <row r="1069" customFormat="1"/>
+    <row r="1070" customFormat="1"/>
+    <row r="1071" customFormat="1"/>
+    <row r="1072" customFormat="1"/>
+    <row r="1073" customFormat="1"/>
+    <row r="1074" customFormat="1"/>
+    <row r="1075" customFormat="1"/>
+    <row r="1076" customFormat="1"/>
+    <row r="1077" customFormat="1"/>
+    <row r="1078" customFormat="1"/>
+    <row r="1079" customFormat="1"/>
+    <row r="1080" customFormat="1"/>
+    <row r="1081" customFormat="1"/>
+    <row r="1082" customFormat="1"/>
+    <row r="1083" customFormat="1"/>
+    <row r="1084" customFormat="1"/>
+    <row r="1085" customFormat="1"/>
+    <row r="1086" customFormat="1"/>
+    <row r="1087" customFormat="1"/>
+    <row r="1088" customFormat="1"/>
+    <row r="1089" customFormat="1"/>
+    <row r="1090" customFormat="1"/>
+    <row r="1091" customFormat="1"/>
+    <row r="1092" customFormat="1"/>
+    <row r="1093" customFormat="1"/>
+    <row r="1094" customFormat="1"/>
+    <row r="1095" customFormat="1"/>
+    <row r="1096" customFormat="1"/>
+    <row r="1097" customFormat="1"/>
+    <row r="1098" customFormat="1"/>
+    <row r="1099" customFormat="1"/>
+    <row r="1100" customFormat="1"/>
+    <row r="1101" customFormat="1"/>
+    <row r="1102" customFormat="1"/>
+    <row r="1103" customFormat="1"/>
+    <row r="1104" customFormat="1"/>
+    <row r="1105" customFormat="1"/>
+    <row r="1106" customFormat="1"/>
+    <row r="1107" customFormat="1"/>
+    <row r="1108" customFormat="1"/>
+    <row r="1109" customFormat="1"/>
+    <row r="1110" customFormat="1"/>
+    <row r="1111" customFormat="1"/>
+    <row r="1112" customFormat="1"/>
+    <row r="1113" customFormat="1"/>
+    <row r="1114" customFormat="1"/>
+    <row r="1115" customFormat="1"/>
+    <row r="1116" customFormat="1"/>
+    <row r="1117" customFormat="1"/>
+    <row r="1118" customFormat="1"/>
+    <row r="1119" customFormat="1"/>
+    <row r="1120" customFormat="1"/>
+    <row r="1121" customFormat="1"/>
+    <row r="1122" customFormat="1"/>
+    <row r="1123" customFormat="1"/>
+    <row r="1124" customFormat="1"/>
+    <row r="1125" customFormat="1"/>
+    <row r="1126" customFormat="1"/>
+    <row r="1127" customFormat="1"/>
+    <row r="1128" customFormat="1"/>
+    <row r="1129" customFormat="1"/>
+    <row r="1130" customFormat="1"/>
+    <row r="1131" customFormat="1"/>
+    <row r="1132" customFormat="1"/>
+    <row r="1133" customFormat="1"/>
+    <row r="1134" customFormat="1"/>
+    <row r="1135" customFormat="1"/>
+    <row r="1136" customFormat="1"/>
+    <row r="1137" customFormat="1"/>
+    <row r="1138" customFormat="1"/>
+    <row r="1139" customFormat="1"/>
+    <row r="1140" customFormat="1"/>
+    <row r="1141" customFormat="1"/>
+    <row r="1142" customFormat="1"/>
+    <row r="1143" customFormat="1"/>
+    <row r="1144" customFormat="1"/>
+    <row r="1145" customFormat="1"/>
+    <row r="1146" customFormat="1"/>
+    <row r="1147" customFormat="1"/>
+    <row r="1148" customFormat="1"/>
+    <row r="1149" customFormat="1"/>
+    <row r="1150" customFormat="1"/>
+    <row r="1151" customFormat="1"/>
+    <row r="1152" customFormat="1"/>
+    <row r="1153" customFormat="1"/>
+    <row r="1154" customFormat="1"/>
+    <row r="1155" customFormat="1"/>
+    <row r="1156" customFormat="1"/>
+    <row r="1157" customFormat="1"/>
+    <row r="1158" customFormat="1"/>
+    <row r="1159" customFormat="1"/>
+    <row r="1160" customFormat="1"/>
+    <row r="1161" customFormat="1"/>
+    <row r="1162" customFormat="1"/>
+    <row r="1163" customFormat="1"/>
+    <row r="1164" customFormat="1"/>
+    <row r="1165" customFormat="1"/>
+    <row r="1166" customFormat="1"/>
+    <row r="1167" customFormat="1"/>
+    <row r="1168" customFormat="1"/>
+    <row r="1169" customFormat="1"/>
+    <row r="1170" customFormat="1"/>
+    <row r="1171" customFormat="1"/>
+    <row r="1172" customFormat="1"/>
+    <row r="1173" customFormat="1"/>
+    <row r="1174" customFormat="1"/>
+    <row r="1175" customFormat="1"/>
+    <row r="1176" customFormat="1"/>
+    <row r="1177" customFormat="1"/>
+    <row r="1178" customFormat="1"/>
+    <row r="1179" customFormat="1"/>
+    <row r="1180" customFormat="1"/>
+    <row r="1181" customFormat="1"/>
+    <row r="1182" customFormat="1"/>
+    <row r="1183" customFormat="1"/>
+    <row r="1184" customFormat="1"/>
+    <row r="1185" customFormat="1"/>
+    <row r="1186" customFormat="1"/>
+    <row r="1187" customFormat="1"/>
+    <row r="1188" customFormat="1"/>
+    <row r="1189" customFormat="1"/>
+    <row r="1190" customFormat="1"/>
+    <row r="1191" customFormat="1"/>
+    <row r="1192" customFormat="1"/>
+    <row r="1193" customFormat="1"/>
+    <row r="1194" customFormat="1"/>
+    <row r="1195" customFormat="1"/>
+    <row r="1196" customFormat="1"/>
+    <row r="1197" customFormat="1"/>
+    <row r="1198" customFormat="1"/>
+    <row r="1199" customFormat="1"/>
+    <row r="1200" customFormat="1"/>
+    <row r="1201" customFormat="1"/>
+    <row r="1202" customFormat="1"/>
+    <row r="1203" customFormat="1"/>
+    <row r="1204" customFormat="1"/>
+    <row r="1205" customFormat="1"/>
+    <row r="1206" customFormat="1"/>
+    <row r="1207" customFormat="1"/>
+    <row r="1208" customFormat="1"/>
+    <row r="1209" customFormat="1"/>
+    <row r="1210" customFormat="1"/>
+    <row r="1211" customFormat="1"/>
+    <row r="1212" customFormat="1"/>
+    <row r="1213" customFormat="1"/>
+    <row r="1214" customFormat="1"/>
+    <row r="1215" customFormat="1"/>
+    <row r="1216" customFormat="1"/>
+    <row r="1217" customFormat="1"/>
+    <row r="1218" customFormat="1"/>
+    <row r="1219" customFormat="1"/>
+    <row r="1220" customFormat="1"/>
+    <row r="1221" customFormat="1"/>
+    <row r="1222" customFormat="1"/>
+    <row r="1223" customFormat="1"/>
+    <row r="1224" customFormat="1"/>
+    <row r="1225" customFormat="1"/>
+    <row r="1226" customFormat="1"/>
+    <row r="1227" customFormat="1"/>
+    <row r="1228" customFormat="1"/>
+    <row r="1229" customFormat="1"/>
+    <row r="1230" customFormat="1"/>
+    <row r="1231" customFormat="1"/>
+    <row r="1232" customFormat="1"/>
+    <row r="1233" customFormat="1"/>
+    <row r="1234" customFormat="1"/>
+    <row r="1235" customFormat="1"/>
+    <row r="1236" customFormat="1"/>
+    <row r="1237" customFormat="1"/>
+    <row r="1238" customFormat="1"/>
+    <row r="1239" customFormat="1"/>
+    <row r="1240" customFormat="1"/>
+    <row r="1241" customFormat="1"/>
+    <row r="1242" customFormat="1"/>
+    <row r="1243" customFormat="1"/>
+    <row r="1244" customFormat="1"/>
+    <row r="1245" customFormat="1"/>
+    <row r="1246" customFormat="1"/>
+    <row r="1247" customFormat="1"/>
+    <row r="1248" customFormat="1"/>
+    <row r="1249" customFormat="1"/>
+    <row r="1250" customFormat="1"/>
+    <row r="1251" customFormat="1"/>
+    <row r="1252" customFormat="1"/>
+    <row r="1253" customFormat="1"/>
+    <row r="1254" customFormat="1"/>
+    <row r="1255" customFormat="1"/>
+    <row r="1256" customFormat="1"/>
+    <row r="1257" customFormat="1"/>
+    <row r="1258" customFormat="1"/>
+    <row r="1259" customFormat="1"/>
+    <row r="1260" customFormat="1"/>
+    <row r="1261" customFormat="1"/>
+    <row r="1262" customFormat="1"/>
+    <row r="1263" customFormat="1"/>
+    <row r="1264" customFormat="1"/>
+    <row r="1265" customFormat="1"/>
+    <row r="1266" customFormat="1"/>
+    <row r="1267" customFormat="1"/>
+    <row r="1268" customFormat="1"/>
+    <row r="1269" customFormat="1"/>
+    <row r="1270" customFormat="1"/>
+    <row r="1271" customFormat="1"/>
+    <row r="1272" customFormat="1"/>
+    <row r="1273" customFormat="1"/>
+    <row r="1274" customFormat="1"/>
+    <row r="1275" customFormat="1"/>
+    <row r="1276" customFormat="1"/>
+    <row r="1277" customFormat="1"/>
+    <row r="1278" customFormat="1"/>
+    <row r="1279" customFormat="1"/>
+    <row r="1280" customFormat="1"/>
+    <row r="1281" customFormat="1"/>
+    <row r="1282" customFormat="1"/>
+    <row r="1283" customFormat="1"/>
+    <row r="1284" customFormat="1"/>
+    <row r="1285" customFormat="1"/>
+    <row r="1286" customFormat="1"/>
+    <row r="1287" customFormat="1"/>
+    <row r="1288" customFormat="1"/>
+    <row r="1289" customFormat="1"/>
+    <row r="1290" customFormat="1"/>
+    <row r="1291" customFormat="1"/>
+    <row r="1292" customFormat="1"/>
+    <row r="1293" customFormat="1"/>
+    <row r="1294" customFormat="1"/>
+    <row r="1295" customFormat="1"/>
+    <row r="1296" customFormat="1"/>
+    <row r="1297" customFormat="1"/>
+    <row r="1298" customFormat="1"/>
+    <row r="1299" customFormat="1"/>
+    <row r="1300" customFormat="1"/>
+    <row r="1301" customFormat="1"/>
+    <row r="1302" customFormat="1"/>
+    <row r="1303" customFormat="1"/>
+    <row r="1304" customFormat="1"/>
+    <row r="1305" customFormat="1"/>
+    <row r="1306" customFormat="1"/>
+    <row r="1307" customFormat="1"/>
+    <row r="1308" customFormat="1"/>
+    <row r="1309" customFormat="1"/>
+    <row r="1310" customFormat="1"/>
+    <row r="1311" customFormat="1"/>
+    <row r="1312" customFormat="1"/>
+    <row r="1313" customFormat="1"/>
+    <row r="1314" customFormat="1"/>
+    <row r="1315" customFormat="1"/>
+    <row r="1316" customFormat="1"/>
+    <row r="1317" customFormat="1"/>
+    <row r="1318" customFormat="1"/>
+    <row r="1319" customFormat="1"/>
+    <row r="1320" customFormat="1"/>
+    <row r="1321" customFormat="1"/>
+    <row r="1322" customFormat="1"/>
+    <row r="1323" customFormat="1"/>
+    <row r="1324" customFormat="1"/>
+    <row r="1325" customFormat="1"/>
+    <row r="1326" customFormat="1"/>
+    <row r="1327" customFormat="1"/>
+    <row r="1328" customFormat="1"/>
+    <row r="1329" customFormat="1"/>
+    <row r="1330" customFormat="1"/>
+    <row r="1331" customFormat="1"/>
+    <row r="1332" customFormat="1"/>
+    <row r="1333" customFormat="1"/>
+    <row r="1334" customFormat="1"/>
+    <row r="1335" customFormat="1"/>
+    <row r="1336" customFormat="1"/>
+    <row r="1337" customFormat="1"/>
+    <row r="1338" customFormat="1"/>
+    <row r="1339" customFormat="1"/>
+    <row r="1340" customFormat="1"/>
+    <row r="1341" customFormat="1"/>
+    <row r="1342" customFormat="1"/>
+    <row r="1343" customFormat="1"/>
+    <row r="1344" customFormat="1"/>
+    <row r="1345" customFormat="1"/>
+    <row r="1346" customFormat="1"/>
+    <row r="1347" customFormat="1"/>
+    <row r="1348" customFormat="1"/>
+    <row r="1349" customFormat="1"/>
+    <row r="1350" customFormat="1"/>
+    <row r="1351" customFormat="1"/>
+    <row r="1352" customFormat="1"/>
+    <row r="1353" customFormat="1"/>
+    <row r="1354" customFormat="1"/>
+    <row r="1355" customFormat="1"/>
+    <row r="1356" customFormat="1"/>
+    <row r="1357" customFormat="1"/>
+    <row r="1358" customFormat="1"/>
+    <row r="1359" customFormat="1"/>
+    <row r="1360" customFormat="1"/>
+    <row r="1361" customFormat="1"/>
+    <row r="1362" customFormat="1"/>
+    <row r="1363" customFormat="1"/>
+    <row r="1364" customFormat="1"/>
+    <row r="1365" customFormat="1"/>
+    <row r="1366" customFormat="1"/>
+    <row r="1367" customFormat="1"/>
+    <row r="1368" customFormat="1"/>
+    <row r="1369" customFormat="1"/>
+    <row r="1370" customFormat="1"/>
+    <row r="1371" customFormat="1"/>
+    <row r="1372" customFormat="1"/>
+    <row r="1373" customFormat="1"/>
+    <row r="1374" customFormat="1"/>
+    <row r="1375" customFormat="1"/>
+    <row r="1376" customFormat="1"/>
+    <row r="1377" customFormat="1"/>
+    <row r="1378" customFormat="1"/>
+    <row r="1379" customFormat="1"/>
+    <row r="1380" customFormat="1"/>
+    <row r="1381" customFormat="1"/>
+    <row r="1382" customFormat="1"/>
+    <row r="1383" customFormat="1"/>
+    <row r="1384" customFormat="1"/>
+    <row r="1385" customFormat="1"/>
+    <row r="1386" customFormat="1"/>
+    <row r="1387" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB\Project\invoice-management-frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E948A4-F7DF-4CA5-B4D1-8F6F027474FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="4451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="4453">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13398,12 +13397,18 @@
   </si>
   <si>
     <t>Photo Copiers and Fax Equipment rentals</t>
+  </si>
+  <si>
+    <t>S0204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTACHED GLOBAL COMMUNICATION </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -13778,8 +13783,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -14101,14 +14106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1564"/>
+  <dimension ref="A1:B1565"/>
   <sheetViews>
-    <sheetView topLeftCell="A1255" workbookViewId="0">
-      <selection activeCell="A1268" sqref="A1268"/>
+    <sheetView tabSelected="1" topLeftCell="A1424" workbookViewId="0">
+      <selection activeCell="B1459" sqref="B1459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25743,889 +25748,897 @@
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4195</v>
+        <v>4451</v>
       </c>
       <c r="B1454" t="s">
-        <v>4196</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
       <c r="B1455" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
       <c r="B1456" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="B1457" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
       <c r="B1458" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
       <c r="B1459" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
       <c r="B1460" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="B1461" t="s">
-        <v>4210</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4211</v>
+        <v>4209</v>
       </c>
       <c r="B1462" t="s">
-        <v>4212</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
       <c r="B1463" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4215</v>
+        <v>4213</v>
       </c>
       <c r="B1464" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4217</v>
+        <v>4215</v>
       </c>
       <c r="B1465" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
       <c r="B1466" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
       <c r="B1467" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="B1468" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="B1469" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B1470" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="B1471" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="B1472" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="B1473" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
       <c r="B1474" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
       <c r="B1475" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="B1476" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="B1477" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
       <c r="B1478" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="B1479" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="B1480" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="B1481" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="B1482" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="B1483" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="B1484" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
       <c r="B1485" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="B1486" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
       <c r="B1487" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
       <c r="B1488" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
       <c r="B1489" t="s">
-        <v>4266</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
       <c r="B1490" t="s">
-        <v>4268</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="B1491" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="B1492" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="B1493" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="B1494" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="B1495" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="B1496" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
       <c r="B1497" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4283</v>
+        <v>4281</v>
       </c>
       <c r="B1498" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
       <c r="B1499" t="s">
-        <v>4286</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4287</v>
+        <v>4285</v>
       </c>
       <c r="B1500" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4289</v>
+        <v>4287</v>
       </c>
       <c r="B1501" t="s">
-        <v>4290</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4291</v>
+        <v>4289</v>
       </c>
       <c r="B1502" t="s">
-        <v>4292</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4293</v>
+        <v>4291</v>
       </c>
       <c r="B1503" t="s">
-        <v>4294</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
       <c r="B1504" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="B1505" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
       <c r="B1506" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4446</v>
+        <v>4299</v>
       </c>
       <c r="B1507" t="s">
-        <v>4447</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4431</v>
+        <v>4446</v>
       </c>
       <c r="B1508" t="s">
-        <v>4432</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4301</v>
+        <v>4431</v>
       </c>
       <c r="B1509" t="s">
-        <v>4302</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="B1510" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="B1511" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="B1512" t="s">
-        <v>4308</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="B1513" t="s">
-        <v>4310</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="B1514" t="s">
-        <v>4312</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="B1515" t="s">
-        <v>4314</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="B1516" t="s">
-        <v>4316</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4317</v>
+        <v>4315</v>
       </c>
       <c r="B1517" t="s">
-        <v>4318</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="B1518" t="s">
-        <v>4320</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4321</v>
+        <v>4319</v>
       </c>
       <c r="B1519" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4323</v>
+        <v>4321</v>
       </c>
       <c r="B1520" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="B1521" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="B1522" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="B1523" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
       <c r="B1524" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="B1525" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="B1526" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="B1527" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="B1528" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="B1529" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="B1530" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="B1531" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="B1532" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="B1533" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="B1534" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="B1535" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="B1536" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="B1537" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="B1538" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="B1539" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="B1540" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="B1541" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4427</v>
+        <v>4365</v>
       </c>
       <c r="B1542" t="s">
-        <v>4428</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4367</v>
+        <v>4427</v>
       </c>
       <c r="B1543" t="s">
-        <v>4368</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="B1544" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="B1545" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="B1546" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="B1547" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="B1548" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="B1549" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4438</v>
+        <v>4379</v>
       </c>
       <c r="B1550" t="s">
-        <v>4439</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4381</v>
+        <v>4438</v>
       </c>
       <c r="B1551" t="s">
-        <v>4382</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="B1552" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="B1553" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="B1554" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="B1555" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="B1556" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="B1557" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="B1558" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="B1559" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="B1560" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="B1561" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="B1562" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="B1563" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2">
+      <c r="A1565" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1564" t="s">
+      <c r="B1565" t="s">
         <v>4408</v>
       </c>
     </row>
@@ -26639,7 +26652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -27885,13 +27898,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B1387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
+    <sheetView topLeftCell="A890" workbookViewId="0">
       <selection activeCell="B902" sqref="B902"/>
     </sheetView>
   </sheetViews>
@@ -36542,7 +36555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -37269,7 +37282,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI" xr:uid="{0A4B2DA9-5864-46FD-9BE7-7E76C4E5CAA1}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -37277,7 +37290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -37759,7 +37772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB\Project\invoice-management-frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58089D24-4DDC-47DA-BB87-A4A6F1F6EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="4453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="4455">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13399,16 +13400,22 @@
     <t>Photo Copiers and Fax Equipment rentals</t>
   </si>
   <si>
+    <t>ATTACHED GLOBAL COMMUNICATION</t>
+  </si>
+  <si>
     <t>S0204</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTACHED GLOBAL COMMUNICATION </t>
+    <t>S0053</t>
+  </si>
+  <si>
+    <t>SOCOMAT S.A.R.L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -13783,8 +13790,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -14106,14 +14113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1565"/>
+  <dimension ref="A1:B1566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1424" workbookViewId="0">
-      <selection activeCell="B1459" sqref="B1459"/>
+    <sheetView tabSelected="1" topLeftCell="A1108" workbookViewId="0">
+      <selection activeCell="B1366" sqref="B1366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25028,1617 +25035,1625 @@
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4017</v>
+        <v>4453</v>
       </c>
       <c r="B1364" t="s">
-        <v>4018</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="B1365" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="B1366" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B1367" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B1368" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="B1369" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="B1370" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="B1371" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="B1372" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="B1373" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="B1374" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="B1375" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="B1376" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="B1377" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="B1378" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="B1379" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="B1380" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="B1381" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="B1382" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="B1383" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="B1384" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
       <c r="B1385" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="B1386" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="B1387" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
       <c r="B1388" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="B1389" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="B1390" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="B1391" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="B1392" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="B1393" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="B1394" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="B1395" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="B1396" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="B1397" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B1398" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="B1399" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="B1400" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="B1401" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="B1402" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="B1403" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="B1404" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="B1405" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="B1406" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="B1407" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="B1408" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="B1409" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="B1410" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="B1411" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="B1412" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="B1413" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="B1414" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="B1415" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="B1416" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="B1417" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="B1418" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="B1419" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="B1420" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="B1421" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="B1422" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="B1423" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
       <c r="B1424" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="B1425" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="B1426" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="B1427" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4423</v>
+        <v>4143</v>
       </c>
       <c r="B1428" t="s">
-        <v>4424</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4145</v>
+        <v>4423</v>
       </c>
       <c r="B1429" t="s">
-        <v>4146</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="B1430" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="B1431" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="B1432" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="B1433" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="B1434" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="B1435" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="B1436" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="B1437" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="B1438" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B1439" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
       <c r="B1440" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
       <c r="B1441" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
       <c r="B1442" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="B1443" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="B1444" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="B1445" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4179</v>
+        <v>4452</v>
       </c>
       <c r="B1446" t="s">
-        <v>4180</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4181</v>
+        <v>4177</v>
       </c>
       <c r="B1447" t="s">
-        <v>4182</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="B1448" t="s">
-        <v>4184</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4185</v>
+        <v>4181</v>
       </c>
       <c r="B1449" t="s">
-        <v>4186</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="B1450" t="s">
-        <v>4188</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4189</v>
+        <v>4185</v>
       </c>
       <c r="B1451" t="s">
-        <v>4190</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="B1452" t="s">
-        <v>4192</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4193</v>
+        <v>4189</v>
       </c>
       <c r="B1453" t="s">
-        <v>4194</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4451</v>
+        <v>4191</v>
       </c>
       <c r="B1454" t="s">
-        <v>4452</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
       <c r="B1455" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
       <c r="B1456" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
       <c r="B1457" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="B1458" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
       <c r="B1459" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
       <c r="B1460" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
       <c r="B1461" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="B1462" t="s">
-        <v>4210</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4211</v>
+        <v>4209</v>
       </c>
       <c r="B1463" t="s">
-        <v>4212</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
       <c r="B1464" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4215</v>
+        <v>4213</v>
       </c>
       <c r="B1465" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4217</v>
+        <v>4215</v>
       </c>
       <c r="B1466" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
       <c r="B1467" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
       <c r="B1468" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="B1469" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="B1470" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B1471" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="B1472" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="B1473" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="B1474" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
       <c r="B1475" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
       <c r="B1476" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="B1477" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="B1478" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
       <c r="B1479" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="B1480" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="B1481" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="B1482" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="B1483" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="B1484" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="B1485" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
       <c r="B1486" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="B1487" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
       <c r="B1488" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
       <c r="B1489" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
       <c r="B1490" t="s">
-        <v>4266</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
       <c r="B1491" t="s">
-        <v>4268</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="B1492" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="B1493" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="B1494" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="B1495" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="B1496" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="B1497" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
       <c r="B1498" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4283</v>
+        <v>4281</v>
       </c>
       <c r="B1499" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
       <c r="B1500" t="s">
-        <v>4286</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4287</v>
+        <v>4285</v>
       </c>
       <c r="B1501" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4289</v>
+        <v>4287</v>
       </c>
       <c r="B1502" t="s">
-        <v>4290</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4291</v>
+        <v>4289</v>
       </c>
       <c r="B1503" t="s">
-        <v>4292</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4293</v>
+        <v>4291</v>
       </c>
       <c r="B1504" t="s">
-        <v>4294</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
       <c r="B1505" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="B1506" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
       <c r="B1507" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4446</v>
+        <v>4299</v>
       </c>
       <c r="B1508" t="s">
-        <v>4447</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4431</v>
+        <v>4446</v>
       </c>
       <c r="B1509" t="s">
-        <v>4432</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4301</v>
+        <v>4431</v>
       </c>
       <c r="B1510" t="s">
-        <v>4302</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="B1511" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="B1512" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="B1513" t="s">
-        <v>4308</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="B1514" t="s">
-        <v>4310</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="B1515" t="s">
-        <v>4312</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="B1516" t="s">
-        <v>4314</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="B1517" t="s">
-        <v>4316</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4317</v>
+        <v>4315</v>
       </c>
       <c r="B1518" t="s">
-        <v>4318</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="B1519" t="s">
-        <v>4320</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4321</v>
+        <v>4319</v>
       </c>
       <c r="B1520" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4323</v>
+        <v>4321</v>
       </c>
       <c r="B1521" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="B1522" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="B1523" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="B1524" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
       <c r="B1525" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="B1526" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="B1527" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="B1528" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="B1529" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="B1530" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="B1531" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="B1532" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="B1533" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="B1534" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="B1535" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="B1536" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="B1537" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="B1538" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="B1539" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="B1540" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="B1541" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="B1542" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4427</v>
+        <v>4365</v>
       </c>
       <c r="B1543" t="s">
-        <v>4428</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4367</v>
+        <v>4427</v>
       </c>
       <c r="B1544" t="s">
-        <v>4368</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="B1545" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="B1546" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="B1547" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="B1548" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="B1549" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="B1550" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4438</v>
+        <v>4379</v>
       </c>
       <c r="B1551" t="s">
-        <v>4439</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4381</v>
+        <v>4438</v>
       </c>
       <c r="B1552" t="s">
-        <v>4382</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="B1553" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="B1554" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="B1555" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="B1556" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="B1557" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="B1558" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="B1559" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="B1560" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="B1561" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="B1562" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="B1563" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="B1564" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2">
+      <c r="A1566" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1565" t="s">
+      <c r="B1566" t="s">
         <v>4408</v>
       </c>
     </row>
@@ -26652,7 +26667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -27898,7 +27913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -36555,7 +36570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -37282,7 +37297,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI" xr:uid="{0A4B2DA9-5864-46FD-9BE7-7E76C4E5CAA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -37290,7 +37305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -37772,7 +37787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58089D24-4DDC-47DA-BB87-A4A6F1F6EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E519333-0A8B-48D2-AD26-6830228BB2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="4455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="4461">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13410,6 +13411,24 @@
   </si>
   <si>
     <t>SOCOMAT S.A.R.L</t>
+  </si>
+  <si>
+    <t>Q0025</t>
+  </si>
+  <si>
+    <t>QATAR AIRWAYS GROUP Q.C.S.C/B737-8H6</t>
+  </si>
+  <si>
+    <t>S0183</t>
+  </si>
+  <si>
+    <t>SES INSURANCE</t>
+  </si>
+  <si>
+    <t>S085</t>
+  </si>
+  <si>
+    <t>SMART AVIATION</t>
   </si>
 </sst>
 </file>
@@ -14117,10 +14136,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1566"/>
+  <dimension ref="A1:B1569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1108" workbookViewId="0">
-      <selection activeCell="B1366" sqref="B1366"/>
+    <sheetView tabSelected="1" topLeftCell="A1423" workbookViewId="0">
+      <selection activeCell="B1440" sqref="B1440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24411,2249 +24430,2273 @@
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="1" t="s">
-        <v>3864</v>
+        <v>4455</v>
       </c>
       <c r="B1286" t="s">
-        <v>3865</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="1" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="B1287" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="1" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="B1288" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="1" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="B1289" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="1" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="B1290" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="B1291" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="B1292" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="B1293" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="B1294" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="B1295" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="B1296" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="B1297" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="B1298" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="B1299" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="B1300" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="B1301" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="B1302" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="B1303" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="B1304" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="B1305" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="B1306" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="B1307" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="B1308" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="B1309" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="B1310" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B1311" t="s">
-        <v>3914</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="B1312" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="B1313" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="B1314" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="B1315" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="B1316" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="B1317" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="B1318" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="B1319" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="B1320" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="B1321" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="B1322" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="B1323" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="B1324" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="B1325" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="B1326" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="B1327" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="B1328" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="B1329" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="B1330" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="B1331" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="B1332" t="s">
-        <v>3942</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B1333" t="s">
-        <v>3957</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="B1334" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="B1335" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="B1336" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="B1337" t="s">
-        <v>3848</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="B1338" t="s">
-        <v>3966</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="B1339" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="B1340" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="B1341" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="B1342" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="B1343" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="B1344" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="B1345" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="B1346" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="B1347" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="B1348" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="B1349" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="B1350" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="B1351" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="B1352" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="B1353" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="B1354" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="B1355" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="B1356" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B1357" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B1358" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="B1359" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="B1360" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B1361" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B1362" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="B1363" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4453</v>
+        <v>4015</v>
       </c>
       <c r="B1364" t="s">
-        <v>4454</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4017</v>
+        <v>4453</v>
       </c>
       <c r="B1365" t="s">
-        <v>4018</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="B1366" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="B1367" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B1368" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B1369" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="B1370" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="B1371" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="B1372" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="B1373" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="B1374" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="B1375" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="B1376" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="B1377" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="B1378" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="B1379" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="B1380" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="B1381" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="B1382" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="B1383" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="B1384" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="B1385" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
       <c r="B1386" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="B1387" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="B1388" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
       <c r="B1389" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="B1390" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="B1391" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="B1392" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="B1393" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="B1394" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="B1395" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="B1396" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="B1397" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="B1398" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B1399" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="B1400" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="B1401" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="B1402" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="B1403" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="B1404" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="B1405" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="B1406" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="B1407" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="B1408" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="B1409" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="B1410" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="B1411" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="B1412" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="B1413" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="B1414" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="B1415" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="B1416" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="B1417" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="B1418" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="B1419" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="B1420" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="B1421" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="B1422" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="B1423" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="B1424" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
       <c r="B1425" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="B1426" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="B1427" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="B1428" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4423</v>
+        <v>4143</v>
       </c>
       <c r="B1429" t="s">
-        <v>4424</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4145</v>
+        <v>4423</v>
       </c>
       <c r="B1430" t="s">
-        <v>4146</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="B1431" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="B1432" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="B1433" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="B1434" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="B1435" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="B1436" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="B1437" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="B1438" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4163</v>
+        <v>4457</v>
       </c>
       <c r="B1439" t="s">
-        <v>4164</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4165</v>
+        <v>4459</v>
       </c>
       <c r="B1440" t="s">
-        <v>4166</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4167</v>
+        <v>4161</v>
       </c>
       <c r="B1441" t="s">
-        <v>4168</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4169</v>
+        <v>4163</v>
       </c>
       <c r="B1442" t="s">
-        <v>4170</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4171</v>
+        <v>4165</v>
       </c>
       <c r="B1443" t="s">
-        <v>4172</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4173</v>
+        <v>4167</v>
       </c>
       <c r="B1444" t="s">
-        <v>4174</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4175</v>
+        <v>4169</v>
       </c>
       <c r="B1445" t="s">
-        <v>4176</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4452</v>
+        <v>4171</v>
       </c>
       <c r="B1446" t="s">
-        <v>4451</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4177</v>
+        <v>4173</v>
       </c>
       <c r="B1447" t="s">
-        <v>4178</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4179</v>
+        <v>4175</v>
       </c>
       <c r="B1448" t="s">
-        <v>4180</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4181</v>
+        <v>4452</v>
       </c>
       <c r="B1449" t="s">
-        <v>4182</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4183</v>
+        <v>4177</v>
       </c>
       <c r="B1450" t="s">
-        <v>4184</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4185</v>
+        <v>4179</v>
       </c>
       <c r="B1451" t="s">
-        <v>4186</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4187</v>
+        <v>4181</v>
       </c>
       <c r="B1452" t="s">
-        <v>4188</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4189</v>
+        <v>4183</v>
       </c>
       <c r="B1453" t="s">
-        <v>4190</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4191</v>
+        <v>4185</v>
       </c>
       <c r="B1454" t="s">
-        <v>4192</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4193</v>
+        <v>4187</v>
       </c>
       <c r="B1455" t="s">
-        <v>4194</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4195</v>
+        <v>4189</v>
       </c>
       <c r="B1456" t="s">
-        <v>4196</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4197</v>
+        <v>4191</v>
       </c>
       <c r="B1457" t="s">
-        <v>4198</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4199</v>
+        <v>4193</v>
       </c>
       <c r="B1458" t="s">
-        <v>4200</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4201</v>
+        <v>4195</v>
       </c>
       <c r="B1459" t="s">
-        <v>4202</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4203</v>
+        <v>4197</v>
       </c>
       <c r="B1460" t="s">
-        <v>4204</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4205</v>
+        <v>4199</v>
       </c>
       <c r="B1461" t="s">
-        <v>4206</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4207</v>
+        <v>4201</v>
       </c>
       <c r="B1462" t="s">
-        <v>4208</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4209</v>
+        <v>4203</v>
       </c>
       <c r="B1463" t="s">
-        <v>4210</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4211</v>
+        <v>4205</v>
       </c>
       <c r="B1464" t="s">
-        <v>4212</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4213</v>
+        <v>4207</v>
       </c>
       <c r="B1465" t="s">
-        <v>4214</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4215</v>
+        <v>4209</v>
       </c>
       <c r="B1466" t="s">
-        <v>4216</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4217</v>
+        <v>4211</v>
       </c>
       <c r="B1467" t="s">
-        <v>4218</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4219</v>
+        <v>4213</v>
       </c>
       <c r="B1468" t="s">
-        <v>4220</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4221</v>
+        <v>4215</v>
       </c>
       <c r="B1469" t="s">
-        <v>4222</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4223</v>
+        <v>4217</v>
       </c>
       <c r="B1470" t="s">
-        <v>4224</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4225</v>
+        <v>4219</v>
       </c>
       <c r="B1471" t="s">
-        <v>4226</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4227</v>
+        <v>4221</v>
       </c>
       <c r="B1472" t="s">
-        <v>4228</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4229</v>
+        <v>4223</v>
       </c>
       <c r="B1473" t="s">
-        <v>4230</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4231</v>
+        <v>4225</v>
       </c>
       <c r="B1474" t="s">
-        <v>4232</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4233</v>
+        <v>4227</v>
       </c>
       <c r="B1475" t="s">
-        <v>4234</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4235</v>
+        <v>4229</v>
       </c>
       <c r="B1476" t="s">
-        <v>4236</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="B1477" t="s">
-        <v>4238</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4239</v>
+        <v>4233</v>
       </c>
       <c r="B1478" t="s">
-        <v>4240</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4241</v>
+        <v>4235</v>
       </c>
       <c r="B1479" t="s">
-        <v>4242</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4243</v>
+        <v>4237</v>
       </c>
       <c r="B1480" t="s">
-        <v>4244</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4245</v>
+        <v>4239</v>
       </c>
       <c r="B1481" t="s">
-        <v>4246</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4247</v>
+        <v>4241</v>
       </c>
       <c r="B1482" t="s">
-        <v>4248</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4249</v>
+        <v>4243</v>
       </c>
       <c r="B1483" t="s">
-        <v>4250</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4251</v>
+        <v>4245</v>
       </c>
       <c r="B1484" t="s">
-        <v>4252</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4253</v>
+        <v>4247</v>
       </c>
       <c r="B1485" t="s">
-        <v>4254</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4255</v>
+        <v>4249</v>
       </c>
       <c r="B1486" t="s">
-        <v>4256</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4257</v>
+        <v>4251</v>
       </c>
       <c r="B1487" t="s">
-        <v>4258</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4259</v>
+        <v>4253</v>
       </c>
       <c r="B1488" t="s">
-        <v>4260</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4261</v>
+        <v>4255</v>
       </c>
       <c r="B1489" t="s">
-        <v>4262</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4263</v>
+        <v>4257</v>
       </c>
       <c r="B1490" t="s">
-        <v>4264</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4265</v>
+        <v>4259</v>
       </c>
       <c r="B1491" t="s">
-        <v>4266</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4267</v>
+        <v>4261</v>
       </c>
       <c r="B1492" t="s">
-        <v>4268</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4269</v>
+        <v>4263</v>
       </c>
       <c r="B1493" t="s">
-        <v>4270</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4271</v>
+        <v>4265</v>
       </c>
       <c r="B1494" t="s">
-        <v>4272</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4273</v>
+        <v>4267</v>
       </c>
       <c r="B1495" t="s">
-        <v>4274</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4275</v>
+        <v>4269</v>
       </c>
       <c r="B1496" t="s">
-        <v>4276</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4277</v>
+        <v>4271</v>
       </c>
       <c r="B1497" t="s">
-        <v>4278</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4279</v>
+        <v>4273</v>
       </c>
       <c r="B1498" t="s">
-        <v>4280</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4281</v>
+        <v>4275</v>
       </c>
       <c r="B1499" t="s">
-        <v>4282</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4283</v>
+        <v>4277</v>
       </c>
       <c r="B1500" t="s">
-        <v>4284</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4285</v>
+        <v>4279</v>
       </c>
       <c r="B1501" t="s">
-        <v>4286</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4287</v>
+        <v>4281</v>
       </c>
       <c r="B1502" t="s">
-        <v>4288</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4289</v>
+        <v>4283</v>
       </c>
       <c r="B1503" t="s">
-        <v>4290</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4291</v>
+        <v>4285</v>
       </c>
       <c r="B1504" t="s">
-        <v>4292</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4293</v>
+        <v>4287</v>
       </c>
       <c r="B1505" t="s">
-        <v>4294</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4295</v>
+        <v>4289</v>
       </c>
       <c r="B1506" t="s">
-        <v>4296</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4297</v>
+        <v>4291</v>
       </c>
       <c r="B1507" t="s">
-        <v>4298</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4299</v>
+        <v>4293</v>
       </c>
       <c r="B1508" t="s">
-        <v>4300</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4446</v>
+        <v>4295</v>
       </c>
       <c r="B1509" t="s">
-        <v>4447</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4431</v>
+        <v>4297</v>
       </c>
       <c r="B1510" t="s">
-        <v>4432</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4301</v>
+        <v>4299</v>
       </c>
       <c r="B1511" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4303</v>
+        <v>4446</v>
       </c>
       <c r="B1512" t="s">
-        <v>4304</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4305</v>
+        <v>4431</v>
       </c>
       <c r="B1513" t="s">
-        <v>4306</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4307</v>
+        <v>4301</v>
       </c>
       <c r="B1514" t="s">
-        <v>4308</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4309</v>
+        <v>4303</v>
       </c>
       <c r="B1515" t="s">
-        <v>4310</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4311</v>
+        <v>4305</v>
       </c>
       <c r="B1516" t="s">
-        <v>4312</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4313</v>
+        <v>4307</v>
       </c>
       <c r="B1517" t="s">
-        <v>4314</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4315</v>
+        <v>4309</v>
       </c>
       <c r="B1518" t="s">
-        <v>4316</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4317</v>
+        <v>4311</v>
       </c>
       <c r="B1519" t="s">
-        <v>4318</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4319</v>
+        <v>4313</v>
       </c>
       <c r="B1520" t="s">
-        <v>4320</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4321</v>
+        <v>4315</v>
       </c>
       <c r="B1521" t="s">
-        <v>4322</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4323</v>
+        <v>4317</v>
       </c>
       <c r="B1522" t="s">
-        <v>4324</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4325</v>
+        <v>4319</v>
       </c>
       <c r="B1523" t="s">
-        <v>4326</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4327</v>
+        <v>4321</v>
       </c>
       <c r="B1524" t="s">
-        <v>4328</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4329</v>
+        <v>4323</v>
       </c>
       <c r="B1525" t="s">
-        <v>4330</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4331</v>
+        <v>4325</v>
       </c>
       <c r="B1526" t="s">
-        <v>4332</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4333</v>
+        <v>4327</v>
       </c>
       <c r="B1527" t="s">
-        <v>4334</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4335</v>
+        <v>4329</v>
       </c>
       <c r="B1528" t="s">
-        <v>4336</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4337</v>
+        <v>4331</v>
       </c>
       <c r="B1529" t="s">
-        <v>4338</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4339</v>
+        <v>4333</v>
       </c>
       <c r="B1530" t="s">
-        <v>4340</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4341</v>
+        <v>4335</v>
       </c>
       <c r="B1531" t="s">
-        <v>4342</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4343</v>
+        <v>4337</v>
       </c>
       <c r="B1532" t="s">
-        <v>4344</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4345</v>
+        <v>4339</v>
       </c>
       <c r="B1533" t="s">
-        <v>4346</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4347</v>
+        <v>4341</v>
       </c>
       <c r="B1534" t="s">
-        <v>4348</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4349</v>
+        <v>4343</v>
       </c>
       <c r="B1535" t="s">
-        <v>4350</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4351</v>
+        <v>4345</v>
       </c>
       <c r="B1536" t="s">
-        <v>4352</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4353</v>
+        <v>4347</v>
       </c>
       <c r="B1537" t="s">
-        <v>4354</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4355</v>
+        <v>4349</v>
       </c>
       <c r="B1538" t="s">
-        <v>4356</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4357</v>
+        <v>4351</v>
       </c>
       <c r="B1539" t="s">
-        <v>4358</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4359</v>
+        <v>4353</v>
       </c>
       <c r="B1540" t="s">
-        <v>4360</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4361</v>
+        <v>4355</v>
       </c>
       <c r="B1541" t="s">
-        <v>4362</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4363</v>
+        <v>4357</v>
       </c>
       <c r="B1542" t="s">
-        <v>4364</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4365</v>
+        <v>4359</v>
       </c>
       <c r="B1543" t="s">
-        <v>4366</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4427</v>
+        <v>4361</v>
       </c>
       <c r="B1544" t="s">
-        <v>4428</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4367</v>
+        <v>4363</v>
       </c>
       <c r="B1545" t="s">
-        <v>4368</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4369</v>
+        <v>4365</v>
       </c>
       <c r="B1546" t="s">
-        <v>4370</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4371</v>
+        <v>4427</v>
       </c>
       <c r="B1547" t="s">
-        <v>4372</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4373</v>
+        <v>4367</v>
       </c>
       <c r="B1548" t="s">
-        <v>4374</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4375</v>
+        <v>4369</v>
       </c>
       <c r="B1549" t="s">
-        <v>4376</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4377</v>
+        <v>4371</v>
       </c>
       <c r="B1550" t="s">
-        <v>4378</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4379</v>
+        <v>4373</v>
       </c>
       <c r="B1551" t="s">
-        <v>4380</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4438</v>
+        <v>4375</v>
       </c>
       <c r="B1552" t="s">
-        <v>4439</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4381</v>
+        <v>4377</v>
       </c>
       <c r="B1553" t="s">
-        <v>4382</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4383</v>
+        <v>4379</v>
       </c>
       <c r="B1554" t="s">
-        <v>4384</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4385</v>
+        <v>4438</v>
       </c>
       <c r="B1555" t="s">
-        <v>4386</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4387</v>
+        <v>4381</v>
       </c>
       <c r="B1556" t="s">
-        <v>4388</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4389</v>
+        <v>4383</v>
       </c>
       <c r="B1557" t="s">
-        <v>4390</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4391</v>
+        <v>4385</v>
       </c>
       <c r="B1558" t="s">
-        <v>4392</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4393</v>
+        <v>4387</v>
       </c>
       <c r="B1559" t="s">
-        <v>4394</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>4395</v>
+        <v>4389</v>
       </c>
       <c r="B1560" t="s">
-        <v>4396</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="B1561" t="s">
-        <v>4398</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>4399</v>
+        <v>4393</v>
       </c>
       <c r="B1562" t="s">
-        <v>4400</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>4401</v>
+        <v>4395</v>
       </c>
       <c r="B1563" t="s">
-        <v>4402</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
-        <v>4403</v>
+        <v>4397</v>
       </c>
       <c r="B1564" t="s">
-        <v>4404</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" s="1" t="s">
-        <v>4405</v>
+        <v>4399</v>
       </c>
       <c r="B1565" t="s">
-        <v>4406</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2">
+      <c r="A1567" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2">
+      <c r="A1568" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2">
+      <c r="A1569" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1566" t="s">
+      <c r="B1569" t="s">
         <v>4408</v>
       </c>
     </row>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="4481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="4484">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13487,6 +13487,15 @@
   </si>
   <si>
     <t>KING GEORGE IV COURT TRUST</t>
+  </si>
+  <si>
+    <t>W0021</t>
+  </si>
+  <si>
+    <t>WORLDPAY</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -13641,7 +13650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -13740,13 +13749,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13864,6 +13884,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14194,10 +14219,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1579"/>
+  <dimension ref="A1:B1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1575" workbookViewId="0">
-      <selection activeCell="B1581" sqref="B1581"/>
+    <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
+      <selection activeCell="B1582" sqref="B1582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26836,6 +26861,14 @@
       </c>
       <c r="B1579" t="s">
         <v>4480</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2">
+      <c r="A1580" s="73" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B1580" s="74" t="s">
+        <v>4482</v>
       </c>
     </row>
   </sheetData>
@@ -26854,7 +26887,7 @@
   </sheetPr>
   <dimension ref="A2:B160"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -27918,7 +27951,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="409.6">
+    <row r="132" spans="1:2">
       <c r="A132" s="24">
         <v>1361</v>
       </c>
@@ -27926,11 +27959,11 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="409.6">
+    <row r="133" spans="1:2">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
     </row>
-    <row r="134" spans="1:2" ht="409.6">
+    <row r="134" spans="1:2" ht="15">
       <c r="A134" s="23">
         <v>1400</v>
       </c>
@@ -27938,7 +27971,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="409.6">
+    <row r="135" spans="1:2">
       <c r="A135" s="24">
         <f>+A134+1</f>
         <v>1401</v>
@@ -27947,7 +27980,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="409.6">
+    <row r="136" spans="1:2" ht="15">
       <c r="A136" s="39">
         <v>1410</v>
       </c>
@@ -27955,7 +27988,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="409.6">
+    <row r="137" spans="1:2">
       <c r="A137" s="24">
         <f>+A136+1</f>
         <v>1411</v>
@@ -27964,7 +27997,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="409.6">
+    <row r="138" spans="1:2">
       <c r="A138" s="24">
         <f>+A137+1</f>
         <v>1412</v>
@@ -27973,7 +28006,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="409.6">
+    <row r="139" spans="1:2">
       <c r="A139" s="24">
         <f>+A138+1</f>
         <v>1413</v>
@@ -27982,7 +28015,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="409.6">
+    <row r="140" spans="1:2" ht="15">
       <c r="A140" s="39">
         <v>1420</v>
       </c>
@@ -27990,7 +28023,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="409.6">
+    <row r="141" spans="1:2">
       <c r="A141" s="24">
         <f>+A140+1</f>
         <v>1421</v>
@@ -27999,7 +28032,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="409.6">
+    <row r="142" spans="1:2">
       <c r="A142" s="24">
         <v>1422</v>
       </c>
@@ -28007,7 +28040,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="409.6">
+    <row r="143" spans="1:2">
       <c r="A143" s="24">
         <v>1423</v>
       </c>
@@ -28015,7 +28048,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="409.6">
+    <row r="144" spans="1:2">
       <c r="A144" s="24">
         <v>1424</v>
       </c>
@@ -28023,67 +28056,67 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="409.6">
+    <row r="145" spans="1:2">
       <c r="A145" s="44"/>
       <c r="B145" s="45"/>
     </row>
-    <row r="146" spans="1:2" ht="409.6">
+    <row r="146" spans="1:2">
       <c r="A146" s="46"/>
       <c r="B146" s="47"/>
     </row>
-    <row r="147" spans="1:2" ht="409.6">
+    <row r="147" spans="1:2">
       <c r="A147" s="46"/>
       <c r="B147" s="47"/>
     </row>
-    <row r="148" spans="1:2" ht="409.6">
+    <row r="148" spans="1:2">
       <c r="A148" s="46"/>
       <c r="B148" s="47"/>
     </row>
-    <row r="149" spans="1:2" ht="409.6">
+    <row r="149" spans="1:2">
       <c r="A149" s="43"/>
       <c r="B149" s="43"/>
     </row>
-    <row r="150" spans="1:2" ht="409.6">
+    <row r="150" spans="1:2">
       <c r="A150" s="43"/>
       <c r="B150" s="43"/>
     </row>
-    <row r="151" spans="1:2" ht="409.6">
+    <row r="151" spans="1:2">
       <c r="A151" s="43"/>
       <c r="B151" s="43"/>
     </row>
-    <row r="152" spans="1:2" ht="409.6">
+    <row r="152" spans="1:2">
       <c r="A152" s="43"/>
       <c r="B152" s="43"/>
     </row>
-    <row r="153" spans="1:2" ht="409.6">
+    <row r="153" spans="1:2">
       <c r="A153" s="43"/>
       <c r="B153" s="43"/>
     </row>
-    <row r="154" spans="1:2" ht="409.6">
+    <row r="154" spans="1:2">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
     </row>
-    <row r="155" spans="1:2" ht="409.6">
+    <row r="155" spans="1:2">
       <c r="A155" s="43"/>
       <c r="B155" s="43"/>
     </row>
-    <row r="156" spans="1:2" ht="409.6">
+    <row r="156" spans="1:2">
       <c r="A156" s="43"/>
       <c r="B156" s="43"/>
     </row>
-    <row r="157" spans="1:2" ht="409.6">
+    <row r="157" spans="1:2">
       <c r="A157" s="43"/>
       <c r="B157" s="43"/>
     </row>
-    <row r="158" spans="1:2" ht="409.6">
+    <row r="158" spans="1:2">
       <c r="A158" s="43"/>
       <c r="B158" s="43"/>
     </row>
-    <row r="159" spans="1:2" ht="409.6">
+    <row r="159" spans="1:2">
       <c r="A159" s="43"/>
       <c r="B159" s="43"/>
     </row>
-    <row r="160" spans="1:2" ht="409.6">
+    <row r="160" spans="1:2">
       <c r="A160" s="43"/>
       <c r="B160" s="43"/>
     </row>
@@ -28100,7 +28133,7 @@
   </sheetPr>
   <dimension ref="A1:B1387"/>
   <sheetViews>
-    <sheetView topLeftCell="A890" workbookViewId="0">
+    <sheetView topLeftCell="A1023" workbookViewId="0">
       <selection activeCell="B902" sqref="B902"/>
     </sheetView>
   </sheetViews>
@@ -36755,10 +36788,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:B90"/>
+  <dimension ref="A2:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A70" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -37332,7 +37365,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="409.6">
+    <row r="73" spans="1:2">
       <c r="A73" s="58">
         <v>3012</v>
       </c>
@@ -37340,7 +37373,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="409.6">
+    <row r="74" spans="1:2">
       <c r="A74" s="64">
         <v>3020</v>
       </c>
@@ -37348,7 +37381,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="409.6">
+    <row r="75" spans="1:2">
       <c r="A75" s="58">
         <v>3011</v>
       </c>
@@ -37356,7 +37389,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="409.6">
+    <row r="76" spans="1:2">
       <c r="A76" s="64">
         <v>3030</v>
       </c>
@@ -37364,7 +37397,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="409.6">
+    <row r="77" spans="1:2">
       <c r="A77" s="58">
         <v>3031</v>
       </c>
@@ -37372,7 +37405,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="409.6">
+    <row r="78" spans="1:2">
       <c r="A78" s="58">
         <v>1111</v>
       </c>
@@ -37380,7 +37413,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="409.6">
+    <row r="79" spans="1:2">
       <c r="A79" s="58">
         <v>1112</v>
       </c>
@@ -37388,7 +37421,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="409.6">
+    <row r="80" spans="1:2">
       <c r="A80" s="58">
         <v>2026</v>
       </c>
@@ -37396,7 +37429,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="409.6">
+    <row r="81" spans="1:2">
       <c r="A81" s="58">
         <v>2525</v>
       </c>
@@ -37404,7 +37437,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="409.6">
+    <row r="82" spans="1:2">
       <c r="A82" s="58">
         <v>1121</v>
       </c>
@@ -37412,7 +37445,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="409.6">
+    <row r="83" spans="1:2">
       <c r="A83" s="58">
         <v>1142</v>
       </c>
@@ -37420,7 +37453,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="409.6">
+    <row r="84" spans="1:2">
       <c r="A84" s="60">
         <v>1141</v>
       </c>
@@ -37428,7 +37461,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="409.6">
+    <row r="85" spans="1:2">
       <c r="A85" s="60">
         <v>1062</v>
       </c>
@@ -37436,7 +37469,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="409.6">
+    <row r="86" spans="1:2">
       <c r="A86" s="60">
         <v>1061</v>
       </c>
@@ -37444,7 +37477,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="409.6">
+    <row r="87" spans="1:2">
       <c r="A87" s="60">
         <v>2024</v>
       </c>
@@ -37452,7 +37485,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="409.6">
+    <row r="88" spans="1:2">
       <c r="A88" s="60">
         <v>2023</v>
       </c>
@@ -37460,7 +37493,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="409.6">
+    <row r="89" spans="1:2">
       <c r="A89" s="60">
         <v>1324</v>
       </c>
@@ -37468,12 +37501,17 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="409.6">
+    <row r="90" spans="1:2">
       <c r="A90" s="60">
         <v>1323</v>
       </c>
       <c r="B90" s="61" t="s">
         <v>4420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="75" t="s">
+        <v>4483</v>
       </c>
     </row>
   </sheetData>
@@ -37492,7 +37530,7 @@
   </sheetPr>
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -38236,7 +38274,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="409.6">
+    <row r="36" spans="2:3">
       <c r="B36" s="29">
         <v>2650</v>
       </c>
@@ -38244,7 +38282,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="409.6">
+    <row r="37" spans="2:3">
       <c r="B37" s="29">
         <v>3550</v>
       </c>
@@ -38252,7 +38290,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="409.6">
+    <row r="38" spans="2:3">
       <c r="B38" s="29">
         <v>3550</v>
       </c>
@@ -38260,7 +38298,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="409.6">
+    <row r="39" spans="2:3">
       <c r="B39" s="29">
         <v>2650</v>
       </c>
@@ -38268,13 +38306,13 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="409.6">
+    <row r="40" spans="2:3">
       <c r="B40" s="34"/>
       <c r="C40" s="17" t="s">
         <v>3255</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="409.6">
+    <row r="41" spans="2:3">
       <c r="B41" s="29">
         <v>2000</v>
       </c>
@@ -38282,7 +38320,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="409.6">
+    <row r="42" spans="2:3">
       <c r="B42" s="29">
         <v>2000</v>
       </c>
@@ -38290,13 +38328,13 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="409.6">
+    <row r="43" spans="2:3">
       <c r="B43" s="34"/>
       <c r="C43" s="17" t="s">
         <v>3257</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="409.6">
+    <row r="44" spans="2:3">
       <c r="B44" s="29">
         <v>1850</v>
       </c>
@@ -38304,7 +38342,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="409.6">
+    <row r="45" spans="2:3">
       <c r="B45" s="29">
         <v>2400</v>
       </c>
@@ -38312,7 +38350,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="409.6">
+    <row r="46" spans="2:3">
       <c r="B46" s="29">
         <v>2400</v>
       </c>
@@ -38320,7 +38358,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="409.6">
+    <row r="47" spans="2:3">
       <c r="B47" s="29">
         <v>1850</v>
       </c>
@@ -38328,13 +38366,13 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="409.6">
+    <row r="48" spans="2:3">
       <c r="B48" s="34"/>
       <c r="C48" s="17" t="s">
         <v>3261</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="409.6">
+    <row r="49" spans="2:3">
       <c r="B49" s="29">
         <v>4600</v>
       </c>
@@ -38342,7 +38380,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="409.6">
+    <row r="50" spans="2:3">
       <c r="B50" s="29">
         <v>4650</v>
       </c>
@@ -38350,7 +38388,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="409.6">
+    <row r="51" spans="2:3">
       <c r="B51" s="29">
         <v>4650</v>
       </c>
@@ -38358,7 +38396,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="409.6">
+    <row r="52" spans="2:3">
       <c r="B52" s="29">
         <v>4600</v>
       </c>
@@ -38366,13 +38404,13 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="409.6">
+    <row r="53" spans="2:3">
       <c r="B53" s="34"/>
       <c r="C53" s="17" t="s">
         <v>3266</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="409.6">
+    <row r="54" spans="2:3">
       <c r="B54" s="29">
         <v>2350</v>
       </c>
@@ -38380,7 +38418,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="409.6">
+    <row r="55" spans="2:3">
       <c r="B55" s="29">
         <v>2350</v>
       </c>
@@ -38388,13 +38426,13 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="409.6">
+    <row r="56" spans="2:3">
       <c r="B56" s="34"/>
       <c r="C56" s="17" t="s">
         <v>3268</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="409.6">
+    <row r="57" spans="2:3">
       <c r="B57" s="29">
         <v>1000</v>
       </c>
@@ -38402,7 +38440,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="409.6">
+    <row r="58" spans="2:3">
       <c r="B58" s="29">
         <v>1000</v>
       </c>
@@ -38410,7 +38448,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="409.6">
+    <row r="59" spans="2:3">
       <c r="B59" s="29">
         <v>1000</v>
       </c>
@@ -38418,7 +38456,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="409.6">
+    <row r="60" spans="2:3">
       <c r="B60" s="29">
         <v>1000</v>
       </c>
@@ -38426,13 +38464,13 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="409.6">
+    <row r="61" spans="2:3">
       <c r="B61" s="34"/>
       <c r="C61" s="17" t="s">
         <v>3277</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="409.6">
+    <row r="62" spans="2:3">
       <c r="B62" s="29">
         <v>5000</v>
       </c>
@@ -38440,7 +38478,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="409.6">
+    <row r="63" spans="2:3">
       <c r="B63" s="29">
         <v>5000</v>
       </c>
@@ -38448,13 +38486,13 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="409.6">
+    <row r="64" spans="2:3">
       <c r="B64" s="34"/>
       <c r="C64" s="17" t="s">
         <v>3278</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="409.6">
+    <row r="65" spans="2:3">
       <c r="B65" s="29">
         <v>3700</v>
       </c>
@@ -38462,7 +38500,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="409.6">
+    <row r="66" spans="2:3">
       <c r="B66" s="29">
         <v>6000</v>
       </c>
@@ -38470,7 +38508,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="409.6">
+    <row r="67" spans="2:3">
       <c r="B67" s="29">
         <v>6000</v>
       </c>
@@ -38478,7 +38516,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="409.6">
+    <row r="68" spans="2:3">
       <c r="B68" s="29">
         <v>3700</v>
       </c>
@@ -38486,13 +38524,13 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="409.6">
+    <row r="69" spans="2:3">
       <c r="B69" s="34"/>
       <c r="C69" s="17" t="s">
         <v>3279</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="409.6">
+    <row r="70" spans="2:3">
       <c r="B70" s="29">
         <v>3650</v>
       </c>
@@ -38500,7 +38538,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="409.6">
+    <row r="71" spans="2:3">
       <c r="B71" s="29">
         <v>3650</v>
       </c>
@@ -38508,10 +38546,10 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="409.6">
+    <row r="72" spans="2:3">
       <c r="B72" s="31"/>
     </row>
-    <row r="73" spans="2:3" ht="409.6">
+    <row r="73" spans="2:3">
       <c r="B73" s="31"/>
     </row>
   </sheetData>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacques.dusabe\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\FCFJK1EF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB\Project\invoice-management-frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -13501,7 +13501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -13766,7 +13766,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13884,10 +13884,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -14222,13 +14218,13 @@
   <dimension ref="A1:B1580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
-      <selection activeCell="B1582" sqref="B1582"/>
+      <selection activeCell="B1583" sqref="B1583"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -26864,10 +26860,10 @@
       </c>
     </row>
     <row r="1580" spans="1:2">
-      <c r="A1580" s="73" t="s">
+      <c r="A1580" s="1" t="s">
         <v>4481</v>
       </c>
-      <c r="B1580" s="74" t="s">
+      <c r="B1580" t="s">
         <v>4482</v>
       </c>
     </row>
@@ -26891,13 +26887,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="42"/>
-    <col min="4" max="4" width="8.7109375" style="42" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="42"/>
+    <col min="1" max="1" width="12.1796875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="42"/>
+    <col min="4" max="4" width="8.7265625" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18">
@@ -26908,7 +26904,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="55" customFormat="1" ht="15">
+    <row r="3" spans="1:2" s="55" customFormat="1">
       <c r="A3" s="49">
         <v>1000</v>
       </c>
@@ -26924,7 +26920,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2">
       <c r="A5" s="39">
         <v>1010</v>
       </c>
@@ -26956,7 +26952,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2">
       <c r="A9" s="39">
         <v>1020</v>
       </c>
@@ -26988,7 +26984,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2">
       <c r="A13" s="39">
         <v>1030</v>
       </c>
@@ -26996,7 +26992,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="55" customFormat="1" ht="15">
+    <row r="14" spans="1:2" s="55" customFormat="1">
       <c r="A14" s="41">
         <v>1031</v>
       </c>
@@ -27012,7 +27008,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2">
       <c r="A16" s="39">
         <v>1040</v>
       </c>
@@ -27028,7 +27024,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2">
       <c r="A18" s="39">
         <v>1050</v>
       </c>
@@ -27044,7 +27040,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2">
       <c r="A20" s="39">
         <v>1060</v>
       </c>
@@ -27060,7 +27056,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2">
       <c r="A22" s="39">
         <v>1070</v>
       </c>
@@ -27104,7 +27100,7 @@
       <c r="A27" s="50"/>
       <c r="B27" s="51"/>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2">
       <c r="A28" s="23">
         <v>1100</v>
       </c>
@@ -27120,7 +27116,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2">
       <c r="A30" s="39">
         <v>1110</v>
       </c>
@@ -27136,7 +27132,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="55" customFormat="1" ht="15">
+    <row r="32" spans="1:2" s="55" customFormat="1">
       <c r="A32" s="39">
         <v>1120</v>
       </c>
@@ -27184,7 +27180,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="55" customFormat="1" ht="15">
+    <row r="38" spans="1:2" s="55" customFormat="1">
       <c r="A38" s="39">
         <v>1130</v>
       </c>
@@ -27200,7 +27196,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="55" customFormat="1" ht="15">
+    <row r="40" spans="1:2" s="55" customFormat="1">
       <c r="A40" s="24">
         <v>1132</v>
       </c>
@@ -27216,7 +27212,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2">
       <c r="A42" s="39">
         <v>1140</v>
       </c>
@@ -27272,7 +27268,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:2">
       <c r="A49" s="39">
         <v>1150</v>
       </c>
@@ -27312,7 +27308,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:2">
       <c r="A54" s="39">
         <v>1160</v>
       </c>
@@ -27328,7 +27324,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15">
+    <row r="56" spans="1:2">
       <c r="A56" s="39">
         <v>1180</v>
       </c>
@@ -27431,7 +27427,7 @@
       <c r="A68" s="50"/>
       <c r="B68" s="51"/>
     </row>
-    <row r="69" spans="1:2" ht="15">
+    <row r="69" spans="1:2">
       <c r="A69" s="23">
         <v>1200</v>
       </c>
@@ -27447,7 +27443,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15">
+    <row r="71" spans="1:2">
       <c r="A71" s="39">
         <v>1210</v>
       </c>
@@ -27507,7 +27503,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15">
+    <row r="78" spans="1:2">
       <c r="A78" s="39">
         <v>1220</v>
       </c>
@@ -27539,7 +27535,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15">
+    <row r="82" spans="1:2">
       <c r="A82" s="39">
         <v>1230</v>
       </c>
@@ -27563,7 +27559,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15">
+    <row r="85" spans="1:2">
       <c r="A85" s="39">
         <v>1240</v>
       </c>
@@ -27624,7 +27620,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15">
+    <row r="92" spans="1:2">
       <c r="A92" s="39">
         <v>1250</v>
       </c>
@@ -27656,7 +27652,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15">
+    <row r="96" spans="1:2">
       <c r="A96" s="39">
         <v>1280</v>
       </c>
@@ -27735,7 +27731,7 @@
       <c r="A105" s="50"/>
       <c r="B105" s="51"/>
     </row>
-    <row r="106" spans="1:2" ht="15">
+    <row r="106" spans="1:2">
       <c r="A106" s="23">
         <v>1300</v>
       </c>
@@ -27751,7 +27747,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15">
+    <row r="108" spans="1:2">
       <c r="A108" s="39">
         <v>1310</v>
       </c>
@@ -27776,7 +27772,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15">
+    <row r="111" spans="1:2">
       <c r="A111" s="39">
         <v>1320</v>
       </c>
@@ -27820,7 +27816,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15">
+    <row r="116" spans="1:2">
       <c r="A116" s="39">
         <v>1330</v>
       </c>
@@ -27876,7 +27872,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15">
+    <row r="123" spans="1:2">
       <c r="A123" s="39">
         <v>1340</v>
       </c>
@@ -27919,7 +27915,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15">
+    <row r="128" spans="1:2">
       <c r="A128" s="39">
         <v>1350</v>
       </c>
@@ -27943,7 +27939,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15">
+    <row r="131" spans="1:2">
       <c r="A131" s="39">
         <v>1360</v>
       </c>
@@ -27963,7 +27959,7 @@
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
     </row>
-    <row r="134" spans="1:2" ht="15">
+    <row r="134" spans="1:2">
       <c r="A134" s="23">
         <v>1400</v>
       </c>
@@ -27980,7 +27976,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15">
+    <row r="136" spans="1:2">
       <c r="A136" s="39">
         <v>1410</v>
       </c>
@@ -28015,7 +28011,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15">
+    <row r="140" spans="1:2">
       <c r="A140" s="39">
         <v>1420</v>
       </c>
@@ -28137,10 +28133,10 @@
       <selection activeCell="B902" sqref="B902"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.81640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -36794,11 +36790,11 @@
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -37510,7 +37506,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="73" t="s">
         <v>4483</v>
       </c>
     </row>
@@ -37534,269 +37530,269 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="8"/>
-    <col min="2" max="2" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" style="8"/>
-    <col min="7" max="7" width="9.85546875" style="8" customWidth="1"/>
-    <col min="8" max="251" width="8.7109375" style="8"/>
-    <col min="252" max="252" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="40.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="7.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="8"/>
+    <col min="7" max="7" width="9.81640625" style="8" customWidth="1"/>
+    <col min="8" max="251" width="8.7265625" style="8"/>
+    <col min="252" max="252" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="40.1796875" style="8" customWidth="1"/>
     <col min="254" max="254" width="13" style="8" customWidth="1"/>
-    <col min="255" max="507" width="8.7109375" style="8"/>
-    <col min="508" max="508" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="40.140625" style="8" customWidth="1"/>
+    <col min="255" max="507" width="8.7265625" style="8"/>
+    <col min="508" max="508" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="40.1796875" style="8" customWidth="1"/>
     <col min="510" max="510" width="13" style="8" customWidth="1"/>
-    <col min="511" max="763" width="8.7109375" style="8"/>
-    <col min="764" max="764" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="765" max="765" width="40.140625" style="8" customWidth="1"/>
+    <col min="511" max="763" width="8.7265625" style="8"/>
+    <col min="764" max="764" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="765" max="765" width="40.1796875" style="8" customWidth="1"/>
     <col min="766" max="766" width="13" style="8" customWidth="1"/>
-    <col min="767" max="1019" width="8.7109375" style="8"/>
-    <col min="1020" max="1020" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="1021" max="1021" width="40.140625" style="8" customWidth="1"/>
+    <col min="767" max="1019" width="8.7265625" style="8"/>
+    <col min="1020" max="1020" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1021" max="1021" width="40.1796875" style="8" customWidth="1"/>
     <col min="1022" max="1022" width="13" style="8" customWidth="1"/>
-    <col min="1023" max="1275" width="8.7109375" style="8"/>
-    <col min="1276" max="1276" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="1277" max="1277" width="40.140625" style="8" customWidth="1"/>
+    <col min="1023" max="1275" width="8.7265625" style="8"/>
+    <col min="1276" max="1276" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1277" max="1277" width="40.1796875" style="8" customWidth="1"/>
     <col min="1278" max="1278" width="13" style="8" customWidth="1"/>
-    <col min="1279" max="1531" width="8.7109375" style="8"/>
-    <col min="1532" max="1532" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="1533" max="1533" width="40.140625" style="8" customWidth="1"/>
+    <col min="1279" max="1531" width="8.7265625" style="8"/>
+    <col min="1532" max="1532" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1533" max="1533" width="40.1796875" style="8" customWidth="1"/>
     <col min="1534" max="1534" width="13" style="8" customWidth="1"/>
-    <col min="1535" max="1787" width="8.7109375" style="8"/>
-    <col min="1788" max="1788" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="1789" max="1789" width="40.140625" style="8" customWidth="1"/>
+    <col min="1535" max="1787" width="8.7265625" style="8"/>
+    <col min="1788" max="1788" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1789" max="1789" width="40.1796875" style="8" customWidth="1"/>
     <col min="1790" max="1790" width="13" style="8" customWidth="1"/>
-    <col min="1791" max="2043" width="8.7109375" style="8"/>
-    <col min="2044" max="2044" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2045" max="2045" width="40.140625" style="8" customWidth="1"/>
+    <col min="1791" max="2043" width="8.7265625" style="8"/>
+    <col min="2044" max="2044" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2045" max="2045" width="40.1796875" style="8" customWidth="1"/>
     <col min="2046" max="2046" width="13" style="8" customWidth="1"/>
-    <col min="2047" max="2299" width="8.7109375" style="8"/>
-    <col min="2300" max="2300" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2301" max="2301" width="40.140625" style="8" customWidth="1"/>
+    <col min="2047" max="2299" width="8.7265625" style="8"/>
+    <col min="2300" max="2300" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2301" max="2301" width="40.1796875" style="8" customWidth="1"/>
     <col min="2302" max="2302" width="13" style="8" customWidth="1"/>
-    <col min="2303" max="2555" width="8.7109375" style="8"/>
-    <col min="2556" max="2556" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2557" max="2557" width="40.140625" style="8" customWidth="1"/>
+    <col min="2303" max="2555" width="8.7265625" style="8"/>
+    <col min="2556" max="2556" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2557" max="2557" width="40.1796875" style="8" customWidth="1"/>
     <col min="2558" max="2558" width="13" style="8" customWidth="1"/>
-    <col min="2559" max="2811" width="8.7109375" style="8"/>
-    <col min="2812" max="2812" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2813" max="2813" width="40.140625" style="8" customWidth="1"/>
+    <col min="2559" max="2811" width="8.7265625" style="8"/>
+    <col min="2812" max="2812" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2813" max="2813" width="40.1796875" style="8" customWidth="1"/>
     <col min="2814" max="2814" width="13" style="8" customWidth="1"/>
-    <col min="2815" max="3067" width="8.7109375" style="8"/>
-    <col min="3068" max="3068" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3069" max="3069" width="40.140625" style="8" customWidth="1"/>
+    <col min="2815" max="3067" width="8.7265625" style="8"/>
+    <col min="3068" max="3068" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3069" max="3069" width="40.1796875" style="8" customWidth="1"/>
     <col min="3070" max="3070" width="13" style="8" customWidth="1"/>
-    <col min="3071" max="3323" width="8.7109375" style="8"/>
-    <col min="3324" max="3324" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3325" max="3325" width="40.140625" style="8" customWidth="1"/>
+    <col min="3071" max="3323" width="8.7265625" style="8"/>
+    <col min="3324" max="3324" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3325" max="3325" width="40.1796875" style="8" customWidth="1"/>
     <col min="3326" max="3326" width="13" style="8" customWidth="1"/>
-    <col min="3327" max="3579" width="8.7109375" style="8"/>
-    <col min="3580" max="3580" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3581" max="3581" width="40.140625" style="8" customWidth="1"/>
+    <col min="3327" max="3579" width="8.7265625" style="8"/>
+    <col min="3580" max="3580" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3581" max="3581" width="40.1796875" style="8" customWidth="1"/>
     <col min="3582" max="3582" width="13" style="8" customWidth="1"/>
-    <col min="3583" max="3835" width="8.7109375" style="8"/>
-    <col min="3836" max="3836" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3837" max="3837" width="40.140625" style="8" customWidth="1"/>
+    <col min="3583" max="3835" width="8.7265625" style="8"/>
+    <col min="3836" max="3836" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3837" max="3837" width="40.1796875" style="8" customWidth="1"/>
     <col min="3838" max="3838" width="13" style="8" customWidth="1"/>
-    <col min="3839" max="4091" width="8.7109375" style="8"/>
-    <col min="4092" max="4092" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4093" max="4093" width="40.140625" style="8" customWidth="1"/>
+    <col min="3839" max="4091" width="8.7265625" style="8"/>
+    <col min="4092" max="4092" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4093" max="4093" width="40.1796875" style="8" customWidth="1"/>
     <col min="4094" max="4094" width="13" style="8" customWidth="1"/>
-    <col min="4095" max="4347" width="8.7109375" style="8"/>
-    <col min="4348" max="4348" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4349" max="4349" width="40.140625" style="8" customWidth="1"/>
+    <col min="4095" max="4347" width="8.7265625" style="8"/>
+    <col min="4348" max="4348" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4349" max="4349" width="40.1796875" style="8" customWidth="1"/>
     <col min="4350" max="4350" width="13" style="8" customWidth="1"/>
-    <col min="4351" max="4603" width="8.7109375" style="8"/>
-    <col min="4604" max="4604" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4605" max="4605" width="40.140625" style="8" customWidth="1"/>
+    <col min="4351" max="4603" width="8.7265625" style="8"/>
+    <col min="4604" max="4604" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4605" max="4605" width="40.1796875" style="8" customWidth="1"/>
     <col min="4606" max="4606" width="13" style="8" customWidth="1"/>
-    <col min="4607" max="4859" width="8.7109375" style="8"/>
-    <col min="4860" max="4860" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4861" max="4861" width="40.140625" style="8" customWidth="1"/>
+    <col min="4607" max="4859" width="8.7265625" style="8"/>
+    <col min="4860" max="4860" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4861" max="4861" width="40.1796875" style="8" customWidth="1"/>
     <col min="4862" max="4862" width="13" style="8" customWidth="1"/>
-    <col min="4863" max="5115" width="8.7109375" style="8"/>
-    <col min="5116" max="5116" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5117" max="5117" width="40.140625" style="8" customWidth="1"/>
+    <col min="4863" max="5115" width="8.7265625" style="8"/>
+    <col min="5116" max="5116" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5117" max="5117" width="40.1796875" style="8" customWidth="1"/>
     <col min="5118" max="5118" width="13" style="8" customWidth="1"/>
-    <col min="5119" max="5371" width="8.7109375" style="8"/>
-    <col min="5372" max="5372" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5373" max="5373" width="40.140625" style="8" customWidth="1"/>
+    <col min="5119" max="5371" width="8.7265625" style="8"/>
+    <col min="5372" max="5372" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5373" max="5373" width="40.1796875" style="8" customWidth="1"/>
     <col min="5374" max="5374" width="13" style="8" customWidth="1"/>
-    <col min="5375" max="5627" width="8.7109375" style="8"/>
-    <col min="5628" max="5628" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5629" max="5629" width="40.140625" style="8" customWidth="1"/>
+    <col min="5375" max="5627" width="8.7265625" style="8"/>
+    <col min="5628" max="5628" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5629" max="5629" width="40.1796875" style="8" customWidth="1"/>
     <col min="5630" max="5630" width="13" style="8" customWidth="1"/>
-    <col min="5631" max="5883" width="8.7109375" style="8"/>
-    <col min="5884" max="5884" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5885" max="5885" width="40.140625" style="8" customWidth="1"/>
+    <col min="5631" max="5883" width="8.7265625" style="8"/>
+    <col min="5884" max="5884" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5885" max="5885" width="40.1796875" style="8" customWidth="1"/>
     <col min="5886" max="5886" width="13" style="8" customWidth="1"/>
-    <col min="5887" max="6139" width="8.7109375" style="8"/>
-    <col min="6140" max="6140" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6141" max="6141" width="40.140625" style="8" customWidth="1"/>
+    <col min="5887" max="6139" width="8.7265625" style="8"/>
+    <col min="6140" max="6140" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6141" max="6141" width="40.1796875" style="8" customWidth="1"/>
     <col min="6142" max="6142" width="13" style="8" customWidth="1"/>
-    <col min="6143" max="6395" width="8.7109375" style="8"/>
-    <col min="6396" max="6396" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6397" max="6397" width="40.140625" style="8" customWidth="1"/>
+    <col min="6143" max="6395" width="8.7265625" style="8"/>
+    <col min="6396" max="6396" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6397" max="6397" width="40.1796875" style="8" customWidth="1"/>
     <col min="6398" max="6398" width="13" style="8" customWidth="1"/>
-    <col min="6399" max="6651" width="8.7109375" style="8"/>
-    <col min="6652" max="6652" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6653" max="6653" width="40.140625" style="8" customWidth="1"/>
+    <col min="6399" max="6651" width="8.7265625" style="8"/>
+    <col min="6652" max="6652" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6653" max="6653" width="40.1796875" style="8" customWidth="1"/>
     <col min="6654" max="6654" width="13" style="8" customWidth="1"/>
-    <col min="6655" max="6907" width="8.7109375" style="8"/>
-    <col min="6908" max="6908" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6909" max="6909" width="40.140625" style="8" customWidth="1"/>
+    <col min="6655" max="6907" width="8.7265625" style="8"/>
+    <col min="6908" max="6908" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6909" max="6909" width="40.1796875" style="8" customWidth="1"/>
     <col min="6910" max="6910" width="13" style="8" customWidth="1"/>
-    <col min="6911" max="7163" width="8.7109375" style="8"/>
-    <col min="7164" max="7164" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7165" max="7165" width="40.140625" style="8" customWidth="1"/>
+    <col min="6911" max="7163" width="8.7265625" style="8"/>
+    <col min="7164" max="7164" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7165" max="7165" width="40.1796875" style="8" customWidth="1"/>
     <col min="7166" max="7166" width="13" style="8" customWidth="1"/>
-    <col min="7167" max="7419" width="8.7109375" style="8"/>
-    <col min="7420" max="7420" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7421" max="7421" width="40.140625" style="8" customWidth="1"/>
+    <col min="7167" max="7419" width="8.7265625" style="8"/>
+    <col min="7420" max="7420" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7421" max="7421" width="40.1796875" style="8" customWidth="1"/>
     <col min="7422" max="7422" width="13" style="8" customWidth="1"/>
-    <col min="7423" max="7675" width="8.7109375" style="8"/>
-    <col min="7676" max="7676" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7677" max="7677" width="40.140625" style="8" customWidth="1"/>
+    <col min="7423" max="7675" width="8.7265625" style="8"/>
+    <col min="7676" max="7676" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7677" max="7677" width="40.1796875" style="8" customWidth="1"/>
     <col min="7678" max="7678" width="13" style="8" customWidth="1"/>
-    <col min="7679" max="7931" width="8.7109375" style="8"/>
-    <col min="7932" max="7932" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7933" max="7933" width="40.140625" style="8" customWidth="1"/>
+    <col min="7679" max="7931" width="8.7265625" style="8"/>
+    <col min="7932" max="7932" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7933" max="7933" width="40.1796875" style="8" customWidth="1"/>
     <col min="7934" max="7934" width="13" style="8" customWidth="1"/>
-    <col min="7935" max="8187" width="8.7109375" style="8"/>
-    <col min="8188" max="8188" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8189" max="8189" width="40.140625" style="8" customWidth="1"/>
+    <col min="7935" max="8187" width="8.7265625" style="8"/>
+    <col min="8188" max="8188" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8189" max="8189" width="40.1796875" style="8" customWidth="1"/>
     <col min="8190" max="8190" width="13" style="8" customWidth="1"/>
-    <col min="8191" max="8443" width="8.7109375" style="8"/>
-    <col min="8444" max="8444" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8445" max="8445" width="40.140625" style="8" customWidth="1"/>
+    <col min="8191" max="8443" width="8.7265625" style="8"/>
+    <col min="8444" max="8444" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8445" max="8445" width="40.1796875" style="8" customWidth="1"/>
     <col min="8446" max="8446" width="13" style="8" customWidth="1"/>
-    <col min="8447" max="8699" width="8.7109375" style="8"/>
-    <col min="8700" max="8700" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8701" max="8701" width="40.140625" style="8" customWidth="1"/>
+    <col min="8447" max="8699" width="8.7265625" style="8"/>
+    <col min="8700" max="8700" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8701" max="8701" width="40.1796875" style="8" customWidth="1"/>
     <col min="8702" max="8702" width="13" style="8" customWidth="1"/>
-    <col min="8703" max="8955" width="8.7109375" style="8"/>
-    <col min="8956" max="8956" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8957" max="8957" width="40.140625" style="8" customWidth="1"/>
+    <col min="8703" max="8955" width="8.7265625" style="8"/>
+    <col min="8956" max="8956" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8957" max="8957" width="40.1796875" style="8" customWidth="1"/>
     <col min="8958" max="8958" width="13" style="8" customWidth="1"/>
-    <col min="8959" max="9211" width="8.7109375" style="8"/>
-    <col min="9212" max="9212" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9213" max="9213" width="40.140625" style="8" customWidth="1"/>
+    <col min="8959" max="9211" width="8.7265625" style="8"/>
+    <col min="9212" max="9212" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9213" max="9213" width="40.1796875" style="8" customWidth="1"/>
     <col min="9214" max="9214" width="13" style="8" customWidth="1"/>
-    <col min="9215" max="9467" width="8.7109375" style="8"/>
-    <col min="9468" max="9468" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9469" max="9469" width="40.140625" style="8" customWidth="1"/>
+    <col min="9215" max="9467" width="8.7265625" style="8"/>
+    <col min="9468" max="9468" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9469" max="9469" width="40.1796875" style="8" customWidth="1"/>
     <col min="9470" max="9470" width="13" style="8" customWidth="1"/>
-    <col min="9471" max="9723" width="8.7109375" style="8"/>
-    <col min="9724" max="9724" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9725" max="9725" width="40.140625" style="8" customWidth="1"/>
+    <col min="9471" max="9723" width="8.7265625" style="8"/>
+    <col min="9724" max="9724" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9725" max="9725" width="40.1796875" style="8" customWidth="1"/>
     <col min="9726" max="9726" width="13" style="8" customWidth="1"/>
-    <col min="9727" max="9979" width="8.7109375" style="8"/>
-    <col min="9980" max="9980" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9981" max="9981" width="40.140625" style="8" customWidth="1"/>
+    <col min="9727" max="9979" width="8.7265625" style="8"/>
+    <col min="9980" max="9980" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9981" max="9981" width="40.1796875" style="8" customWidth="1"/>
     <col min="9982" max="9982" width="13" style="8" customWidth="1"/>
-    <col min="9983" max="10235" width="8.7109375" style="8"/>
-    <col min="10236" max="10236" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10237" max="10237" width="40.140625" style="8" customWidth="1"/>
+    <col min="9983" max="10235" width="8.7265625" style="8"/>
+    <col min="10236" max="10236" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10237" max="10237" width="40.1796875" style="8" customWidth="1"/>
     <col min="10238" max="10238" width="13" style="8" customWidth="1"/>
-    <col min="10239" max="10491" width="8.7109375" style="8"/>
-    <col min="10492" max="10492" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10493" max="10493" width="40.140625" style="8" customWidth="1"/>
+    <col min="10239" max="10491" width="8.7265625" style="8"/>
+    <col min="10492" max="10492" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10493" max="10493" width="40.1796875" style="8" customWidth="1"/>
     <col min="10494" max="10494" width="13" style="8" customWidth="1"/>
-    <col min="10495" max="10747" width="8.7109375" style="8"/>
-    <col min="10748" max="10748" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10749" max="10749" width="40.140625" style="8" customWidth="1"/>
+    <col min="10495" max="10747" width="8.7265625" style="8"/>
+    <col min="10748" max="10748" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10749" max="10749" width="40.1796875" style="8" customWidth="1"/>
     <col min="10750" max="10750" width="13" style="8" customWidth="1"/>
-    <col min="10751" max="11003" width="8.7109375" style="8"/>
-    <col min="11004" max="11004" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11005" max="11005" width="40.140625" style="8" customWidth="1"/>
+    <col min="10751" max="11003" width="8.7265625" style="8"/>
+    <col min="11004" max="11004" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11005" max="11005" width="40.1796875" style="8" customWidth="1"/>
     <col min="11006" max="11006" width="13" style="8" customWidth="1"/>
-    <col min="11007" max="11259" width="8.7109375" style="8"/>
-    <col min="11260" max="11260" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11261" max="11261" width="40.140625" style="8" customWidth="1"/>
+    <col min="11007" max="11259" width="8.7265625" style="8"/>
+    <col min="11260" max="11260" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11261" max="11261" width="40.1796875" style="8" customWidth="1"/>
     <col min="11262" max="11262" width="13" style="8" customWidth="1"/>
-    <col min="11263" max="11515" width="8.7109375" style="8"/>
-    <col min="11516" max="11516" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11517" max="11517" width="40.140625" style="8" customWidth="1"/>
+    <col min="11263" max="11515" width="8.7265625" style="8"/>
+    <col min="11516" max="11516" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11517" max="11517" width="40.1796875" style="8" customWidth="1"/>
     <col min="11518" max="11518" width="13" style="8" customWidth="1"/>
-    <col min="11519" max="11771" width="8.7109375" style="8"/>
-    <col min="11772" max="11772" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11773" max="11773" width="40.140625" style="8" customWidth="1"/>
+    <col min="11519" max="11771" width="8.7265625" style="8"/>
+    <col min="11772" max="11772" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11773" max="11773" width="40.1796875" style="8" customWidth="1"/>
     <col min="11774" max="11774" width="13" style="8" customWidth="1"/>
-    <col min="11775" max="12027" width="8.7109375" style="8"/>
-    <col min="12028" max="12028" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12029" max="12029" width="40.140625" style="8" customWidth="1"/>
+    <col min="11775" max="12027" width="8.7265625" style="8"/>
+    <col min="12028" max="12028" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12029" max="12029" width="40.1796875" style="8" customWidth="1"/>
     <col min="12030" max="12030" width="13" style="8" customWidth="1"/>
-    <col min="12031" max="12283" width="8.7109375" style="8"/>
-    <col min="12284" max="12284" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12285" max="12285" width="40.140625" style="8" customWidth="1"/>
+    <col min="12031" max="12283" width="8.7265625" style="8"/>
+    <col min="12284" max="12284" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12285" max="12285" width="40.1796875" style="8" customWidth="1"/>
     <col min="12286" max="12286" width="13" style="8" customWidth="1"/>
-    <col min="12287" max="12539" width="8.7109375" style="8"/>
-    <col min="12540" max="12540" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12541" max="12541" width="40.140625" style="8" customWidth="1"/>
+    <col min="12287" max="12539" width="8.7265625" style="8"/>
+    <col min="12540" max="12540" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12541" max="12541" width="40.1796875" style="8" customWidth="1"/>
     <col min="12542" max="12542" width="13" style="8" customWidth="1"/>
-    <col min="12543" max="12795" width="8.7109375" style="8"/>
-    <col min="12796" max="12796" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12797" max="12797" width="40.140625" style="8" customWidth="1"/>
+    <col min="12543" max="12795" width="8.7265625" style="8"/>
+    <col min="12796" max="12796" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12797" max="12797" width="40.1796875" style="8" customWidth="1"/>
     <col min="12798" max="12798" width="13" style="8" customWidth="1"/>
-    <col min="12799" max="13051" width="8.7109375" style="8"/>
-    <col min="13052" max="13052" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13053" max="13053" width="40.140625" style="8" customWidth="1"/>
+    <col min="12799" max="13051" width="8.7265625" style="8"/>
+    <col min="13052" max="13052" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13053" max="13053" width="40.1796875" style="8" customWidth="1"/>
     <col min="13054" max="13054" width="13" style="8" customWidth="1"/>
-    <col min="13055" max="13307" width="8.7109375" style="8"/>
-    <col min="13308" max="13308" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13309" max="13309" width="40.140625" style="8" customWidth="1"/>
+    <col min="13055" max="13307" width="8.7265625" style="8"/>
+    <col min="13308" max="13308" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13309" max="13309" width="40.1796875" style="8" customWidth="1"/>
     <col min="13310" max="13310" width="13" style="8" customWidth="1"/>
-    <col min="13311" max="13563" width="8.7109375" style="8"/>
-    <col min="13564" max="13564" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13565" max="13565" width="40.140625" style="8" customWidth="1"/>
+    <col min="13311" max="13563" width="8.7265625" style="8"/>
+    <col min="13564" max="13564" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13565" max="13565" width="40.1796875" style="8" customWidth="1"/>
     <col min="13566" max="13566" width="13" style="8" customWidth="1"/>
-    <col min="13567" max="13819" width="8.7109375" style="8"/>
-    <col min="13820" max="13820" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13821" max="13821" width="40.140625" style="8" customWidth="1"/>
+    <col min="13567" max="13819" width="8.7265625" style="8"/>
+    <col min="13820" max="13820" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13821" max="13821" width="40.1796875" style="8" customWidth="1"/>
     <col min="13822" max="13822" width="13" style="8" customWidth="1"/>
-    <col min="13823" max="14075" width="8.7109375" style="8"/>
-    <col min="14076" max="14076" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14077" max="14077" width="40.140625" style="8" customWidth="1"/>
+    <col min="13823" max="14075" width="8.7265625" style="8"/>
+    <col min="14076" max="14076" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14077" max="14077" width="40.1796875" style="8" customWidth="1"/>
     <col min="14078" max="14078" width="13" style="8" customWidth="1"/>
-    <col min="14079" max="14331" width="8.7109375" style="8"/>
-    <col min="14332" max="14332" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14333" max="14333" width="40.140625" style="8" customWidth="1"/>
+    <col min="14079" max="14331" width="8.7265625" style="8"/>
+    <col min="14332" max="14332" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14333" max="14333" width="40.1796875" style="8" customWidth="1"/>
     <col min="14334" max="14334" width="13" style="8" customWidth="1"/>
-    <col min="14335" max="14587" width="8.7109375" style="8"/>
-    <col min="14588" max="14588" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14589" max="14589" width="40.140625" style="8" customWidth="1"/>
+    <col min="14335" max="14587" width="8.7265625" style="8"/>
+    <col min="14588" max="14588" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14589" max="14589" width="40.1796875" style="8" customWidth="1"/>
     <col min="14590" max="14590" width="13" style="8" customWidth="1"/>
-    <col min="14591" max="14843" width="8.7109375" style="8"/>
-    <col min="14844" max="14844" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14845" max="14845" width="40.140625" style="8" customWidth="1"/>
+    <col min="14591" max="14843" width="8.7265625" style="8"/>
+    <col min="14844" max="14844" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14845" max="14845" width="40.1796875" style="8" customWidth="1"/>
     <col min="14846" max="14846" width="13" style="8" customWidth="1"/>
-    <col min="14847" max="15099" width="8.7109375" style="8"/>
-    <col min="15100" max="15100" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15101" max="15101" width="40.140625" style="8" customWidth="1"/>
+    <col min="14847" max="15099" width="8.7265625" style="8"/>
+    <col min="15100" max="15100" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15101" max="15101" width="40.1796875" style="8" customWidth="1"/>
     <col min="15102" max="15102" width="13" style="8" customWidth="1"/>
-    <col min="15103" max="15355" width="8.7109375" style="8"/>
-    <col min="15356" max="15356" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15357" max="15357" width="40.140625" style="8" customWidth="1"/>
+    <col min="15103" max="15355" width="8.7265625" style="8"/>
+    <col min="15356" max="15356" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15357" max="15357" width="40.1796875" style="8" customWidth="1"/>
     <col min="15358" max="15358" width="13" style="8" customWidth="1"/>
-    <col min="15359" max="15611" width="8.7109375" style="8"/>
-    <col min="15612" max="15612" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15613" max="15613" width="40.140625" style="8" customWidth="1"/>
+    <col min="15359" max="15611" width="8.7265625" style="8"/>
+    <col min="15612" max="15612" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15613" max="15613" width="40.1796875" style="8" customWidth="1"/>
     <col min="15614" max="15614" width="13" style="8" customWidth="1"/>
-    <col min="15615" max="15867" width="8.7109375" style="8"/>
-    <col min="15868" max="15868" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15869" max="15869" width="40.140625" style="8" customWidth="1"/>
+    <col min="15615" max="15867" width="8.7265625" style="8"/>
+    <col min="15868" max="15868" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15869" max="15869" width="40.1796875" style="8" customWidth="1"/>
     <col min="15870" max="15870" width="13" style="8" customWidth="1"/>
-    <col min="15871" max="16123" width="8.7109375" style="8"/>
-    <col min="16124" max="16124" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16125" max="16125" width="40.140625" style="8" customWidth="1"/>
+    <col min="15871" max="16123" width="8.7265625" style="8"/>
+    <col min="16124" max="16124" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16125" max="16125" width="40.1796875" style="8" customWidth="1"/>
     <col min="16126" max="16126" width="13" style="8" customWidth="1"/>
-    <col min="16127" max="16384" width="8.7109375" style="8"/>
+    <col min="16127" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="9" customFormat="1" ht="18.75">
+    <row r="2" spans="2:7" s="9" customFormat="1" ht="18.5">
       <c r="B2" s="21" t="s">
         <v>3207</v>
       </c>
@@ -37838,7 +37834,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="2:7" ht="15.75">
+    <row r="7" spans="2:7" ht="15.5">
       <c r="B7" s="14">
         <v>103</v>
       </c>
@@ -37846,7 +37842,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75">
+    <row r="8" spans="2:7" ht="15.5">
       <c r="B8" s="14">
         <v>104</v>
       </c>
@@ -37854,7 +37850,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75">
+    <row r="9" spans="2:7" ht="15.5">
       <c r="B9" s="14">
         <v>105</v>
       </c>
@@ -37883,7 +37879,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75">
+    <row r="13" spans="2:7" ht="15.5">
       <c r="B13" s="14">
         <v>153</v>
       </c>
@@ -37931,7 +37927,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75">
+    <row r="20" spans="2:3" ht="15.5">
       <c r="B20" s="14">
         <v>401</v>
       </c>
@@ -37939,7 +37935,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75">
+    <row r="21" spans="2:3" ht="15.5">
       <c r="B21" s="14">
         <v>402</v>
       </c>
@@ -37959,7 +37955,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75">
+    <row r="24" spans="2:3" ht="15.5">
       <c r="B24" s="14">
         <v>501</v>
       </c>
@@ -37979,7 +37975,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15.75">
+    <row r="27" spans="2:3" ht="15.5">
       <c r="B27" s="14">
         <v>601</v>
       </c>
@@ -37987,7 +37983,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15.75">
+    <row r="28" spans="2:3" ht="15.5">
       <c r="B28" s="20">
         <v>602</v>
       </c>
@@ -38014,15 +38010,15 @@
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="8"/>
-    <col min="2" max="2" width="6.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="6.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75">
+    <row r="2" spans="2:3" ht="18.5">
       <c r="B2" s="21" t="s">
         <v>3207</v>
       </c>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB\Project\invoice-management-frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A03CCC3-955F-4546-86C6-70B4273D484A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Details" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -13495,13 +13496,13 @@
     <t>WORLDPAY</t>
   </si>
   <si>
-    <t>UK</t>
+    <t>Zanzibar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -13766,7 +13767,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13884,12 +13885,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -14211,14 +14222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
-      <selection activeCell="B1583" sqref="B1583"/>
+    <sheetView topLeftCell="A1554" workbookViewId="0">
+      <selection activeCell="B1582" sqref="B1582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26859,11 +26870,11 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="1580" spans="1:2">
-      <c r="A1580" s="1" t="s">
+    <row r="1580" spans="1:2" s="74" customFormat="1">
+      <c r="A1580" s="73" t="s">
         <v>4481</v>
       </c>
-      <c r="B1580" t="s">
+      <c r="B1580" s="74" t="s">
         <v>4482</v>
       </c>
     </row>
@@ -26877,7 +26888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -28123,7 +28134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -36780,14 +36791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:B91"/>
+  <dimension ref="A2:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -37506,13 +37517,19 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="B91" s="73" t="s">
+      <c r="A91" s="76">
+        <v>1047</v>
+      </c>
+      <c r="B91" s="77" t="s">
         <v>4483</v>
       </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://www.google.rw/search?hl=en&amp;biw=1366&amp;bih=667&amp;q=bujumbura+burundi&amp;stick=H4sIAAAAAAAAAGOovnz8BQMDAw8HsxKHfq6-QVqemblixzKD52fj3Z_cuP7PdUL6nIqaeR4ApIgDhCkAAAA&amp;sa=X&amp;ei=wSMzUYVrk7OEB_i7gJgH&amp;sqi=2&amp;ved=0CJUBEJsTKAI" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -37520,13 +37537,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -38002,7 +38019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC46FE43-6564-4CE9-96A6-C45E9E641379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C2E749-9480-4EEB-BA85-4FD344AD0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="4477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="4473">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13460,22 +13461,10 @@
     <t>GUANGZHOU HUAYU CERTIFIED PUBLIC ACCOUNTANTS Co.LTD</t>
   </si>
   <si>
-    <t>S0132</t>
-  </si>
-  <si>
-    <t>SATGURU TRAVELS RWANDA</t>
-  </si>
-  <si>
-    <t>F0055</t>
-  </si>
-  <si>
-    <t>FATIGUE RISK MANAGEMENT SCIENCE LIMITED</t>
-  </si>
-  <si>
-    <t>K0096</t>
-  </si>
-  <si>
-    <t>KAN MEDIA LTD</t>
+    <t>Z006</t>
+  </si>
+  <si>
+    <t>ZANZIBAR REVENUE AUTHORITY</t>
   </si>
 </sst>
 </file>
@@ -14183,10 +14172,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1577"/>
+  <dimension ref="A1:B1575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1095" workbookViewId="0">
-      <selection activeCell="B1057" sqref="B1057"/>
+    <sheetView tabSelected="1" topLeftCell="A1551" workbookViewId="0">
+      <selection activeCell="B1567" sqref="B1567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19989,399 +19978,399 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="1" t="s">
-        <v>4473</v>
+        <v>2463</v>
       </c>
       <c r="B725" t="s">
-        <v>4474</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="1" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="B726" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="1" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="B727" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="1" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="B728" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="1" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="B729" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="1" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="B730" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="1" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="B731" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="1" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="B732" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="1" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="B733" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="1" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="B734" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="1" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="B735" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="1" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="B736" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="1" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="B737" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="1" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="B738" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="1" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="B739" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="1" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B740" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="1" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="B741" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="1" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="B742" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="1" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B743" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="1" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="B744" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="1" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="B745" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="1" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B746" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="1" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="B747" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="1" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="B748" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="1" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B749" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="1" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B750" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="1" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="B751" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="1" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="B752" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="1" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="B753" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="1" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="B754" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="1" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="B755" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="1" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B756" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="1" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B757" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="1" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B758" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="1" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B759" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="1" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B760" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="1" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B761" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="1" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B762" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="1" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="B763" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="1" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B764" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="1" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="B765" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="1" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="B766" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="1" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="B767" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="1" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="B768" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="1" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B769" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="1" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B770" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="1" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="B771" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="1" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B772" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="1" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B773" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="1" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B774" t="s">
         <v>2560</v>
@@ -20389,4311 +20378,4311 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="1" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="B775" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="1" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="B776" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="1" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="B777" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="1" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B778" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="1" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B779" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="1" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B780" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="1" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B781" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="1" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="B782" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="1" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="B783" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="1" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="B784" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="1" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="B785" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="1" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="B786" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="1" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="B787" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="1" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="B788" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="1" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="B789" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="1" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="B790" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="1" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="B791" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="1" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="B792" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="1" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="B793" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="1" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="B794" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="1" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="B795" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="1" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B796" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="1" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="B797" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="1" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B798" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="1" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="B799" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="1" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="B800" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="1" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="B801" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="1" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="B802" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="1" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="B803" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="1" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="B804" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="1" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="B805" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="1" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="B806" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="1" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="B807" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="1" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="B808" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="1" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="B809" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="1" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="B810" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="1" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="B811" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="1" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="B812" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="1" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="B813" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="1" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="B814" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="1" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="B815" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="1" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="B816" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="1" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="B817" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="1" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="B818" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="1" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="B819" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="1" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="B820" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="1" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="B821" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="1" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="B822" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="1" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="B823" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="1" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="B824" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="1" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="B825" t="s">
-        <v>2661</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="1" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="B826" t="s">
-        <v>2619</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="1" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="B827" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="1" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="B828" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="1" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="B829" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="1" t="s">
-        <v>2669</v>
+        <v>4469</v>
       </c>
       <c r="B830" t="s">
-        <v>2670</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="1" t="s">
-        <v>4469</v>
+        <v>2671</v>
       </c>
       <c r="B831" t="s">
-        <v>4470</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="1" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="B832" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="1" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="B833" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="1" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="B834" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="1" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="B835" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="1" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="B836" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="1" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="B837" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="1" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="B838" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="1" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="B839" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="1" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="B840" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="1" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="B841" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="1" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="B842" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="1" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="B843" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="1" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="B844" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="1" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="B845" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="1" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="B846" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="1" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="B847" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="1" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="B848" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="1" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="B849" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" s="1" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="B850" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" s="1" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="B851" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" s="1" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="B852" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" s="1" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="B853" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" s="1" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="B854" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" s="1" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="B855" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" s="1" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="B856" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" s="1" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="B857" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" s="1" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="B858" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" s="1" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="B859" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" s="1" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="B860" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="1" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="B861" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" s="1" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="B862" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" s="1" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="B863" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" s="1" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="B864" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="1" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="B865" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="1" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="B866" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="1" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="B867" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="1" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="B868" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="1" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="B869" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="1" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="B870" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="1" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="B871" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="1" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="B872" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="1" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="B873" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="1" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="B874" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="1" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="B875" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="1" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
       <c r="B876" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="1" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="B877" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="1" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="B878" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="1" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="B879" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="1" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="B880" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" s="1" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="B881" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" s="1" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="B882" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" s="1" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="B883" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" s="1" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="B884" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" s="1" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="B885" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" s="1" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="B886" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" s="1" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="B887" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" s="1" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="B888" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" s="1" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="B889" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" s="1" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="B890" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" s="1" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="B891" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" s="1" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="B892" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" s="1" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="B893" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" s="1" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="B894" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" s="1" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="B895" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" s="1" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="B896" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" s="1" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="B897" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" s="1" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="B898" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" s="1" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="B899" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" s="1" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="B900" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" s="1" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="B901" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" s="1" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="B902" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" s="1" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="B903" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" s="1" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="B904" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" s="1" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="B905" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" s="1" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="B906" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" s="1" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="B907" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" s="1" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="B908" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" s="1" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="B909" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" s="1" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="B910" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" s="1" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="B911" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" s="1" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="B912" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" s="1" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="B913" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" s="1" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="B914" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" s="1" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="B915" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" s="1" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="B916" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" s="1" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="B917" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" s="1" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="B918" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" s="1" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="B919" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" s="1" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="B920" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" s="1" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="B921" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" s="1" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="B922" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" s="1" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="B923" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" s="1" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="B924" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" s="1" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="B925" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" s="1" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="B926" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" s="1" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="B927" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" s="1" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="B928" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" s="1" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="B929" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" s="1" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="B930" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" s="1" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="B931" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" s="1" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="B932" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" s="1" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="B933" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" s="1" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="B934" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" s="1" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="B935" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" s="1" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="B936" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" s="1" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="B937" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" s="1" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="B938" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" s="1" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="B939" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" s="1" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="B940" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" s="1" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="B941" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" s="1" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="B942" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" s="1" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="B943" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" s="1" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="B944" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" s="1" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="B945" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" s="1" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="B946" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" s="1" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="B947" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" s="1" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="B948" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" s="1" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="B949" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" s="1" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="B950" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" s="1" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="B951" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" s="1" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="B952" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" s="1" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="B953" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" s="1" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="B954" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" s="1" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="B955" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" s="1" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="B956" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" s="1" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="B957" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" s="1" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="B958" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" s="1" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="B959" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" s="1" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="B960" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" s="1" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="B961" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" s="1" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="B962" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" s="1" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="B963" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" s="1" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="B964" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" s="1" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="B965" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" s="1" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="B966" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" s="1" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="B967" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" s="1" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="B968" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" s="1" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="B969" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" s="1" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="B970" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" s="1" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="B971" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" s="1" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="B972" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" s="1" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="B973" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" s="1" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="B974" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" s="1" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="B975" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" s="1" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="B976" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" s="1" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="B977" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" s="1" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="B978" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" s="1" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="B979" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" s="1" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="B980" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" s="1" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="B981" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" s="1" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
       <c r="B982" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" s="1" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="B983" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" s="1" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="B984" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" s="1" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="B985" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" s="1" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="B986" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" s="1" t="s">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="B987" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" s="1" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="B988" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" s="1" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="B989" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" s="1" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="B990" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" s="1" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="B991" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" s="1" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="B992" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" s="1" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="B993" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" s="1" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="B994" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" s="1" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="B995" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" s="1" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="B996" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" s="1" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="B997" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" s="1" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="B998" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" s="1" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="B999" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" s="1" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="B1000" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" s="1" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="B1001" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" s="1" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="B1002" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" s="1" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="B1003" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" s="1" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="B1004" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" s="1" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="B1005" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" s="1" t="s">
-        <v>3019</v>
+        <v>3321</v>
       </c>
       <c r="B1006" t="s">
-        <v>3020</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" s="1" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="B1007" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" s="1" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="B1008" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" s="1" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="B1009" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" s="1" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="B1010" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" s="1" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="B1011" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" s="1" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="B1012" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" s="1" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="B1013" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" s="1" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="B1014" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" s="1" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="B1015" t="s">
-        <v>3338</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" s="1" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="B1016" t="s">
-        <v>3340</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" s="1" t="s">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="B1017" t="s">
-        <v>3342</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" s="1" t="s">
-        <v>3343</v>
+        <v>3345</v>
       </c>
       <c r="B1018" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" s="1" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="B1019" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="1" t="s">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="B1020" t="s">
-        <v>3348</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" s="1" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="B1021" t="s">
-        <v>3350</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" s="1" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="B1022" t="s">
-        <v>3352</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" s="1" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="B1023" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" s="1" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="B1024" t="s">
-        <v>3356</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" s="1" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="B1025" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" s="1" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="B1026" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" s="1" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="B1027" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" s="1" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="B1028" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" s="1" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="B1029" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" s="1" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="B1030" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" s="1" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="B1031" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" s="1" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="B1032" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" s="1" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="B1033" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" s="1" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="B1034" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="1" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="B1035" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="1" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="B1036" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="1" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="B1037" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="1" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="B1038" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="1" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="B1039" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="1" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="B1040" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" s="1" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="B1041" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" s="1" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="B1042" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" s="1" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="B1043" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" s="1" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="B1044" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" s="1" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="B1045" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" s="1" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="B1046" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" s="1" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="B1047" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" s="1" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="B1048" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" s="1" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
       <c r="B1049" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" s="1" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="B1050" t="s">
-        <v>3408</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" s="1" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="B1051" t="s">
-        <v>3410</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" s="1" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="B1052" t="s">
-        <v>3412</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" s="1" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="B1053" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" s="1" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="B1054" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" s="1" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="B1055" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" s="1" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="B1056" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="1" t="s">
-        <v>4475</v>
+        <v>3423</v>
       </c>
       <c r="B1057" t="s">
-        <v>4476</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="1" t="s">
-        <v>3421</v>
+        <v>3425</v>
       </c>
       <c r="B1058" t="s">
-        <v>3422</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="1" t="s">
-        <v>3423</v>
+        <v>3427</v>
       </c>
       <c r="B1059" t="s">
-        <v>3424</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="1" t="s">
-        <v>3425</v>
+        <v>3429</v>
       </c>
       <c r="B1060" t="s">
-        <v>3426</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="1" t="s">
-        <v>3427</v>
+        <v>3431</v>
       </c>
       <c r="B1061" t="s">
-        <v>3428</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="1" t="s">
-        <v>3429</v>
+        <v>3433</v>
       </c>
       <c r="B1062" t="s">
-        <v>3430</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="1" t="s">
-        <v>3431</v>
+        <v>3435</v>
       </c>
       <c r="B1063" t="s">
-        <v>3432</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="1" t="s">
-        <v>3433</v>
+        <v>3437</v>
       </c>
       <c r="B1064" t="s">
-        <v>3434</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="1" t="s">
-        <v>3435</v>
+        <v>3439</v>
       </c>
       <c r="B1065" t="s">
-        <v>3436</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="1" t="s">
-        <v>3437</v>
+        <v>3441</v>
       </c>
       <c r="B1066" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="B1067" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="1" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="B1068" t="s">
-        <v>3440</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="1" t="s">
-        <v>3442</v>
+        <v>3446</v>
       </c>
       <c r="B1069" t="s">
-        <v>3443</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" s="1" t="s">
-        <v>3444</v>
+        <v>3448</v>
       </c>
       <c r="B1070" t="s">
-        <v>3445</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" s="1" t="s">
-        <v>3446</v>
+        <v>3450</v>
       </c>
       <c r="B1071" t="s">
-        <v>3447</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" s="1" t="s">
-        <v>3448</v>
+        <v>3452</v>
       </c>
       <c r="B1072" t="s">
-        <v>3449</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="1" t="s">
-        <v>3450</v>
+        <v>3454</v>
       </c>
       <c r="B1073" t="s">
-        <v>3451</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" s="1" t="s">
-        <v>3452</v>
+        <v>3456</v>
       </c>
       <c r="B1074" t="s">
-        <v>3453</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" s="1" t="s">
-        <v>3454</v>
+        <v>3458</v>
       </c>
       <c r="B1075" t="s">
-        <v>3455</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="1" t="s">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="B1076" t="s">
-        <v>3457</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" s="1" t="s">
-        <v>3458</v>
+        <v>3462</v>
       </c>
       <c r="B1077" t="s">
-        <v>3459</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="1" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="B1078" t="s">
-        <v>3461</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="1" t="s">
-        <v>3462</v>
+        <v>3466</v>
       </c>
       <c r="B1079" t="s">
-        <v>3463</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="1" t="s">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="B1080" t="s">
-        <v>3465</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="1" t="s">
-        <v>3466</v>
+        <v>3470</v>
       </c>
       <c r="B1081" t="s">
-        <v>3467</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="1" t="s">
-        <v>3468</v>
+        <v>3472</v>
       </c>
       <c r="B1082" t="s">
-        <v>3469</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="1" t="s">
-        <v>3470</v>
+        <v>3474</v>
       </c>
       <c r="B1083" t="s">
-        <v>3471</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="1" t="s">
-        <v>3472</v>
+        <v>3476</v>
       </c>
       <c r="B1084" t="s">
-        <v>3473</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" s="1" t="s">
-        <v>3474</v>
+        <v>3478</v>
       </c>
       <c r="B1085" t="s">
-        <v>3475</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="1" t="s">
-        <v>3476</v>
+        <v>3480</v>
       </c>
       <c r="B1086" t="s">
-        <v>3477</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" s="1" t="s">
-        <v>3478</v>
+        <v>3482</v>
       </c>
       <c r="B1087" t="s">
-        <v>3479</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" s="1" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B1088" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" s="1" t="s">
-        <v>3482</v>
+        <v>3486</v>
       </c>
       <c r="B1089" t="s">
-        <v>3483</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" s="1" t="s">
-        <v>3484</v>
+        <v>3488</v>
       </c>
       <c r="B1090" t="s">
-        <v>3485</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" s="1" t="s">
-        <v>3486</v>
+        <v>3490</v>
       </c>
       <c r="B1091" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" s="1" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="B1092" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" s="1" t="s">
-        <v>3490</v>
+        <v>3494</v>
       </c>
       <c r="B1093" t="s">
-        <v>3491</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" s="1" t="s">
-        <v>3492</v>
+        <v>3496</v>
       </c>
       <c r="B1094" t="s">
-        <v>3493</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" s="1" t="s">
-        <v>3494</v>
+        <v>4429</v>
       </c>
       <c r="B1095" t="s">
-        <v>3495</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="1" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="B1096" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" s="1" t="s">
-        <v>4429</v>
+        <v>3500</v>
       </c>
       <c r="B1097" t="s">
-        <v>4430</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="1" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="B1098" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" s="1" t="s">
-        <v>3500</v>
+        <v>4434</v>
       </c>
       <c r="B1099" t="s">
-        <v>3501</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="1" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="B1100" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" s="1" t="s">
-        <v>4434</v>
+        <v>3506</v>
       </c>
       <c r="B1101" t="s">
-        <v>4433</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="1" t="s">
-        <v>3504</v>
+        <v>3508</v>
       </c>
       <c r="B1102" t="s">
-        <v>3505</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="1" t="s">
-        <v>3506</v>
+        <v>3510</v>
       </c>
       <c r="B1103" t="s">
-        <v>3507</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="1" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="B1104" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" s="1" t="s">
-        <v>3510</v>
+        <v>3514</v>
       </c>
       <c r="B1105" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" s="1" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="B1106" t="s">
-        <v>3513</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="1" t="s">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="B1107" t="s">
-        <v>3515</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" s="1" t="s">
-        <v>3516</v>
+        <v>3520</v>
       </c>
       <c r="B1108" t="s">
-        <v>3517</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" s="1" t="s">
-        <v>3518</v>
+        <v>3522</v>
       </c>
       <c r="B1109" t="s">
-        <v>3519</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" s="1" t="s">
-        <v>3520</v>
+        <v>3524</v>
       </c>
       <c r="B1110" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" s="1" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
       <c r="B1111" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" s="1" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="B1112" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="1" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="B1113" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" s="1" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="B1114" t="s">
-        <v>3529</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" s="1" t="s">
-        <v>3530</v>
+        <v>3534</v>
       </c>
       <c r="B1115" t="s">
-        <v>3531</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" s="1" t="s">
-        <v>3532</v>
+        <v>3536</v>
       </c>
       <c r="B1116" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="1" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
       <c r="B1117" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" s="1" t="s">
-        <v>3536</v>
+        <v>3540</v>
       </c>
       <c r="B1118" t="s">
-        <v>3537</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" s="1" t="s">
-        <v>3538</v>
+        <v>3542</v>
       </c>
       <c r="B1119" t="s">
-        <v>3539</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" s="1" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="B1120" t="s">
-        <v>3541</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="B1121" t="s">
-        <v>3543</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" s="1" t="s">
-        <v>3544</v>
+        <v>3548</v>
       </c>
       <c r="B1122" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="1" t="s">
-        <v>3546</v>
+        <v>3550</v>
       </c>
       <c r="B1123" t="s">
-        <v>3547</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" s="1" t="s">
-        <v>3548</v>
+        <v>3552</v>
       </c>
       <c r="B1124" t="s">
-        <v>3549</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" s="1" t="s">
-        <v>3550</v>
+        <v>3554</v>
       </c>
       <c r="B1125" t="s">
-        <v>3551</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="1" t="s">
-        <v>3552</v>
+        <v>3556</v>
       </c>
       <c r="B1126" t="s">
-        <v>3553</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" s="1" t="s">
-        <v>3554</v>
+        <v>3558</v>
       </c>
       <c r="B1127" t="s">
-        <v>3555</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" s="1" t="s">
-        <v>3556</v>
+        <v>3560</v>
       </c>
       <c r="B1128" t="s">
-        <v>3557</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" s="1" t="s">
-        <v>3558</v>
+        <v>3562</v>
       </c>
       <c r="B1129" t="s">
-        <v>3559</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="1" t="s">
-        <v>3560</v>
+        <v>3564</v>
       </c>
       <c r="B1130" t="s">
-        <v>3561</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="1" t="s">
-        <v>3562</v>
+        <v>3566</v>
       </c>
       <c r="B1131" t="s">
-        <v>3563</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="1" t="s">
-        <v>3564</v>
+        <v>3568</v>
       </c>
       <c r="B1132" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="1" t="s">
-        <v>3566</v>
+        <v>3570</v>
       </c>
       <c r="B1133" t="s">
-        <v>3567</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" s="1" t="s">
-        <v>3568</v>
+        <v>3572</v>
       </c>
       <c r="B1134" t="s">
-        <v>3569</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="1" t="s">
-        <v>3570</v>
+        <v>3574</v>
       </c>
       <c r="B1135" t="s">
-        <v>3571</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="1" t="s">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="B1136" t="s">
-        <v>3573</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" s="1" t="s">
-        <v>3574</v>
+        <v>3578</v>
       </c>
       <c r="B1137" t="s">
-        <v>3575</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="1" t="s">
-        <v>3576</v>
+        <v>3580</v>
       </c>
       <c r="B1138" t="s">
-        <v>3577</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="1" t="s">
-        <v>3578</v>
+        <v>3582</v>
       </c>
       <c r="B1139" t="s">
-        <v>3579</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" s="1" t="s">
-        <v>3580</v>
+        <v>3584</v>
       </c>
       <c r="B1140" t="s">
-        <v>3581</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" s="1" t="s">
-        <v>3582</v>
+        <v>3586</v>
       </c>
       <c r="B1141" t="s">
-        <v>3583</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="1" t="s">
-        <v>3584</v>
+        <v>3588</v>
       </c>
       <c r="B1142" t="s">
-        <v>3585</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="1" t="s">
-        <v>3586</v>
+        <v>3590</v>
       </c>
       <c r="B1143" t="s">
-        <v>3587</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="1" t="s">
-        <v>3588</v>
+        <v>3592</v>
       </c>
       <c r="B1144" t="s">
-        <v>3589</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="1" t="s">
-        <v>3590</v>
+        <v>3594</v>
       </c>
       <c r="B1145" t="s">
-        <v>3591</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="1" t="s">
-        <v>3592</v>
+        <v>3596</v>
       </c>
       <c r="B1146" t="s">
-        <v>3593</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="1" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="B1147" t="s">
-        <v>3595</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="1" t="s">
-        <v>3596</v>
+        <v>3600</v>
       </c>
       <c r="B1148" t="s">
-        <v>3597</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="1" t="s">
-        <v>3598</v>
+        <v>3602</v>
       </c>
       <c r="B1149" t="s">
-        <v>3599</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="1" t="s">
-        <v>3600</v>
+        <v>3604</v>
       </c>
       <c r="B1150" t="s">
-        <v>3601</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="1" t="s">
-        <v>3602</v>
+        <v>3606</v>
       </c>
       <c r="B1151" t="s">
-        <v>3603</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="1" t="s">
-        <v>3604</v>
+        <v>3608</v>
       </c>
       <c r="B1152" t="s">
-        <v>3605</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" s="1" t="s">
-        <v>3606</v>
+        <v>3610</v>
       </c>
       <c r="B1153" t="s">
-        <v>3607</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="1" t="s">
-        <v>3608</v>
+        <v>3612</v>
       </c>
       <c r="B1154" t="s">
-        <v>3609</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="1" t="s">
-        <v>3610</v>
+        <v>3614</v>
       </c>
       <c r="B1155" t="s">
-        <v>3611</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" s="1" t="s">
-        <v>3612</v>
+        <v>3616</v>
       </c>
       <c r="B1156" t="s">
-        <v>3613</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="1" t="s">
-        <v>3614</v>
+        <v>3618</v>
       </c>
       <c r="B1157" t="s">
-        <v>3615</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="1" t="s">
-        <v>3616</v>
+        <v>3620</v>
       </c>
       <c r="B1158" t="s">
-        <v>3617</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="1" t="s">
-        <v>3618</v>
+        <v>3622</v>
       </c>
       <c r="B1159" t="s">
-        <v>3619</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" s="1" t="s">
-        <v>3620</v>
+        <v>3624</v>
       </c>
       <c r="B1160" t="s">
-        <v>3621</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="1" t="s">
-        <v>3622</v>
+        <v>3626</v>
       </c>
       <c r="B1161" t="s">
-        <v>3623</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="1" t="s">
-        <v>3624</v>
+        <v>3628</v>
       </c>
       <c r="B1162" t="s">
-        <v>3625</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="1" t="s">
-        <v>3626</v>
+        <v>3630</v>
       </c>
       <c r="B1163" t="s">
-        <v>3627</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="1" t="s">
-        <v>3628</v>
+        <v>3632</v>
       </c>
       <c r="B1164" t="s">
-        <v>3629</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" s="1" t="s">
-        <v>3630</v>
+        <v>3634</v>
       </c>
       <c r="B1165" t="s">
-        <v>3631</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" s="1" t="s">
-        <v>3632</v>
+        <v>3636</v>
       </c>
       <c r="B1166" t="s">
-        <v>3633</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="1" t="s">
-        <v>3634</v>
+        <v>3638</v>
       </c>
       <c r="B1167" t="s">
-        <v>3635</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" s="1" t="s">
-        <v>3636</v>
+        <v>3640</v>
       </c>
       <c r="B1168" t="s">
-        <v>3637</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="1" t="s">
-        <v>3638</v>
+        <v>3642</v>
       </c>
       <c r="B1169" t="s">
-        <v>3639</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="1" t="s">
-        <v>3640</v>
+        <v>3644</v>
       </c>
       <c r="B1170" t="s">
-        <v>3641</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="1" t="s">
-        <v>3642</v>
+        <v>3646</v>
       </c>
       <c r="B1171" t="s">
-        <v>3643</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="1" t="s">
-        <v>3644</v>
+        <v>3648</v>
       </c>
       <c r="B1172" t="s">
-        <v>3645</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="1" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
       <c r="B1173" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" s="1" t="s">
-        <v>3648</v>
+        <v>3652</v>
       </c>
       <c r="B1174" t="s">
-        <v>3649</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" s="1" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="B1175" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="1" t="s">
-        <v>3652</v>
+        <v>3656</v>
       </c>
       <c r="B1176" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" s="1" t="s">
-        <v>3654</v>
+        <v>3658</v>
       </c>
       <c r="B1177" t="s">
-        <v>3655</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" s="1" t="s">
-        <v>3656</v>
+        <v>3660</v>
       </c>
       <c r="B1178" t="s">
-        <v>3657</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" s="1" t="s">
-        <v>3658</v>
+        <v>3662</v>
       </c>
       <c r="B1179" t="s">
-        <v>3659</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" s="1" t="s">
-        <v>3660</v>
+        <v>3664</v>
       </c>
       <c r="B1180" t="s">
-        <v>3661</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" s="1" t="s">
-        <v>3662</v>
+        <v>3666</v>
       </c>
       <c r="B1181" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" s="1" t="s">
-        <v>3664</v>
+        <v>3668</v>
       </c>
       <c r="B1182" t="s">
-        <v>3665</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" s="1" t="s">
-        <v>3666</v>
+        <v>3670</v>
       </c>
       <c r="B1183" t="s">
-        <v>3667</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" s="1" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="B1184" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="1" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="B1185" t="s">
-        <v>3671</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="1" t="s">
-        <v>3672</v>
+        <v>3676</v>
       </c>
       <c r="B1186" t="s">
-        <v>3673</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="1" t="s">
-        <v>3674</v>
+        <v>3678</v>
       </c>
       <c r="B1187" t="s">
-        <v>3675</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="1" t="s">
-        <v>3676</v>
+        <v>3680</v>
       </c>
       <c r="B1188" t="s">
-        <v>3677</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="1" t="s">
-        <v>3678</v>
+        <v>3682</v>
       </c>
       <c r="B1189" t="s">
-        <v>3679</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190" s="1" t="s">
-        <v>3680</v>
+        <v>3684</v>
       </c>
       <c r="B1190" t="s">
-        <v>3681</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" s="1" t="s">
-        <v>3682</v>
+        <v>3686</v>
       </c>
       <c r="B1191" t="s">
-        <v>3683</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" s="1" t="s">
-        <v>3684</v>
+        <v>3688</v>
       </c>
       <c r="B1192" t="s">
-        <v>3685</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="1" t="s">
-        <v>3686</v>
+        <v>3690</v>
       </c>
       <c r="B1193" t="s">
-        <v>3687</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="1" t="s">
-        <v>3688</v>
+        <v>3692</v>
       </c>
       <c r="B1194" t="s">
-        <v>3689</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="1" t="s">
-        <v>3690</v>
+        <v>3694</v>
       </c>
       <c r="B1195" t="s">
-        <v>3691</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" s="1" t="s">
-        <v>3692</v>
+        <v>3696</v>
       </c>
       <c r="B1196" t="s">
-        <v>3693</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="1" t="s">
-        <v>3694</v>
+        <v>3698</v>
       </c>
       <c r="B1197" t="s">
-        <v>3695</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
       <c r="A1198" s="1" t="s">
-        <v>3696</v>
+        <v>3700</v>
       </c>
       <c r="B1198" t="s">
-        <v>3697</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
       <c r="A1199" s="1" t="s">
-        <v>3698</v>
+        <v>3702</v>
       </c>
       <c r="B1199" t="s">
-        <v>3699</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" s="1" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="B1200" t="s">
-        <v>3701</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="1" t="s">
-        <v>3702</v>
+        <v>3705</v>
       </c>
       <c r="B1201" t="s">
-        <v>3675</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="1" t="s">
-        <v>3703</v>
+        <v>3707</v>
       </c>
       <c r="B1202" t="s">
-        <v>3704</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" s="1" t="s">
-        <v>3705</v>
+        <v>3709</v>
       </c>
       <c r="B1203" t="s">
-        <v>3706</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="1" t="s">
-        <v>3707</v>
+        <v>3711</v>
       </c>
       <c r="B1204" t="s">
-        <v>3708</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="1" t="s">
-        <v>3709</v>
+        <v>3713</v>
       </c>
       <c r="B1205" t="s">
-        <v>3710</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" s="1" t="s">
-        <v>3711</v>
+        <v>3715</v>
       </c>
       <c r="B1206" t="s">
-        <v>3712</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="1" t="s">
-        <v>3713</v>
+        <v>3717</v>
       </c>
       <c r="B1207" t="s">
-        <v>3714</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="1" t="s">
-        <v>3715</v>
+        <v>3719</v>
       </c>
       <c r="B1208" t="s">
-        <v>3716</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="1" t="s">
-        <v>3717</v>
+        <v>3721</v>
       </c>
       <c r="B1209" t="s">
-        <v>3718</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="1" t="s">
-        <v>3719</v>
+        <v>4442</v>
       </c>
       <c r="B1210" t="s">
-        <v>3720</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="1" t="s">
-        <v>3721</v>
+        <v>3723</v>
       </c>
       <c r="B1211" t="s">
-        <v>3722</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="1" t="s">
-        <v>4442</v>
+        <v>3725</v>
       </c>
       <c r="B1212" t="s">
-        <v>4443</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="1" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
       <c r="B1213" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" s="1" t="s">
-        <v>3725</v>
+        <v>3728</v>
       </c>
       <c r="B1214" t="s">
-        <v>3725</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="1" t="s">
-        <v>3726</v>
+        <v>3730</v>
       </c>
       <c r="B1215" t="s">
-        <v>3727</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="1" t="s">
-        <v>3728</v>
+        <v>3732</v>
       </c>
       <c r="B1216" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="1" t="s">
-        <v>3730</v>
+        <v>3734</v>
       </c>
       <c r="B1217" t="s">
-        <v>3731</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="1" t="s">
-        <v>3732</v>
+        <v>3736</v>
       </c>
       <c r="B1218" t="s">
-        <v>3733</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="1" t="s">
-        <v>3734</v>
+        <v>3738</v>
       </c>
       <c r="B1219" t="s">
-        <v>3735</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="1" t="s">
-        <v>3736</v>
+        <v>3740</v>
       </c>
       <c r="B1220" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="1" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="B1221" t="s">
-        <v>3739</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="1" t="s">
-        <v>3740</v>
+        <v>3744</v>
       </c>
       <c r="B1222" t="s">
-        <v>3741</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="1" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="B1223" t="s">
-        <v>3743</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="1" t="s">
-        <v>3744</v>
+        <v>3748</v>
       </c>
       <c r="B1224" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="1" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="B1225" t="s">
-        <v>3747</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="1" t="s">
-        <v>3748</v>
+        <v>4425</v>
       </c>
       <c r="B1226" t="s">
-        <v>3749</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="1" t="s">
-        <v>3750</v>
+        <v>3752</v>
       </c>
       <c r="B1227" t="s">
-        <v>3751</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="1" t="s">
-        <v>4425</v>
+        <v>3754</v>
       </c>
       <c r="B1228" t="s">
-        <v>4426</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="1" t="s">
-        <v>3752</v>
+        <v>3755</v>
       </c>
       <c r="B1229" t="s">
-        <v>3753</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230" s="1" t="s">
-        <v>3754</v>
+        <v>3757</v>
       </c>
       <c r="B1230" t="s">
-        <v>3749</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="1" t="s">
-        <v>3755</v>
+        <v>3759</v>
       </c>
       <c r="B1231" t="s">
-        <v>3756</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="1" t="s">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="B1232" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="1" t="s">
-        <v>3759</v>
+        <v>3763</v>
       </c>
       <c r="B1233" t="s">
-        <v>3760</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="1" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="B1234" t="s">
-        <v>3762</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="1" t="s">
-        <v>3763</v>
+        <v>3767</v>
       </c>
       <c r="B1235" t="s">
-        <v>3764</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="1" t="s">
-        <v>3765</v>
+        <v>3769</v>
       </c>
       <c r="B1236" t="s">
-        <v>3766</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="1" t="s">
-        <v>3767</v>
+        <v>3771</v>
       </c>
       <c r="B1237" t="s">
-        <v>3768</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="1" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="B1238" t="s">
-        <v>3770</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="1" t="s">
-        <v>3771</v>
+        <v>3775</v>
       </c>
       <c r="B1239" t="s">
-        <v>3772</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="1" t="s">
-        <v>3773</v>
+        <v>3776</v>
       </c>
       <c r="B1240" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="1" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="B1241" t="s">
-        <v>3762</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="1" t="s">
-        <v>3776</v>
+        <v>3780</v>
       </c>
       <c r="B1242" t="s">
-        <v>3777</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="1" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="B1243" t="s">
-        <v>3779</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="1" t="s">
-        <v>3780</v>
+        <v>4444</v>
       </c>
       <c r="B1244" t="s">
-        <v>3781</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="1" t="s">
-        <v>3782</v>
+        <v>3784</v>
       </c>
       <c r="B1245" t="s">
-        <v>3783</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="1" t="s">
-        <v>4444</v>
+        <v>3786</v>
       </c>
       <c r="B1246" t="s">
-        <v>4445</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="1" t="s">
-        <v>3784</v>
+        <v>3788</v>
       </c>
       <c r="B1247" t="s">
-        <v>3785</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="1" t="s">
-        <v>3786</v>
+        <v>3790</v>
       </c>
       <c r="B1248" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="1" t="s">
-        <v>3788</v>
+        <v>3792</v>
       </c>
       <c r="B1249" t="s">
-        <v>3789</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="1" t="s">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="B1250" t="s">
-        <v>3791</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="1" t="s">
-        <v>3792</v>
+        <v>3796</v>
       </c>
       <c r="B1251" t="s">
-        <v>3793</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="1" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="B1252" t="s">
-        <v>3795</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="1" t="s">
-        <v>3796</v>
+        <v>3800</v>
       </c>
       <c r="B1253" t="s">
-        <v>3797</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="1" t="s">
-        <v>3798</v>
+        <v>3802</v>
       </c>
       <c r="B1254" t="s">
-        <v>3799</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="1" t="s">
-        <v>3800</v>
+        <v>3804</v>
       </c>
       <c r="B1255" t="s">
-        <v>3801</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="1" t="s">
-        <v>3802</v>
+        <v>3806</v>
       </c>
       <c r="B1256" t="s">
-        <v>3803</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="1" t="s">
-        <v>3804</v>
+        <v>3808</v>
       </c>
       <c r="B1257" t="s">
-        <v>3805</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="1" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="B1258" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="1" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="B1259" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="1" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
       <c r="B1260" t="s">
-        <v>3811</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="1" t="s">
-        <v>3812</v>
+        <v>3816</v>
       </c>
       <c r="B1261" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="1" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="B1262" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="1" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="B1263" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="1" t="s">
-        <v>3818</v>
+        <v>3822</v>
       </c>
       <c r="B1264" t="s">
-        <v>3819</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" s="1" t="s">
-        <v>3820</v>
+        <v>3824</v>
       </c>
       <c r="B1265" t="s">
-        <v>3821</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
       <c r="A1266" s="1" t="s">
-        <v>3822</v>
+        <v>3826</v>
       </c>
       <c r="B1266" t="s">
-        <v>3823</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="1" t="s">
-        <v>3824</v>
+        <v>3828</v>
       </c>
       <c r="B1267" t="s">
-        <v>3825</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="1" t="s">
-        <v>3826</v>
+        <v>3830</v>
       </c>
       <c r="B1268" t="s">
-        <v>3827</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269" s="1" t="s">
-        <v>3828</v>
+        <v>3832</v>
       </c>
       <c r="B1269" t="s">
-        <v>3829</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
       <c r="A1270" s="1" t="s">
-        <v>3830</v>
+        <v>4448</v>
       </c>
       <c r="B1270" t="s">
-        <v>3831</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="1" t="s">
-        <v>3832</v>
+        <v>3834</v>
       </c>
       <c r="B1271" t="s">
-        <v>3833</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
       <c r="A1272" s="1" t="s">
-        <v>4448</v>
+        <v>3836</v>
       </c>
       <c r="B1272" t="s">
-        <v>4449</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="1" t="s">
-        <v>3834</v>
+        <v>3838</v>
       </c>
       <c r="B1273" t="s">
-        <v>3835</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="1" t="s">
-        <v>3836</v>
+        <v>3840</v>
       </c>
       <c r="B1274" t="s">
-        <v>3837</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
       <c r="A1275" s="1" t="s">
-        <v>3838</v>
+        <v>3842</v>
       </c>
       <c r="B1275" t="s">
-        <v>3839</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
       <c r="A1276" s="1" t="s">
-        <v>3840</v>
+        <v>3844</v>
       </c>
       <c r="B1276" t="s">
-        <v>3841</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="1" t="s">
-        <v>3842</v>
+        <v>3846</v>
       </c>
       <c r="B1277" t="s">
-        <v>3843</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" s="1" t="s">
-        <v>3844</v>
+        <v>3847</v>
       </c>
       <c r="B1278" t="s">
-        <v>3845</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="1" t="s">
-        <v>3846</v>
+        <v>3849</v>
       </c>
       <c r="B1279" t="s">
-        <v>3559</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="1" t="s">
-        <v>3847</v>
+        <v>3851</v>
       </c>
       <c r="B1280" t="s">
-        <v>3848</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="1" t="s">
-        <v>3849</v>
+        <v>3852</v>
       </c>
       <c r="B1281" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="1" t="s">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="B1282" t="s">
-        <v>2996</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283" s="1" t="s">
-        <v>3852</v>
+        <v>3856</v>
       </c>
       <c r="B1283" t="s">
-        <v>3853</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
       <c r="A1284" s="1" t="s">
-        <v>3854</v>
+        <v>3858</v>
       </c>
       <c r="B1284" t="s">
-        <v>3855</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="1" t="s">
-        <v>3856</v>
+        <v>3860</v>
       </c>
       <c r="B1285" t="s">
-        <v>3857</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="1" t="s">
-        <v>3858</v>
+        <v>4437</v>
       </c>
       <c r="B1286" t="s">
-        <v>3859</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="1" t="s">
-        <v>3860</v>
+        <v>3862</v>
       </c>
       <c r="B1287" t="s">
-        <v>3861</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="1" t="s">
-        <v>4437</v>
+        <v>4455</v>
       </c>
       <c r="B1288" t="s">
-        <v>4436</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="1" t="s">
-        <v>3862</v>
+        <v>3864</v>
       </c>
       <c r="B1289" t="s">
-        <v>3863</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="1" t="s">
-        <v>4455</v>
+        <v>3866</v>
       </c>
       <c r="B1290" t="s">
-        <v>4456</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>3864</v>
+        <v>3868</v>
       </c>
       <c r="B1291" t="s">
-        <v>3865</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3866</v>
+        <v>3870</v>
       </c>
       <c r="B1292" t="s">
-        <v>3867</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3868</v>
+        <v>3872</v>
       </c>
       <c r="B1293" t="s">
-        <v>3869</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3870</v>
+        <v>3874</v>
       </c>
       <c r="B1294" t="s">
-        <v>3871</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3872</v>
+        <v>3876</v>
       </c>
       <c r="B1295" t="s">
-        <v>3873</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3874</v>
+        <v>3878</v>
       </c>
       <c r="B1296" t="s">
-        <v>3875</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3876</v>
+        <v>3880</v>
       </c>
       <c r="B1297" t="s">
-        <v>3877</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3878</v>
+        <v>3882</v>
       </c>
       <c r="B1298" t="s">
-        <v>3879</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3880</v>
+        <v>3884</v>
       </c>
       <c r="B1299" t="s">
-        <v>3881</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3882</v>
+        <v>3886</v>
       </c>
       <c r="B1300" t="s">
-        <v>3883</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3884</v>
+        <v>3888</v>
       </c>
       <c r="B1301" t="s">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3886</v>
+        <v>3890</v>
       </c>
       <c r="B1302" t="s">
-        <v>3887</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3888</v>
+        <v>3892</v>
       </c>
       <c r="B1303" t="s">
-        <v>3889</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3890</v>
+        <v>3894</v>
       </c>
       <c r="B1304" t="s">
-        <v>3891</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3892</v>
+        <v>3896</v>
       </c>
       <c r="B1305" t="s">
-        <v>3893</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3894</v>
+        <v>3898</v>
       </c>
       <c r="B1306" t="s">
-        <v>3895</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3896</v>
+        <v>3900</v>
       </c>
       <c r="B1307" t="s">
-        <v>3897</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3898</v>
+        <v>3902</v>
       </c>
       <c r="B1308" t="s">
-        <v>3899</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3900</v>
+        <v>3904</v>
       </c>
       <c r="B1309" t="s">
-        <v>3901</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3902</v>
+        <v>3906</v>
       </c>
       <c r="B1310" t="s">
-        <v>3903</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3904</v>
+        <v>3908</v>
       </c>
       <c r="B1311" t="s">
-        <v>3905</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="B1312" t="s">
-        <v>3907</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3908</v>
+        <v>3912</v>
       </c>
       <c r="B1313" t="s">
         <v>3909</v>
@@ -24701,2113 +24690,2097 @@
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3910</v>
+        <v>3913</v>
       </c>
       <c r="B1314" t="s">
-        <v>3911</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3912</v>
+        <v>3915</v>
       </c>
       <c r="B1315" t="s">
-        <v>3909</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3913</v>
+        <v>3917</v>
       </c>
       <c r="B1316" t="s">
-        <v>3914</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3915</v>
+        <v>3919</v>
       </c>
       <c r="B1317" t="s">
-        <v>3916</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3917</v>
+        <v>3921</v>
       </c>
       <c r="B1318" t="s">
-        <v>3918</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3919</v>
+        <v>3923</v>
       </c>
       <c r="B1319" t="s">
-        <v>3920</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="B1320" t="s">
-        <v>3922</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3923</v>
+        <v>3927</v>
       </c>
       <c r="B1321" t="s">
-        <v>3924</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3925</v>
+        <v>3929</v>
       </c>
       <c r="B1322" t="s">
-        <v>3926</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3927</v>
+        <v>3931</v>
       </c>
       <c r="B1323" t="s">
-        <v>3928</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3929</v>
+        <v>3933</v>
       </c>
       <c r="B1324" t="s">
-        <v>3930</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3931</v>
+        <v>3935</v>
       </c>
       <c r="B1325" t="s">
-        <v>3932</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3933</v>
+        <v>3937</v>
       </c>
       <c r="B1326" t="s">
-        <v>3934</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3935</v>
+        <v>3939</v>
       </c>
       <c r="B1327" t="s">
-        <v>3936</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3937</v>
+        <v>3941</v>
       </c>
       <c r="B1328" t="s">
-        <v>3938</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3939</v>
+        <v>3943</v>
       </c>
       <c r="B1329" t="s">
-        <v>3940</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3941</v>
+        <v>3945</v>
       </c>
       <c r="B1330" t="s">
-        <v>3942</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3943</v>
+        <v>3947</v>
       </c>
       <c r="B1331" t="s">
-        <v>3944</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3945</v>
+        <v>3949</v>
       </c>
       <c r="B1332" t="s">
-        <v>3946</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3947</v>
+        <v>3951</v>
       </c>
       <c r="B1333" t="s">
-        <v>3948</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3949</v>
+        <v>3953</v>
       </c>
       <c r="B1334" t="s">
-        <v>3950</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3951</v>
+        <v>3955</v>
       </c>
       <c r="B1335" t="s">
-        <v>3952</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3953</v>
+        <v>3956</v>
       </c>
       <c r="B1336" t="s">
-        <v>3954</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3955</v>
+        <v>3958</v>
       </c>
       <c r="B1337" t="s">
-        <v>3942</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3956</v>
+        <v>3960</v>
       </c>
       <c r="B1338" t="s">
-        <v>3957</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3958</v>
+        <v>3962</v>
       </c>
       <c r="B1339" t="s">
-        <v>3959</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3960</v>
+        <v>3964</v>
       </c>
       <c r="B1340" t="s">
-        <v>3961</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3962</v>
+        <v>3965</v>
       </c>
       <c r="B1341" t="s">
-        <v>3963</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>3964</v>
+        <v>4463</v>
       </c>
       <c r="B1342" t="s">
-        <v>3848</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3965</v>
+        <v>3967</v>
       </c>
       <c r="B1343" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>4463</v>
+        <v>3969</v>
       </c>
       <c r="B1344" t="s">
-        <v>4464</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>3967</v>
+        <v>3971</v>
       </c>
       <c r="B1345" t="s">
-        <v>3968</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>3969</v>
+        <v>3973</v>
       </c>
       <c r="B1346" t="s">
-        <v>3970</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>3971</v>
+        <v>3975</v>
       </c>
       <c r="B1347" t="s">
-        <v>3972</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>3973</v>
+        <v>3977</v>
       </c>
       <c r="B1348" t="s">
-        <v>3974</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>3975</v>
+        <v>3979</v>
       </c>
       <c r="B1349" t="s">
-        <v>3976</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>3977</v>
+        <v>3981</v>
       </c>
       <c r="B1350" t="s">
-        <v>3978</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>3979</v>
+        <v>3983</v>
       </c>
       <c r="B1351" t="s">
-        <v>3980</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>3981</v>
+        <v>3985</v>
       </c>
       <c r="B1352" t="s">
-        <v>3982</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>3983</v>
+        <v>3987</v>
       </c>
       <c r="B1353" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>3985</v>
+        <v>3989</v>
       </c>
       <c r="B1354" t="s">
-        <v>3986</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>3987</v>
+        <v>3991</v>
       </c>
       <c r="B1355" t="s">
-        <v>3988</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>3989</v>
+        <v>3993</v>
       </c>
       <c r="B1356" t="s">
-        <v>3990</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>3991</v>
+        <v>3995</v>
       </c>
       <c r="B1357" t="s">
-        <v>3992</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>3993</v>
+        <v>3997</v>
       </c>
       <c r="B1358" t="s">
-        <v>3994</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>3995</v>
+        <v>3999</v>
       </c>
       <c r="B1359" t="s">
-        <v>3996</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>3997</v>
+        <v>4001</v>
       </c>
       <c r="B1360" t="s">
-        <v>3998</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>3999</v>
+        <v>4003</v>
       </c>
       <c r="B1361" t="s">
-        <v>4000</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="B1362" t="s">
-        <v>4002</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4003</v>
+        <v>4007</v>
       </c>
       <c r="B1363" t="s">
-        <v>4004</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4005</v>
+        <v>4009</v>
       </c>
       <c r="B1364" t="s">
-        <v>4006</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4007</v>
+        <v>4011</v>
       </c>
       <c r="B1365" t="s">
-        <v>4008</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4009</v>
+        <v>4013</v>
       </c>
       <c r="B1366" t="s">
-        <v>4010</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4011</v>
+        <v>4015</v>
       </c>
       <c r="B1367" t="s">
-        <v>4012</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4013</v>
+        <v>4453</v>
       </c>
       <c r="B1368" t="s">
-        <v>4014</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
       <c r="B1369" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4453</v>
+        <v>4019</v>
       </c>
       <c r="B1370" t="s">
-        <v>4454</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4017</v>
+        <v>4021</v>
       </c>
       <c r="B1371" t="s">
-        <v>4018</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4019</v>
+        <v>4023</v>
       </c>
       <c r="B1372" t="s">
-        <v>4020</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4021</v>
+        <v>4025</v>
       </c>
       <c r="B1373" t="s">
-        <v>4022</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4023</v>
+        <v>4027</v>
       </c>
       <c r="B1374" t="s">
-        <v>4024</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4025</v>
+        <v>4029</v>
       </c>
       <c r="B1375" t="s">
-        <v>4026</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4027</v>
+        <v>4031</v>
       </c>
       <c r="B1376" t="s">
-        <v>4028</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4029</v>
+        <v>4033</v>
       </c>
       <c r="B1377" t="s">
-        <v>4030</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4031</v>
+        <v>4035</v>
       </c>
       <c r="B1378" t="s">
-        <v>4032</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4033</v>
+        <v>4037</v>
       </c>
       <c r="B1379" t="s">
-        <v>4034</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4035</v>
+        <v>4039</v>
       </c>
       <c r="B1380" t="s">
-        <v>4036</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4037</v>
+        <v>4041</v>
       </c>
       <c r="B1381" t="s">
-        <v>4038</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4039</v>
+        <v>4043</v>
       </c>
       <c r="B1382" t="s">
-        <v>4040</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4041</v>
+        <v>4045</v>
       </c>
       <c r="B1383" t="s">
-        <v>4042</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4043</v>
+        <v>4047</v>
       </c>
       <c r="B1384" t="s">
-        <v>4044</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4045</v>
+        <v>4049</v>
       </c>
       <c r="B1385" t="s">
-        <v>4046</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4047</v>
+        <v>4051</v>
       </c>
       <c r="B1386" t="s">
-        <v>4048</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4049</v>
+        <v>4053</v>
       </c>
       <c r="B1387" t="s">
-        <v>4050</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4051</v>
+        <v>4055</v>
       </c>
       <c r="B1388" t="s">
-        <v>4052</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4053</v>
+        <v>4057</v>
       </c>
       <c r="B1389" t="s">
-        <v>4054</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4055</v>
+        <v>4059</v>
       </c>
       <c r="B1390" t="s">
-        <v>4056</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4057</v>
+        <v>4061</v>
       </c>
       <c r="B1391" t="s">
-        <v>4058</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4059</v>
+        <v>4063</v>
       </c>
       <c r="B1392" t="s">
-        <v>4060</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4061</v>
+        <v>4065</v>
       </c>
       <c r="B1393" t="s">
-        <v>4062</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4063</v>
+        <v>4067</v>
       </c>
       <c r="B1394" t="s">
-        <v>4064</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4065</v>
+        <v>4069</v>
       </c>
       <c r="B1395" t="s">
-        <v>4066</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4067</v>
+        <v>4071</v>
       </c>
       <c r="B1396" t="s">
-        <v>4068</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4069</v>
+        <v>4073</v>
       </c>
       <c r="B1397" t="s">
-        <v>4070</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4071</v>
+        <v>4075</v>
       </c>
       <c r="B1398" t="s">
-        <v>4072</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4073</v>
+        <v>4077</v>
       </c>
       <c r="B1399" t="s">
-        <v>4074</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4075</v>
+        <v>4079</v>
       </c>
       <c r="B1400" t="s">
-        <v>4076</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4077</v>
+        <v>4081</v>
       </c>
       <c r="B1401" t="s">
-        <v>4078</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4079</v>
+        <v>4083</v>
       </c>
       <c r="B1402" t="s">
-        <v>4080</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4081</v>
+        <v>4085</v>
       </c>
       <c r="B1403" t="s">
-        <v>4082</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4083</v>
+        <v>4087</v>
       </c>
       <c r="B1404" t="s">
-        <v>4084</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="B1405" t="s">
-        <v>4086</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4087</v>
+        <v>4091</v>
       </c>
       <c r="B1406" t="s">
-        <v>4088</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4089</v>
+        <v>4093</v>
       </c>
       <c r="B1407" t="s">
-        <v>4090</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4091</v>
+        <v>4095</v>
       </c>
       <c r="B1408" t="s">
-        <v>4092</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4093</v>
+        <v>4097</v>
       </c>
       <c r="B1409" t="s">
-        <v>4094</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4471</v>
+        <v>4099</v>
       </c>
       <c r="B1410" t="s">
-        <v>4472</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4095</v>
+        <v>4101</v>
       </c>
       <c r="B1411" t="s">
-        <v>4096</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4097</v>
+        <v>4103</v>
       </c>
       <c r="B1412" t="s">
-        <v>4098</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4099</v>
+        <v>4105</v>
       </c>
       <c r="B1413" t="s">
-        <v>4100</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4101</v>
+        <v>4107</v>
       </c>
       <c r="B1414" t="s">
-        <v>4102</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4103</v>
+        <v>4109</v>
       </c>
       <c r="B1415" t="s">
-        <v>4104</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4105</v>
+        <v>4111</v>
       </c>
       <c r="B1416" t="s">
-        <v>4106</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4107</v>
+        <v>4113</v>
       </c>
       <c r="B1417" t="s">
-        <v>4108</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4109</v>
+        <v>4115</v>
       </c>
       <c r="B1418" t="s">
-        <v>4110</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4111</v>
+        <v>4117</v>
       </c>
       <c r="B1419" t="s">
-        <v>4112</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4113</v>
+        <v>4119</v>
       </c>
       <c r="B1420" t="s">
-        <v>4114</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4115</v>
+        <v>4121</v>
       </c>
       <c r="B1421" t="s">
-        <v>4116</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4117</v>
+        <v>4123</v>
       </c>
       <c r="B1422" t="s">
-        <v>4118</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4119</v>
+        <v>4125</v>
       </c>
       <c r="B1423" t="s">
-        <v>4120</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4121</v>
+        <v>4127</v>
       </c>
       <c r="B1424" t="s">
-        <v>4122</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4123</v>
+        <v>4129</v>
       </c>
       <c r="B1425" t="s">
-        <v>4124</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4125</v>
+        <v>4131</v>
       </c>
       <c r="B1426" t="s">
-        <v>4126</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4127</v>
+        <v>4133</v>
       </c>
       <c r="B1427" t="s">
-        <v>4128</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4129</v>
+        <v>4135</v>
       </c>
       <c r="B1428" t="s">
-        <v>4130</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4131</v>
+        <v>4137</v>
       </c>
       <c r="B1429" t="s">
-        <v>4132</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4133</v>
+        <v>4139</v>
       </c>
       <c r="B1430" t="s">
-        <v>4134</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4135</v>
+        <v>4141</v>
       </c>
       <c r="B1431" t="s">
-        <v>4136</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4137</v>
+        <v>4143</v>
       </c>
       <c r="B1432" t="s">
-        <v>4138</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4139</v>
+        <v>4423</v>
       </c>
       <c r="B1433" t="s">
-        <v>4140</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4141</v>
+        <v>4145</v>
       </c>
       <c r="B1434" t="s">
-        <v>4142</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4143</v>
+        <v>4147</v>
       </c>
       <c r="B1435" t="s">
-        <v>4144</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4423</v>
+        <v>4149</v>
       </c>
       <c r="B1436" t="s">
-        <v>4424</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4145</v>
+        <v>4151</v>
       </c>
       <c r="B1437" t="s">
-        <v>4146</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4147</v>
+        <v>4153</v>
       </c>
       <c r="B1438" t="s">
-        <v>4148</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4149</v>
+        <v>4155</v>
       </c>
       <c r="B1439" t="s">
-        <v>4150</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4151</v>
+        <v>4157</v>
       </c>
       <c r="B1440" t="s">
-        <v>4152</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4153</v>
+        <v>4159</v>
       </c>
       <c r="B1441" t="s">
-        <v>4154</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4155</v>
+        <v>4457</v>
       </c>
       <c r="B1442" t="s">
-        <v>4156</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4157</v>
+        <v>4459</v>
       </c>
       <c r="B1443" t="s">
-        <v>4158</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4159</v>
+        <v>4161</v>
       </c>
       <c r="B1444" t="s">
-        <v>4160</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4457</v>
+        <v>4163</v>
       </c>
       <c r="B1445" t="s">
-        <v>4458</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4459</v>
+        <v>4165</v>
       </c>
       <c r="B1446" t="s">
-        <v>4460</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4161</v>
+        <v>4167</v>
       </c>
       <c r="B1447" t="s">
-        <v>4162</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4163</v>
+        <v>4169</v>
       </c>
       <c r="B1448" t="s">
-        <v>4164</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4165</v>
+        <v>4171</v>
       </c>
       <c r="B1449" t="s">
-        <v>4166</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4167</v>
+        <v>4173</v>
       </c>
       <c r="B1450" t="s">
-        <v>4168</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4169</v>
+        <v>4175</v>
       </c>
       <c r="B1451" t="s">
-        <v>4170</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4171</v>
+        <v>4452</v>
       </c>
       <c r="B1452" t="s">
-        <v>4172</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4173</v>
+        <v>4177</v>
       </c>
       <c r="B1453" t="s">
-        <v>4174</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4175</v>
+        <v>4179</v>
       </c>
       <c r="B1454" t="s">
-        <v>4176</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4452</v>
+        <v>4181</v>
       </c>
       <c r="B1455" t="s">
-        <v>4451</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4177</v>
+        <v>4183</v>
       </c>
       <c r="B1456" t="s">
-        <v>4178</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4179</v>
+        <v>4185</v>
       </c>
       <c r="B1457" t="s">
-        <v>4180</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4181</v>
+        <v>4187</v>
       </c>
       <c r="B1458" t="s">
-        <v>4182</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4183</v>
+        <v>4189</v>
       </c>
       <c r="B1459" t="s">
-        <v>4184</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4185</v>
+        <v>4191</v>
       </c>
       <c r="B1460" t="s">
-        <v>4186</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4187</v>
+        <v>4193</v>
       </c>
       <c r="B1461" t="s">
-        <v>4188</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4189</v>
+        <v>4195</v>
       </c>
       <c r="B1462" t="s">
-        <v>4190</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4191</v>
+        <v>4197</v>
       </c>
       <c r="B1463" t="s">
-        <v>4192</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4193</v>
+        <v>4199</v>
       </c>
       <c r="B1464" t="s">
-        <v>4194</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4195</v>
+        <v>4201</v>
       </c>
       <c r="B1465" t="s">
-        <v>4196</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4197</v>
+        <v>4203</v>
       </c>
       <c r="B1466" t="s">
-        <v>4198</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4199</v>
+        <v>4205</v>
       </c>
       <c r="B1467" t="s">
-        <v>4200</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4201</v>
+        <v>4207</v>
       </c>
       <c r="B1468" t="s">
-        <v>4202</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4203</v>
+        <v>4209</v>
       </c>
       <c r="B1469" t="s">
-        <v>4204</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4205</v>
+        <v>4211</v>
       </c>
       <c r="B1470" t="s">
-        <v>4206</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4207</v>
+        <v>4213</v>
       </c>
       <c r="B1471" t="s">
-        <v>4208</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4209</v>
+        <v>4215</v>
       </c>
       <c r="B1472" t="s">
-        <v>4210</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4211</v>
+        <v>4217</v>
       </c>
       <c r="B1473" t="s">
-        <v>4212</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4213</v>
+        <v>4219</v>
       </c>
       <c r="B1474" t="s">
-        <v>4214</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4215</v>
+        <v>4221</v>
       </c>
       <c r="B1475" t="s">
-        <v>4216</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4217</v>
+        <v>4223</v>
       </c>
       <c r="B1476" t="s">
-        <v>4218</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4219</v>
+        <v>4225</v>
       </c>
       <c r="B1477" t="s">
-        <v>4220</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4221</v>
+        <v>4465</v>
       </c>
       <c r="B1478" t="s">
-        <v>4222</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4223</v>
+        <v>4227</v>
       </c>
       <c r="B1479" t="s">
-        <v>4224</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4225</v>
+        <v>4229</v>
       </c>
       <c r="B1480" t="s">
-        <v>4226</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4465</v>
+        <v>4231</v>
       </c>
       <c r="B1481" t="s">
-        <v>4466</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4227</v>
+        <v>4233</v>
       </c>
       <c r="B1482" t="s">
-        <v>4228</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4229</v>
+        <v>4235</v>
       </c>
       <c r="B1483" t="s">
-        <v>4230</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4231</v>
+        <v>4237</v>
       </c>
       <c r="B1484" t="s">
-        <v>4232</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4233</v>
+        <v>4239</v>
       </c>
       <c r="B1485" t="s">
-        <v>4234</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4235</v>
+        <v>4241</v>
       </c>
       <c r="B1486" t="s">
-        <v>4236</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4237</v>
+        <v>4243</v>
       </c>
       <c r="B1487" t="s">
-        <v>4238</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4239</v>
+        <v>4245</v>
       </c>
       <c r="B1488" t="s">
-        <v>4240</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4241</v>
+        <v>4247</v>
       </c>
       <c r="B1489" t="s">
-        <v>4242</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4243</v>
+        <v>4249</v>
       </c>
       <c r="B1490" t="s">
-        <v>4244</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4245</v>
+        <v>4251</v>
       </c>
       <c r="B1491" t="s">
-        <v>4246</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4247</v>
+        <v>4253</v>
       </c>
       <c r="B1492" t="s">
-        <v>4248</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4249</v>
+        <v>4255</v>
       </c>
       <c r="B1493" t="s">
-        <v>4250</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4251</v>
+        <v>4257</v>
       </c>
       <c r="B1494" t="s">
-        <v>4252</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4253</v>
+        <v>4259</v>
       </c>
       <c r="B1495" t="s">
-        <v>4254</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4255</v>
+        <v>4261</v>
       </c>
       <c r="B1496" t="s">
-        <v>4256</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4257</v>
+        <v>4263</v>
       </c>
       <c r="B1497" t="s">
-        <v>4258</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4259</v>
+        <v>4265</v>
       </c>
       <c r="B1498" t="s">
-        <v>4260</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4261</v>
+        <v>4267</v>
       </c>
       <c r="B1499" t="s">
-        <v>4262</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4263</v>
+        <v>4269</v>
       </c>
       <c r="B1500" t="s">
-        <v>4264</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4265</v>
+        <v>4271</v>
       </c>
       <c r="B1501" t="s">
-        <v>4266</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4267</v>
+        <v>4273</v>
       </c>
       <c r="B1502" t="s">
-        <v>4268</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4269</v>
+        <v>4275</v>
       </c>
       <c r="B1503" t="s">
-        <v>4270</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4271</v>
+        <v>4277</v>
       </c>
       <c r="B1504" t="s">
-        <v>4272</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4273</v>
+        <v>4279</v>
       </c>
       <c r="B1505" t="s">
-        <v>4274</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4275</v>
+        <v>4281</v>
       </c>
       <c r="B1506" t="s">
-        <v>4276</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4277</v>
+        <v>4283</v>
       </c>
       <c r="B1507" t="s">
-        <v>4278</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4279</v>
+        <v>4285</v>
       </c>
       <c r="B1508" t="s">
-        <v>4280</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4281</v>
+        <v>4287</v>
       </c>
       <c r="B1509" t="s">
-        <v>4282</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4283</v>
+        <v>4289</v>
       </c>
       <c r="B1510" t="s">
-        <v>4284</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4285</v>
+        <v>4291</v>
       </c>
       <c r="B1511" t="s">
-        <v>4286</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4287</v>
+        <v>4293</v>
       </c>
       <c r="B1512" t="s">
-        <v>4288</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4289</v>
+        <v>4295</v>
       </c>
       <c r="B1513" t="s">
-        <v>4290</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4291</v>
+        <v>4297</v>
       </c>
       <c r="B1514" t="s">
-        <v>4292</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4293</v>
+        <v>4299</v>
       </c>
       <c r="B1515" t="s">
-        <v>4294</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4295</v>
+        <v>4446</v>
       </c>
       <c r="B1516" t="s">
-        <v>4296</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4297</v>
+        <v>4431</v>
       </c>
       <c r="B1517" t="s">
-        <v>4298</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4299</v>
+        <v>4301</v>
       </c>
       <c r="B1518" t="s">
-        <v>4300</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4446</v>
+        <v>4303</v>
       </c>
       <c r="B1519" t="s">
-        <v>4447</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4431</v>
+        <v>4305</v>
       </c>
       <c r="B1520" t="s">
-        <v>4432</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4301</v>
+        <v>4307</v>
       </c>
       <c r="B1521" t="s">
-        <v>4302</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4303</v>
+        <v>4309</v>
       </c>
       <c r="B1522" t="s">
-        <v>4304</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4305</v>
+        <v>4311</v>
       </c>
       <c r="B1523" t="s">
-        <v>4306</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4307</v>
+        <v>4313</v>
       </c>
       <c r="B1524" t="s">
-        <v>4308</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4309</v>
+        <v>4315</v>
       </c>
       <c r="B1525" t="s">
-        <v>4310</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4311</v>
+        <v>4317</v>
       </c>
       <c r="B1526" t="s">
-        <v>4312</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4313</v>
+        <v>4319</v>
       </c>
       <c r="B1527" t="s">
-        <v>4314</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4315</v>
+        <v>4321</v>
       </c>
       <c r="B1528" t="s">
-        <v>4316</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4317</v>
+        <v>4323</v>
       </c>
       <c r="B1529" t="s">
-        <v>4318</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4319</v>
+        <v>4325</v>
       </c>
       <c r="B1530" t="s">
-        <v>4320</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4321</v>
+        <v>4327</v>
       </c>
       <c r="B1531" t="s">
-        <v>4322</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4323</v>
+        <v>4329</v>
       </c>
       <c r="B1532" t="s">
-        <v>4324</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4325</v>
+        <v>4331</v>
       </c>
       <c r="B1533" t="s">
-        <v>4326</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4327</v>
+        <v>4333</v>
       </c>
       <c r="B1534" t="s">
-        <v>4328</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4329</v>
+        <v>4335</v>
       </c>
       <c r="B1535" t="s">
-        <v>4330</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4331</v>
+        <v>4337</v>
       </c>
       <c r="B1536" t="s">
-        <v>4332</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4333</v>
+        <v>4339</v>
       </c>
       <c r="B1537" t="s">
-        <v>4334</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4335</v>
+        <v>4341</v>
       </c>
       <c r="B1538" t="s">
-        <v>4336</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4337</v>
+        <v>4343</v>
       </c>
       <c r="B1539" t="s">
-        <v>4338</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4339</v>
+        <v>4345</v>
       </c>
       <c r="B1540" t="s">
-        <v>4340</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4341</v>
+        <v>4347</v>
       </c>
       <c r="B1541" t="s">
-        <v>4342</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4343</v>
+        <v>4349</v>
       </c>
       <c r="B1542" t="s">
-        <v>4344</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4345</v>
+        <v>4351</v>
       </c>
       <c r="B1543" t="s">
-        <v>4346</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4347</v>
+        <v>4353</v>
       </c>
       <c r="B1544" t="s">
-        <v>4348</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4349</v>
+        <v>4355</v>
       </c>
       <c r="B1545" t="s">
-        <v>4350</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4351</v>
+        <v>4357</v>
       </c>
       <c r="B1546" t="s">
-        <v>4352</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4353</v>
+        <v>4359</v>
       </c>
       <c r="B1547" t="s">
-        <v>4354</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4355</v>
+        <v>4361</v>
       </c>
       <c r="B1548" t="s">
-        <v>4356</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4357</v>
+        <v>4363</v>
       </c>
       <c r="B1549" t="s">
-        <v>4358</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4359</v>
+        <v>4365</v>
       </c>
       <c r="B1550" t="s">
-        <v>4360</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4361</v>
+        <v>4427</v>
       </c>
       <c r="B1551" t="s">
-        <v>4362</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4363</v>
+        <v>4367</v>
       </c>
       <c r="B1552" t="s">
-        <v>4364</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4365</v>
+        <v>4369</v>
       </c>
       <c r="B1553" t="s">
-        <v>4366</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4427</v>
+        <v>4371</v>
       </c>
       <c r="B1554" t="s">
-        <v>4428</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4367</v>
+        <v>4373</v>
       </c>
       <c r="B1555" t="s">
-        <v>4368</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4369</v>
+        <v>4375</v>
       </c>
       <c r="B1556" t="s">
-        <v>4370</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4371</v>
+        <v>4377</v>
       </c>
       <c r="B1557" t="s">
-        <v>4372</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4373</v>
+        <v>4379</v>
       </c>
       <c r="B1558" t="s">
-        <v>4374</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4375</v>
+        <v>4438</v>
       </c>
       <c r="B1559" t="s">
-        <v>4376</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>4377</v>
+        <v>4381</v>
       </c>
       <c r="B1560" t="s">
-        <v>4378</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>4379</v>
+        <v>4383</v>
       </c>
       <c r="B1561" t="s">
-        <v>4380</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>4438</v>
+        <v>4467</v>
       </c>
       <c r="B1562" t="s">
-        <v>4439</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>4381</v>
+        <v>4385</v>
       </c>
       <c r="B1563" t="s">
-        <v>4382</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
-        <v>4383</v>
+        <v>4387</v>
       </c>
       <c r="B1564" t="s">
-        <v>4384</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" s="1" t="s">
-        <v>4467</v>
+        <v>4389</v>
       </c>
       <c r="B1565" t="s">
-        <v>4468</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" s="1" t="s">
-        <v>4385</v>
+        <v>4391</v>
       </c>
       <c r="B1566" t="s">
-        <v>4386</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="1" t="s">
-        <v>4387</v>
+        <v>4471</v>
       </c>
       <c r="B1567" t="s">
-        <v>4388</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" s="1" t="s">
-        <v>4389</v>
+        <v>4393</v>
       </c>
       <c r="B1568" t="s">
-        <v>4390</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" s="1" t="s">
-        <v>4391</v>
+        <v>4395</v>
       </c>
       <c r="B1569" t="s">
-        <v>4392</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" s="1" t="s">
-        <v>4393</v>
+        <v>4397</v>
       </c>
       <c r="B1570" t="s">
-        <v>4394</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
       <c r="A1571" s="1" t="s">
-        <v>4395</v>
+        <v>4399</v>
       </c>
       <c r="B1571" t="s">
-        <v>4396</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" s="1" t="s">
-        <v>4397</v>
+        <v>4401</v>
       </c>
       <c r="B1572" t="s">
-        <v>4398</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" s="1" t="s">
-        <v>4399</v>
+        <v>4403</v>
       </c>
       <c r="B1573" t="s">
-        <v>4400</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
       <c r="A1574" s="1" t="s">
-        <v>4401</v>
+        <v>4405</v>
       </c>
       <c r="B1574" t="s">
-        <v>4402</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575" s="1" t="s">
-        <v>4403</v>
+        <v>4407</v>
       </c>
       <c r="B1575" t="s">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:2">
-      <c r="A1576" s="1" t="s">
-        <v>4405</v>
-      </c>
-      <c r="B1576" t="s">
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:2">
-      <c r="A1577" s="1" t="s">
-        <v>4407</v>
-      </c>
-      <c r="B1577" t="s">
         <v>4408</v>
       </c>
     </row>
@@ -36730,7 +36703,7 @@
   </sheetPr>
   <dimension ref="A2:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C2E749-9480-4EEB-BA85-4FD344AD0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF05EAC8-355D-4D8A-A016-B80F23E4957D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Route!$A$4:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="4473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="4479">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13465,6 +13464,24 @@
   </si>
   <si>
     <t>ZANZIBAR REVENUE AUTHORITY</t>
+  </si>
+  <si>
+    <t>W0021</t>
+  </si>
+  <si>
+    <t>WORLDPAY</t>
+  </si>
+  <si>
+    <t>K0055</t>
+  </si>
+  <si>
+    <t>KING GEORGE IV COURT TRUST</t>
+  </si>
+  <si>
+    <t>G0102</t>
+  </si>
+  <si>
+    <t>GAT AIRCRAFT AND ENGIME LEASING LIMITED</t>
   </si>
 </sst>
 </file>
@@ -14172,10 +14189,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1575"/>
+  <dimension ref="A1:B1578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1551" workbookViewId="0">
-      <selection activeCell="B1567" sqref="B1567"/>
+    <sheetView tabSelected="1" topLeftCell="A810" workbookViewId="0">
+      <selection activeCell="B826" sqref="B826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20818,3871 +20835,3871 @@
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="1" t="s">
-        <v>4469</v>
+        <v>4477</v>
       </c>
       <c r="B830" t="s">
-        <v>4470</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="1" t="s">
-        <v>2671</v>
+        <v>4469</v>
       </c>
       <c r="B831" t="s">
-        <v>2672</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B832" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="B833" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="B834" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="B835" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="B836" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="B837" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="B838" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="B839" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="B840" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="B841" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="B842" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="B843" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="B844" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="B845" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B846" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="B847" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="B848" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="B849" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B850" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B851" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="B852" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B853" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B854" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B855" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" s="1" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B856" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" s="1" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="B857" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" s="1" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B858" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B859" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" s="1" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="B860" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="1" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="B861" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="B862" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="B863" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="B864" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="1" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="B865" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="B866" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="B867" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="1" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="B868" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="B869" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="1" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="B870" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="B871" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="B872" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="1" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="B873" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="B874" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="1" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="B875" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="1" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="B876" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="1" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="B877" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="1" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="B878" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="B879" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="1" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="B880" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" s="1" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="B881" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" s="1" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="B882" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" s="1" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="B883" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" s="1" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="B884" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" s="1" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="B885" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" s="1" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="B886" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" s="1" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="B887" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" s="1" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="B888" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" s="1" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="B889" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" s="1" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="B890" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" s="1" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="B891" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" s="1" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="B892" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" s="1" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="B893" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" s="1" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="B894" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" s="1" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="B895" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" s="1" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="B896" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" s="1" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="B897" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" s="1" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="B898" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="B899" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" s="1" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="B900" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="B901" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="B902" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" s="1" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="B903" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="B904" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="B905" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="B906" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="B907" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="B908" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" s="1" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="B909" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="B910" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="B911" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="B912" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="B913" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="B914" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="B915" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="B916" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="B917" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="B918" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="B919" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="B920" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="B921" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B922" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="B923" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="B924" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="B925" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="B926" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="B927" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="B928" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="B929" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="B930" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="B931" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="B932" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="B933" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="B934" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="B935" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="B936" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="B937" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="B938" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="B939" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="B940" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="B941" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="B942" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="B943" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="B944" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="B945" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="B946" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="B947" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="B948" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="B949" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="B950" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="B951" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="B952" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="B953" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="B954" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B955" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B956" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B957" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B958" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B959" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B960" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B961" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B962" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B963" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="B964" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="B965" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B966" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="B967" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="B968" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" s="1" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="B969" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" s="1" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B970" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" s="1" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B971" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B972" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" s="1" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B973" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" s="1" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B974" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" s="1" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="B975" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" s="1" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="B976" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" s="1" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="B977" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" s="1" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="B978" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" s="1" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="B979" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" s="1" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="B980" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" s="1" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="B981" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" s="1" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="B982" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" s="1" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="B983" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" s="1" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="B984" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" s="1" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="B985" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" s="1" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="B986" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" s="1" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="B987" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" s="1" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="B988" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" s="1" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B989" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" s="1" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="B990" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" s="1" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B991" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" s="1" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B992" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" s="1" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="B993" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" s="1" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="B994" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" s="1" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="B995" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" s="1" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="B996" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" s="1" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B997" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" s="1" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B998" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" s="1" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B999" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" s="1" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B1000" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" s="1" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B1001" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" s="1" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B1002" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" s="1" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B1003" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" s="1" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="B1004" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" s="1" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="B1005" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" s="1" t="s">
-        <v>3321</v>
+        <v>3019</v>
       </c>
       <c r="B1006" t="s">
-        <v>3322</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" s="1" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="B1007" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" s="1" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="B1008" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" s="1" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="B1009" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" s="1" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="B1010" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" s="1" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="B1011" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" s="1" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="B1012" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" s="1" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="B1013" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" s="1" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="B1014" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" s="1" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="B1015" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" s="1" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="B1016" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" s="1" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="B1017" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" s="1" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="B1018" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" s="1" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="B1019" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="1" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="B1020" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" s="1" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="B1021" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" s="1" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="B1022" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" s="1" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="B1023" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" s="1" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="B1024" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" s="1" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="B1025" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" s="1" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="B1026" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" s="1" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="B1027" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" s="1" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="B1028" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" s="1" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="B1029" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" s="1" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="B1030" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" s="1" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
       <c r="B1031" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" s="1" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="B1032" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" s="1" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
       <c r="B1033" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" s="1" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
       <c r="B1034" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="1" t="s">
-        <v>3379</v>
+        <v>4475</v>
       </c>
       <c r="B1035" t="s">
-        <v>3380</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="1" t="s">
-        <v>3381</v>
+        <v>3377</v>
       </c>
       <c r="B1036" t="s">
-        <v>3382</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="1" t="s">
-        <v>3383</v>
+        <v>3379</v>
       </c>
       <c r="B1037" t="s">
-        <v>3384</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="1" t="s">
-        <v>3385</v>
+        <v>3381</v>
       </c>
       <c r="B1038" t="s">
-        <v>3386</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="1" t="s">
-        <v>3387</v>
+        <v>3383</v>
       </c>
       <c r="B1039" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="1" t="s">
-        <v>3389</v>
+        <v>3385</v>
       </c>
       <c r="B1040" t="s">
-        <v>3390</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" s="1" t="s">
-        <v>3391</v>
+        <v>3387</v>
       </c>
       <c r="B1041" t="s">
-        <v>3392</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" s="1" t="s">
-        <v>3393</v>
+        <v>3389</v>
       </c>
       <c r="B1042" t="s">
-        <v>3394</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" s="1" t="s">
-        <v>3395</v>
+        <v>3391</v>
       </c>
       <c r="B1043" t="s">
-        <v>3396</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" s="1" t="s">
-        <v>3397</v>
+        <v>3393</v>
       </c>
       <c r="B1044" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" s="1" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
       <c r="B1045" t="s">
-        <v>3400</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" s="1" t="s">
-        <v>3401</v>
+        <v>3397</v>
       </c>
       <c r="B1046" t="s">
-        <v>3402</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" s="1" t="s">
-        <v>3403</v>
+        <v>3399</v>
       </c>
       <c r="B1047" t="s">
-        <v>3404</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" s="1" t="s">
-        <v>3405</v>
+        <v>3401</v>
       </c>
       <c r="B1048" t="s">
-        <v>3406</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" s="1" t="s">
-        <v>3407</v>
+        <v>3403</v>
       </c>
       <c r="B1049" t="s">
-        <v>3408</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" s="1" t="s">
-        <v>3409</v>
+        <v>3405</v>
       </c>
       <c r="B1050" t="s">
-        <v>3410</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" s="1" t="s">
-        <v>3411</v>
+        <v>3407</v>
       </c>
       <c r="B1051" t="s">
-        <v>3412</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" s="1" t="s">
-        <v>3413</v>
+        <v>3409</v>
       </c>
       <c r="B1052" t="s">
-        <v>3414</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" s="1" t="s">
-        <v>3415</v>
+        <v>3411</v>
       </c>
       <c r="B1053" t="s">
-        <v>3416</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" s="1" t="s">
-        <v>3417</v>
+        <v>3413</v>
       </c>
       <c r="B1054" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" s="1" t="s">
-        <v>3419</v>
+        <v>3415</v>
       </c>
       <c r="B1055" t="s">
-        <v>3420</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" s="1" t="s">
-        <v>3421</v>
+        <v>3417</v>
       </c>
       <c r="B1056" t="s">
-        <v>3422</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="1" t="s">
-        <v>3423</v>
+        <v>3419</v>
       </c>
       <c r="B1057" t="s">
-        <v>3424</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="1" t="s">
-        <v>3425</v>
+        <v>3421</v>
       </c>
       <c r="B1058" t="s">
-        <v>3426</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="1" t="s">
-        <v>3427</v>
+        <v>3423</v>
       </c>
       <c r="B1059" t="s">
-        <v>3428</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="1" t="s">
-        <v>3429</v>
+        <v>3425</v>
       </c>
       <c r="B1060" t="s">
-        <v>3430</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="1" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
       <c r="B1061" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="1" t="s">
-        <v>3433</v>
+        <v>3429</v>
       </c>
       <c r="B1062" t="s">
-        <v>3434</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="1" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="B1063" t="s">
-        <v>3436</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="1" t="s">
-        <v>3437</v>
+        <v>3433</v>
       </c>
       <c r="B1064" t="s">
-        <v>3438</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="1" t="s">
-        <v>3439</v>
+        <v>3435</v>
       </c>
       <c r="B1065" t="s">
-        <v>3440</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="1" t="s">
-        <v>3441</v>
+        <v>3437</v>
       </c>
       <c r="B1066" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="B1067" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="B1068" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="1" t="s">
-        <v>3446</v>
+        <v>3442</v>
       </c>
       <c r="B1069" t="s">
-        <v>3447</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" s="1" t="s">
-        <v>3448</v>
+        <v>3444</v>
       </c>
       <c r="B1070" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" s="1" t="s">
-        <v>3450</v>
+        <v>3446</v>
       </c>
       <c r="B1071" t="s">
-        <v>3451</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" s="1" t="s">
-        <v>3452</v>
+        <v>3448</v>
       </c>
       <c r="B1072" t="s">
-        <v>3453</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="1" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
       <c r="B1073" t="s">
-        <v>3455</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" s="1" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="B1074" t="s">
-        <v>3457</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" s="1" t="s">
-        <v>3458</v>
+        <v>3454</v>
       </c>
       <c r="B1075" t="s">
-        <v>3459</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="1" t="s">
-        <v>3460</v>
+        <v>3456</v>
       </c>
       <c r="B1076" t="s">
-        <v>3461</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" s="1" t="s">
-        <v>3462</v>
+        <v>3458</v>
       </c>
       <c r="B1077" t="s">
-        <v>3463</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="1" t="s">
-        <v>3464</v>
+        <v>3460</v>
       </c>
       <c r="B1078" t="s">
-        <v>3465</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="1" t="s">
-        <v>3466</v>
+        <v>3462</v>
       </c>
       <c r="B1079" t="s">
-        <v>3467</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="1" t="s">
-        <v>3468</v>
+        <v>3464</v>
       </c>
       <c r="B1080" t="s">
-        <v>3469</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="1" t="s">
-        <v>3470</v>
+        <v>3466</v>
       </c>
       <c r="B1081" t="s">
-        <v>3471</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="1" t="s">
-        <v>3472</v>
+        <v>3468</v>
       </c>
       <c r="B1082" t="s">
-        <v>3473</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="1" t="s">
-        <v>3474</v>
+        <v>3470</v>
       </c>
       <c r="B1083" t="s">
-        <v>3475</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="1" t="s">
-        <v>3476</v>
+        <v>3472</v>
       </c>
       <c r="B1084" t="s">
-        <v>3477</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" s="1" t="s">
-        <v>3478</v>
+        <v>3474</v>
       </c>
       <c r="B1085" t="s">
-        <v>3479</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="1" t="s">
-        <v>3480</v>
+        <v>3476</v>
       </c>
       <c r="B1086" t="s">
-        <v>3481</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" s="1" t="s">
-        <v>3482</v>
+        <v>3478</v>
       </c>
       <c r="B1087" t="s">
-        <v>3483</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" s="1" t="s">
-        <v>3484</v>
+        <v>3480</v>
       </c>
       <c r="B1088" t="s">
-        <v>3485</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" s="1" t="s">
-        <v>3486</v>
+        <v>3482</v>
       </c>
       <c r="B1089" t="s">
-        <v>3487</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" s="1" t="s">
-        <v>3488</v>
+        <v>3484</v>
       </c>
       <c r="B1090" t="s">
-        <v>3489</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" s="1" t="s">
-        <v>3490</v>
+        <v>3486</v>
       </c>
       <c r="B1091" t="s">
-        <v>3491</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" s="1" t="s">
-        <v>3492</v>
+        <v>3488</v>
       </c>
       <c r="B1092" t="s">
-        <v>3493</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" s="1" t="s">
-        <v>3494</v>
+        <v>3490</v>
       </c>
       <c r="B1093" t="s">
-        <v>3495</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" s="1" t="s">
-        <v>3496</v>
+        <v>3492</v>
       </c>
       <c r="B1094" t="s">
-        <v>3497</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" s="1" t="s">
-        <v>4429</v>
+        <v>3494</v>
       </c>
       <c r="B1095" t="s">
-        <v>4430</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="1" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="B1096" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" s="1" t="s">
-        <v>3500</v>
+        <v>4429</v>
       </c>
       <c r="B1097" t="s">
-        <v>3501</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="1" t="s">
-        <v>3502</v>
+        <v>3498</v>
       </c>
       <c r="B1098" t="s">
-        <v>3503</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" s="1" t="s">
-        <v>4434</v>
+        <v>3500</v>
       </c>
       <c r="B1099" t="s">
-        <v>4433</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="1" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
       <c r="B1100" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" s="1" t="s">
-        <v>3506</v>
+        <v>4434</v>
       </c>
       <c r="B1101" t="s">
-        <v>3507</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="1" t="s">
-        <v>3508</v>
+        <v>3504</v>
       </c>
       <c r="B1102" t="s">
-        <v>3509</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="1" t="s">
-        <v>3510</v>
+        <v>3506</v>
       </c>
       <c r="B1103" t="s">
-        <v>3511</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="1" t="s">
-        <v>3512</v>
+        <v>3508</v>
       </c>
       <c r="B1104" t="s">
-        <v>3513</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" s="1" t="s">
-        <v>3514</v>
+        <v>3510</v>
       </c>
       <c r="B1105" t="s">
-        <v>3515</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" s="1" t="s">
-        <v>3516</v>
+        <v>3512</v>
       </c>
       <c r="B1106" t="s">
-        <v>3517</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="1" t="s">
-        <v>3518</v>
+        <v>3514</v>
       </c>
       <c r="B1107" t="s">
-        <v>3519</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" s="1" t="s">
-        <v>3520</v>
+        <v>3516</v>
       </c>
       <c r="B1108" t="s">
-        <v>3521</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" s="1" t="s">
-        <v>3522</v>
+        <v>3518</v>
       </c>
       <c r="B1109" t="s">
-        <v>3523</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" s="1" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="B1110" t="s">
-        <v>3525</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" s="1" t="s">
-        <v>3526</v>
+        <v>3522</v>
       </c>
       <c r="B1111" t="s">
-        <v>3527</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" s="1" t="s">
-        <v>3528</v>
+        <v>3524</v>
       </c>
       <c r="B1112" t="s">
-        <v>3529</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="1" t="s">
-        <v>3530</v>
+        <v>3526</v>
       </c>
       <c r="B1113" t="s">
-        <v>3531</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" s="1" t="s">
-        <v>3532</v>
+        <v>3528</v>
       </c>
       <c r="B1114" t="s">
-        <v>3533</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" s="1" t="s">
-        <v>3534</v>
+        <v>3530</v>
       </c>
       <c r="B1115" t="s">
-        <v>3535</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" s="1" t="s">
-        <v>3536</v>
+        <v>3532</v>
       </c>
       <c r="B1116" t="s">
-        <v>3537</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="1" t="s">
-        <v>3538</v>
+        <v>3534</v>
       </c>
       <c r="B1117" t="s">
-        <v>3539</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" s="1" t="s">
-        <v>3540</v>
+        <v>3536</v>
       </c>
       <c r="B1118" t="s">
-        <v>3541</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" s="1" t="s">
-        <v>3542</v>
+        <v>3538</v>
       </c>
       <c r="B1119" t="s">
-        <v>3543</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" s="1" t="s">
-        <v>3544</v>
+        <v>3540</v>
       </c>
       <c r="B1120" t="s">
-        <v>3545</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" s="1" t="s">
-        <v>3546</v>
+        <v>3542</v>
       </c>
       <c r="B1121" t="s">
-        <v>3547</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" s="1" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="B1122" t="s">
-        <v>3549</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="1" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="B1123" t="s">
-        <v>3551</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" s="1" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
       <c r="B1124" t="s">
-        <v>3553</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" s="1" t="s">
-        <v>3554</v>
+        <v>3550</v>
       </c>
       <c r="B1125" t="s">
-        <v>3555</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="1" t="s">
-        <v>3556</v>
+        <v>3552</v>
       </c>
       <c r="B1126" t="s">
-        <v>3557</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" s="1" t="s">
-        <v>3558</v>
+        <v>3554</v>
       </c>
       <c r="B1127" t="s">
-        <v>3559</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" s="1" t="s">
-        <v>3560</v>
+        <v>3556</v>
       </c>
       <c r="B1128" t="s">
-        <v>3561</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" s="1" t="s">
-        <v>3562</v>
+        <v>3558</v>
       </c>
       <c r="B1129" t="s">
-        <v>3563</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="1" t="s">
-        <v>3564</v>
+        <v>3560</v>
       </c>
       <c r="B1130" t="s">
-        <v>3565</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="1" t="s">
-        <v>3566</v>
+        <v>3562</v>
       </c>
       <c r="B1131" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="1" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="B1132" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="1" t="s">
-        <v>3570</v>
+        <v>3566</v>
       </c>
       <c r="B1133" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" s="1" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="B1134" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="1" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="B1135" t="s">
-        <v>3575</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="1" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="B1136" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" s="1" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="B1137" t="s">
-        <v>3579</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="1" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="B1138" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="1" t="s">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="B1139" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" s="1" t="s">
-        <v>3584</v>
+        <v>3580</v>
       </c>
       <c r="B1140" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" s="1" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="B1141" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="1" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="B1142" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="1" t="s">
-        <v>3590</v>
+        <v>3586</v>
       </c>
       <c r="B1143" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="1" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
       <c r="B1144" t="s">
-        <v>3593</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="1" t="s">
-        <v>3594</v>
+        <v>3590</v>
       </c>
       <c r="B1145" t="s">
-        <v>3595</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="1" t="s">
-        <v>3596</v>
+        <v>3592</v>
       </c>
       <c r="B1146" t="s">
-        <v>3597</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="1" t="s">
-        <v>3598</v>
+        <v>3594</v>
       </c>
       <c r="B1147" t="s">
-        <v>3599</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="1" t="s">
-        <v>3600</v>
+        <v>3596</v>
       </c>
       <c r="B1148" t="s">
-        <v>3601</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="1" t="s">
-        <v>3602</v>
+        <v>3598</v>
       </c>
       <c r="B1149" t="s">
-        <v>3603</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="1" t="s">
-        <v>3604</v>
+        <v>3600</v>
       </c>
       <c r="B1150" t="s">
-        <v>3605</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="1" t="s">
-        <v>3606</v>
+        <v>3602</v>
       </c>
       <c r="B1151" t="s">
-        <v>3607</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="1" t="s">
-        <v>3608</v>
+        <v>3604</v>
       </c>
       <c r="B1152" t="s">
-        <v>3609</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" s="1" t="s">
-        <v>3610</v>
+        <v>3606</v>
       </c>
       <c r="B1153" t="s">
-        <v>3611</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="1" t="s">
-        <v>3612</v>
+        <v>3608</v>
       </c>
       <c r="B1154" t="s">
-        <v>3613</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="1" t="s">
-        <v>3614</v>
+        <v>3610</v>
       </c>
       <c r="B1155" t="s">
-        <v>3615</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" s="1" t="s">
-        <v>3616</v>
+        <v>3612</v>
       </c>
       <c r="B1156" t="s">
-        <v>3617</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="1" t="s">
-        <v>3618</v>
+        <v>3614</v>
       </c>
       <c r="B1157" t="s">
-        <v>3619</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="1" t="s">
-        <v>3620</v>
+        <v>3616</v>
       </c>
       <c r="B1158" t="s">
-        <v>3621</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="1" t="s">
-        <v>3622</v>
+        <v>3618</v>
       </c>
       <c r="B1159" t="s">
-        <v>3623</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" s="1" t="s">
-        <v>3624</v>
+        <v>3620</v>
       </c>
       <c r="B1160" t="s">
-        <v>3625</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="1" t="s">
-        <v>3626</v>
+        <v>3622</v>
       </c>
       <c r="B1161" t="s">
-        <v>3627</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="1" t="s">
-        <v>3628</v>
+        <v>3624</v>
       </c>
       <c r="B1162" t="s">
-        <v>3629</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="1" t="s">
-        <v>3630</v>
+        <v>3626</v>
       </c>
       <c r="B1163" t="s">
-        <v>3631</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="1" t="s">
-        <v>3632</v>
+        <v>3628</v>
       </c>
       <c r="B1164" t="s">
-        <v>3633</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" s="1" t="s">
-        <v>3634</v>
+        <v>3630</v>
       </c>
       <c r="B1165" t="s">
-        <v>3635</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" s="1" t="s">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="B1166" t="s">
-        <v>3637</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="1" t="s">
-        <v>3638</v>
+        <v>3634</v>
       </c>
       <c r="B1167" t="s">
-        <v>3639</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" s="1" t="s">
-        <v>3640</v>
+        <v>3636</v>
       </c>
       <c r="B1168" t="s">
-        <v>3641</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="1" t="s">
-        <v>3642</v>
+        <v>3638</v>
       </c>
       <c r="B1169" t="s">
-        <v>3643</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="1" t="s">
-        <v>3644</v>
+        <v>3640</v>
       </c>
       <c r="B1170" t="s">
-        <v>3645</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="1" t="s">
-        <v>3646</v>
+        <v>3642</v>
       </c>
       <c r="B1171" t="s">
-        <v>3647</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="1" t="s">
-        <v>3648</v>
+        <v>3644</v>
       </c>
       <c r="B1172" t="s">
-        <v>3649</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="1" t="s">
-        <v>3650</v>
+        <v>3646</v>
       </c>
       <c r="B1173" t="s">
-        <v>3651</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" s="1" t="s">
-        <v>3652</v>
+        <v>3648</v>
       </c>
       <c r="B1174" t="s">
-        <v>3653</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" s="1" t="s">
-        <v>3654</v>
+        <v>3650</v>
       </c>
       <c r="B1175" t="s">
-        <v>3655</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="1" t="s">
-        <v>3656</v>
+        <v>3652</v>
       </c>
       <c r="B1176" t="s">
-        <v>3657</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" s="1" t="s">
-        <v>3658</v>
+        <v>3654</v>
       </c>
       <c r="B1177" t="s">
-        <v>3659</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" s="1" t="s">
-        <v>3660</v>
+        <v>3656</v>
       </c>
       <c r="B1178" t="s">
-        <v>3661</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" s="1" t="s">
-        <v>3662</v>
+        <v>3658</v>
       </c>
       <c r="B1179" t="s">
-        <v>3663</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" s="1" t="s">
-        <v>3664</v>
+        <v>3660</v>
       </c>
       <c r="B1180" t="s">
-        <v>3665</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" s="1" t="s">
-        <v>3666</v>
+        <v>3662</v>
       </c>
       <c r="B1181" t="s">
-        <v>3667</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" s="1" t="s">
-        <v>3668</v>
+        <v>3664</v>
       </c>
       <c r="B1182" t="s">
-        <v>3669</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" s="1" t="s">
-        <v>3670</v>
+        <v>3666</v>
       </c>
       <c r="B1183" t="s">
-        <v>3671</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" s="1" t="s">
-        <v>3672</v>
+        <v>3668</v>
       </c>
       <c r="B1184" t="s">
-        <v>3673</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="1" t="s">
-        <v>3674</v>
+        <v>3670</v>
       </c>
       <c r="B1185" t="s">
-        <v>3675</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="1" t="s">
-        <v>3676</v>
+        <v>3672</v>
       </c>
       <c r="B1186" t="s">
-        <v>3677</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="1" t="s">
-        <v>3678</v>
+        <v>3674</v>
       </c>
       <c r="B1187" t="s">
-        <v>3679</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="1" t="s">
-        <v>3680</v>
+        <v>3676</v>
       </c>
       <c r="B1188" t="s">
-        <v>3681</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="1" t="s">
-        <v>3682</v>
+        <v>3678</v>
       </c>
       <c r="B1189" t="s">
-        <v>3683</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190" s="1" t="s">
-        <v>3684</v>
+        <v>3680</v>
       </c>
       <c r="B1190" t="s">
-        <v>3685</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" s="1" t="s">
-        <v>3686</v>
+        <v>3682</v>
       </c>
       <c r="B1191" t="s">
-        <v>3687</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" s="1" t="s">
-        <v>3688</v>
+        <v>3684</v>
       </c>
       <c r="B1192" t="s">
-        <v>3689</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="1" t="s">
-        <v>3690</v>
+        <v>3686</v>
       </c>
       <c r="B1193" t="s">
-        <v>3691</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="1" t="s">
-        <v>3692</v>
+        <v>3688</v>
       </c>
       <c r="B1194" t="s">
-        <v>3693</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="1" t="s">
-        <v>3694</v>
+        <v>3690</v>
       </c>
       <c r="B1195" t="s">
-        <v>3695</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" s="1" t="s">
-        <v>3696</v>
+        <v>3692</v>
       </c>
       <c r="B1196" t="s">
-        <v>3697</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="1" t="s">
-        <v>3698</v>
+        <v>3694</v>
       </c>
       <c r="B1197" t="s">
-        <v>3699</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
       <c r="A1198" s="1" t="s">
-        <v>3700</v>
+        <v>3696</v>
       </c>
       <c r="B1198" t="s">
-        <v>3701</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
       <c r="A1199" s="1" t="s">
-        <v>3702</v>
+        <v>3698</v>
       </c>
       <c r="B1199" t="s">
-        <v>3675</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" s="1" t="s">
-        <v>3703</v>
+        <v>3700</v>
       </c>
       <c r="B1200" t="s">
-        <v>3704</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="1" t="s">
-        <v>3705</v>
+        <v>3702</v>
       </c>
       <c r="B1201" t="s">
-        <v>3706</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="1" t="s">
-        <v>3707</v>
+        <v>3703</v>
       </c>
       <c r="B1202" t="s">
-        <v>3708</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" s="1" t="s">
-        <v>3709</v>
+        <v>3705</v>
       </c>
       <c r="B1203" t="s">
-        <v>3710</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="1" t="s">
-        <v>3711</v>
+        <v>3707</v>
       </c>
       <c r="B1204" t="s">
-        <v>3712</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="1" t="s">
-        <v>3713</v>
+        <v>3709</v>
       </c>
       <c r="B1205" t="s">
-        <v>3714</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" s="1" t="s">
-        <v>3715</v>
+        <v>3711</v>
       </c>
       <c r="B1206" t="s">
-        <v>3716</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="1" t="s">
-        <v>3717</v>
+        <v>3713</v>
       </c>
       <c r="B1207" t="s">
-        <v>3718</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="1" t="s">
-        <v>3719</v>
+        <v>3715</v>
       </c>
       <c r="B1208" t="s">
-        <v>3720</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="1" t="s">
-        <v>3721</v>
+        <v>3717</v>
       </c>
       <c r="B1209" t="s">
-        <v>3722</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="1" t="s">
-        <v>4442</v>
+        <v>3719</v>
       </c>
       <c r="B1210" t="s">
-        <v>4443</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="1" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="B1211" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="1" t="s">
-        <v>3725</v>
+        <v>4442</v>
       </c>
       <c r="B1212" t="s">
-        <v>3725</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="1" t="s">
-        <v>3726</v>
+        <v>3723</v>
       </c>
       <c r="B1213" t="s">
-        <v>3727</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" s="1" t="s">
-        <v>3728</v>
+        <v>3725</v>
       </c>
       <c r="B1214" t="s">
-        <v>3729</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="1" t="s">
-        <v>3730</v>
+        <v>3726</v>
       </c>
       <c r="B1215" t="s">
-        <v>3731</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="1" t="s">
-        <v>3732</v>
+        <v>3728</v>
       </c>
       <c r="B1216" t="s">
-        <v>3733</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="1" t="s">
-        <v>3734</v>
+        <v>3730</v>
       </c>
       <c r="B1217" t="s">
-        <v>3735</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="1" t="s">
-        <v>3736</v>
+        <v>3732</v>
       </c>
       <c r="B1218" t="s">
-        <v>3737</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="1" t="s">
-        <v>3738</v>
+        <v>3734</v>
       </c>
       <c r="B1219" t="s">
-        <v>3739</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="1" t="s">
-        <v>3740</v>
+        <v>3736</v>
       </c>
       <c r="B1220" t="s">
-        <v>3741</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="1" t="s">
-        <v>3742</v>
+        <v>3738</v>
       </c>
       <c r="B1221" t="s">
-        <v>3743</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="1" t="s">
-        <v>3744</v>
+        <v>3740</v>
       </c>
       <c r="B1222" t="s">
-        <v>3745</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="1" t="s">
-        <v>3746</v>
+        <v>3742</v>
       </c>
       <c r="B1223" t="s">
-        <v>3747</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="1" t="s">
-        <v>3748</v>
+        <v>3744</v>
       </c>
       <c r="B1224" t="s">
-        <v>3749</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="1" t="s">
-        <v>3750</v>
+        <v>3746</v>
       </c>
       <c r="B1225" t="s">
-        <v>3751</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="1" t="s">
-        <v>4425</v>
+        <v>3748</v>
       </c>
       <c r="B1226" t="s">
-        <v>4426</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="1" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
       <c r="B1227" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="1" t="s">
-        <v>3754</v>
+        <v>4425</v>
       </c>
       <c r="B1228" t="s">
-        <v>3749</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="1" t="s">
-        <v>3755</v>
+        <v>3752</v>
       </c>
       <c r="B1229" t="s">
-        <v>3756</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230" s="1" t="s">
-        <v>3757</v>
+        <v>3754</v>
       </c>
       <c r="B1230" t="s">
-        <v>3758</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="1" t="s">
-        <v>3759</v>
+        <v>3755</v>
       </c>
       <c r="B1231" t="s">
-        <v>3760</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="1" t="s">
-        <v>3761</v>
+        <v>3757</v>
       </c>
       <c r="B1232" t="s">
-        <v>3762</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="1" t="s">
-        <v>3763</v>
+        <v>3759</v>
       </c>
       <c r="B1233" t="s">
-        <v>3764</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="1" t="s">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="B1234" t="s">
-        <v>3766</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="1" t="s">
-        <v>3767</v>
+        <v>3763</v>
       </c>
       <c r="B1235" t="s">
-        <v>3768</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="1" t="s">
-        <v>3769</v>
+        <v>3765</v>
       </c>
       <c r="B1236" t="s">
-        <v>3770</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="1" t="s">
-        <v>3771</v>
+        <v>3767</v>
       </c>
       <c r="B1237" t="s">
-        <v>3772</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="1" t="s">
-        <v>3773</v>
+        <v>3769</v>
       </c>
       <c r="B1238" t="s">
-        <v>3774</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="1" t="s">
-        <v>3775</v>
+        <v>3771</v>
       </c>
       <c r="B1239" t="s">
-        <v>3762</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="1" t="s">
-        <v>3776</v>
+        <v>3773</v>
       </c>
       <c r="B1240" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="1" t="s">
-        <v>3778</v>
+        <v>3775</v>
       </c>
       <c r="B1241" t="s">
-        <v>3779</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="1" t="s">
-        <v>3780</v>
+        <v>3776</v>
       </c>
       <c r="B1242" t="s">
-        <v>3781</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="1" t="s">
-        <v>3782</v>
+        <v>3778</v>
       </c>
       <c r="B1243" t="s">
-        <v>3783</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="1" t="s">
-        <v>4444</v>
+        <v>3780</v>
       </c>
       <c r="B1244" t="s">
-        <v>4445</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="1" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="B1245" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="1" t="s">
-        <v>3786</v>
+        <v>4444</v>
       </c>
       <c r="B1246" t="s">
-        <v>3787</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="1" t="s">
-        <v>3788</v>
+        <v>3784</v>
       </c>
       <c r="B1247" t="s">
-        <v>3789</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="1" t="s">
-        <v>3790</v>
+        <v>3786</v>
       </c>
       <c r="B1248" t="s">
-        <v>3791</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="1" t="s">
-        <v>3792</v>
+        <v>3788</v>
       </c>
       <c r="B1249" t="s">
-        <v>3793</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="1" t="s">
-        <v>3794</v>
+        <v>3790</v>
       </c>
       <c r="B1250" t="s">
-        <v>3795</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="1" t="s">
-        <v>3796</v>
+        <v>3792</v>
       </c>
       <c r="B1251" t="s">
-        <v>3797</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="1" t="s">
-        <v>3798</v>
+        <v>3794</v>
       </c>
       <c r="B1252" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="1" t="s">
-        <v>3800</v>
+        <v>3796</v>
       </c>
       <c r="B1253" t="s">
-        <v>3801</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="1" t="s">
-        <v>3802</v>
+        <v>3798</v>
       </c>
       <c r="B1254" t="s">
-        <v>3803</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="1" t="s">
-        <v>3804</v>
+        <v>3800</v>
       </c>
       <c r="B1255" t="s">
-        <v>3805</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="1" t="s">
-        <v>3806</v>
+        <v>3802</v>
       </c>
       <c r="B1256" t="s">
-        <v>3807</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="1" t="s">
-        <v>3808</v>
+        <v>3804</v>
       </c>
       <c r="B1257" t="s">
-        <v>3809</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="1" t="s">
-        <v>3810</v>
+        <v>3806</v>
       </c>
       <c r="B1258" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="1" t="s">
-        <v>3812</v>
+        <v>3808</v>
       </c>
       <c r="B1259" t="s">
-        <v>3813</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="1" t="s">
-        <v>3814</v>
+        <v>3810</v>
       </c>
       <c r="B1260" t="s">
-        <v>3815</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="1" t="s">
-        <v>3816</v>
+        <v>3812</v>
       </c>
       <c r="B1261" t="s">
-        <v>3817</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="1" t="s">
-        <v>3818</v>
+        <v>3814</v>
       </c>
       <c r="B1262" t="s">
-        <v>3819</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="1" t="s">
-        <v>3820</v>
+        <v>3816</v>
       </c>
       <c r="B1263" t="s">
-        <v>3821</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="1" t="s">
-        <v>3822</v>
+        <v>3818</v>
       </c>
       <c r="B1264" t="s">
-        <v>3823</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" s="1" t="s">
-        <v>3824</v>
+        <v>3820</v>
       </c>
       <c r="B1265" t="s">
-        <v>3825</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
       <c r="A1266" s="1" t="s">
-        <v>3826</v>
+        <v>3822</v>
       </c>
       <c r="B1266" t="s">
-        <v>3827</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="1" t="s">
-        <v>3828</v>
+        <v>3824</v>
       </c>
       <c r="B1267" t="s">
-        <v>3829</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="1" t="s">
-        <v>3830</v>
+        <v>3826</v>
       </c>
       <c r="B1268" t="s">
-        <v>3831</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269" s="1" t="s">
-        <v>3832</v>
+        <v>3828</v>
       </c>
       <c r="B1269" t="s">
-        <v>3833</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
       <c r="A1270" s="1" t="s">
-        <v>4448</v>
+        <v>3830</v>
       </c>
       <c r="B1270" t="s">
-        <v>4449</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="1" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
       <c r="B1271" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
       <c r="A1272" s="1" t="s">
-        <v>3836</v>
+        <v>4448</v>
       </c>
       <c r="B1272" t="s">
-        <v>3837</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="1" t="s">
-        <v>3838</v>
+        <v>3834</v>
       </c>
       <c r="B1273" t="s">
-        <v>3839</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="1" t="s">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="B1274" t="s">
-        <v>3841</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
       <c r="A1275" s="1" t="s">
-        <v>3842</v>
+        <v>3838</v>
       </c>
       <c r="B1275" t="s">
-        <v>3843</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
       <c r="A1276" s="1" t="s">
-        <v>3844</v>
+        <v>3840</v>
       </c>
       <c r="B1276" t="s">
-        <v>3845</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="1" t="s">
-        <v>3846</v>
+        <v>3842</v>
       </c>
       <c r="B1277" t="s">
-        <v>3559</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" s="1" t="s">
-        <v>3847</v>
+        <v>3844</v>
       </c>
       <c r="B1278" t="s">
-        <v>3848</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="1" t="s">
-        <v>3849</v>
+        <v>3846</v>
       </c>
       <c r="B1279" t="s">
-        <v>3850</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="1" t="s">
-        <v>3851</v>
+        <v>3847</v>
       </c>
       <c r="B1280" t="s">
-        <v>2996</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="1" t="s">
-        <v>3852</v>
+        <v>3849</v>
       </c>
       <c r="B1281" t="s">
-        <v>3853</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="1" t="s">
-        <v>3854</v>
+        <v>3851</v>
       </c>
       <c r="B1282" t="s">
-        <v>3855</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283" s="1" t="s">
-        <v>3856</v>
+        <v>3852</v>
       </c>
       <c r="B1283" t="s">
-        <v>3857</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
       <c r="A1284" s="1" t="s">
-        <v>3858</v>
+        <v>3854</v>
       </c>
       <c r="B1284" t="s">
-        <v>3859</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="1" t="s">
-        <v>3860</v>
+        <v>3856</v>
       </c>
       <c r="B1285" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="1" t="s">
-        <v>4437</v>
+        <v>3858</v>
       </c>
       <c r="B1286" t="s">
-        <v>4436</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="1" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="B1287" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="1" t="s">
-        <v>4455</v>
+        <v>4437</v>
       </c>
       <c r="B1288" t="s">
-        <v>4456</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="1" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="B1289" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="1" t="s">
-        <v>3866</v>
+        <v>4455</v>
       </c>
       <c r="B1290" t="s">
-        <v>3867</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="B1291" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="B1292" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3872</v>
+        <v>3868</v>
       </c>
       <c r="B1293" t="s">
-        <v>3873</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3874</v>
+        <v>3870</v>
       </c>
       <c r="B1294" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3876</v>
+        <v>3872</v>
       </c>
       <c r="B1295" t="s">
-        <v>3877</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="B1296" t="s">
-        <v>3879</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3880</v>
+        <v>3876</v>
       </c>
       <c r="B1297" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3882</v>
+        <v>3878</v>
       </c>
       <c r="B1298" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3884</v>
+        <v>3880</v>
       </c>
       <c r="B1299" t="s">
-        <v>3885</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3886</v>
+        <v>3882</v>
       </c>
       <c r="B1300" t="s">
-        <v>3887</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3888</v>
+        <v>3884</v>
       </c>
       <c r="B1301" t="s">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3890</v>
+        <v>3886</v>
       </c>
       <c r="B1302" t="s">
-        <v>3891</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3892</v>
+        <v>3888</v>
       </c>
       <c r="B1303" t="s">
-        <v>3893</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3894</v>
+        <v>3890</v>
       </c>
       <c r="B1304" t="s">
-        <v>3895</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3896</v>
+        <v>3892</v>
       </c>
       <c r="B1305" t="s">
-        <v>3897</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3898</v>
+        <v>3894</v>
       </c>
       <c r="B1306" t="s">
-        <v>3899</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3900</v>
+        <v>3896</v>
       </c>
       <c r="B1307" t="s">
-        <v>3901</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3902</v>
+        <v>3898</v>
       </c>
       <c r="B1308" t="s">
-        <v>3903</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3904</v>
+        <v>3900</v>
       </c>
       <c r="B1309" t="s">
-        <v>3905</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3906</v>
+        <v>3902</v>
       </c>
       <c r="B1310" t="s">
-        <v>3907</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3908</v>
+        <v>3904</v>
       </c>
       <c r="B1311" t="s">
-        <v>3909</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3910</v>
+        <v>3906</v>
       </c>
       <c r="B1312" t="s">
-        <v>3911</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3912</v>
+        <v>3908</v>
       </c>
       <c r="B1313" t="s">
         <v>3909</v>
@@ -24690,2097 +24707,2121 @@
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="B1314" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
       <c r="B1315" t="s">
-        <v>3916</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3917</v>
+        <v>3913</v>
       </c>
       <c r="B1316" t="s">
-        <v>3918</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3919</v>
+        <v>3915</v>
       </c>
       <c r="B1317" t="s">
-        <v>3920</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3921</v>
+        <v>3917</v>
       </c>
       <c r="B1318" t="s">
-        <v>3922</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3923</v>
+        <v>3919</v>
       </c>
       <c r="B1319" t="s">
-        <v>3924</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3925</v>
+        <v>3921</v>
       </c>
       <c r="B1320" t="s">
-        <v>3926</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3927</v>
+        <v>3923</v>
       </c>
       <c r="B1321" t="s">
-        <v>3928</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3929</v>
+        <v>3925</v>
       </c>
       <c r="B1322" t="s">
-        <v>3930</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3931</v>
+        <v>3927</v>
       </c>
       <c r="B1323" t="s">
-        <v>3932</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3933</v>
+        <v>3929</v>
       </c>
       <c r="B1324" t="s">
-        <v>3934</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3935</v>
+        <v>3931</v>
       </c>
       <c r="B1325" t="s">
-        <v>3936</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
       <c r="B1326" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="B1327" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
       <c r="B1328" t="s">
-        <v>3942</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
       <c r="B1329" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="B1330" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="B1331" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
       <c r="B1332" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="B1333" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="B1334" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="B1335" t="s">
-        <v>3942</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="B1336" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="B1337" t="s">
-        <v>3959</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="B1338" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
       <c r="B1339" t="s">
-        <v>3963</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="B1340" t="s">
-        <v>3848</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3965</v>
+        <v>3962</v>
       </c>
       <c r="B1341" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>4463</v>
+        <v>3964</v>
       </c>
       <c r="B1342" t="s">
-        <v>4464</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="B1343" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>3969</v>
+        <v>4463</v>
       </c>
       <c r="B1344" t="s">
-        <v>3970</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="B1345" t="s">
-        <v>3972</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>3973</v>
+        <v>3969</v>
       </c>
       <c r="B1346" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="B1347" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>3977</v>
+        <v>3973</v>
       </c>
       <c r="B1348" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
       <c r="B1349" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
       <c r="B1350" t="s">
-        <v>3982</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>3983</v>
+        <v>3979</v>
       </c>
       <c r="B1351" t="s">
-        <v>3984</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
       <c r="B1352" t="s">
-        <v>3986</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>3987</v>
+        <v>3983</v>
       </c>
       <c r="B1353" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>3989</v>
+        <v>3985</v>
       </c>
       <c r="B1354" t="s">
-        <v>3990</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>3991</v>
+        <v>3987</v>
       </c>
       <c r="B1355" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>3993</v>
+        <v>3989</v>
       </c>
       <c r="B1356" t="s">
-        <v>3994</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="B1357" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>3997</v>
+        <v>3993</v>
       </c>
       <c r="B1358" t="s">
-        <v>3998</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="B1359" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="B1360" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="B1361" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>4005</v>
+        <v>4001</v>
       </c>
       <c r="B1362" t="s">
-        <v>4006</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="B1363" t="s">
-        <v>4008</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4009</v>
+        <v>4005</v>
       </c>
       <c r="B1364" t="s">
-        <v>4010</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4011</v>
+        <v>4007</v>
       </c>
       <c r="B1365" t="s">
-        <v>4012</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="B1366" t="s">
-        <v>4014</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4015</v>
+        <v>4011</v>
       </c>
       <c r="B1367" t="s">
-        <v>4016</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4453</v>
+        <v>4013</v>
       </c>
       <c r="B1368" t="s">
-        <v>4454</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="B1369" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4019</v>
+        <v>4453</v>
       </c>
       <c r="B1370" t="s">
-        <v>4020</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4021</v>
+        <v>4017</v>
       </c>
       <c r="B1371" t="s">
-        <v>4022</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4023</v>
+        <v>4019</v>
       </c>
       <c r="B1372" t="s">
-        <v>4024</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4025</v>
+        <v>4021</v>
       </c>
       <c r="B1373" t="s">
-        <v>4026</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4027</v>
+        <v>4023</v>
       </c>
       <c r="B1374" t="s">
-        <v>4028</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4029</v>
+        <v>4025</v>
       </c>
       <c r="B1375" t="s">
-        <v>4030</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4031</v>
+        <v>4027</v>
       </c>
       <c r="B1376" t="s">
-        <v>4032</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4033</v>
+        <v>4029</v>
       </c>
       <c r="B1377" t="s">
-        <v>4034</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4035</v>
+        <v>4031</v>
       </c>
       <c r="B1378" t="s">
-        <v>4036</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4037</v>
+        <v>4033</v>
       </c>
       <c r="B1379" t="s">
-        <v>4038</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="B1380" t="s">
-        <v>4040</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4041</v>
+        <v>4037</v>
       </c>
       <c r="B1381" t="s">
-        <v>4042</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4043</v>
+        <v>4039</v>
       </c>
       <c r="B1382" t="s">
-        <v>4044</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4045</v>
+        <v>4041</v>
       </c>
       <c r="B1383" t="s">
-        <v>4046</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4047</v>
+        <v>4043</v>
       </c>
       <c r="B1384" t="s">
-        <v>4048</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4049</v>
+        <v>4045</v>
       </c>
       <c r="B1385" t="s">
-        <v>4050</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="B1386" t="s">
-        <v>4052</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4053</v>
+        <v>4049</v>
       </c>
       <c r="B1387" t="s">
-        <v>4054</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="B1388" t="s">
-        <v>4056</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4057</v>
+        <v>4053</v>
       </c>
       <c r="B1389" t="s">
-        <v>4058</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4059</v>
+        <v>4055</v>
       </c>
       <c r="B1390" t="s">
-        <v>4060</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4061</v>
+        <v>4057</v>
       </c>
       <c r="B1391" t="s">
-        <v>4062</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4063</v>
+        <v>4059</v>
       </c>
       <c r="B1392" t="s">
-        <v>4064</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4065</v>
+        <v>4061</v>
       </c>
       <c r="B1393" t="s">
-        <v>4066</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4067</v>
+        <v>4063</v>
       </c>
       <c r="B1394" t="s">
-        <v>4068</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4069</v>
+        <v>4065</v>
       </c>
       <c r="B1395" t="s">
-        <v>4070</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4071</v>
+        <v>4067</v>
       </c>
       <c r="B1396" t="s">
-        <v>4072</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4073</v>
+        <v>4069</v>
       </c>
       <c r="B1397" t="s">
-        <v>4074</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4075</v>
+        <v>4071</v>
       </c>
       <c r="B1398" t="s">
-        <v>4076</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4077</v>
+        <v>4073</v>
       </c>
       <c r="B1399" t="s">
-        <v>4078</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4079</v>
+        <v>4075</v>
       </c>
       <c r="B1400" t="s">
-        <v>4080</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4081</v>
+        <v>4077</v>
       </c>
       <c r="B1401" t="s">
-        <v>4082</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4083</v>
+        <v>4079</v>
       </c>
       <c r="B1402" t="s">
-        <v>4084</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4085</v>
+        <v>4081</v>
       </c>
       <c r="B1403" t="s">
-        <v>4086</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="B1404" t="s">
-        <v>4088</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4089</v>
+        <v>4085</v>
       </c>
       <c r="B1405" t="s">
-        <v>4090</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="B1406" t="s">
-        <v>4092</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4093</v>
+        <v>4089</v>
       </c>
       <c r="B1407" t="s">
-        <v>4094</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4095</v>
+        <v>4091</v>
       </c>
       <c r="B1408" t="s">
-        <v>4096</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4097</v>
+        <v>4093</v>
       </c>
       <c r="B1409" t="s">
-        <v>4098</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4099</v>
+        <v>4095</v>
       </c>
       <c r="B1410" t="s">
-        <v>4100</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4101</v>
+        <v>4097</v>
       </c>
       <c r="B1411" t="s">
-        <v>4102</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4103</v>
+        <v>4099</v>
       </c>
       <c r="B1412" t="s">
-        <v>4104</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="B1413" t="s">
-        <v>4106</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="B1414" t="s">
-        <v>4108</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4109</v>
+        <v>4105</v>
       </c>
       <c r="B1415" t="s">
-        <v>4110</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="B1416" t="s">
-        <v>4112</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4113</v>
+        <v>4109</v>
       </c>
       <c r="B1417" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4115</v>
+        <v>4111</v>
       </c>
       <c r="B1418" t="s">
-        <v>4116</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4117</v>
+        <v>4113</v>
       </c>
       <c r="B1419" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4119</v>
+        <v>4115</v>
       </c>
       <c r="B1420" t="s">
-        <v>4120</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4121</v>
+        <v>4117</v>
       </c>
       <c r="B1421" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4123</v>
+        <v>4119</v>
       </c>
       <c r="B1422" t="s">
-        <v>4124</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4125</v>
+        <v>4121</v>
       </c>
       <c r="B1423" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4127</v>
+        <v>4123</v>
       </c>
       <c r="B1424" t="s">
-        <v>4128</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4129</v>
+        <v>4125</v>
       </c>
       <c r="B1425" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="B1426" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4133</v>
+        <v>4129</v>
       </c>
       <c r="B1427" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4135</v>
+        <v>4131</v>
       </c>
       <c r="B1428" t="s">
-        <v>4136</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4137</v>
+        <v>4133</v>
       </c>
       <c r="B1429" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4139</v>
+        <v>4135</v>
       </c>
       <c r="B1430" t="s">
-        <v>4140</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4141</v>
+        <v>4137</v>
       </c>
       <c r="B1431" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4143</v>
+        <v>4139</v>
       </c>
       <c r="B1432" t="s">
-        <v>4144</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4423</v>
+        <v>4141</v>
       </c>
       <c r="B1433" t="s">
-        <v>4424</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="B1434" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4147</v>
+        <v>4423</v>
       </c>
       <c r="B1435" t="s">
-        <v>4148</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4149</v>
+        <v>4145</v>
       </c>
       <c r="B1436" t="s">
-        <v>4150</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4151</v>
+        <v>4147</v>
       </c>
       <c r="B1437" t="s">
-        <v>4152</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4153</v>
+        <v>4149</v>
       </c>
       <c r="B1438" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4155</v>
+        <v>4151</v>
       </c>
       <c r="B1439" t="s">
-        <v>4156</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4157</v>
+        <v>4153</v>
       </c>
       <c r="B1440" t="s">
-        <v>4158</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4159</v>
+        <v>4155</v>
       </c>
       <c r="B1441" t="s">
-        <v>4160</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4457</v>
+        <v>4157</v>
       </c>
       <c r="B1442" t="s">
-        <v>4458</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4459</v>
+        <v>4159</v>
       </c>
       <c r="B1443" t="s">
-        <v>4460</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4161</v>
+        <v>4457</v>
       </c>
       <c r="B1444" t="s">
-        <v>4162</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4163</v>
+        <v>4459</v>
       </c>
       <c r="B1445" t="s">
-        <v>4164</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4165</v>
+        <v>4161</v>
       </c>
       <c r="B1446" t="s">
-        <v>4166</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4167</v>
+        <v>4163</v>
       </c>
       <c r="B1447" t="s">
-        <v>4168</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4169</v>
+        <v>4165</v>
       </c>
       <c r="B1448" t="s">
-        <v>4170</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="B1449" t="s">
-        <v>4172</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4173</v>
+        <v>4169</v>
       </c>
       <c r="B1450" t="s">
-        <v>4174</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4175</v>
+        <v>4171</v>
       </c>
       <c r="B1451" t="s">
-        <v>4176</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4452</v>
+        <v>4173</v>
       </c>
       <c r="B1452" t="s">
-        <v>4451</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="B1453" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4179</v>
+        <v>4452</v>
       </c>
       <c r="B1454" t="s">
-        <v>4180</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4181</v>
+        <v>4177</v>
       </c>
       <c r="B1455" t="s">
-        <v>4182</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="B1456" t="s">
-        <v>4184</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4185</v>
+        <v>4181</v>
       </c>
       <c r="B1457" t="s">
-        <v>4186</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="B1458" t="s">
-        <v>4188</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4189</v>
+        <v>4185</v>
       </c>
       <c r="B1459" t="s">
-        <v>4190</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="B1460" t="s">
-        <v>4192</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4193</v>
+        <v>4189</v>
       </c>
       <c r="B1461" t="s">
-        <v>4194</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4195</v>
+        <v>4191</v>
       </c>
       <c r="B1462" t="s">
-        <v>4196</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4197</v>
+        <v>4193</v>
       </c>
       <c r="B1463" t="s">
-        <v>4198</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4199</v>
+        <v>4195</v>
       </c>
       <c r="B1464" t="s">
-        <v>4200</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4201</v>
+        <v>4197</v>
       </c>
       <c r="B1465" t="s">
-        <v>4202</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4203</v>
+        <v>4199</v>
       </c>
       <c r="B1466" t="s">
-        <v>4204</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4205</v>
+        <v>4201</v>
       </c>
       <c r="B1467" t="s">
-        <v>4206</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4207</v>
+        <v>4203</v>
       </c>
       <c r="B1468" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4209</v>
+        <v>4205</v>
       </c>
       <c r="B1469" t="s">
-        <v>4210</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4211</v>
+        <v>4207</v>
       </c>
       <c r="B1470" t="s">
-        <v>4212</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4213</v>
+        <v>4209</v>
       </c>
       <c r="B1471" t="s">
-        <v>4214</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4215</v>
+        <v>4211</v>
       </c>
       <c r="B1472" t="s">
-        <v>4216</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4217</v>
+        <v>4213</v>
       </c>
       <c r="B1473" t="s">
-        <v>4218</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4219</v>
+        <v>4215</v>
       </c>
       <c r="B1474" t="s">
-        <v>4220</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4221</v>
+        <v>4217</v>
       </c>
       <c r="B1475" t="s">
-        <v>4222</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4223</v>
+        <v>4219</v>
       </c>
       <c r="B1476" t="s">
-        <v>4224</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4225</v>
+        <v>4221</v>
       </c>
       <c r="B1477" t="s">
-        <v>4226</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4465</v>
+        <v>4223</v>
       </c>
       <c r="B1478" t="s">
-        <v>4466</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B1479" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4229</v>
+        <v>4465</v>
       </c>
       <c r="B1480" t="s">
-        <v>4230</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4231</v>
+        <v>4227</v>
       </c>
       <c r="B1481" t="s">
-        <v>4232</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4233</v>
+        <v>4229</v>
       </c>
       <c r="B1482" t="s">
-        <v>4234</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4235</v>
+        <v>4231</v>
       </c>
       <c r="B1483" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4237</v>
+        <v>4233</v>
       </c>
       <c r="B1484" t="s">
-        <v>4238</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4239</v>
+        <v>4235</v>
       </c>
       <c r="B1485" t="s">
-        <v>4240</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4241</v>
+        <v>4237</v>
       </c>
       <c r="B1486" t="s">
-        <v>4242</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4243</v>
+        <v>4239</v>
       </c>
       <c r="B1487" t="s">
-        <v>4244</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4245</v>
+        <v>4241</v>
       </c>
       <c r="B1488" t="s">
-        <v>4246</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4247</v>
+        <v>4243</v>
       </c>
       <c r="B1489" t="s">
-        <v>4248</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="B1490" t="s">
-        <v>4250</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4251</v>
+        <v>4247</v>
       </c>
       <c r="B1491" t="s">
-        <v>4252</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4253</v>
+        <v>4249</v>
       </c>
       <c r="B1492" t="s">
-        <v>4254</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4255</v>
+        <v>4251</v>
       </c>
       <c r="B1493" t="s">
-        <v>4256</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4257</v>
+        <v>4253</v>
       </c>
       <c r="B1494" t="s">
-        <v>4258</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4259</v>
+        <v>4255</v>
       </c>
       <c r="B1495" t="s">
-        <v>4260</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4261</v>
+        <v>4257</v>
       </c>
       <c r="B1496" t="s">
-        <v>4262</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4263</v>
+        <v>4259</v>
       </c>
       <c r="B1497" t="s">
-        <v>4264</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4265</v>
+        <v>4261</v>
       </c>
       <c r="B1498" t="s">
-        <v>4266</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4267</v>
+        <v>4263</v>
       </c>
       <c r="B1499" t="s">
-        <v>4268</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4269</v>
+        <v>4265</v>
       </c>
       <c r="B1500" t="s">
-        <v>4270</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4271</v>
+        <v>4267</v>
       </c>
       <c r="B1501" t="s">
-        <v>4272</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4273</v>
+        <v>4269</v>
       </c>
       <c r="B1502" t="s">
-        <v>4274</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4275</v>
+        <v>4271</v>
       </c>
       <c r="B1503" t="s">
-        <v>4276</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4277</v>
+        <v>4273</v>
       </c>
       <c r="B1504" t="s">
-        <v>4278</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4279</v>
+        <v>4275</v>
       </c>
       <c r="B1505" t="s">
-        <v>4280</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4281</v>
+        <v>4277</v>
       </c>
       <c r="B1506" t="s">
-        <v>4282</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="B1507" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4285</v>
+        <v>4281</v>
       </c>
       <c r="B1508" t="s">
-        <v>4286</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4287</v>
+        <v>4283</v>
       </c>
       <c r="B1509" t="s">
-        <v>4288</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4289</v>
+        <v>4285</v>
       </c>
       <c r="B1510" t="s">
-        <v>4290</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4291</v>
+        <v>4287</v>
       </c>
       <c r="B1511" t="s">
-        <v>4292</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4293</v>
+        <v>4289</v>
       </c>
       <c r="B1512" t="s">
-        <v>4294</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4295</v>
+        <v>4291</v>
       </c>
       <c r="B1513" t="s">
-        <v>4296</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4297</v>
+        <v>4293</v>
       </c>
       <c r="B1514" t="s">
-        <v>4298</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4299</v>
+        <v>4295</v>
       </c>
       <c r="B1515" t="s">
-        <v>4300</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4446</v>
+        <v>4297</v>
       </c>
       <c r="B1516" t="s">
-        <v>4447</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4431</v>
+        <v>4299</v>
       </c>
       <c r="B1517" t="s">
-        <v>4432</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4301</v>
+        <v>4446</v>
       </c>
       <c r="B1518" t="s">
-        <v>4302</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4303</v>
+        <v>4431</v>
       </c>
       <c r="B1519" t="s">
-        <v>4304</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4305</v>
+        <v>4301</v>
       </c>
       <c r="B1520" t="s">
-        <v>4306</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4307</v>
+        <v>4303</v>
       </c>
       <c r="B1521" t="s">
-        <v>4308</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4309</v>
+        <v>4305</v>
       </c>
       <c r="B1522" t="s">
-        <v>4310</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4311</v>
+        <v>4307</v>
       </c>
       <c r="B1523" t="s">
-        <v>4312</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4313</v>
+        <v>4309</v>
       </c>
       <c r="B1524" t="s">
-        <v>4314</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4315</v>
+        <v>4311</v>
       </c>
       <c r="B1525" t="s">
-        <v>4316</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4317</v>
+        <v>4313</v>
       </c>
       <c r="B1526" t="s">
-        <v>4318</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4319</v>
+        <v>4315</v>
       </c>
       <c r="B1527" t="s">
-        <v>4320</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4321</v>
+        <v>4317</v>
       </c>
       <c r="B1528" t="s">
-        <v>4322</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4323</v>
+        <v>4319</v>
       </c>
       <c r="B1529" t="s">
-        <v>4324</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4325</v>
+        <v>4321</v>
       </c>
       <c r="B1530" t="s">
-        <v>4326</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4327</v>
+        <v>4323</v>
       </c>
       <c r="B1531" t="s">
-        <v>4328</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4329</v>
+        <v>4325</v>
       </c>
       <c r="B1532" t="s">
-        <v>4330</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4331</v>
+        <v>4327</v>
       </c>
       <c r="B1533" t="s">
-        <v>4332</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4333</v>
+        <v>4329</v>
       </c>
       <c r="B1534" t="s">
-        <v>4334</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4335</v>
+        <v>4331</v>
       </c>
       <c r="B1535" t="s">
-        <v>4336</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4337</v>
+        <v>4333</v>
       </c>
       <c r="B1536" t="s">
-        <v>4338</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4339</v>
+        <v>4335</v>
       </c>
       <c r="B1537" t="s">
-        <v>4340</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4341</v>
+        <v>4337</v>
       </c>
       <c r="B1538" t="s">
-        <v>4342</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4343</v>
+        <v>4339</v>
       </c>
       <c r="B1539" t="s">
-        <v>4344</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4345</v>
+        <v>4341</v>
       </c>
       <c r="B1540" t="s">
-        <v>4346</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4347</v>
+        <v>4343</v>
       </c>
       <c r="B1541" t="s">
-        <v>4348</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4349</v>
+        <v>4345</v>
       </c>
       <c r="B1542" t="s">
-        <v>4350</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4351</v>
+        <v>4347</v>
       </c>
       <c r="B1543" t="s">
-        <v>4352</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4353</v>
+        <v>4349</v>
       </c>
       <c r="B1544" t="s">
-        <v>4354</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4355</v>
+        <v>4351</v>
       </c>
       <c r="B1545" t="s">
-        <v>4356</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4357</v>
+        <v>4353</v>
       </c>
       <c r="B1546" t="s">
-        <v>4358</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4359</v>
+        <v>4355</v>
       </c>
       <c r="B1547" t="s">
-        <v>4360</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4361</v>
+        <v>4357</v>
       </c>
       <c r="B1548" t="s">
-        <v>4362</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4363</v>
+        <v>4359</v>
       </c>
       <c r="B1549" t="s">
-        <v>4364</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4365</v>
+        <v>4361</v>
       </c>
       <c r="B1550" t="s">
-        <v>4366</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4427</v>
+        <v>4363</v>
       </c>
       <c r="B1551" t="s">
-        <v>4428</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="B1552" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4369</v>
+        <v>4427</v>
       </c>
       <c r="B1553" t="s">
-        <v>4370</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4371</v>
+        <v>4367</v>
       </c>
       <c r="B1554" t="s">
-        <v>4372</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4373</v>
+        <v>4369</v>
       </c>
       <c r="B1555" t="s">
-        <v>4374</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4375</v>
+        <v>4371</v>
       </c>
       <c r="B1556" t="s">
-        <v>4376</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4377</v>
+        <v>4373</v>
       </c>
       <c r="B1557" t="s">
-        <v>4378</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4379</v>
+        <v>4375</v>
       </c>
       <c r="B1558" t="s">
-        <v>4380</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4438</v>
+        <v>4473</v>
       </c>
       <c r="B1559" t="s">
-        <v>4439</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>4381</v>
+        <v>4377</v>
       </c>
       <c r="B1560" t="s">
-        <v>4382</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>4383</v>
+        <v>4379</v>
       </c>
       <c r="B1561" t="s">
-        <v>4384</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>4467</v>
+        <v>4438</v>
       </c>
       <c r="B1562" t="s">
-        <v>4468</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>4385</v>
+        <v>4381</v>
       </c>
       <c r="B1563" t="s">
-        <v>4386</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
-        <v>4387</v>
+        <v>4383</v>
       </c>
       <c r="B1564" t="s">
-        <v>4388</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" s="1" t="s">
-        <v>4389</v>
+        <v>4467</v>
       </c>
       <c r="B1565" t="s">
-        <v>4390</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" s="1" t="s">
-        <v>4391</v>
+        <v>4385</v>
       </c>
       <c r="B1566" t="s">
-        <v>4392</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="1" t="s">
-        <v>4471</v>
+        <v>4387</v>
       </c>
       <c r="B1567" t="s">
-        <v>4472</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" s="1" t="s">
-        <v>4393</v>
+        <v>4389</v>
       </c>
       <c r="B1568" t="s">
-        <v>4394</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" s="1" t="s">
-        <v>4395</v>
+        <v>4391</v>
       </c>
       <c r="B1569" t="s">
-        <v>4396</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" s="1" t="s">
-        <v>4397</v>
+        <v>4471</v>
       </c>
       <c r="B1570" t="s">
-        <v>4398</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
       <c r="A1571" s="1" t="s">
-        <v>4399</v>
+        <v>4393</v>
       </c>
       <c r="B1571" t="s">
-        <v>4400</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" s="1" t="s">
-        <v>4401</v>
+        <v>4395</v>
       </c>
       <c r="B1572" t="s">
-        <v>4402</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" s="1" t="s">
-        <v>4403</v>
+        <v>4397</v>
       </c>
       <c r="B1573" t="s">
-        <v>4404</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
       <c r="A1574" s="1" t="s">
-        <v>4405</v>
+        <v>4399</v>
       </c>
       <c r="B1574" t="s">
-        <v>4406</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2">
+      <c r="A1576" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2">
+      <c r="A1577" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2">
+      <c r="A1578" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1575" t="s">
+      <c r="B1578" t="s">
         <v>4408</v>
       </c>
     </row>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF05EAC8-355D-4D8A-A016-B80F23E4957D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A782EB-7B25-4875-9C26-AF93DF207987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="4479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4520" uniqueCount="4483">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13482,13 +13482,25 @@
   </si>
   <si>
     <t>GAT AIRCRAFT AND ENGIME LEASING LIMITED</t>
+  </si>
+  <si>
+    <t>Q0026</t>
+  </si>
+  <si>
+    <t>QATAR AIRWAYS TECHNICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0166  </t>
+  </si>
+  <si>
+    <t>SPIDERNET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13602,6 +13614,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -14189,10 +14207,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1578"/>
+  <dimension ref="A1:B1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A810" workbookViewId="0">
-      <selection activeCell="B826" sqref="B826"/>
+    <sheetView tabSelected="1" topLeftCell="A1384" workbookViewId="0">
+      <selection activeCell="B1394" sqref="B1394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24523,2310 +24541,2327 @@
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>3864</v>
+        <v>4479</v>
       </c>
       <c r="B1291" t="s">
-        <v>3865</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="B1292" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="B1293" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="B1294" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="B1295" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="B1296" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="B1297" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="B1298" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="B1299" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="B1300" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="B1301" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="B1302" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="B1303" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="B1304" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="B1305" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="B1306" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="B1307" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="B1308" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="B1309" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="B1310" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="B1311" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="B1312" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="B1313" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="B1314" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="B1315" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B1316" t="s">
-        <v>3914</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="B1317" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="B1318" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="B1319" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="B1320" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="B1321" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="B1322" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="B1323" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="B1324" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="B1325" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="B1326" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="B1327" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="B1328" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="B1329" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="B1330" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="B1331" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="B1332" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="B1333" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="B1334" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="B1335" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="B1336" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="B1337" t="s">
-        <v>3942</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B1338" t="s">
-        <v>3957</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="B1339" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="B1340" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="B1341" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="B1342" t="s">
-        <v>3848</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="B1343" t="s">
-        <v>3966</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>4463</v>
+        <v>3965</v>
       </c>
       <c r="B1344" t="s">
-        <v>4464</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>3967</v>
+        <v>4463</v>
       </c>
       <c r="B1345" t="s">
-        <v>3968</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="B1346" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="B1347" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="B1348" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="B1349" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="B1350" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="B1351" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="B1352" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="B1353" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="B1354" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="B1355" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="B1356" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="B1357" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="B1358" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="B1359" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="B1360" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="B1361" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="B1362" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B1363" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B1364" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="B1365" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="B1366" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B1367" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B1368" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="B1369" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4453</v>
+        <v>4015</v>
       </c>
       <c r="B1370" t="s">
-        <v>4454</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4017</v>
+        <v>4453</v>
       </c>
       <c r="B1371" t="s">
-        <v>4018</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="B1372" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="B1373" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B1374" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B1375" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="B1376" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="B1377" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="B1378" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="B1379" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="B1380" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="B1381" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="B1382" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="B1383" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="B1384" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="B1385" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="B1386" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="B1387" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="B1388" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="B1389" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="B1390" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="B1391" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4059</v>
+        <v>4481</v>
       </c>
       <c r="B1392" t="s">
-        <v>4060</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4061</v>
+        <v>4057</v>
       </c>
       <c r="B1393" t="s">
-        <v>4062</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4063</v>
+        <v>4059</v>
       </c>
       <c r="B1394" t="s">
-        <v>4064</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4065</v>
+        <v>4061</v>
       </c>
       <c r="B1395" t="s">
-        <v>4066</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4067</v>
+        <v>4063</v>
       </c>
       <c r="B1396" t="s">
-        <v>4068</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4069</v>
+        <v>4065</v>
       </c>
       <c r="B1397" t="s">
-        <v>4070</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4071</v>
+        <v>4067</v>
       </c>
       <c r="B1398" t="s">
-        <v>4072</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4073</v>
+        <v>4069</v>
       </c>
       <c r="B1399" t="s">
-        <v>4074</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4075</v>
+        <v>4071</v>
       </c>
       <c r="B1400" t="s">
-        <v>4076</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4077</v>
+        <v>4073</v>
       </c>
       <c r="B1401" t="s">
-        <v>4078</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4079</v>
+        <v>4075</v>
       </c>
       <c r="B1402" t="s">
-        <v>4080</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4081</v>
+        <v>4077</v>
       </c>
       <c r="B1403" t="s">
-        <v>4082</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4083</v>
+        <v>4079</v>
       </c>
       <c r="B1404" t="s">
-        <v>4084</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4085</v>
+        <v>4081</v>
       </c>
       <c r="B1405" t="s">
-        <v>4086</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="B1406" t="s">
-        <v>4088</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4089</v>
+        <v>4085</v>
       </c>
       <c r="B1407" t="s">
-        <v>4090</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="B1408" t="s">
-        <v>4092</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4093</v>
+        <v>4089</v>
       </c>
       <c r="B1409" t="s">
-        <v>4094</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4095</v>
+        <v>4091</v>
       </c>
       <c r="B1410" t="s">
-        <v>4096</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4097</v>
+        <v>4093</v>
       </c>
       <c r="B1411" t="s">
-        <v>4098</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4099</v>
+        <v>4095</v>
       </c>
       <c r="B1412" t="s">
-        <v>4100</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4101</v>
+        <v>4097</v>
       </c>
       <c r="B1413" t="s">
-        <v>4102</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4103</v>
+        <v>4099</v>
       </c>
       <c r="B1414" t="s">
-        <v>4104</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="B1415" t="s">
-        <v>4106</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="B1416" t="s">
-        <v>4108</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4109</v>
+        <v>4105</v>
       </c>
       <c r="B1417" t="s">
-        <v>4110</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="B1418" t="s">
-        <v>4112</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4113</v>
+        <v>4109</v>
       </c>
       <c r="B1419" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4115</v>
+        <v>4111</v>
       </c>
       <c r="B1420" t="s">
-        <v>4116</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4117</v>
+        <v>4113</v>
       </c>
       <c r="B1421" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4119</v>
+        <v>4115</v>
       </c>
       <c r="B1422" t="s">
-        <v>4120</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4121</v>
+        <v>4117</v>
       </c>
       <c r="B1423" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4123</v>
+        <v>4119</v>
       </c>
       <c r="B1424" t="s">
-        <v>4124</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4125</v>
+        <v>4121</v>
       </c>
       <c r="B1425" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4127</v>
+        <v>4123</v>
       </c>
       <c r="B1426" t="s">
-        <v>4128</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4129</v>
+        <v>4125</v>
       </c>
       <c r="B1427" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="B1428" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4133</v>
+        <v>4129</v>
       </c>
       <c r="B1429" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4135</v>
+        <v>4131</v>
       </c>
       <c r="B1430" t="s">
-        <v>4136</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4137</v>
+        <v>4133</v>
       </c>
       <c r="B1431" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4139</v>
+        <v>4135</v>
       </c>
       <c r="B1432" t="s">
-        <v>4140</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4141</v>
+        <v>4137</v>
       </c>
       <c r="B1433" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4143</v>
+        <v>4139</v>
       </c>
       <c r="B1434" t="s">
-        <v>4144</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4423</v>
+        <v>4141</v>
       </c>
       <c r="B1435" t="s">
-        <v>4424</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="B1436" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4147</v>
+        <v>4423</v>
       </c>
       <c r="B1437" t="s">
-        <v>4148</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4149</v>
+        <v>4145</v>
       </c>
       <c r="B1438" t="s">
-        <v>4150</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4151</v>
+        <v>4147</v>
       </c>
       <c r="B1439" t="s">
-        <v>4152</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4153</v>
+        <v>4149</v>
       </c>
       <c r="B1440" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4155</v>
+        <v>4151</v>
       </c>
       <c r="B1441" t="s">
-        <v>4156</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4157</v>
+        <v>4153</v>
       </c>
       <c r="B1442" t="s">
-        <v>4158</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4159</v>
+        <v>4155</v>
       </c>
       <c r="B1443" t="s">
-        <v>4160</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4457</v>
+        <v>4157</v>
       </c>
       <c r="B1444" t="s">
-        <v>4458</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4459</v>
+        <v>4159</v>
       </c>
       <c r="B1445" t="s">
-        <v>4460</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4161</v>
+        <v>4457</v>
       </c>
       <c r="B1446" t="s">
-        <v>4162</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4163</v>
+        <v>4459</v>
       </c>
       <c r="B1447" t="s">
-        <v>4164</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4165</v>
+        <v>4161</v>
       </c>
       <c r="B1448" t="s">
-        <v>4166</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4167</v>
+        <v>4163</v>
       </c>
       <c r="B1449" t="s">
-        <v>4168</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4169</v>
+        <v>4165</v>
       </c>
       <c r="B1450" t="s">
-        <v>4170</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="B1451" t="s">
-        <v>4172</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4173</v>
+        <v>4169</v>
       </c>
       <c r="B1452" t="s">
-        <v>4174</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4175</v>
+        <v>4171</v>
       </c>
       <c r="B1453" t="s">
-        <v>4176</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4452</v>
+        <v>4173</v>
       </c>
       <c r="B1454" t="s">
-        <v>4451</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="B1455" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4179</v>
+        <v>4452</v>
       </c>
       <c r="B1456" t="s">
-        <v>4180</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4181</v>
+        <v>4177</v>
       </c>
       <c r="B1457" t="s">
-        <v>4182</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="B1458" t="s">
-        <v>4184</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4185</v>
+        <v>4181</v>
       </c>
       <c r="B1459" t="s">
-        <v>4186</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="B1460" t="s">
-        <v>4188</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4189</v>
+        <v>4185</v>
       </c>
       <c r="B1461" t="s">
-        <v>4190</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="B1462" t="s">
-        <v>4192</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4193</v>
+        <v>4189</v>
       </c>
       <c r="B1463" t="s">
-        <v>4194</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4195</v>
+        <v>4191</v>
       </c>
       <c r="B1464" t="s">
-        <v>4196</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4197</v>
+        <v>4193</v>
       </c>
       <c r="B1465" t="s">
-        <v>4198</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4199</v>
+        <v>4195</v>
       </c>
       <c r="B1466" t="s">
-        <v>4200</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4201</v>
+        <v>4197</v>
       </c>
       <c r="B1467" t="s">
-        <v>4202</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4203</v>
+        <v>4199</v>
       </c>
       <c r="B1468" t="s">
-        <v>4204</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4205</v>
+        <v>4201</v>
       </c>
       <c r="B1469" t="s">
-        <v>4206</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4207</v>
+        <v>4203</v>
       </c>
       <c r="B1470" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4209</v>
+        <v>4205</v>
       </c>
       <c r="B1471" t="s">
-        <v>4210</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4211</v>
+        <v>4207</v>
       </c>
       <c r="B1472" t="s">
-        <v>4212</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4213</v>
+        <v>4209</v>
       </c>
       <c r="B1473" t="s">
-        <v>4214</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4215</v>
+        <v>4211</v>
       </c>
       <c r="B1474" t="s">
-        <v>4216</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4217</v>
+        <v>4213</v>
       </c>
       <c r="B1475" t="s">
-        <v>4218</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4219</v>
+        <v>4215</v>
       </c>
       <c r="B1476" t="s">
-        <v>4220</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4221</v>
+        <v>4217</v>
       </c>
       <c r="B1477" t="s">
-        <v>4222</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4223</v>
+        <v>4219</v>
       </c>
       <c r="B1478" t="s">
-        <v>4224</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4225</v>
+        <v>4221</v>
       </c>
       <c r="B1479" t="s">
-        <v>4226</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4465</v>
+        <v>4223</v>
       </c>
       <c r="B1480" t="s">
-        <v>4466</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B1481" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4229</v>
+        <v>4465</v>
       </c>
       <c r="B1482" t="s">
-        <v>4230</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4231</v>
+        <v>4227</v>
       </c>
       <c r="B1483" t="s">
-        <v>4232</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4233</v>
+        <v>4229</v>
       </c>
       <c r="B1484" t="s">
-        <v>4234</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4235</v>
+        <v>4231</v>
       </c>
       <c r="B1485" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4237</v>
+        <v>4233</v>
       </c>
       <c r="B1486" t="s">
-        <v>4238</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4239</v>
+        <v>4235</v>
       </c>
       <c r="B1487" t="s">
-        <v>4240</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4241</v>
+        <v>4237</v>
       </c>
       <c r="B1488" t="s">
-        <v>4242</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4243</v>
+        <v>4239</v>
       </c>
       <c r="B1489" t="s">
-        <v>4244</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4245</v>
+        <v>4241</v>
       </c>
       <c r="B1490" t="s">
-        <v>4246</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4247</v>
+        <v>4243</v>
       </c>
       <c r="B1491" t="s">
-        <v>4248</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="B1492" t="s">
-        <v>4250</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4251</v>
+        <v>4247</v>
       </c>
       <c r="B1493" t="s">
-        <v>4252</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4253</v>
+        <v>4249</v>
       </c>
       <c r="B1494" t="s">
-        <v>4254</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4255</v>
+        <v>4251</v>
       </c>
       <c r="B1495" t="s">
-        <v>4256</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4257</v>
+        <v>4253</v>
       </c>
       <c r="B1496" t="s">
-        <v>4258</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4259</v>
+        <v>4255</v>
       </c>
       <c r="B1497" t="s">
-        <v>4260</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4261</v>
+        <v>4257</v>
       </c>
       <c r="B1498" t="s">
-        <v>4262</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4263</v>
+        <v>4259</v>
       </c>
       <c r="B1499" t="s">
-        <v>4264</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4265</v>
+        <v>4261</v>
       </c>
       <c r="B1500" t="s">
-        <v>4266</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4267</v>
+        <v>4263</v>
       </c>
       <c r="B1501" t="s">
-        <v>4268</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4269</v>
+        <v>4265</v>
       </c>
       <c r="B1502" t="s">
-        <v>4270</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4271</v>
+        <v>4267</v>
       </c>
       <c r="B1503" t="s">
-        <v>4272</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4273</v>
+        <v>4269</v>
       </c>
       <c r="B1504" t="s">
-        <v>4274</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4275</v>
+        <v>4271</v>
       </c>
       <c r="B1505" t="s">
-        <v>4276</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4277</v>
+        <v>4273</v>
       </c>
       <c r="B1506" t="s">
-        <v>4278</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4279</v>
+        <v>4275</v>
       </c>
       <c r="B1507" t="s">
-        <v>4280</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4281</v>
+        <v>4277</v>
       </c>
       <c r="B1508" t="s">
-        <v>4282</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="B1509" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4285</v>
+        <v>4281</v>
       </c>
       <c r="B1510" t="s">
-        <v>4286</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4287</v>
+        <v>4283</v>
       </c>
       <c r="B1511" t="s">
-        <v>4288</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4289</v>
+        <v>4285</v>
       </c>
       <c r="B1512" t="s">
-        <v>4290</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4291</v>
+        <v>4287</v>
       </c>
       <c r="B1513" t="s">
-        <v>4292</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4293</v>
+        <v>4289</v>
       </c>
       <c r="B1514" t="s">
-        <v>4294</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4295</v>
+        <v>4291</v>
       </c>
       <c r="B1515" t="s">
-        <v>4296</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4297</v>
+        <v>4293</v>
       </c>
       <c r="B1516" t="s">
-        <v>4298</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4299</v>
+        <v>4295</v>
       </c>
       <c r="B1517" t="s">
-        <v>4300</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4446</v>
+        <v>4297</v>
       </c>
       <c r="B1518" t="s">
-        <v>4447</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4431</v>
+        <v>4299</v>
       </c>
       <c r="B1519" t="s">
-        <v>4432</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4301</v>
+        <v>4446</v>
       </c>
       <c r="B1520" t="s">
-        <v>4302</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4303</v>
+        <v>4431</v>
       </c>
       <c r="B1521" t="s">
-        <v>4304</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4305</v>
+        <v>4301</v>
       </c>
       <c r="B1522" t="s">
-        <v>4306</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4307</v>
+        <v>4303</v>
       </c>
       <c r="B1523" t="s">
-        <v>4308</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4309</v>
+        <v>4305</v>
       </c>
       <c r="B1524" t="s">
-        <v>4310</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4311</v>
+        <v>4307</v>
       </c>
       <c r="B1525" t="s">
-        <v>4312</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4313</v>
+        <v>4309</v>
       </c>
       <c r="B1526" t="s">
-        <v>4314</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4315</v>
+        <v>4311</v>
       </c>
       <c r="B1527" t="s">
-        <v>4316</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4317</v>
+        <v>4313</v>
       </c>
       <c r="B1528" t="s">
-        <v>4318</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4319</v>
+        <v>4315</v>
       </c>
       <c r="B1529" t="s">
-        <v>4320</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4321</v>
+        <v>4317</v>
       </c>
       <c r="B1530" t="s">
-        <v>4322</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4323</v>
+        <v>4319</v>
       </c>
       <c r="B1531" t="s">
-        <v>4324</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4325</v>
+        <v>4321</v>
       </c>
       <c r="B1532" t="s">
-        <v>4326</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4327</v>
+        <v>4323</v>
       </c>
       <c r="B1533" t="s">
-        <v>4328</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4329</v>
+        <v>4325</v>
       </c>
       <c r="B1534" t="s">
-        <v>4330</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4331</v>
+        <v>4327</v>
       </c>
       <c r="B1535" t="s">
-        <v>4332</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4333</v>
+        <v>4329</v>
       </c>
       <c r="B1536" t="s">
-        <v>4334</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4335</v>
+        <v>4331</v>
       </c>
       <c r="B1537" t="s">
-        <v>4336</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4337</v>
+        <v>4333</v>
       </c>
       <c r="B1538" t="s">
-        <v>4338</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4339</v>
+        <v>4335</v>
       </c>
       <c r="B1539" t="s">
-        <v>4340</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4341</v>
+        <v>4337</v>
       </c>
       <c r="B1540" t="s">
-        <v>4342</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4343</v>
+        <v>4339</v>
       </c>
       <c r="B1541" t="s">
-        <v>4344</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4345</v>
+        <v>4341</v>
       </c>
       <c r="B1542" t="s">
-        <v>4346</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4347</v>
+        <v>4343</v>
       </c>
       <c r="B1543" t="s">
-        <v>4348</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4349</v>
+        <v>4345</v>
       </c>
       <c r="B1544" t="s">
-        <v>4350</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4351</v>
+        <v>4347</v>
       </c>
       <c r="B1545" t="s">
-        <v>4352</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4353</v>
+        <v>4349</v>
       </c>
       <c r="B1546" t="s">
-        <v>4354</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4355</v>
+        <v>4351</v>
       </c>
       <c r="B1547" t="s">
-        <v>4356</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4357</v>
+        <v>4353</v>
       </c>
       <c r="B1548" t="s">
-        <v>4358</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4359</v>
+        <v>4355</v>
       </c>
       <c r="B1549" t="s">
-        <v>4360</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4361</v>
+        <v>4357</v>
       </c>
       <c r="B1550" t="s">
-        <v>4362</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4363</v>
+        <v>4359</v>
       </c>
       <c r="B1551" t="s">
-        <v>4364</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4365</v>
+        <v>4361</v>
       </c>
       <c r="B1552" t="s">
-        <v>4366</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4427</v>
+        <v>4363</v>
       </c>
       <c r="B1553" t="s">
-        <v>4428</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="B1554" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4369</v>
+        <v>4427</v>
       </c>
       <c r="B1555" t="s">
-        <v>4370</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4371</v>
+        <v>4367</v>
       </c>
       <c r="B1556" t="s">
-        <v>4372</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4373</v>
+        <v>4369</v>
       </c>
       <c r="B1557" t="s">
-        <v>4374</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4375</v>
+        <v>4371</v>
       </c>
       <c r="B1558" t="s">
-        <v>4376</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4473</v>
+        <v>4373</v>
       </c>
       <c r="B1559" t="s">
-        <v>4474</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="B1560" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>4379</v>
+        <v>4473</v>
       </c>
       <c r="B1561" t="s">
-        <v>4380</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>4438</v>
+        <v>4377</v>
       </c>
       <c r="B1562" t="s">
-        <v>4439</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="B1563" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
-        <v>4383</v>
+        <v>4438</v>
       </c>
       <c r="B1564" t="s">
-        <v>4384</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" s="1" t="s">
-        <v>4467</v>
+        <v>4381</v>
       </c>
       <c r="B1565" t="s">
-        <v>4468</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" s="1" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="B1566" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="1" t="s">
-        <v>4387</v>
+        <v>4467</v>
       </c>
       <c r="B1567" t="s">
-        <v>4388</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" s="1" t="s">
-        <v>4389</v>
+        <v>4385</v>
       </c>
       <c r="B1568" t="s">
-        <v>4390</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" s="1" t="s">
-        <v>4391</v>
+        <v>4387</v>
       </c>
       <c r="B1569" t="s">
-        <v>4392</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" s="1" t="s">
-        <v>4471</v>
+        <v>4389</v>
       </c>
       <c r="B1570" t="s">
-        <v>4472</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
       <c r="A1571" s="1" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="B1571" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" s="1" t="s">
-        <v>4395</v>
+        <v>4471</v>
       </c>
       <c r="B1572" t="s">
-        <v>4396</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" s="1" t="s">
-        <v>4397</v>
+        <v>4393</v>
       </c>
       <c r="B1573" t="s">
-        <v>4398</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
       <c r="A1574" s="1" t="s">
-        <v>4399</v>
+        <v>4395</v>
       </c>
       <c r="B1574" t="s">
-        <v>4400</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575" s="1" t="s">
-        <v>4401</v>
+        <v>4397</v>
       </c>
       <c r="B1575" t="s">
-        <v>4402</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
       <c r="A1576" s="1" t="s">
-        <v>4403</v>
+        <v>4399</v>
       </c>
       <c r="B1576" t="s">
-        <v>4404</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
       <c r="A1577" s="1" t="s">
-        <v>4405</v>
+        <v>4401</v>
       </c>
       <c r="B1577" t="s">
-        <v>4406</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
       <c r="A1578" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2">
+      <c r="A1579" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2">
+      <c r="A1580" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1578" t="s">
+      <c r="B1580" t="s">
         <v>4408</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1391 A1393:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A782EB-7B25-4875-9C26-AF93DF207987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C0EE4D-EE9D-4321-BDAA-91C21A89A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4520" uniqueCount="4483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="4485">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13494,13 +13494,19 @@
   </si>
   <si>
     <t>SPIDERNET</t>
+  </si>
+  <si>
+    <t>Z0018</t>
+  </si>
+  <si>
+    <t>Zanzibar Airport Authority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13617,6 +13623,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -13759,7 +13772,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13876,6 +13889,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14207,10 +14226,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1580"/>
+  <dimension ref="A1:B1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1384" workbookViewId="0">
-      <selection activeCell="B1394" sqref="B1394"/>
+    <sheetView tabSelected="1" topLeftCell="A1558" workbookViewId="0">
+      <selection activeCell="B1576" sqref="B1576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26843,25 +26862,33 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="1579" spans="1:2">
-      <c r="A1579" s="1" t="s">
-        <v>4405</v>
-      </c>
-      <c r="B1579" t="s">
-        <v>4406</v>
+    <row r="1579" spans="1:2" ht="15.5">
+      <c r="A1579" s="73" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B1579" s="74" t="s">
+        <v>4484</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2">
+      <c r="A1581" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1580" t="s">
+      <c r="B1581" t="s">
         <v>4408</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1391 A1393:A1048576">
+  <conditionalFormatting sqref="A1:A1391 A1393:A1578 A1580:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/6. COA.xlsx
+++ b/public/6. COA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patience.uwase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C0EE4D-EE9D-4321-BDAA-91C21A89A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59729D3B-2BD2-4DD7-AE24-A6FD73FFEF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="4485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="4489">
   <si>
     <t>ACCESS BANK -USD</t>
   </si>
@@ -13500,6 +13500,18 @@
   </si>
   <si>
     <t>Zanzibar Airport Authority</t>
+  </si>
+  <si>
+    <t>K0096</t>
+  </si>
+  <si>
+    <t>KAN MEDIA LTD</t>
+  </si>
+  <si>
+    <t>P0101</t>
+  </si>
+  <si>
+    <t>PREV RWANDA LTD</t>
   </si>
 </sst>
 </file>
@@ -14226,10 +14238,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B1581"/>
+  <dimension ref="A1:B1583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1558" workbookViewId="0">
-      <selection activeCell="B1576" sqref="B1576"/>
+    <sheetView tabSelected="1" topLeftCell="A1261" workbookViewId="0">
+      <selection activeCell="B1273" sqref="B1273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22696,87 +22708,87 @@
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="1" t="s">
-        <v>3421</v>
+        <v>4485</v>
       </c>
       <c r="B1058" t="s">
-        <v>3422</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="1" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="B1059" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="1" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="B1060" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="1" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="B1061" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="1" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="B1062" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="1" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="B1063" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="1" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="B1064" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="1" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="B1065" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="1" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="B1066" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" s="1" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="B1067" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="1" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="B1068" t="s">
         <v>3440</v>
@@ -22784,1983 +22796,1983 @@
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="1" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="B1069" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" s="1" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="B1070" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" s="1" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="B1071" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" s="1" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="B1072" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="1" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="B1073" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" s="1" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="B1074" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" s="1" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="B1075" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="1" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="B1076" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" s="1" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="B1077" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="1" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="B1078" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="1" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="B1079" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="1" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="B1080" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="1" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="B1081" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="1" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B1082" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="1" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="B1083" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="1" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="B1084" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" s="1" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="B1085" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="1" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="B1086" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" s="1" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="B1087" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" s="1" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="B1088" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" s="1" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="B1089" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" s="1" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="B1090" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" s="1" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="B1091" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" s="1" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="B1092" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" s="1" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="B1093" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" s="1" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="B1094" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" s="1" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="B1095" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="1" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="B1096" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" s="1" t="s">
-        <v>4429</v>
+        <v>3496</v>
       </c>
       <c r="B1097" t="s">
-        <v>4430</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="1" t="s">
-        <v>3498</v>
+        <v>4429</v>
       </c>
       <c r="B1098" t="s">
-        <v>3499</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" s="1" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="B1099" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="1" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="B1100" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" s="1" t="s">
-        <v>4434</v>
+        <v>3502</v>
       </c>
       <c r="B1101" t="s">
-        <v>4433</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="1" t="s">
-        <v>3504</v>
+        <v>4434</v>
       </c>
       <c r="B1102" t="s">
-        <v>3505</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="1" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="B1103" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="1" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="B1104" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" s="1" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="B1105" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" s="1" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="B1106" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="1" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="B1107" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" s="1" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="B1108" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" s="1" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="B1109" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" s="1" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="B1110" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" s="1" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="B1111" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" s="1" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="B1112" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="1" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="B1113" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" s="1" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="B1114" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" s="1" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="B1115" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" s="1" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="B1116" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="1" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="B1117" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" s="1" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="B1118" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" s="1" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="B1119" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="B1120" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" s="1" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="B1121" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" s="1" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="B1122" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="1" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="B1123" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" s="1" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="B1124" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" s="1" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="B1125" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="1" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="B1126" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" s="1" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="B1127" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" s="1" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="B1128" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" s="1" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="B1129" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="1" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="B1130" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="1" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="B1131" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="1" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="B1132" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="1" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="B1133" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" s="1" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="B1134" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="1" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="B1135" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="1" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="B1136" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" s="1" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="B1137" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="1" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="B1138" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="1" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="B1139" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" s="1" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="B1140" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" s="1" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="B1141" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="1" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="B1142" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="1" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="B1143" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="1" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="B1144" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="1" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="B1145" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="1" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="B1146" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="1" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="B1147" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="1" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="B1148" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="1" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="B1149" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="1" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="B1150" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="1" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="B1151" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="1" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="B1152" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" s="1" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="B1153" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="1" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="B1154" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="1" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="B1155" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" s="1" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="B1156" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="1" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="B1157" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="1" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="B1158" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="1" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="B1159" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" s="1" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="B1160" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="1" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="B1161" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="1" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="B1162" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="1" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="B1163" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="1" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="B1164" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" s="1" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="B1165" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" s="1" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="B1166" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="1" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="B1167" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" s="1" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="B1168" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="1" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="B1169" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="1" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="B1170" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="1" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="B1171" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="1" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="B1172" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="1" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
       <c r="B1173" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" s="1" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="B1174" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" s="1" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="B1175" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="1" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="B1176" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" s="1" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
       <c r="B1177" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" s="1" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
       <c r="B1178" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" s="1" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="B1179" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" s="1" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
       <c r="B1180" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" s="1" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
       <c r="B1181" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" s="1" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
       <c r="B1182" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" s="1" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
       <c r="B1183" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" s="1" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="B1184" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="1" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="B1185" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="1" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="B1186" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="1" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="B1187" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="1" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="B1188" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="1" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="B1189" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190" s="1" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="B1190" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" s="1" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="B1191" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" s="1" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="B1192" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="1" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="B1193" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="1" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="B1194" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="1" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
       <c r="B1195" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" s="1" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="B1196" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="1" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="B1197" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
       <c r="A1198" s="1" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
       <c r="B1198" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
       <c r="A1199" s="1" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
       <c r="B1199" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" s="1" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="B1200" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="1" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
       <c r="B1201" t="s">
-        <v>3675</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="1" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B1202" t="s">
-        <v>3704</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" s="1" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="B1203" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="1" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="B1204" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="1" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="B1205" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" s="1" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
       <c r="B1206" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="1" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="B1207" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="1" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="B1208" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="1" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="B1209" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="1" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="B1210" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="1" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="B1211" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="1" t="s">
-        <v>4442</v>
+        <v>3721</v>
       </c>
       <c r="B1212" t="s">
-        <v>4443</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="1" t="s">
-        <v>3723</v>
+        <v>4442</v>
       </c>
       <c r="B1213" t="s">
-        <v>3724</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" s="1" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="B1214" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="1" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="B1215" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="1" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="B1216" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="1" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="B1217" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="1" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="B1218" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="1" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="B1219" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="1" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="B1220" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="1" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
       <c r="B1221" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="1" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="B1222" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="1" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
       <c r="B1223" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="1" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
       <c r="B1224" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="1" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
       <c r="B1225" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="1" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="B1226" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="1" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="B1227" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="1" t="s">
-        <v>4425</v>
+        <v>3750</v>
       </c>
       <c r="B1228" t="s">
-        <v>4426</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="1" t="s">
-        <v>3752</v>
+        <v>4425</v>
       </c>
       <c r="B1229" t="s">
-        <v>3753</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230" s="1" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="B1230" t="s">
-        <v>3749</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="1" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="B1231" t="s">
-        <v>3756</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="B1232" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="1" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="B1233" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="1" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="B1234" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="1" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="B1235" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="1" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
       <c r="B1236" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="1" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="B1237" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="1" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="B1238" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="1" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="B1239" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="1" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="B1240" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="1" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="B1241" t="s">
-        <v>3762</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="1" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="B1242" t="s">
-        <v>3777</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="1" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="B1243" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="1" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="B1244" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="1" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
       <c r="B1245" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="1" t="s">
-        <v>4444</v>
+        <v>3782</v>
       </c>
       <c r="B1246" t="s">
-        <v>4445</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="1" t="s">
-        <v>3784</v>
+        <v>4444</v>
       </c>
       <c r="B1247" t="s">
-        <v>3785</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="1" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="B1248" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="1" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="B1249" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="1" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
       <c r="B1250" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="1" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
       <c r="B1251" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="1" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
       <c r="B1252" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="1" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="B1253" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="1" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
       <c r="B1254" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="1" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
       <c r="B1255" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="1" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
       <c r="B1256" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="1" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="B1257" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="1" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="B1258" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="1" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
       <c r="B1259" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="1" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="B1260" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="1" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="B1261" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="1" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="B1262" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="1" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
       <c r="B1263" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="1" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="B1264" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" s="1" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="B1265" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
       <c r="A1266" s="1" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="B1266" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="1" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="B1267" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="1" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="B1268" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269" s="1" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="B1269" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
       <c r="A1270" s="1" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="B1270" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="1" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="B1271" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
       <c r="A1272" s="1" t="s">
-        <v>4448</v>
+        <v>3832</v>
       </c>
       <c r="B1272" t="s">
-        <v>4449</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="1" t="s">
-        <v>3834</v>
+        <v>4487</v>
       </c>
       <c r="B1273" t="s">
-        <v>3835</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="1" t="s">
-        <v>3836</v>
+        <v>4448</v>
       </c>
       <c r="B1274" t="s">
-        <v>3837</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
       <c r="A1275" s="1" t="s">
-        <v>3838</v>
+        <v>3834</v>
       </c>
       <c r="B1275" t="s">
-        <v>3839</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
       <c r="A1276" s="1" t="s">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="B1276" t="s">
-        <v>3841</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="1" t="s">
-        <v>3842</v>
+        <v>3838</v>
       </c>
       <c r="B1277" t="s">
-        <v>3843</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" s="1" t="s">
-        <v>3844</v>
+        <v>3840</v>
       </c>
       <c r="B1278" t="s">
-        <v>3845</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="1" t="s">
-        <v>3846</v>
+        <v>3842</v>
       </c>
       <c r="B1279" t="s">
-        <v>3559</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="1" t="s">
-        <v>3847</v>
+        <v>3844</v>
       </c>
       <c r="B1280" t="s">
-        <v>3848</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="1" t="s">
-        <v>3849</v>
+        <v>3846</v>
       </c>
       <c r="B1281" t="s">
-        <v>3850</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="1" t="s">
-        <v>3851</v>
+        <v>3847</v>
       </c>
       <c r="B1282" t="s">
-        <v>2996</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283" s="1" t="s">
-        <v>3852</v>
+        <v>3849</v>
       </c>
       <c r="B1283" t="s">
-        <v>3853</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
       <c r="A1284" s="1" t="s">
-        <v>3854</v>
+        <v>3851</v>
       </c>
       <c r="B1284" t="s">
-        <v>3855</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="1" t="s">
-        <v>3856</v>
+        <v>3852</v>
       </c>
       <c r="B1285" t="s">
-        <v>3857</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="1" t="s">
-        <v>3858</v>
+        <v>3854</v>
       </c>
       <c r="B1286" t="s">
-        <v>3859</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="1" t="s">
-        <v>3860</v>
+        <v>3856</v>
       </c>
       <c r="B1287" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="1" t="s">
-        <v>4437</v>
+        <v>3858</v>
       </c>
       <c r="B1288" t="s">
-        <v>4436</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="1" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="B1289" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="1" t="s">
-        <v>4455</v>
+        <v>4437</v>
       </c>
       <c r="B1290" t="s">
-        <v>4456</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="1" t="s">
-        <v>4479</v>
+        <v>3862</v>
       </c>
       <c r="B1291" t="s">
-        <v>4480</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="1" t="s">
-        <v>3864</v>
+        <v>4455</v>
       </c>
       <c r="B1292" t="s">
-        <v>3865</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="1" t="s">
-        <v>3866</v>
+        <v>4479</v>
       </c>
       <c r="B1293" t="s">
-        <v>3867</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="1" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="B1294" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="1" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="B1295" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="1" t="s">
-        <v>3872</v>
+        <v>3868</v>
       </c>
       <c r="B1296" t="s">
-        <v>3873</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="1" t="s">
-        <v>3874</v>
+        <v>3870</v>
       </c>
       <c r="B1297" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="1" t="s">
-        <v>3876</v>
+        <v>3872</v>
       </c>
       <c r="B1298" t="s">
-        <v>3877</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="1" t="s">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="B1299" t="s">
-        <v>3879</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="1" t="s">
-        <v>3880</v>
+        <v>3876</v>
       </c>
       <c r="B1300" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="1" t="s">
-        <v>3882</v>
+        <v>3878</v>
       </c>
       <c r="B1301" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="1" t="s">
-        <v>3884</v>
+        <v>3880</v>
       </c>
       <c r="B1302" t="s">
-        <v>3885</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="1" t="s">
-        <v>3886</v>
+        <v>3882</v>
       </c>
       <c r="B1303" t="s">
-        <v>3887</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="1" t="s">
-        <v>3888</v>
+        <v>3884</v>
       </c>
       <c r="B1304" t="s">
-        <v>3889</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="1" t="s">
-        <v>3890</v>
+        <v>3886</v>
       </c>
       <c r="B1305" t="s">
-        <v>3891</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="1" t="s">
-        <v>3892</v>
+        <v>3888</v>
       </c>
       <c r="B1306" t="s">
-        <v>3893</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="1" t="s">
-        <v>3894</v>
+        <v>3890</v>
       </c>
       <c r="B1307" t="s">
-        <v>3895</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="1" t="s">
-        <v>3896</v>
+        <v>3892</v>
       </c>
       <c r="B1308" t="s">
-        <v>3897</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="1" t="s">
-        <v>3898</v>
+        <v>3894</v>
       </c>
       <c r="B1309" t="s">
-        <v>3899</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="1" t="s">
-        <v>3900</v>
+        <v>3896</v>
       </c>
       <c r="B1310" t="s">
-        <v>3901</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="1" t="s">
-        <v>3902</v>
+        <v>3898</v>
       </c>
       <c r="B1311" t="s">
-        <v>3903</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="1" t="s">
-        <v>3904</v>
+        <v>3900</v>
       </c>
       <c r="B1312" t="s">
-        <v>3905</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>3906</v>
+        <v>3902</v>
       </c>
       <c r="B1313" t="s">
-        <v>3907</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>3908</v>
+        <v>3904</v>
       </c>
       <c r="B1314" t="s">
-        <v>3909</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>3910</v>
+        <v>3906</v>
       </c>
       <c r="B1315" t="s">
-        <v>3911</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>3912</v>
+        <v>3908</v>
       </c>
       <c r="B1316" t="s">
         <v>3909</v>
@@ -24768,2127 +24780,2143 @@
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="B1317" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
       <c r="B1318" t="s">
-        <v>3916</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>3917</v>
+        <v>3913</v>
       </c>
       <c r="B1319" t="s">
-        <v>3918</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>3919</v>
+        <v>3915</v>
       </c>
       <c r="B1320" t="s">
-        <v>3920</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>3921</v>
+        <v>3917</v>
       </c>
       <c r="B1321" t="s">
-        <v>3922</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>3923</v>
+        <v>3919</v>
       </c>
       <c r="B1322" t="s">
-        <v>3924</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>3925</v>
+        <v>3921</v>
       </c>
       <c r="B1323" t="s">
-        <v>3926</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>3927</v>
+        <v>3923</v>
       </c>
       <c r="B1324" t="s">
-        <v>3928</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>3929</v>
+        <v>3925</v>
       </c>
       <c r="B1325" t="s">
-        <v>3930</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>3931</v>
+        <v>3927</v>
       </c>
       <c r="B1326" t="s">
-        <v>3932</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>3933</v>
+        <v>3929</v>
       </c>
       <c r="B1327" t="s">
-        <v>3934</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>3935</v>
+        <v>3931</v>
       </c>
       <c r="B1328" t="s">
-        <v>3936</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
       <c r="B1329" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="B1330" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
       <c r="B1331" t="s">
-        <v>3942</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
       <c r="B1332" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="B1333" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="B1334" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
       <c r="B1335" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="B1336" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="B1337" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="B1338" t="s">
-        <v>3942</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="B1339" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="B1340" t="s">
-        <v>3959</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="B1341" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
       <c r="B1342" t="s">
-        <v>3963</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="B1343" t="s">
-        <v>3848</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>3965</v>
+        <v>3962</v>
       </c>
       <c r="B1344" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>4463</v>
+        <v>3964</v>
       </c>
       <c r="B1345" t="s">
-        <v>4464</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="B1346" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>3969</v>
+        <v>4463</v>
       </c>
       <c r="B1347" t="s">
-        <v>3970</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="B1348" t="s">
-        <v>3972</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>3973</v>
+        <v>3969</v>
       </c>
       <c r="B1349" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="B1350" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>3977</v>
+        <v>3973</v>
       </c>
       <c r="B1351" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
       <c r="B1352" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
       <c r="B1353" t="s">
-        <v>3982</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
-        <v>3983</v>
+        <v>3979</v>
       </c>
       <c r="B1354" t="s">
-        <v>3984</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
       <c r="A1355" s="1" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
       <c r="B1355" t="s">
-        <v>3986</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
-        <v>3987</v>
+        <v>3983</v>
       </c>
       <c r="B1356" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="1" t="s">
-        <v>3989</v>
+        <v>3985</v>
       </c>
       <c r="B1357" t="s">
-        <v>3990</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>3991</v>
+        <v>3987</v>
       </c>
       <c r="B1358" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
-        <v>3993</v>
+        <v>3989</v>
       </c>
       <c r="B1359" t="s">
-        <v>3994</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="1" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="B1360" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>3997</v>
+        <v>3993</v>
       </c>
       <c r="B1361" t="s">
-        <v>3998</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="B1362" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="B1363" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="B1364" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>4005</v>
+        <v>4001</v>
       </c>
       <c r="B1365" t="s">
-        <v>4006</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="B1366" t="s">
-        <v>4008</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
-        <v>4009</v>
+        <v>4005</v>
       </c>
       <c r="B1367" t="s">
-        <v>4010</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="1" t="s">
-        <v>4011</v>
+        <v>4007</v>
       </c>
       <c r="B1368" t="s">
-        <v>4012</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="B1369" t="s">
-        <v>4014</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>4015</v>
+        <v>4011</v>
       </c>
       <c r="B1370" t="s">
-        <v>4016</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>4453</v>
+        <v>4013</v>
       </c>
       <c r="B1371" t="s">
-        <v>4454</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="B1372" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>4019</v>
+        <v>4453</v>
       </c>
       <c r="B1373" t="s">
-        <v>4020</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>4021</v>
+        <v>4017</v>
       </c>
       <c r="B1374" t="s">
-        <v>4022</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>4023</v>
+        <v>4019</v>
       </c>
       <c r="B1375" t="s">
-        <v>4024</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>4025</v>
+        <v>4021</v>
       </c>
       <c r="B1376" t="s">
-        <v>4026</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>4027</v>
+        <v>4023</v>
       </c>
       <c r="B1377" t="s">
-        <v>4028</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>4029</v>
+        <v>4025</v>
       </c>
       <c r="B1378" t="s">
-        <v>4030</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
-        <v>4031</v>
+        <v>4027</v>
       </c>
       <c r="B1379" t="s">
-        <v>4032</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="1" t="s">
-        <v>4033</v>
+        <v>4029</v>
       </c>
       <c r="B1380" t="s">
-        <v>4034</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>4035</v>
+        <v>4031</v>
       </c>
       <c r="B1381" t="s">
-        <v>4036</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>4037</v>
+        <v>4033</v>
       </c>
       <c r="B1382" t="s">
-        <v>4038</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="B1383" t="s">
-        <v>4040</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>4041</v>
+        <v>4037</v>
       </c>
       <c r="B1384" t="s">
-        <v>4042</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>4043</v>
+        <v>4039</v>
       </c>
       <c r="B1385" t="s">
-        <v>4044</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
-        <v>4045</v>
+        <v>4041</v>
       </c>
       <c r="B1386" t="s">
-        <v>4046</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="1" t="s">
-        <v>4047</v>
+        <v>4043</v>
       </c>
       <c r="B1387" t="s">
-        <v>4048</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>4049</v>
+        <v>4045</v>
       </c>
       <c r="B1388" t="s">
-        <v>4050</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="B1389" t="s">
-        <v>4052</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
-        <v>4053</v>
+        <v>4049</v>
       </c>
       <c r="B1390" t="s">
-        <v>4054</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="1" t="s">
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="B1391" t="s">
-        <v>4056</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="1" t="s">
-        <v>4481</v>
+        <v>4053</v>
       </c>
       <c r="B1392" t="s">
-        <v>4482</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="B1393" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>4059</v>
+        <v>4481</v>
       </c>
       <c r="B1394" t="s">
-        <v>4060</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>4061</v>
+        <v>4057</v>
       </c>
       <c r="B1395" t="s">
-        <v>4062</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>4063</v>
+        <v>4059</v>
       </c>
       <c r="B1396" t="s">
-        <v>4064</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
-        <v>4065</v>
+        <v>4061</v>
       </c>
       <c r="B1397" t="s">
-        <v>4066</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="1" t="s">
-        <v>4067</v>
+        <v>4063</v>
       </c>
       <c r="B1398" t="s">
-        <v>4068</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>4069</v>
+        <v>4065</v>
       </c>
       <c r="B1399" t="s">
-        <v>4070</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>4071</v>
+        <v>4067</v>
       </c>
       <c r="B1400" t="s">
-        <v>4072</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
-        <v>4073</v>
+        <v>4069</v>
       </c>
       <c r="B1401" t="s">
-        <v>4074</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="1" t="s">
-        <v>4075</v>
+        <v>4071</v>
       </c>
       <c r="B1402" t="s">
-        <v>4076</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>4077</v>
+        <v>4073</v>
       </c>
       <c r="B1403" t="s">
-        <v>4078</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>4079</v>
+        <v>4075</v>
       </c>
       <c r="B1404" t="s">
-        <v>4080</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>4081</v>
+        <v>4077</v>
       </c>
       <c r="B1405" t="s">
-        <v>4082</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>4083</v>
+        <v>4079</v>
       </c>
       <c r="B1406" t="s">
-        <v>4084</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>4085</v>
+        <v>4081</v>
       </c>
       <c r="B1407" t="s">
-        <v>4086</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="B1408" t="s">
-        <v>4088</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>4089</v>
+        <v>4085</v>
       </c>
       <c r="B1409" t="s">
-        <v>4090</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="B1410" t="s">
-        <v>4092</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>4093</v>
+        <v>4089</v>
       </c>
       <c r="B1411" t="s">
-        <v>4094</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
-        <v>4095</v>
+        <v>4091</v>
       </c>
       <c r="B1412" t="s">
-        <v>4096</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="1" t="s">
-        <v>4097</v>
+        <v>4093</v>
       </c>
       <c r="B1413" t="s">
-        <v>4098</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>4099</v>
+        <v>4095</v>
       </c>
       <c r="B1414" t="s">
-        <v>4100</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
-        <v>4101</v>
+        <v>4097</v>
       </c>
       <c r="B1415" t="s">
-        <v>4102</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="1" t="s">
-        <v>4103</v>
+        <v>4099</v>
       </c>
       <c r="B1416" t="s">
-        <v>4104</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="1" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="B1417" t="s">
-        <v>4106</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="B1418" t="s">
-        <v>4108</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
-        <v>4109</v>
+        <v>4105</v>
       </c>
       <c r="B1419" t="s">
-        <v>4110</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="1" t="s">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="B1420" t="s">
-        <v>4112</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>4113</v>
+        <v>4109</v>
       </c>
       <c r="B1421" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>4115</v>
+        <v>4111</v>
       </c>
       <c r="B1422" t="s">
-        <v>4116</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>4117</v>
+        <v>4113</v>
       </c>
       <c r="B1423" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>4119</v>
+        <v>4115</v>
       </c>
       <c r="B1424" t="s">
-        <v>4120</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>4121</v>
+        <v>4117</v>
       </c>
       <c r="B1425" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>4123</v>
+        <v>4119</v>
       </c>
       <c r="B1426" t="s">
-        <v>4124</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>4125</v>
+        <v>4121</v>
       </c>
       <c r="B1427" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>4127</v>
+        <v>4123</v>
       </c>
       <c r="B1428" t="s">
-        <v>4128</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>4129</v>
+        <v>4125</v>
       </c>
       <c r="B1429" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="B1430" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>4133</v>
+        <v>4129</v>
       </c>
       <c r="B1431" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>4135</v>
+        <v>4131</v>
       </c>
       <c r="B1432" t="s">
-        <v>4136</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>4137</v>
+        <v>4133</v>
       </c>
       <c r="B1433" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
-        <v>4139</v>
+        <v>4135</v>
       </c>
       <c r="B1434" t="s">
-        <v>4140</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="1" t="s">
-        <v>4141</v>
+        <v>4137</v>
       </c>
       <c r="B1435" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>4143</v>
+        <v>4139</v>
       </c>
       <c r="B1436" t="s">
-        <v>4144</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>4423</v>
+        <v>4141</v>
       </c>
       <c r="B1437" t="s">
-        <v>4424</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="B1438" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>4147</v>
+        <v>4423</v>
       </c>
       <c r="B1439" t="s">
-        <v>4148</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
-        <v>4149</v>
+        <v>4145</v>
       </c>
       <c r="B1440" t="s">
-        <v>4150</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="1" t="s">
-        <v>4151</v>
+        <v>4147</v>
       </c>
       <c r="B1441" t="s">
-        <v>4152</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="1" t="s">
-        <v>4153</v>
+        <v>4149</v>
       </c>
       <c r="B1442" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>4155</v>
+        <v>4151</v>
       </c>
       <c r="B1443" t="s">
-        <v>4156</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
-        <v>4157</v>
+        <v>4153</v>
       </c>
       <c r="B1444" t="s">
-        <v>4158</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="1" t="s">
-        <v>4159</v>
+        <v>4155</v>
       </c>
       <c r="B1445" t="s">
-        <v>4160</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>4457</v>
+        <v>4157</v>
       </c>
       <c r="B1446" t="s">
-        <v>4458</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
-        <v>4459</v>
+        <v>4159</v>
       </c>
       <c r="B1447" t="s">
-        <v>4460</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="1" t="s">
-        <v>4161</v>
+        <v>4457</v>
       </c>
       <c r="B1448" t="s">
-        <v>4162</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="1" t="s">
-        <v>4163</v>
+        <v>4459</v>
       </c>
       <c r="B1449" t="s">
-        <v>4164</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>4165</v>
+        <v>4161</v>
       </c>
       <c r="B1450" t="s">
-        <v>4166</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>4167</v>
+        <v>4163</v>
       </c>
       <c r="B1451" t="s">
-        <v>4168</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>4169</v>
+        <v>4165</v>
       </c>
       <c r="B1452" t="s">
-        <v>4170</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="B1453" t="s">
-        <v>4172</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
-        <v>4173</v>
+        <v>4169</v>
       </c>
       <c r="B1454" t="s">
-        <v>4174</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="1" t="s">
-        <v>4175</v>
+        <v>4171</v>
       </c>
       <c r="B1455" t="s">
-        <v>4176</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="1" t="s">
-        <v>4452</v>
+        <v>4173</v>
       </c>
       <c r="B1456" t="s">
-        <v>4451</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="B1457" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="1" t="s">
-        <v>4179</v>
+        <v>4452</v>
       </c>
       <c r="B1458" t="s">
-        <v>4180</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>4181</v>
+        <v>4177</v>
       </c>
       <c r="B1459" t="s">
-        <v>4182</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="B1460" t="s">
-        <v>4184</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="1" t="s">
-        <v>4185</v>
+        <v>4181</v>
       </c>
       <c r="B1461" t="s">
-        <v>4186</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="1" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="B1462" t="s">
-        <v>4188</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>4189</v>
+        <v>4185</v>
       </c>
       <c r="B1463" t="s">
-        <v>4190</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="B1464" t="s">
-        <v>4192</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>4193</v>
+        <v>4189</v>
       </c>
       <c r="B1465" t="s">
-        <v>4194</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>4195</v>
+        <v>4191</v>
       </c>
       <c r="B1466" t="s">
-        <v>4196</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>4197</v>
+        <v>4193</v>
       </c>
       <c r="B1467" t="s">
-        <v>4198</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>4199</v>
+        <v>4195</v>
       </c>
       <c r="B1468" t="s">
-        <v>4200</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>4201</v>
+        <v>4197</v>
       </c>
       <c r="B1469" t="s">
-        <v>4202</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>4203</v>
+        <v>4199</v>
       </c>
       <c r="B1470" t="s">
-        <v>4204</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>4205</v>
+        <v>4201</v>
       </c>
       <c r="B1471" t="s">
-        <v>4206</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>4207</v>
+        <v>4203</v>
       </c>
       <c r="B1472" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>4209</v>
+        <v>4205</v>
       </c>
       <c r="B1473" t="s">
-        <v>4210</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>4211</v>
+        <v>4207</v>
       </c>
       <c r="B1474" t="s">
-        <v>4212</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>4213</v>
+        <v>4209</v>
       </c>
       <c r="B1475" t="s">
-        <v>4214</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>4215</v>
+        <v>4211</v>
       </c>
       <c r="B1476" t="s">
-        <v>4216</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>4217</v>
+        <v>4213</v>
       </c>
       <c r="B1477" t="s">
-        <v>4218</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>4219</v>
+        <v>4215</v>
       </c>
       <c r="B1478" t="s">
-        <v>4220</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>4221</v>
+        <v>4217</v>
       </c>
       <c r="B1479" t="s">
-        <v>4222</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>4223</v>
+        <v>4219</v>
       </c>
       <c r="B1480" t="s">
-        <v>4224</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>4225</v>
+        <v>4221</v>
       </c>
       <c r="B1481" t="s">
-        <v>4226</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>4465</v>
+        <v>4223</v>
       </c>
       <c r="B1482" t="s">
-        <v>4466</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B1483" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>4229</v>
+        <v>4465</v>
       </c>
       <c r="B1484" t="s">
-        <v>4230</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>4231</v>
+        <v>4227</v>
       </c>
       <c r="B1485" t="s">
-        <v>4232</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>4233</v>
+        <v>4229</v>
       </c>
       <c r="B1486" t="s">
-        <v>4234</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>4235</v>
+        <v>4231</v>
       </c>
       <c r="B1487" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>4237</v>
+        <v>4233</v>
       </c>
       <c r="B1488" t="s">
-        <v>4238</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>4239</v>
+        <v>4235</v>
       </c>
       <c r="B1489" t="s">
-        <v>4240</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
-        <v>4241</v>
+        <v>4237</v>
       </c>
       <c r="B1490" t="s">
-        <v>4242</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="1" t="s">
-        <v>4243</v>
+        <v>4239</v>
       </c>
       <c r="B1491" t="s">
-        <v>4244</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="1" t="s">
-        <v>4245</v>
+        <v>4241</v>
       </c>
       <c r="B1492" t="s">
-        <v>4246</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>4247</v>
+        <v>4243</v>
       </c>
       <c r="B1493" t="s">
-        <v>4248</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="B1494" t="s">
-        <v>4250</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>4251</v>
+        <v>4247</v>
       </c>
       <c r="B1495" t="s">
-        <v>4252</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>4253</v>
+        <v>4249</v>
       </c>
       <c r="B1496" t="s">
-        <v>4254</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>4255</v>
+        <v>4251</v>
       </c>
       <c r="B1497" t="s">
-        <v>4256</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>4257</v>
+        <v>4253</v>
       </c>
       <c r="B1498" t="s">
-        <v>4258</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
-        <v>4259</v>
+        <v>4255</v>
       </c>
       <c r="B1499" t="s">
-        <v>4260</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="1" t="s">
-        <v>4261</v>
+        <v>4257</v>
       </c>
       <c r="B1500" t="s">
-        <v>4262</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="1" t="s">
-        <v>4263</v>
+        <v>4259</v>
       </c>
       <c r="B1501" t="s">
-        <v>4264</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="1" t="s">
-        <v>4265</v>
+        <v>4261</v>
       </c>
       <c r="B1502" t="s">
-        <v>4266</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>4267</v>
+        <v>4263</v>
       </c>
       <c r="B1503" t="s">
-        <v>4268</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>4269</v>
+        <v>4265</v>
       </c>
       <c r="B1504" t="s">
-        <v>4270</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>4271</v>
+        <v>4267</v>
       </c>
       <c r="B1505" t="s">
-        <v>4272</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>4273</v>
+        <v>4269</v>
       </c>
       <c r="B1506" t="s">
-        <v>4274</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>4275</v>
+        <v>4271</v>
       </c>
       <c r="B1507" t="s">
-        <v>4276</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>4277</v>
+        <v>4273</v>
       </c>
       <c r="B1508" t="s">
-        <v>4278</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>4279</v>
+        <v>4275</v>
       </c>
       <c r="B1509" t="s">
-        <v>4280</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>4281</v>
+        <v>4277</v>
       </c>
       <c r="B1510" t="s">
-        <v>4282</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="B1511" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>4285</v>
+        <v>4281</v>
       </c>
       <c r="B1512" t="s">
-        <v>4286</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>4287</v>
+        <v>4283</v>
       </c>
       <c r="B1513" t="s">
-        <v>4288</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>4289</v>
+        <v>4285</v>
       </c>
       <c r="B1514" t="s">
-        <v>4290</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>4291</v>
+        <v>4287</v>
       </c>
       <c r="B1515" t="s">
-        <v>4292</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>4293</v>
+        <v>4289</v>
       </c>
       <c r="B1516" t="s">
-        <v>4294</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
-        <v>4295</v>
+        <v>4291</v>
       </c>
       <c r="B1517" t="s">
-        <v>4296</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518" s="1" t="s">
-        <v>4297</v>
+        <v>4293</v>
       </c>
       <c r="B1518" t="s">
-        <v>4298</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
-        <v>4299</v>
+        <v>4295</v>
       </c>
       <c r="B1519" t="s">
-        <v>4300</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="1" t="s">
-        <v>4446</v>
+        <v>4297</v>
       </c>
       <c r="B1520" t="s">
-        <v>4447</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>4431</v>
+        <v>4299</v>
       </c>
       <c r="B1521" t="s">
-        <v>4432</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>4301</v>
+        <v>4446</v>
       </c>
       <c r="B1522" t="s">
-        <v>4302</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>4303</v>
+        <v>4431</v>
       </c>
       <c r="B1523" t="s">
-        <v>4304</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>4305</v>
+        <v>4301</v>
       </c>
       <c r="B1524" t="s">
-        <v>4306</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>4307</v>
+        <v>4303</v>
       </c>
       <c r="B1525" t="s">
-        <v>4308</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>4309</v>
+        <v>4305</v>
       </c>
       <c r="B1526" t="s">
-        <v>4310</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>4311</v>
+        <v>4307</v>
       </c>
       <c r="B1527" t="s">
-        <v>4312</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>4313</v>
+        <v>4309</v>
       </c>
       <c r="B1528" t="s">
-        <v>4314</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>4315</v>
+        <v>4311</v>
       </c>
       <c r="B1529" t="s">
-        <v>4316</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>4317</v>
+        <v>4313</v>
       </c>
       <c r="B1530" t="s">
-        <v>4318</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>4319</v>
+        <v>4315</v>
       </c>
       <c r="B1531" t="s">
-        <v>4320</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>4321</v>
+        <v>4317</v>
       </c>
       <c r="B1532" t="s">
-        <v>4322</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>4323</v>
+        <v>4319</v>
       </c>
       <c r="B1533" t="s">
-        <v>4324</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>4325</v>
+        <v>4321</v>
       </c>
       <c r="B1534" t="s">
-        <v>4326</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>4327</v>
+        <v>4323</v>
       </c>
       <c r="B1535" t="s">
-        <v>4328</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>4329</v>
+        <v>4325</v>
       </c>
       <c r="B1536" t="s">
-        <v>4330</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>4331</v>
+        <v>4327</v>
       </c>
       <c r="B1537" t="s">
-        <v>4332</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>4333</v>
+        <v>4329</v>
       </c>
       <c r="B1538" t="s">
-        <v>4334</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>4335</v>
+        <v>4331</v>
       </c>
       <c r="B1539" t="s">
-        <v>4336</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>4337</v>
+        <v>4333</v>
       </c>
       <c r="B1540" t="s">
-        <v>4338</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>4339</v>
+        <v>4335</v>
       </c>
       <c r="B1541" t="s">
-        <v>4340</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>4341</v>
+        <v>4337</v>
       </c>
       <c r="B1542" t="s">
-        <v>4342</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>4343</v>
+        <v>4339</v>
       </c>
       <c r="B1543" t="s">
-        <v>4344</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>4345</v>
+        <v>4341</v>
       </c>
       <c r="B1544" t="s">
-        <v>4346</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>4347</v>
+        <v>4343</v>
       </c>
       <c r="B1545" t="s">
-        <v>4348</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>4349</v>
+        <v>4345</v>
       </c>
       <c r="B1546" t="s">
-        <v>4350</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>4351</v>
+        <v>4347</v>
       </c>
       <c r="B1547" t="s">
-        <v>4352</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>4353</v>
+        <v>4349</v>
       </c>
       <c r="B1548" t="s">
-        <v>4354</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>4355</v>
+        <v>4351</v>
       </c>
       <c r="B1549" t="s">
-        <v>4356</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>4357</v>
+        <v>4353</v>
       </c>
       <c r="B1550" t="s">
-        <v>4358</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>4359</v>
+        <v>4355</v>
       </c>
       <c r="B1551" t="s">
-        <v>4360</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>4361</v>
+        <v>4357</v>
       </c>
       <c r="B1552" t="s">
-        <v>4362</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>4363</v>
+        <v>4359</v>
       </c>
       <c r="B1553" t="s">
-        <v>4364</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>4365</v>
+        <v>4361</v>
       </c>
       <c r="B1554" t="s">
-        <v>4366</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>4427</v>
+        <v>4363</v>
       </c>
       <c r="B1555" t="s">
-        <v>4428</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="B1556" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>4369</v>
+        <v>4427</v>
       </c>
       <c r="B1557" t="s">
-        <v>4370</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>4371</v>
+        <v>4367</v>
       </c>
       <c r="B1558" t="s">
-        <v>4372</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>4373</v>
+        <v>4369</v>
       </c>
       <c r="B1559" t="s">
-        <v>4374</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>4375</v>
+        <v>4371</v>
       </c>
       <c r="B1560" t="s">
-        <v>4376</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>4473</v>
+        <v>4373</v>
       </c>
       <c r="B1561" t="s">
-        <v>4474</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="B1562" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>4379</v>
+        <v>4473</v>
       </c>
       <c r="B1563" t="s">
-        <v>4380</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
-        <v>4438</v>
+        <v>4377</v>
       </c>
       <c r="B1564" t="s">
-        <v>4439</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" s="1" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="B1565" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" s="1" t="s">
-        <v>4383</v>
+        <v>4438</v>
       </c>
       <c r="B1566" t="s">
-        <v>4384</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="1" t="s">
-        <v>4467</v>
+        <v>4381</v>
       </c>
       <c r="B1567" t="s">
-        <v>4468</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" s="1" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="B1568" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" s="1" t="s">
-        <v>4387</v>
+        <v>4467</v>
       </c>
       <c r="B1569" t="s">
-        <v>4388</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" s="1" t="s">
-        <v>4389</v>
+        <v>4385</v>
       </c>
       <c r="B1570" t="s">
-        <v>4390</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
       <c r="A1571" s="1" t="s">
-        <v>4391</v>
+        <v>4387</v>
       </c>
       <c r="B1571" t="s">
-        <v>4392</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" s="1" t="s">
-        <v>4471</v>
+        <v>4389</v>
       </c>
       <c r="B1572" t="s">
-        <v>4472</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" s="1" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="B1573" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
       <c r="A1574" s="1" t="s">
-        <v>4395</v>
+        <v>4471</v>
       </c>
       <c r="B1574" t="s">
-        <v>4396</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575" s="1" t="s">
-        <v>4397</v>
+        <v>4393</v>
       </c>
       <c r="B1575" t="s">
-        <v>4398</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
       <c r="A1576" s="1" t="s">
-        <v>4399</v>
+        <v>4395</v>
       </c>
       <c r="B1576" t="s">
-        <v>4400</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
       <c r="A1577" s="1" t="s">
-        <v>4401</v>
+        <v>4397</v>
       </c>
       <c r="B1577" t="s">
-        <v>4402</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
       <c r="A1578" s="1" t="s">
-        <v>4403</v>
+        <v>4399</v>
       </c>
       <c r="B1578" t="s">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:2" ht="15.5">
-      <c r="A1579" s="73" t="s">
-        <v>4483</v>
-      </c>
-      <c r="B1579" s="74" t="s">
-        <v>4484</v>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2">
+      <c r="A1579" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>4402</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" ht="15.5">
+      <c r="A1581" s="73" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B1581" s="74" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2">
+      <c r="A1582" s="1" t="s">
         <v>4405</v>
       </c>
-      <c r="B1580" t="s">
+      <c r="B1582" t="s">
         <v>4406</v>
       </c>
     </row>
-    <row r="1581" spans="1:2">
-      <c r="A1581" s="1" t="s">
+    <row r="1583" spans="1:2">
+      <c r="A1583" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="B1581" t="s">
+      <c r="B1583" t="s">
         <v>4408</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1391 A1393:A1578 A1580:A1048576">
+  <conditionalFormatting sqref="A1395:A1580 A1:A1393 A1582:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
